--- a/prototype/RGB.xlsx
+++ b/prototype/RGB.xlsx
@@ -14,609 +14,603 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="201">
-  <si>
-    <t>(1.3217410538654801,104.27181409541896)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="199">
+  <si>
+    <t>(1.369583578202569,104.5944350508482)</t>
   </si>
   <si>
     <t>Executive Condo</t>
   </si>
   <si>
-    <t>Park, Playground, Bus Stop, Market, Pool, Mall, MRT, Gym</t>
-  </si>
-  <si>
-    <t>Free Hold</t>
-  </si>
-  <si>
-    <t>(1.4578264381435682,104.49280105433851)</t>
+    <t>Bus Stop, Mall</t>
+  </si>
+  <si>
+    <t>(1.3637150860200455,104.35575457506546)</t>
+  </si>
+  <si>
+    <t>Gym, Playground, Park</t>
+  </si>
+  <si>
+    <t>(1.3070575180288158,104.11691427346324)</t>
+  </si>
+  <si>
+    <t>Shophouse</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.4573023143091282,104.19220902952651)</t>
+  </si>
+  <si>
+    <t>Bungalow</t>
+  </si>
+  <si>
+    <t>MRT, Park</t>
+  </si>
+  <si>
+    <t>(1.4303415074891357,104.58189416491969)</t>
+  </si>
+  <si>
+    <t>Mansion</t>
+  </si>
+  <si>
+    <t>Park, Mall, Bus Stop, Gym, Market, Pool</t>
+  </si>
+  <si>
+    <t>(1.282457931450059,104.61057510043396)</t>
+  </si>
+  <si>
+    <t>MRT, Park, Mall, Gym, Pool, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.355463930496564,104.05517802105832)</t>
+  </si>
+  <si>
+    <t>4 Room Flat</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.367682805074692,104.43975933160489)</t>
+  </si>
+  <si>
+    <t>Terrace</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>(1.464999653976558,104.11695299496824)</t>
+  </si>
+  <si>
+    <t>3 Room Flat</t>
+  </si>
+  <si>
+    <t>Playground, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.3923115660074639,104.50058248050644)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.3487680541606264,104.46134285503372)</t>
+  </si>
+  <si>
+    <t>Mall, Gym</t>
+  </si>
+  <si>
+    <t>(1.27437706769157,104.55097600251223)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop, Park, Gym, MRT, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.4376421159875397,104.22220259498225)</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Bus Stop, Mall, Market, Gym, Pool</t>
+  </si>
+  <si>
+    <t>(1.3556111115413931,104.57671585671407)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Park, Playground, Gym, Market</t>
+  </si>
+  <si>
+    <t>(1.431799715125468,104.03824498767679)</t>
+  </si>
+  <si>
+    <t>Private Condo</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.408794717834286,104.24390553229782)</t>
+  </si>
+  <si>
+    <t>Park, Gym, Mall, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.444875113279242,104.50507440844116)</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>(1.3833501408036413,104.04069885878803)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Gym, Market, Mall, Bus Stop, Playground</t>
+  </si>
+  <si>
+    <t>(1.3845214101668069,104.34843852200244)</t>
+  </si>
+  <si>
+    <t>Gym, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4251143370529986,104.61875608215179)</t>
+  </si>
+  <si>
+    <t>Market, Mall, Park, Playground, Pool, Bus Stop, Gym, MRT</t>
+  </si>
+  <si>
+    <t>(1.4544094872829778,104.59270243141282)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, Market, Playground, MRT</t>
+  </si>
+  <si>
+    <t>(1.4673018142685856,104.44600143315644)</t>
+  </si>
+  <si>
+    <t>Playground</t>
+  </si>
+  <si>
+    <t>(1.4244013088777439,104.5665264808428)</t>
+  </si>
+  <si>
+    <t>Market, Pool, Mall, Gym, Park, Playground, Bus Stop, MRT</t>
+  </si>
+  <si>
+    <t>(1.4386590330453393,104.45027729787333)</t>
   </si>
   <si>
     <t>5 Room Flat</t>
   </si>
   <si>
-    <t>MRT, Mall, Market, Gym, Bus Stop, Playground, Pool</t>
-  </si>
-  <si>
-    <t>(1.307223716343131,104.6400907824246)</t>
-  </si>
-  <si>
-    <t>4 Room Flat</t>
-  </si>
-  <si>
-    <t>Park, Market, Playground, MRT, Mall, Pool, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.3426259593938485,104.5795591002795)</t>
-  </si>
-  <si>
-    <t>Pool</t>
-  </si>
-  <si>
-    <t>(1.3868360460111502,104.27678575789297)</t>
-  </si>
-  <si>
-    <t>3 Room Flat</t>
-  </si>
-  <si>
-    <t>Playground, Park</t>
-  </si>
-  <si>
-    <t>(1.4113977625941172,104.09386048875098)</t>
-  </si>
-  <si>
-    <t>Terrace</t>
-  </si>
-  <si>
-    <t>Bus Stop, Market, Pool, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.2777102797875535,104.5988562019776)</t>
-  </si>
-  <si>
-    <t>Market, Gym, Pool, Bus Stop, Park, Mall, Playground</t>
-  </si>
-  <si>
-    <t>(1.3927823717792351,104.49012378664301)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Gym, MRT, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.3293531793391027,104.45399421717958)</t>
-  </si>
-  <si>
-    <t>Shophouse</t>
-  </si>
-  <si>
-    <t>Pool, Market</t>
-  </si>
-  <si>
-    <t>(1.433674260413089,104.0443302207795)</t>
-  </si>
-  <si>
-    <t>Gym, Market, Bus Stop, Playground, Pool, Mall, MRT</t>
-  </si>
-  <si>
-    <t>(1.4386378756087306,104.05615957323228)</t>
-  </si>
-  <si>
-    <t>Mansion</t>
-  </si>
-  <si>
-    <t>Bus Stop, Mall, Playground, MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.3762803510669832,104.61017236254577)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Market, Park, Pool</t>
-  </si>
-  <si>
-    <t>(1.3050055056158634,104.06738912986637)</t>
-  </si>
-  <si>
-    <t>Mall, Park, MRT, Gym, Pool</t>
-  </si>
-  <si>
-    <t>(1.458631446763417,104.15108059227195)</t>
-  </si>
-  <si>
-    <t>Mall, Market, Gym, Playground, Pool, Park, MRT, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4049962827387006,104.46478710024387)</t>
-  </si>
-  <si>
-    <t>Mall, Pool, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.3327200632907292,104.60520502499328)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.416590265475539,104.57579580813882)</t>
+    <t>Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.4375148098330521,104.13832302614944)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Playground, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.3244333709509568,104.45071461237379)</t>
+  </si>
+  <si>
+    <t>Gym, Bus Stop, Mall, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.2727571055465827,104.38115309859248)</t>
+  </si>
+  <si>
+    <t>Gym, Bus Stop, Market, MRT, Park</t>
+  </si>
+  <si>
+    <t>(1.38667697369015,104.17592131768811)</t>
+  </si>
+  <si>
+    <t>Gym, Mall, Park, Bus Stop, Pool, Playground, Market, MRT</t>
+  </si>
+  <si>
+    <t>(1.2711665847879066,104.61545907729048)</t>
+  </si>
+  <si>
+    <t>MRT, Park, Mall, Gym, Market</t>
+  </si>
+  <si>
+    <t>(1.4676969519371539,104.25848040921126)</t>
+  </si>
+  <si>
+    <t>Market, Mall, Playground</t>
+  </si>
+  <si>
+    <t>(1.3184634006484355,104.41988920436289)</t>
+  </si>
+  <si>
+    <t>(1.2819217038555417,104.48545528877086)</t>
+  </si>
+  <si>
+    <t>Mall, Playground, Park, Bus Stop, MRT, Market, Pool</t>
+  </si>
+  <si>
+    <t>(1.4239048695610368,104.03473494738076)</t>
+  </si>
+  <si>
+    <t>MRT, Mall, Gym, Bus Stop, Playground, Park, Pool</t>
+  </si>
+  <si>
+    <t>(1.4039600962426126,104.53065493111056)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Playground, Bus Stop, Gym, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.3542803267506454,104.5133996038143)</t>
+  </si>
+  <si>
+    <t>Gym, Mall, Park</t>
+  </si>
+  <si>
+    <t>(1.3294491878580832,104.18688680669122)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Market, Gym, Mall, Playground, Pool</t>
+  </si>
+  <si>
+    <t>(1.334762363286311,104.07218655540062)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Market</t>
+  </si>
+  <si>
+    <t>(1.4623087126004373,104.14387544666126)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Gym, Mall, Playground, Market, Park, Pool</t>
+  </si>
+  <si>
+    <t>(1.3718111388904766,104.22603613147585)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Market, Park</t>
+  </si>
+  <si>
+    <t>(1.4662087922037728,104.10445930514112)</t>
+  </si>
+  <si>
+    <t>Park, Pool</t>
+  </si>
+  <si>
+    <t>(1.2756073491539284,104.33724861211412)</t>
+  </si>
+  <si>
+    <t>Mall, Park, Playground</t>
+  </si>
+  <si>
+    <t>(1.3274397745775806,104.1079304337008)</t>
+  </si>
+  <si>
+    <t>MRT, Bus Stop, Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.4083087107783008,104.24052599805411)</t>
+  </si>
+  <si>
+    <t>(1.4550511360890361,104.52434477188456)</t>
+  </si>
+  <si>
+    <t>Gym, Mall</t>
+  </si>
+  <si>
+    <t>(1.306838183539997,104.06530096951641)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Playground, Market, MRT, Park, Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.3980466372390357,104.4721763754215)</t>
+  </si>
+  <si>
+    <t>Mall, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.3072621541078888,104.5622241781797)</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>(1.4670475545548363,104.35132408153518)</t>
+  </si>
+  <si>
+    <t>(1.2943836078360844,104.13891557115464)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Gym, Mall, Market, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2925880052487182,104.13300808224545)</t>
+  </si>
+  <si>
+    <t>Pool, Gym, Bus Stop, Mall, MRT, Playground, Market</t>
+  </si>
+  <si>
+    <t>(1.4102512838605086,104.19637749751092)</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Mall, Gym, Bus Stop, Pool, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.3693507369724274,104.38727069606502)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Mall, MRT, Pool, Playground, Market, Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.3602291553593355,104.47234383621871)</t>
+  </si>
+  <si>
+    <t>Mall</t>
+  </si>
+  <si>
+    <t>(1.3106643158505618,104.27175732440587)</t>
+  </si>
+  <si>
+    <t>Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4591384098304967,104.39563294383954)</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>(1.3838600325763948,104.04424390275487)</t>
+  </si>
+  <si>
+    <t>Playground, MRT, Pool, Park, Mall, Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.33193099538653,104.44554410563624)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Playground, Pool, MRT, Park, Mall</t>
+  </si>
+  <si>
+    <t>(1.463962847633754,104.44809989426265)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Playground</t>
+  </si>
+  <si>
+    <t>(1.3177817658753714,104.22670702417284)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.287672313568847,104.08612926847486)</t>
+  </si>
+  <si>
+    <t>(1.3794607878517136,104.14945933881816)</t>
+  </si>
+  <si>
+    <t>Mall, Market, Playground, Bus Stop, Gym, Park, MRT, Pool</t>
+  </si>
+  <si>
+    <t>(1.3822608890935442,104.24283835585877)</t>
+  </si>
+  <si>
+    <t>Pool, Market, Gym, MRT, Park, Playground, Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2710343697543585,104.20614018672622)</t>
+  </si>
+  <si>
+    <t>Pool, Park, Gym, Playground, Market, Mall, MRT, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3705976409533398,104.54810735038492)</t>
+  </si>
+  <si>
+    <t>(1.3058977283918338,104.0480902161657)</t>
+  </si>
+  <si>
+    <t>Pool, Mall, Gym, Bus Stop, Playground, Park, MRT, Market</t>
+  </si>
+  <si>
+    <t>(1.3103636867373034,104.63901500261679)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Bus Stop, Pool</t>
+  </si>
+  <si>
+    <t>(1.3624926401687423,104.52493838258329)</t>
+  </si>
+  <si>
+    <t>Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.321673774581881,104.52524089952902)</t>
+  </si>
+  <si>
+    <t>(1.455896806125561,104.40787051102288)</t>
+  </si>
+  <si>
+    <t>Playground, MRT</t>
+  </si>
+  <si>
+    <t>(1.3864020032093747,104.18586643983589)</t>
+  </si>
+  <si>
+    <t>(1.306024542580594,104.31025121428627)</t>
+  </si>
+  <si>
+    <t>(1.4219000814427603,104.24513083252715)</t>
+  </si>
+  <si>
+    <t>Gym, MRT, Market, Mall, Park, Playground, Pool</t>
+  </si>
+  <si>
+    <t>(1.3119779187712686,104.51964093429578)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool</t>
+  </si>
+  <si>
+    <t>(1.3004426060041867,104.5758660622643)</t>
+  </si>
+  <si>
+    <t>MRT, Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.3950970837626806,104.14527345178846)</t>
+  </si>
+  <si>
+    <t>Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.2751344467796444,104.12140052576252)</t>
+  </si>
+  <si>
+    <t>(1.4210748947758267,104.35858163063453)</t>
+  </si>
+  <si>
+    <t>Gym, Playground, Park, Market, Mall, Pool, MRT, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3742144667940805,104.31569227636659)</t>
+  </si>
+  <si>
+    <t>Market, MRT, Park, Pool, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.4040159402072874,104.16017999442806)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop, Playground, Gym, Park, MRT, Pool</t>
+  </si>
+  <si>
+    <t>(1.2950484185765279,104.41377698923688)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.392176159026944,104.27750572979922)</t>
+  </si>
+  <si>
+    <t>(1.316748731061079,104.36668500324555)</t>
+  </si>
+  <si>
+    <t>Gym, Mall, Playground, Park</t>
+  </si>
+  <si>
+    <t>(1.4263738360280422,104.36562077947895)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Gym, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3795443531120684,104.137029018411)</t>
+  </si>
+  <si>
+    <t>Gym, Market, Playground, Park, MRT, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.368596572809614,104.33750409290222)</t>
+  </si>
+  <si>
+    <t>Pool, Playground, Market, Mall, Bus Stop, MRT, Gym</t>
+  </si>
+  <si>
+    <t>(1.3893815627927686,104.11428981357973)</t>
+  </si>
+  <si>
+    <t>Park, Pool, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.4254607816112337,104.32062972284079)</t>
+  </si>
+  <si>
+    <t>Park, Mall, Playground</t>
+  </si>
+  <si>
+    <t>(1.289260572983045,104.31475839997451)</t>
+  </si>
+  <si>
+    <t>Mall, Pool, Gym, Bus Stop, Playground, Market</t>
+  </si>
+  <si>
+    <t>(1.368468017885013,104.25160323971569)</t>
+  </si>
+  <si>
+    <t>Market, MRT</t>
+  </si>
+  <si>
+    <t>(1.3650319326849236,104.13905804021496)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.4224575638361179,104.55139302953472)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, Mall</t>
+  </si>
+  <si>
+    <t>(1.2779009337812555,104.47447585436313)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Mall, Pool, Playground, Gym</t>
+  </si>
+  <si>
+    <t>(1.3812855801138968,104.44342716139349)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Playground, Market, Park</t>
+  </si>
+  <si>
+    <t>(1.2848497047105591,104.29256645108612)</t>
+  </si>
+  <si>
+    <t>Pool, MRT, Bus Stop, Gym, Market, Park, Mall</t>
+  </si>
+  <si>
+    <t>(1.2968478443325264,104.49528282168099)</t>
+  </si>
+  <si>
+    <t>Mall, MRT, Playground, Pool, Gym, Market</t>
+  </si>
+  <si>
+    <t>(1.2704814539986882,104.4584158640055)</t>
+  </si>
+  <si>
+    <t>Mall, Playground, Pool, MRT, Gym</t>
+  </si>
+  <si>
+    <t>(1.3070186301972138,104.15426331339528)</t>
+  </si>
+  <si>
+    <t>Mall, Playground, Gym, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.29645597801308,104.54685953668854)</t>
+  </si>
+  <si>
+    <t>Playground, Pool, Mall, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.3112264825179005,104.09631445882772)</t>
+  </si>
+  <si>
+    <t>Gym, MRT, Pool, Mall, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4681892814559123,104.27145724951436)</t>
   </si>
   <si>
     <t>MRT</t>
-  </si>
-  <si>
-    <t>(1.4416536577716952,104.15904596552262)</t>
-  </si>
-  <si>
-    <t>Private Condo</t>
-  </si>
-  <si>
-    <t>Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4624977368523715,104.16329544378635)</t>
-  </si>
-  <si>
-    <t>(1.3184063287977201,104.55242770745309)</t>
-  </si>
-  <si>
-    <t>(1.404591556541349,104.59894319393808)</t>
-  </si>
-  <si>
-    <t>Gym</t>
-  </si>
-  <si>
-    <t>(1.2910428073914058,104.49569172801965)</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Bus Stop, MRT, Gym, Pool, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.298773753308161,104.19532912128595)</t>
-  </si>
-  <si>
-    <t>(1.43750131553675,104.48712191119985)</t>
-  </si>
-  <si>
-    <t>Mall, Pool, Gym, MRT, Market, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.2899521794952746,104.57007976843109)</t>
-  </si>
-  <si>
-    <t>Playground, Gym, Bus Stop, Pool, Market, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.4372597509393024,104.29797899195846)</t>
-  </si>
-  <si>
-    <t>Bungalow</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Gym, MRT, Market, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.280239424717622,104.53102553814621)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, MRT, Park, Market, Gym</t>
-  </si>
-  <si>
-    <t>(1.442443918909462,104.27886979978943)</t>
-  </si>
-  <si>
-    <t>Gym, Bus Stop, Playground, Mall, Park, MRT, Pool, Market</t>
-  </si>
-  <si>
-    <t>(1.3523553565476836,104.5041755135612)</t>
-  </si>
-  <si>
-    <t>Gym, Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.397230504847218,104.49215768276379)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Playground, Market, Bus Stop, Mall</t>
-  </si>
-  <si>
-    <t>(1.4217175814636769,104.20962226477207)</t>
-  </si>
-  <si>
-    <t>Market, Pool, Mall, MRT, Playground, Bus Stop, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.3796170716405185,104.27278291183336)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Mall</t>
-  </si>
-  <si>
-    <t>(1.3016015855818353,104.19310100488919)</t>
-  </si>
-  <si>
-    <t>MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.381156275043274,104.56892678476251)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Park, Playground, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.4083229358057392,104.34971439069645)</t>
-  </si>
-  <si>
-    <t>Park, Market, Mall, Pool, Bus Stop, Gym, MRT, Playground</t>
-  </si>
-  <si>
-    <t>(1.365377358233594,104.40886081284718)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Market, Bus Stop, Playground, Park, Mall</t>
-  </si>
-  <si>
-    <t>(1.355040483777655,104.25867287972326)</t>
-  </si>
-  <si>
-    <t>Pool, Gym, Mall</t>
-  </si>
-  <si>
-    <t>(1.4576033654051088,104.46692850658607)</t>
-  </si>
-  <si>
-    <t>Pool, Bus Stop, Gym, Playground</t>
-  </si>
-  <si>
-    <t>(1.332809486912252,104.44012850363606)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Market, Park, Gym, Mall, MRT</t>
-  </si>
-  <si>
-    <t>(1.3685327707231143,104.47741881791875)</t>
-  </si>
-  <si>
-    <t>Pool, MRT, Gym, Bus Stop, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.3516323775147239,104.15914668481399)</t>
-  </si>
-  <si>
-    <t>Mall</t>
-  </si>
-  <si>
-    <t>(1.4132375978477263,104.07234605755315)</t>
-  </si>
-  <si>
-    <t>Playground, Bus Stop, Market, Mall, Gym</t>
-  </si>
-  <si>
-    <t>(1.4098089396876716,104.52258573516266)</t>
-  </si>
-  <si>
-    <t>Playground, Pool, Park, Gym, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.2915064384363186,104.47660745004767)</t>
-  </si>
-  <si>
-    <t>Park, Mall, Market, Gym, Pool, Bus Stop, MRT</t>
-  </si>
-  <si>
-    <t>(1.3201228631302029,104.27984567636943)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Market, Gym</t>
-  </si>
-  <si>
-    <t>(1.353163234678874,104.12436552607527)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Playground, Pool, Mall, Park, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.3547573391666874,104.47704667385109)</t>
-  </si>
-  <si>
-    <t>MRT, Mall, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.393145151359821,104.10139567850698)</t>
-  </si>
-  <si>
-    <t>Pool, Playground, Mall, MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.4515720708995037,104.07673716762729)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Park, Mall</t>
-  </si>
-  <si>
-    <t>(1.3100254145528558,104.16286700772125)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Mall, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3420838114794489,104.39839802309903)</t>
-  </si>
-  <si>
-    <t>Gym, MRT, Park, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.3869986035749229,104.31611390580704)</t>
-  </si>
-  <si>
-    <t>(1.391337764392163,104.64064539270215)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.3701157247438236,104.3458470645681)</t>
-  </si>
-  <si>
-    <t>Pool, Mall, Gym, MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.4133052896682734,104.48419667553917)</t>
-  </si>
-  <si>
-    <t>MRT, Park, Mall, Playground, Bus Stop, Gym, Market, Pool</t>
-  </si>
-  <si>
-    <t>(1.3884314642916382,104.43342566755695)</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Bus Stop, Pool</t>
-  </si>
-  <si>
-    <t>(1.372389510519124,104.47275935274372)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Gym, Playground, Mall, Pool, Park, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3789620547482155,104.53291705533378)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Market, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2774042985438314,104.13084407613232)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Playground, Mall, Gym, Market, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3959808416234083,104.43385618058207)</t>
-  </si>
-  <si>
-    <t>Park, Pool, Mall, Gym, MRT, Market, Playground</t>
-  </si>
-  <si>
-    <t>(1.3341570230866586,104.11502889838901)</t>
-  </si>
-  <si>
-    <t>Gym, Playground, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.3965852551074636,104.36975919930319)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, MRT</t>
-  </si>
-  <si>
-    <t>(1.4455541988990104,104.09901252880668)</t>
-  </si>
-  <si>
-    <t>(1.3567355217807868,104.2977213523106)</t>
-  </si>
-  <si>
-    <t>Market, Bus Stop, Gym, Mall, Park</t>
-  </si>
-  <si>
-    <t>(1.3878089409381265,104.08537786386142)</t>
-  </si>
-  <si>
-    <t>Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.4090441098911466,104.21381175440054)</t>
-  </si>
-  <si>
-    <t>(1.4623044449422677,104.22258200685427)</t>
-  </si>
-  <si>
-    <t>Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.3238747038522458,104.61065643412437)</t>
-  </si>
-  <si>
-    <t>Mall, Market, Playground, Bus Stop, Gym, Pool</t>
-  </si>
-  <si>
-    <t>(1.2769690448397522,104.62467744529322)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Playground, Mall, Gym</t>
-  </si>
-  <si>
-    <t>(1.4550871229950497,104.2375469932883)</t>
-  </si>
-  <si>
-    <t>Mall, Park</t>
-  </si>
-  <si>
-    <t>(1.2806957842774251,104.09705914201402)</t>
-  </si>
-  <si>
-    <t>Park, MRT</t>
-  </si>
-  <si>
-    <t>(1.311116401415026,104.39754852526993)</t>
-  </si>
-  <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>(1.2734308348617114,104.37906267222691)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Playground, Gym, Pool, Park, MRT</t>
-  </si>
-  <si>
-    <t>(1.3654887032151937,104.5965536374197)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Bus Stop, Mall, Playground, Pool, Market, MRT</t>
-  </si>
-  <si>
-    <t>(1.2967880942591679,104.31661010393515)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, Mall, Gym, Market, Playground</t>
-  </si>
-  <si>
-    <t>(1.333177709639175,104.44984880820179)</t>
-  </si>
-  <si>
-    <t>(1.3102967347660446,104.39490863317447)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Park, Bus Stop, Gym, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.331553229158701,104.09957165388633)</t>
-  </si>
-  <si>
-    <t>Pool, MRT, Market, Playground, Park, Gym, Mall</t>
-  </si>
-  <si>
-    <t>(1.3876418719075332,104.10859469087589)</t>
-  </si>
-  <si>
-    <t>Gym, Bus Stop, MRT</t>
-  </si>
-  <si>
-    <t>(1.3566442230537534,104.19558448876934)</t>
-  </si>
-  <si>
-    <t>Bus Stop, MRT, Playground, Gym</t>
-  </si>
-  <si>
-    <t>(1.4649461048450507,104.42446927295859)</t>
-  </si>
-  <si>
-    <t>Mall, MRT, Park, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3693354196982173,104.49205529067609)</t>
-  </si>
-  <si>
-    <t>(1.4092228032907854,104.34785623945605)</t>
-  </si>
-  <si>
-    <t>Park, Pool, Mall, Gym, Bus Stop, Market, Playground, MRT</t>
-  </si>
-  <si>
-    <t>(1.2909627886397017,104.21960199225914)</t>
-  </si>
-  <si>
-    <t>Market, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.279430520916184,104.14784017828158)</t>
-  </si>
-  <si>
-    <t>Playground, MRT, Bus Stop, Mall, Market, Gym, Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.3549375707132403,104.47111964121626)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Gym, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.4134479567726055,104.32169674467187)</t>
-  </si>
-  <si>
-    <t>Market, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.4680607872445586,104.35570883158778)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.3741661518019996,104.03642634749994)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Market</t>
-  </si>
-  <si>
-    <t>(1.4336532546755114,104.0724321362383)</t>
-  </si>
-  <si>
-    <t>Bus Stop, MRT, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.2934089570179261,104.14562937743105)</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Market, Pool, Playground, MRT, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4175371388069749,104.32366014114854)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Gym, Pool, Market, Park, MRT</t>
-  </si>
-  <si>
-    <t>(1.309460580957579,104.25956757479814)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Pool, MRT, Playground, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.320992450346101,104.21400241022249)</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>(1.3633761733712224,104.61971620939919)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Gym, Mall, Market, MRT, Playground</t>
-  </si>
-  <si>
-    <t>(1.4043071828782638,104.31603436679535)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Market</t>
-  </si>
-  <si>
-    <t>(1.467021650755483,104.33793086007361)</t>
-  </si>
-  <si>
-    <t>Pool, Mall, Park, Playground, Market, Bus Stop, Gym, MRT</t>
-  </si>
-  <si>
-    <t>(1.4464231397906167,104.05762334240802)</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Bus Stop, Playground</t>
-  </si>
-  <si>
-    <t>(1.3063190163056282,104.14964029054653)</t>
-  </si>
-  <si>
-    <t>(1.3190404252026886,104.44775916551743)</t>
-  </si>
-  <si>
-    <t>Park, Mall, Bus Stop</t>
   </si>
 </sst>
 </file>
@@ -959,19 +953,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>2920261</v>
+        <v>3257276</v>
       </c>
       <c r="C1">
-        <v>147.1016018537175</v>
+        <v>95.64751137865218</v>
       </c>
       <c r="D1">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1">
-        <v>19852</v>
+        <v>34055</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -985,25 +979,25 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>761328</v>
+        <v>1561677</v>
       </c>
       <c r="C2">
-        <v>25.63825559858562</v>
-      </c>
-      <c r="D2" t="s">
+        <v>169.8952349869452</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>9192</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
-      </c>
-      <c r="F2">
-        <v>29695</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1011,25 +1005,25 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1187992</v>
+        <v>1598140</v>
       </c>
       <c r="C3">
-        <v>80.74986405655247</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
+        <v>53.33889593485081</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>29962</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
-      </c>
-      <c r="F3">
-        <v>14712</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1037,25 +1031,25 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3457979</v>
+        <v>2759970</v>
       </c>
       <c r="C4">
-        <v>113.4842637261659</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
+        <v>95.46435612742555</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>28911</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4">
-        <v>30471</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1063,25 +1057,25 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3414391</v>
+        <v>4533310</v>
       </c>
       <c r="C5">
-        <v>226.1785241123476</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
+        <v>133.2111897975375</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>34031</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>15096</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1089,25 +1083,25 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>134354</v>
+        <v>2321389</v>
       </c>
       <c r="C6">
-        <v>32.14210526315789</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
+        <v>182.1840370428504</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>12742</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
-      </c>
-      <c r="F6">
-        <v>4180</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1115,25 +1109,25 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>813011</v>
+        <v>2113191</v>
       </c>
       <c r="C7">
-        <v>51.73142020870451</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
+        <v>485.1219008264463</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>4356</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>18</v>
-      </c>
-      <c r="F7">
-        <v>15716</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1141,22 +1135,22 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>581408</v>
+        <v>4153805</v>
       </c>
       <c r="C8">
-        <v>15.39623440934248</v>
+        <v>229.5173499834236</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>18098</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
-      </c>
-      <c r="F8">
-        <v>37763</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
@@ -1167,19 +1161,19 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2053702</v>
+        <v>833312</v>
       </c>
       <c r="C9">
-        <v>87.97558259081563</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
+        <v>37.40179533213644</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
       <c r="F9">
-        <v>23344</v>
+        <v>22280</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -1193,22 +1187,22 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1105579</v>
+        <v>1108464</v>
       </c>
       <c r="C10">
-        <v>38.14972394755004</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
+        <v>28.8167212603338</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10">
-        <v>28980</v>
+        <v>38466</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -1219,25 +1213,25 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>3567623</v>
+        <v>4643429</v>
       </c>
       <c r="C11">
-        <v>3168.404085257549</v>
+        <v>278.7506903589867</v>
       </c>
       <c r="D11">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11">
-        <v>1126</v>
+        <v>16658</v>
       </c>
       <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
         <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1245,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>4740240</v>
+        <v>1131111</v>
       </c>
       <c r="C12">
-        <v>401.7152542372881</v>
+        <v>46.63221470976254</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>24256</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
         <v>30</v>
-      </c>
-      <c r="F12">
-        <v>11800</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1271,25 +1265,25 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>631745</v>
+        <v>908344</v>
       </c>
       <c r="C13">
-        <v>257.5397472482674</v>
+        <v>910.1643286573146</v>
       </c>
       <c r="D13">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
         <v>32</v>
-      </c>
-      <c r="F13">
-        <v>2453</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1297,25 +1291,25 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4641002</v>
+        <v>1888084</v>
       </c>
       <c r="C14">
-        <v>224.0082054252341</v>
+        <v>49.78993170011339</v>
       </c>
       <c r="D14">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>37921</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>34</v>
-      </c>
-      <c r="F14">
-        <v>20718</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1323,22 +1317,22 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>3634037</v>
+        <v>4806803</v>
       </c>
       <c r="C15">
-        <v>113.2239842971087</v>
+        <v>682.7845170454545</v>
       </c>
       <c r="D15">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>7040</v>
+      </c>
+      <c r="G15" t="s">
         <v>36</v>
-      </c>
-      <c r="F15">
-        <v>32096</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
       </c>
       <c r="H15" t="s">
         <v>37</v>
@@ -1349,22 +1343,22 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2282186</v>
+        <v>1752044</v>
       </c>
       <c r="C16">
-        <v>123.4147739563054</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
+        <v>374.7687700534759</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
       </c>
       <c r="F16">
-        <v>18492</v>
+        <v>4675</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>
@@ -1375,22 +1369,22 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1803730</v>
+        <v>3852812</v>
       </c>
       <c r="C17">
-        <v>59.38205761316873</v>
+        <v>271.0384804783679</v>
       </c>
       <c r="D17">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
       </c>
       <c r="F17">
-        <v>30375</v>
+        <v>14215</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
         <v>41</v>
@@ -1401,25 +1395,25 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1187728</v>
+        <v>2544609</v>
       </c>
       <c r="C18">
-        <v>223.5933734939759</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
+        <v>124.4672764625318</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>42</v>
       </c>
       <c r="F18">
-        <v>5312</v>
+        <v>20444</v>
       </c>
       <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
         <v>43</v>
-      </c>
-      <c r="H18" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1427,25 +1421,25 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>3908609</v>
+        <v>840354</v>
       </c>
       <c r="C19">
-        <v>1732.53945035461</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
+        <v>55.65995496092198</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <v>15098</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>45</v>
-      </c>
-      <c r="F19">
-        <v>2256</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1453,25 +1447,25 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>455639</v>
+        <v>1181990</v>
       </c>
       <c r="C20">
-        <v>15.41091118176284</v>
+        <v>34.18230718065878</v>
       </c>
       <c r="D20">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>46</v>
       </c>
       <c r="F20">
-        <v>29566</v>
+        <v>34579</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1479,25 +1473,25 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>4115101</v>
+        <v>554501</v>
       </c>
       <c r="C21">
-        <v>217.1901092521244</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
+        <v>102.0428781744571</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21">
-        <v>18947</v>
+        <v>5434</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1505,25 +1499,25 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1609232</v>
+        <v>2748051</v>
       </c>
       <c r="C22">
-        <v>43.78505156041684</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
+        <v>341.6698992913092</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22">
-        <v>36753</v>
+        <v>8043</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1531,25 +1525,25 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>561510</v>
+        <v>2287512</v>
       </c>
       <c r="C23">
-        <v>291.8451143451143</v>
+        <v>174.8595016052591</v>
       </c>
       <c r="D23">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23">
-        <v>1924</v>
+        <v>13082</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1557,25 +1551,25 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>3738465</v>
+        <v>1756821</v>
       </c>
       <c r="C24">
-        <v>97.00723960765997</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
+        <v>78.41900638307369</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F24">
-        <v>38538</v>
+        <v>22403</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1583,25 +1577,25 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>291516</v>
+        <v>455525</v>
       </c>
       <c r="C25">
-        <v>21.17498365657006</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
+        <v>67.74613325401546</v>
+      </c>
+      <c r="D25">
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F25">
-        <v>13767</v>
+        <v>6724</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1609,25 +1603,25 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>829814</v>
+        <v>4023299</v>
       </c>
       <c r="C26">
-        <v>24.74028800572434</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
+        <v>125.6338683487384</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F26">
-        <v>33541</v>
+        <v>32024</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1635,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>3954563</v>
+        <v>621065</v>
       </c>
       <c r="C27">
-        <v>215.9665228551144</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
+        <v>19.12263686187573</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F27">
-        <v>18311</v>
+        <v>32478</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1661,25 +1655,25 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2505013</v>
+        <v>2152222</v>
       </c>
       <c r="C28">
-        <v>75.47948053513318</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
+        <v>588.5211922340717</v>
+      </c>
+      <c r="D28">
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F28">
-        <v>33188</v>
+        <v>3657</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1687,25 +1681,25 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2076106</v>
+        <v>912543</v>
       </c>
       <c r="C29">
-        <v>106.7296936047707</v>
+        <v>63.54313766450804</v>
       </c>
       <c r="D29">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F29">
-        <v>19452</v>
+        <v>14361</v>
       </c>
       <c r="G29" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1713,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>108712</v>
+        <v>4676913</v>
       </c>
       <c r="C30">
-        <v>2.89112281261635</v>
+        <v>986.4823876819237</v>
       </c>
       <c r="D30">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F30">
-        <v>37602</v>
+        <v>4741</v>
       </c>
       <c r="G30" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1739,25 +1733,25 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>448852</v>
+        <v>1348544</v>
       </c>
       <c r="C31">
-        <v>15.38745286253</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
+        <v>50.47512819553094</v>
+      </c>
+      <c r="D31">
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F31">
-        <v>29170</v>
+        <v>26717</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1765,25 +1759,25 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>3409264</v>
+        <v>4699011</v>
       </c>
       <c r="C32">
-        <v>99.36648207519674</v>
+        <v>141.600452011451</v>
       </c>
       <c r="D32">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32">
-        <v>34310</v>
+        <v>33185</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1791,25 +1785,25 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1002783</v>
+        <v>1014341</v>
       </c>
       <c r="C33">
-        <v>85.09699592668025</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
+        <v>196.9594174757281</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33">
-        <v>11784</v>
+        <v>5150</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1817,25 +1811,25 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1792286</v>
+        <v>2997355</v>
       </c>
       <c r="C34">
-        <v>123.9907298512625</v>
+        <v>394.5964981569247</v>
       </c>
       <c r="D34">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34">
-        <v>14455</v>
+        <v>7596</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1843,25 +1837,25 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1312866</v>
+        <v>2373164</v>
       </c>
       <c r="C35">
-        <v>158.9233748940806</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
+        <v>90.90144405714942</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35">
-        <v>8261</v>
+        <v>26107</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1869,25 +1863,25 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2479799</v>
+        <v>4648046</v>
       </c>
       <c r="C36">
-        <v>118.5032495460193</v>
+        <v>233.2770890840652</v>
       </c>
       <c r="D36">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36">
-        <v>20926</v>
+        <v>19925</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1895,25 +1889,25 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1205737</v>
+        <v>4295946</v>
       </c>
       <c r="C37">
-        <v>62.35388116046957</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
+        <v>673.7681932245922</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37">
-        <v>19337</v>
+        <v>6376</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1921,25 +1915,25 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>4552234</v>
+        <v>450005</v>
       </c>
       <c r="C38">
-        <v>119.3778092465843</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3</v>
+        <v>19.29943817815328</v>
+      </c>
+      <c r="D38">
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38">
-        <v>38133</v>
+        <v>23317</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1947,25 +1941,25 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1997096</v>
+        <v>937210</v>
       </c>
       <c r="C39">
-        <v>1514.098559514784</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
+        <v>102.6404555908444</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39">
-        <v>1319</v>
+        <v>9131</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1973,25 +1967,25 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>4831622</v>
+        <v>2783874</v>
       </c>
       <c r="C40">
-        <v>307.9035177160337</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3</v>
+        <v>1519.581877729258</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40">
-        <v>15692</v>
+        <v>1832</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1999,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>3074897</v>
+        <v>4148771</v>
       </c>
       <c r="C41">
-        <v>178.0278485409912</v>
+        <v>230.0654910441968</v>
       </c>
       <c r="D41">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41">
-        <v>17272</v>
+        <v>18033</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2025,25 +2019,25 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>3972332</v>
+        <v>1141926</v>
       </c>
       <c r="C42">
-        <v>259.4599608099281</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
+        <v>33.15311810474974</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42">
-        <v>15310</v>
+        <v>34444</v>
       </c>
       <c r="G42" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2051,25 +2045,25 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>815095</v>
+        <v>3890107</v>
       </c>
       <c r="C43">
-        <v>35.57657893588232</v>
+        <v>445.7553569382376</v>
       </c>
       <c r="D43">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F43">
-        <v>22911</v>
+        <v>8727</v>
       </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2077,22 +2071,22 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1269882</v>
+        <v>1223052</v>
       </c>
       <c r="C44">
-        <v>55.36632368329264</v>
+        <v>35.85716379841098</v>
       </c>
       <c r="D44">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
         <v>93</v>
       </c>
       <c r="F44">
-        <v>22936</v>
+        <v>34109</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s">
         <v>94</v>
@@ -2103,22 +2097,22 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>4856083</v>
+        <v>608476</v>
       </c>
       <c r="C45">
-        <v>1810.620059656972</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3</v>
+        <v>52.75041179020373</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
       </c>
       <c r="E45" t="s">
         <v>95</v>
       </c>
       <c r="F45">
-        <v>2682</v>
+        <v>11535</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H45" t="s">
         <v>96</v>
@@ -2129,22 +2123,22 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1037381</v>
+        <v>1779079</v>
       </c>
       <c r="C46">
-        <v>71.87563223169127</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3</v>
+        <v>68.71949476611688</v>
+      </c>
+      <c r="D46">
+        <v>98</v>
       </c>
       <c r="E46" t="s">
         <v>97</v>
       </c>
       <c r="F46">
-        <v>14433</v>
+        <v>25889</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="H46" t="s">
         <v>98</v>
@@ -2155,22 +2149,22 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>134942</v>
+        <v>1565745</v>
       </c>
       <c r="C47">
-        <v>4.175056464837103</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3</v>
+        <v>54.64506334415245</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>99</v>
       </c>
       <c r="F47">
-        <v>32321</v>
+        <v>28653</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" t="s">
         <v>100</v>
@@ -2181,25 +2175,25 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>3365039</v>
+        <v>1974153</v>
       </c>
       <c r="C48">
-        <v>350.1237124128602</v>
+        <v>537.6233660130719</v>
       </c>
       <c r="D48">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
         <v>101</v>
       </c>
       <c r="F48">
-        <v>9611</v>
+        <v>3672</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2207,25 +2201,25 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2615706</v>
+        <v>2188654</v>
       </c>
       <c r="C49">
-        <v>80.36456925156692</v>
+        <v>211.7710691823899</v>
       </c>
       <c r="D49">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49">
+        <v>10335</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" t="s">
         <v>103</v>
-      </c>
-      <c r="F49">
-        <v>32548</v>
-      </c>
-      <c r="G49" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2233,25 +2227,25 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3295005</v>
+        <v>4844791</v>
       </c>
       <c r="C50">
-        <v>187.3865445859873</v>
-      </c>
-      <c r="D50" t="s">
-        <v>3</v>
+        <v>226.3075018684604</v>
+      </c>
+      <c r="D50">
+        <v>78</v>
       </c>
       <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50">
+        <v>21408</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" t="s">
         <v>105</v>
-      </c>
-      <c r="F50">
-        <v>17584</v>
-      </c>
-      <c r="G50" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2259,25 +2253,25 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1448162</v>
+        <v>2714903</v>
       </c>
       <c r="C51">
-        <v>119.3966526506719</v>
+        <v>1812.351802403204</v>
       </c>
       <c r="D51">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51">
+        <v>1498</v>
+      </c>
+      <c r="G51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" t="s">
         <v>107</v>
-      </c>
-      <c r="F51">
-        <v>12129</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2285,25 +2279,25 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>390642</v>
+        <v>3394980</v>
       </c>
       <c r="C52">
-        <v>13.47924502260101</v>
+        <v>2314.233128834356</v>
       </c>
       <c r="D52">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52">
+        <v>1467</v>
+      </c>
+      <c r="G52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" t="s">
         <v>109</v>
-      </c>
-      <c r="F52">
-        <v>28981</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2311,22 +2305,22 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>2994343</v>
+        <v>4233049</v>
       </c>
       <c r="C53">
-        <v>263.8885167885785</v>
+        <v>158.5352233998727</v>
       </c>
       <c r="D53">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
         <v>110</v>
       </c>
       <c r="F53">
-        <v>11347</v>
+        <v>26701</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H53" t="s">
         <v>111</v>
@@ -2337,22 +2331,22 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3012640</v>
+        <v>571536</v>
       </c>
       <c r="C54">
-        <v>126.8693674724164</v>
-      </c>
-      <c r="D54" t="s">
-        <v>3</v>
+        <v>52.30493273542601</v>
+      </c>
+      <c r="D54">
+        <v>60</v>
       </c>
       <c r="E54" t="s">
         <v>112</v>
       </c>
       <c r="F54">
-        <v>23746</v>
+        <v>10927</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H54" t="s">
         <v>113</v>
@@ -2363,22 +2357,22 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>2725514</v>
+        <v>4338973</v>
       </c>
       <c r="C55">
-        <v>197.2722929936306</v>
-      </c>
-      <c r="D55" t="s">
-        <v>3</v>
+        <v>152.5658579465542</v>
+      </c>
+      <c r="D55">
+        <v>92</v>
       </c>
       <c r="E55" t="s">
         <v>114</v>
       </c>
       <c r="F55">
-        <v>13816</v>
+        <v>28440</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H55" t="s">
         <v>115</v>
@@ -2389,22 +2383,22 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3480765</v>
+        <v>1188046</v>
       </c>
       <c r="C56">
-        <v>695.7355586648011</v>
+        <v>117.0027575339768</v>
       </c>
       <c r="D56">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E56" t="s">
         <v>116</v>
       </c>
       <c r="F56">
-        <v>5003</v>
+        <v>10154</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H56" t="s">
         <v>117</v>
@@ -2415,22 +2409,22 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>477051</v>
+        <v>2153441</v>
       </c>
       <c r="C57">
-        <v>109.9195852534562</v>
+        <v>169.963772691397</v>
       </c>
       <c r="D57">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
         <v>118</v>
       </c>
       <c r="F57">
-        <v>4340</v>
+        <v>12670</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H57" t="s">
         <v>119</v>
@@ -2441,22 +2435,22 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>471546</v>
+        <v>2983922</v>
       </c>
       <c r="C58">
-        <v>208.9260079751883</v>
+        <v>128.0268588835972</v>
       </c>
       <c r="D58">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E58" t="s">
         <v>120</v>
       </c>
       <c r="F58">
-        <v>2257</v>
+        <v>23307</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
         <v>121</v>
@@ -2467,22 +2461,22 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>1767491</v>
+        <v>3353889</v>
       </c>
       <c r="C59">
-        <v>65.55732354141166</v>
+        <v>553.1731815932707</v>
       </c>
       <c r="D59">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E59" t="s">
         <v>122</v>
       </c>
       <c r="F59">
-        <v>26961</v>
+        <v>6063</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H59" t="s">
         <v>123</v>
@@ -2493,25 +2487,25 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1171111</v>
+        <v>3560442</v>
       </c>
       <c r="C60">
-        <v>66.0227195850716</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
+        <v>114.4763037746769</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
       </c>
       <c r="E60" t="s">
         <v>124</v>
       </c>
       <c r="F60">
-        <v>17738</v>
+        <v>31102</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2519,25 +2513,25 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>4700406</v>
+        <v>4991619</v>
       </c>
       <c r="C61">
-        <v>134.5394853593611</v>
+        <v>147.4933959755341</v>
       </c>
       <c r="D61">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="E61" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61">
+        <v>33843</v>
+      </c>
+      <c r="G61" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" t="s">
         <v>126</v>
-      </c>
-      <c r="F61">
-        <v>34937</v>
-      </c>
-      <c r="G61" t="s">
-        <v>57</v>
-      </c>
-      <c r="H61" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2545,25 +2539,25 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>2878936</v>
+        <v>3928246</v>
       </c>
       <c r="C62">
-        <v>979.8965282505105</v>
+        <v>205.9584753316206</v>
       </c>
       <c r="D62">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62">
+        <v>19073</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
         <v>128</v>
-      </c>
-      <c r="F62">
-        <v>2938</v>
-      </c>
-      <c r="G62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2571,25 +2565,25 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>2337879</v>
+        <v>3916033</v>
       </c>
       <c r="C63">
-        <v>113.0721125943122</v>
+        <v>247.7874588711719</v>
       </c>
       <c r="D63">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="E63" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63">
+        <v>15804</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
         <v>130</v>
-      </c>
-      <c r="F63">
-        <v>20676</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2597,25 +2591,25 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>2496056</v>
+        <v>1179874</v>
       </c>
       <c r="C64">
-        <v>131.6207551149546</v>
+        <v>95.97933783453998</v>
       </c>
       <c r="D64">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E64" t="s">
         <v>131</v>
       </c>
       <c r="F64">
-        <v>18964</v>
+        <v>12293</v>
       </c>
       <c r="G64" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2623,25 +2617,25 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>231915</v>
+        <v>4118682</v>
       </c>
       <c r="C65">
-        <v>6.136616215071973</v>
-      </c>
-      <c r="D65" t="s">
-        <v>3</v>
+        <v>446.1793955151121</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
       </c>
       <c r="E65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65">
+        <v>9231</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
         <v>133</v>
-      </c>
-      <c r="F65">
-        <v>37792</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2649,25 +2643,25 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>3095364</v>
+        <v>2429331</v>
       </c>
       <c r="C66">
-        <v>173.1478435979191</v>
+        <v>79.65019672131147</v>
       </c>
       <c r="D66">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E66" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66">
+        <v>30500</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" t="s">
         <v>135</v>
-      </c>
-      <c r="F66">
-        <v>17877</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2675,22 +2669,22 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>4679541</v>
+        <v>4612840</v>
       </c>
       <c r="C67">
-        <v>397.9878380676986</v>
+        <v>160.1346941609387</v>
       </c>
       <c r="D67">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
         <v>136</v>
       </c>
       <c r="F67">
-        <v>11758</v>
+        <v>28806</v>
       </c>
       <c r="G67" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="H67" t="s">
         <v>137</v>
@@ -2701,25 +2695,25 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>996887</v>
+        <v>1152125</v>
       </c>
       <c r="C68">
-        <v>61.52104418662059</v>
-      </c>
-      <c r="D68" t="s">
-        <v>3</v>
+        <v>32.61038777243136</v>
+      </c>
+      <c r="D68">
+        <v>27</v>
       </c>
       <c r="E68" t="s">
         <v>138</v>
       </c>
       <c r="F68">
-        <v>16204</v>
+        <v>35330</v>
       </c>
       <c r="G68" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2727,25 +2721,25 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>4432368</v>
+        <v>2941968</v>
       </c>
       <c r="C69">
-        <v>324.5491689243611</v>
+        <v>156.6876864081807</v>
       </c>
       <c r="D69">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69">
+        <v>18776</v>
+      </c>
+      <c r="G69" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" t="s">
         <v>140</v>
-      </c>
-      <c r="F69">
-        <v>13657</v>
-      </c>
-      <c r="G69" t="s">
-        <v>43</v>
-      </c>
-      <c r="H69" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2753,25 +2747,25 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>2630589</v>
+        <v>2779006</v>
       </c>
       <c r="C70">
-        <v>75.06103406950865</v>
+        <v>79.6390886946554</v>
       </c>
       <c r="D70">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F70">
-        <v>35046</v>
+        <v>34895</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2779,25 +2773,25 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>942673</v>
+        <v>2138345</v>
       </c>
       <c r="C71">
-        <v>43.20818627675666</v>
-      </c>
-      <c r="D71" t="s">
-        <v>3</v>
+        <v>70.33566870600619</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F71">
-        <v>21817</v>
+        <v>30402</v>
       </c>
       <c r="G71" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2805,25 +2799,25 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>3599338</v>
+        <v>4885388</v>
       </c>
       <c r="C72">
-        <v>816.5467332123412</v>
-      </c>
-      <c r="D72" t="s">
-        <v>3</v>
+        <v>532.6995965543562</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F72">
-        <v>4408</v>
+        <v>9171</v>
       </c>
       <c r="G72" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2831,25 +2825,25 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>165911</v>
+        <v>2064858</v>
       </c>
       <c r="C73">
-        <v>7.64109059089025</v>
+        <v>67.22637147973303</v>
       </c>
       <c r="D73">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E73" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F73">
-        <v>21713</v>
+        <v>30715</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H73" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2857,25 +2851,25 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>4182285</v>
+        <v>3950391</v>
       </c>
       <c r="C74">
-        <v>335.7646917148362</v>
-      </c>
-      <c r="D74" t="s">
-        <v>3</v>
+        <v>569.548875432526</v>
+      </c>
+      <c r="D74">
+        <v>55</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F74">
-        <v>12456</v>
+        <v>6936</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2883,25 +2877,25 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>4606811</v>
+        <v>4430619</v>
       </c>
       <c r="C75">
-        <v>744.8360549717057</v>
-      </c>
-      <c r="D75" t="s">
-        <v>3</v>
+        <v>423.8204515018175</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F75">
-        <v>6185</v>
+        <v>10454</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H75" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2909,25 +2903,25 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>3362188</v>
+        <v>4480532</v>
       </c>
       <c r="C76">
-        <v>87.52279057659769</v>
+        <v>166.3584450302603</v>
       </c>
       <c r="D76">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F76">
-        <v>38415</v>
+        <v>26933</v>
       </c>
       <c r="G76" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H76" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2935,25 +2929,25 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>1945165</v>
+        <v>4326917</v>
       </c>
       <c r="C77">
-        <v>50.94588931667583</v>
-      </c>
-      <c r="D77" t="s">
-        <v>3</v>
+        <v>166.1195915076592</v>
+      </c>
+      <c r="D77">
+        <v>74</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F77">
-        <v>38181</v>
+        <v>26047</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H77" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2961,25 +2955,25 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>4004206</v>
+        <v>4898486</v>
       </c>
       <c r="C78">
-        <v>353.2603440670489</v>
+        <v>617.6378766864203</v>
       </c>
       <c r="D78">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F78">
-        <v>11335</v>
+        <v>7931</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2987,25 +2981,25 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>385979</v>
+        <v>3876764</v>
       </c>
       <c r="C79">
-        <v>13.75058781617385</v>
-      </c>
-      <c r="D79" t="s">
-        <v>3</v>
+        <v>100.9232291151433</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F79">
-        <v>28070</v>
+        <v>38413</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H79" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3013,25 +3007,25 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>4532334</v>
+        <v>2828824</v>
       </c>
       <c r="C80">
-        <v>257.2558746736293</v>
+        <v>217.1175070995472</v>
       </c>
       <c r="D80">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F80">
-        <v>17618</v>
+        <v>13029</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3039,25 +3033,25 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>1798173</v>
+        <v>3939551</v>
       </c>
       <c r="C81">
-        <v>167.2407924107143</v>
+        <v>108.4409424977291</v>
       </c>
       <c r="D81">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F81">
-        <v>10752</v>
+        <v>36329</v>
       </c>
       <c r="G81" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H81" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3065,25 +3059,25 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>360260</v>
+        <v>4487455</v>
       </c>
       <c r="C82">
-        <v>15.26072775024357</v>
-      </c>
-      <c r="D82" t="s">
-        <v>3</v>
+        <v>117.951241950322</v>
+      </c>
+      <c r="D82">
+        <v>57</v>
       </c>
       <c r="E82" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F82">
-        <v>23607</v>
+        <v>38045</v>
       </c>
       <c r="G82" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3091,25 +3085,25 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>986667</v>
+        <v>2161502</v>
       </c>
       <c r="C83">
-        <v>48.1935720216871</v>
-      </c>
-      <c r="D83" t="s">
-        <v>3</v>
+        <v>84.66517822169996</v>
+      </c>
+      <c r="D83">
+        <v>22</v>
       </c>
       <c r="E83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F83">
-        <v>20473</v>
+        <v>25530</v>
       </c>
       <c r="G83" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3117,25 +3111,25 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>218445</v>
+        <v>923129</v>
       </c>
       <c r="C84">
-        <v>13.8247579267135</v>
-      </c>
-      <c r="D84" t="s">
-        <v>3</v>
+        <v>25.7490446570528</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F84">
-        <v>15801</v>
+        <v>35851</v>
       </c>
       <c r="G84" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H84" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3143,25 +3137,25 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>1322365</v>
+        <v>299001</v>
       </c>
       <c r="C85">
-        <v>562.7085106382979</v>
-      </c>
-      <c r="D85" t="s">
-        <v>3</v>
+        <v>11.94809190809191</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F85">
-        <v>2350</v>
+        <v>25025</v>
       </c>
       <c r="G85" t="s">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3169,25 +3163,25 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>2004838</v>
+        <v>4159441</v>
       </c>
       <c r="C86">
-        <v>371.1975560081466</v>
+        <v>110.5117434507678</v>
       </c>
       <c r="D86">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F86">
-        <v>5401</v>
+        <v>37638</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3195,25 +3189,25 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>3620201</v>
+        <v>4477131</v>
       </c>
       <c r="C87">
-        <v>1272.478383128295</v>
+        <v>202.1825776734104</v>
       </c>
       <c r="D87">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E87" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F87">
-        <v>2845</v>
+        <v>22144</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3221,25 +3215,25 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>4214956</v>
+        <v>1194216</v>
       </c>
       <c r="C88">
-        <v>135.7692382026091</v>
+        <v>150.8991660348749</v>
       </c>
       <c r="D88">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F88">
-        <v>31045</v>
+        <v>7914</v>
       </c>
       <c r="G88" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3247,25 +3241,25 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>3272998</v>
+        <v>1108635</v>
       </c>
       <c r="C89">
-        <v>638.2601404056162</v>
+        <v>41.19788182831661</v>
       </c>
       <c r="D89">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F89">
-        <v>5128</v>
+        <v>26910</v>
       </c>
       <c r="G89" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3273,25 +3267,25 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>3453533</v>
+        <v>2741624</v>
       </c>
       <c r="C90">
-        <v>248.867406499964</v>
+        <v>135.4758116321589</v>
       </c>
       <c r="D90">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F90">
-        <v>13877</v>
+        <v>20237</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H90" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3299,25 +3293,25 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2952759</v>
+        <v>959264</v>
       </c>
       <c r="C91">
-        <v>794.3930589184827</v>
-      </c>
-      <c r="D91" t="s">
-        <v>3</v>
+        <v>377.811736904293</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F91">
-        <v>3717</v>
+        <v>2539</v>
       </c>
       <c r="G91" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3325,25 +3319,25 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>4832342</v>
+        <v>4052791</v>
       </c>
       <c r="C92">
-        <v>184.8002600481854</v>
+        <v>370.3546559444393</v>
       </c>
       <c r="D92">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F92">
-        <v>26149</v>
+        <v>10943</v>
       </c>
       <c r="G92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H92" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3351,25 +3345,25 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>581934</v>
+        <v>3480379</v>
       </c>
       <c r="C93">
-        <v>24.78635318170202</v>
-      </c>
-      <c r="D93" t="s">
-        <v>3</v>
+        <v>126.0504509072471</v>
+      </c>
+      <c r="D93">
+        <v>42</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F93">
-        <v>23478</v>
+        <v>27611</v>
       </c>
       <c r="G93" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3377,25 +3371,25 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>2580884</v>
+        <v>3863859</v>
       </c>
       <c r="C94">
-        <v>77.51566301246433</v>
-      </c>
-      <c r="D94" t="s">
-        <v>3</v>
+        <v>275.9505070704185</v>
+      </c>
+      <c r="D94">
+        <v>43</v>
       </c>
       <c r="E94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F94">
-        <v>33295</v>
+        <v>14002</v>
       </c>
       <c r="G94" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3403,25 +3397,25 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>1959503</v>
+        <v>662583</v>
       </c>
       <c r="C95">
-        <v>71.47036510194405</v>
-      </c>
-      <c r="D95" t="s">
-        <v>3</v>
+        <v>514.0287044220325</v>
+      </c>
+      <c r="D95">
+        <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F95">
-        <v>27417</v>
+        <v>1289</v>
       </c>
       <c r="G95" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3429,25 +3423,25 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>4299679</v>
+        <v>4713915</v>
       </c>
       <c r="C96">
-        <v>485.8394350282486</v>
+        <v>123.7930355313953</v>
       </c>
       <c r="D96">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="E96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F96">
-        <v>8850</v>
+        <v>38079</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3455,25 +3449,25 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3143852</v>
+        <v>3418354</v>
       </c>
       <c r="C97">
-        <v>98.3006691263836</v>
-      </c>
-      <c r="D97" t="s">
-        <v>3</v>
+        <v>183.2995871092284</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F97">
-        <v>31982</v>
+        <v>18649</v>
       </c>
       <c r="G97" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3481,25 +3475,25 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>1284840</v>
+        <v>4365582</v>
       </c>
       <c r="C98">
-        <v>45.21059854322812</v>
+        <v>285.3694600601386</v>
       </c>
       <c r="D98">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F98">
-        <v>28419</v>
+        <v>15298</v>
       </c>
       <c r="G98" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H98" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3507,25 +3501,25 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>888300</v>
+        <v>2794202</v>
       </c>
       <c r="C99">
-        <v>201.0183299389002</v>
-      </c>
-      <c r="D99" t="s">
-        <v>3</v>
+        <v>108.8635991740367</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F99">
-        <v>4419</v>
+        <v>25667</v>
       </c>
       <c r="G99" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H99" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3533,25 +3527,25 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>4445983</v>
+        <v>4247259</v>
       </c>
       <c r="C100">
-        <v>120.4090293575994</v>
-      </c>
-      <c r="D100" t="s">
-        <v>3</v>
+        <v>112.8419724222216</v>
+      </c>
+      <c r="D100">
+        <v>69</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100">
-        <v>36924</v>
+        <v>37639</v>
       </c>
       <c r="G100" t="s">
         <v>23</v>
       </c>
       <c r="H100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/prototype/RGB.xlsx
+++ b/prototype/RGB.xlsx
@@ -14,603 +14,609 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="199">
-  <si>
-    <t>(1.369583578202569,104.5944350508482)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="201">
+  <si>
+    <t>(1.3217410538654801,104.27181409541896)</t>
   </si>
   <si>
     <t>Executive Condo</t>
   </si>
   <si>
+    <t>Park, Playground, Bus Stop, Market, Pool, Mall, MRT, Gym</t>
+  </si>
+  <si>
+    <t>Free Hold</t>
+  </si>
+  <si>
+    <t>(1.4578264381435682,104.49280105433851)</t>
+  </si>
+  <si>
+    <t>5 Room Flat</t>
+  </si>
+  <si>
+    <t>MRT, Mall, Market, Gym, Bus Stop, Playground, Pool</t>
+  </si>
+  <si>
+    <t>(1.307223716343131,104.6400907824246)</t>
+  </si>
+  <si>
+    <t>4 Room Flat</t>
+  </si>
+  <si>
+    <t>Park, Market, Playground, MRT, Mall, Pool, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.3426259593938485,104.5795591002795)</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>(1.3868360460111502,104.27678575789297)</t>
+  </si>
+  <si>
+    <t>3 Room Flat</t>
+  </si>
+  <si>
+    <t>Playground, Park</t>
+  </si>
+  <si>
+    <t>(1.4113977625941172,104.09386048875098)</t>
+  </si>
+  <si>
+    <t>Terrace</t>
+  </si>
+  <si>
+    <t>Bus Stop, Market, Pool, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.2777102797875535,104.5988562019776)</t>
+  </si>
+  <si>
+    <t>Market, Gym, Pool, Bus Stop, Park, Mall, Playground</t>
+  </si>
+  <si>
+    <t>(1.3927823717792351,104.49012378664301)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Gym, MRT, Playground, Market</t>
+  </si>
+  <si>
+    <t>(1.3293531793391027,104.45399421717958)</t>
+  </si>
+  <si>
+    <t>Shophouse</t>
+  </si>
+  <si>
+    <t>Pool, Market</t>
+  </si>
+  <si>
+    <t>(1.433674260413089,104.0443302207795)</t>
+  </si>
+  <si>
+    <t>Gym, Market, Bus Stop, Playground, Pool, Mall, MRT</t>
+  </si>
+  <si>
+    <t>(1.4386378756087306,104.05615957323228)</t>
+  </si>
+  <si>
+    <t>Mansion</t>
+  </si>
+  <si>
+    <t>Bus Stop, Mall, Playground, MRT, Market</t>
+  </si>
+  <si>
+    <t>(1.3762803510669832,104.61017236254577)</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Market, Park, Pool</t>
+  </si>
+  <si>
+    <t>(1.3050055056158634,104.06738912986637)</t>
+  </si>
+  <si>
+    <t>Mall, Park, MRT, Gym, Pool</t>
+  </si>
+  <si>
+    <t>(1.458631446763417,104.15108059227195)</t>
+  </si>
+  <si>
+    <t>Mall, Market, Gym, Playground, Pool, Park, MRT, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4049962827387006,104.46478710024387)</t>
+  </si>
+  <si>
+    <t>Mall, Pool, Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.3327200632907292,104.60520502499328)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.416590265475539,104.57579580813882)</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>(1.4416536577716952,104.15904596552262)</t>
+  </si>
+  <si>
+    <t>Private Condo</t>
+  </si>
+  <si>
+    <t>Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4624977368523715,104.16329544378635)</t>
+  </si>
+  <si>
+    <t>(1.3184063287977201,104.55242770745309)</t>
+  </si>
+  <si>
+    <t>(1.404591556541349,104.59894319393808)</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>(1.2910428073914058,104.49569172801965)</t>
+  </si>
+  <si>
+    <t>Playground, Mall, Bus Stop, MRT, Gym, Pool, Market, Park</t>
+  </si>
+  <si>
+    <t>(1.298773753308161,104.19532912128595)</t>
+  </si>
+  <si>
+    <t>(1.43750131553675,104.48712191119985)</t>
+  </si>
+  <si>
+    <t>Mall, Pool, Gym, MRT, Market, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.2899521794952746,104.57007976843109)</t>
+  </si>
+  <si>
+    <t>Playground, Gym, Bus Stop, Pool, Market, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.4372597509393024,104.29797899195846)</t>
+  </si>
+  <si>
+    <t>Bungalow</t>
+  </si>
+  <si>
+    <t>Playground, Mall, Gym, MRT, Market, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.280239424717622,104.53102553814621)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, MRT, Park, Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.442443918909462,104.27886979978943)</t>
+  </si>
+  <si>
+    <t>Gym, Bus Stop, Playground, Mall, Park, MRT, Pool, Market</t>
+  </si>
+  <si>
+    <t>(1.3523553565476836,104.5041755135612)</t>
+  </si>
+  <si>
+    <t>Gym, Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.397230504847218,104.49215768276379)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Playground, Market, Bus Stop, Mall</t>
+  </si>
+  <si>
+    <t>(1.4217175814636769,104.20962226477207)</t>
+  </si>
+  <si>
+    <t>Market, Pool, Mall, MRT, Playground, Bus Stop, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.3796170716405185,104.27278291183336)</t>
+  </si>
+  <si>
     <t>Bus Stop, Mall</t>
   </si>
   <si>
-    <t>(1.3637150860200455,104.35575457506546)</t>
-  </si>
-  <si>
-    <t>Gym, Playground, Park</t>
-  </si>
-  <si>
-    <t>(1.3070575180288158,104.11691427346324)</t>
-  </si>
-  <si>
-    <t>Shophouse</t>
+    <t>(1.3016015855818353,104.19310100488919)</t>
+  </si>
+  <si>
+    <t>MRT, Market</t>
+  </si>
+  <si>
+    <t>(1.381156275043274,104.56892678476251)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Park, Playground, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.4083229358057392,104.34971439069645)</t>
+  </si>
+  <si>
+    <t>Park, Market, Mall, Pool, Bus Stop, Gym, MRT, Playground</t>
+  </si>
+  <si>
+    <t>(1.365377358233594,104.40886081284718)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Market, Bus Stop, Playground, Park, Mall</t>
+  </si>
+  <si>
+    <t>(1.355040483777655,104.25867287972326)</t>
+  </si>
+  <si>
+    <t>Pool, Gym, Mall</t>
+  </si>
+  <si>
+    <t>(1.4576033654051088,104.46692850658607)</t>
+  </si>
+  <si>
+    <t>Pool, Bus Stop, Gym, Playground</t>
+  </si>
+  <si>
+    <t>(1.332809486912252,104.44012850363606)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Market, Park, Gym, Mall, MRT</t>
+  </si>
+  <si>
+    <t>(1.3685327707231143,104.47741881791875)</t>
+  </si>
+  <si>
+    <t>Pool, MRT, Gym, Bus Stop, Market, Park</t>
+  </si>
+  <si>
+    <t>(1.3516323775147239,104.15914668481399)</t>
+  </si>
+  <si>
+    <t>Mall</t>
+  </si>
+  <si>
+    <t>(1.4132375978477263,104.07234605755315)</t>
+  </si>
+  <si>
+    <t>Playground, Bus Stop, Market, Mall, Gym</t>
+  </si>
+  <si>
+    <t>(1.4098089396876716,104.52258573516266)</t>
+  </si>
+  <si>
+    <t>Playground, Pool, Park, Gym, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.2915064384363186,104.47660745004767)</t>
+  </si>
+  <si>
+    <t>Park, Mall, Market, Gym, Pool, Bus Stop, MRT</t>
+  </si>
+  <si>
+    <t>(1.3201228631302029,104.27984567636943)</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.353163234678874,104.12436552607527)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Playground, Pool, Mall, Park, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.3547573391666874,104.47704667385109)</t>
+  </si>
+  <si>
+    <t>MRT, Mall, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.393145151359821,104.10139567850698)</t>
+  </si>
+  <si>
+    <t>Pool, Playground, Mall, MRT, Market</t>
+  </si>
+  <si>
+    <t>(1.4515720708995037,104.07673716762729)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Park, Mall</t>
+  </si>
+  <si>
+    <t>(1.3100254145528558,104.16286700772125)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3420838114794489,104.39839802309903)</t>
+  </si>
+  <si>
+    <t>Gym, MRT, Park, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.3869986035749229,104.31611390580704)</t>
+  </si>
+  <si>
+    <t>(1.391337764392163,104.64064539270215)</t>
   </si>
   <si>
     <t>MRT, Gym, Park, Market</t>
   </si>
   <si>
-    <t>(1.4573023143091282,104.19220902952651)</t>
-  </si>
-  <si>
-    <t>Bungalow</t>
-  </si>
-  <si>
-    <t>MRT, Park</t>
-  </si>
-  <si>
-    <t>(1.4303415074891357,104.58189416491969)</t>
-  </si>
-  <si>
-    <t>Mansion</t>
-  </si>
-  <si>
-    <t>Park, Mall, Bus Stop, Gym, Market, Pool</t>
-  </si>
-  <si>
-    <t>(1.282457931450059,104.61057510043396)</t>
-  </si>
-  <si>
-    <t>MRT, Park, Mall, Gym, Pool, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.355463930496564,104.05517802105832)</t>
-  </si>
-  <si>
-    <t>4 Room Flat</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.367682805074692,104.43975933160489)</t>
-  </si>
-  <si>
-    <t>Terrace</t>
-  </si>
-  <si>
-    <t>Pool</t>
-  </si>
-  <si>
-    <t>(1.464999653976558,104.11695299496824)</t>
-  </si>
-  <si>
-    <t>3 Room Flat</t>
-  </si>
-  <si>
-    <t>Playground, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.3923115660074639,104.50058248050644)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.3487680541606264,104.46134285503372)</t>
-  </si>
-  <si>
-    <t>Mall, Gym</t>
-  </si>
-  <si>
-    <t>(1.27437706769157,104.55097600251223)</t>
-  </si>
-  <si>
-    <t>Market, Bus Stop, Park, Gym, MRT, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.4376421159875397,104.22220259498225)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Bus Stop, Mall, Market, Gym, Pool</t>
-  </si>
-  <si>
-    <t>(1.3556111115413931,104.57671585671407)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Park, Playground, Gym, Market</t>
-  </si>
-  <si>
-    <t>(1.431799715125468,104.03824498767679)</t>
-  </si>
-  <si>
-    <t>Private Condo</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.408794717834286,104.24390553229782)</t>
-  </si>
-  <si>
-    <t>Park, Gym, Mall, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.444875113279242,104.50507440844116)</t>
+    <t>(1.3701157247438236,104.3458470645681)</t>
+  </si>
+  <si>
+    <t>Pool, Mall, Gym, MRT, Market</t>
+  </si>
+  <si>
+    <t>(1.4133052896682734,104.48419667553917)</t>
+  </si>
+  <si>
+    <t>MRT, Park, Mall, Playground, Bus Stop, Gym, Market, Pool</t>
+  </si>
+  <si>
+    <t>(1.3884314642916382,104.43342566755695)</t>
+  </si>
+  <si>
+    <t>Playground, Mall, Bus Stop, Pool</t>
+  </si>
+  <si>
+    <t>(1.372389510519124,104.47275935274372)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Gym, Playground, Mall, Pool, Park, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3789620547482155,104.53291705533378)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Market, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2774042985438314,104.13084407613232)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Playground, Mall, Gym, Market, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3959808416234083,104.43385618058207)</t>
+  </si>
+  <si>
+    <t>Park, Pool, Mall, Gym, MRT, Market, Playground</t>
+  </si>
+  <si>
+    <t>(1.3341570230866586,104.11502889838901)</t>
+  </si>
+  <si>
+    <t>Gym, Playground, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.3965852551074636,104.36975919930319)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, MRT</t>
+  </si>
+  <si>
+    <t>(1.4455541988990104,104.09901252880668)</t>
+  </si>
+  <si>
+    <t>(1.3567355217807868,104.2977213523106)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop, Gym, Mall, Park</t>
+  </si>
+  <si>
+    <t>(1.3878089409381265,104.08537786386142)</t>
+  </si>
+  <si>
+    <t>Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.4090441098911466,104.21381175440054)</t>
+  </si>
+  <si>
+    <t>(1.4623044449422677,104.22258200685427)</t>
+  </si>
+  <si>
+    <t>Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.3238747038522458,104.61065643412437)</t>
+  </si>
+  <si>
+    <t>Mall, Market, Playground, Bus Stop, Gym, Pool</t>
+  </si>
+  <si>
+    <t>(1.2769690448397522,104.62467744529322)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Playground, Mall, Gym</t>
+  </si>
+  <si>
+    <t>(1.4550871229950497,104.2375469932883)</t>
+  </si>
+  <si>
+    <t>Mall, Park</t>
+  </si>
+  <si>
+    <t>(1.2806957842774251,104.09705914201402)</t>
+  </si>
+  <si>
+    <t>Park, MRT</t>
+  </si>
+  <si>
+    <t>(1.311116401415026,104.39754852526993)</t>
   </si>
   <si>
     <t>Market</t>
   </si>
   <si>
-    <t>(1.3833501408036413,104.04069885878803)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Gym, Market, Mall, Bus Stop, Playground</t>
-  </si>
-  <si>
-    <t>(1.3845214101668069,104.34843852200244)</t>
-  </si>
-  <si>
-    <t>Gym, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4251143370529986,104.61875608215179)</t>
-  </si>
-  <si>
-    <t>Market, Mall, Park, Playground, Pool, Bus Stop, Gym, MRT</t>
-  </si>
-  <si>
-    <t>(1.4544094872829778,104.59270243141282)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, Market, Playground, MRT</t>
-  </si>
-  <si>
-    <t>(1.4673018142685856,104.44600143315644)</t>
-  </si>
-  <si>
-    <t>Playground</t>
-  </si>
-  <si>
-    <t>(1.4244013088777439,104.5665264808428)</t>
-  </si>
-  <si>
-    <t>Market, Pool, Mall, Gym, Park, Playground, Bus Stop, MRT</t>
-  </si>
-  <si>
-    <t>(1.4386590330453393,104.45027729787333)</t>
-  </si>
-  <si>
-    <t>5 Room Flat</t>
-  </si>
-  <si>
-    <t>Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.4375148098330521,104.13832302614944)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Playground, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.3244333709509568,104.45071461237379)</t>
-  </si>
-  <si>
-    <t>Gym, Bus Stop, Mall, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.2727571055465827,104.38115309859248)</t>
-  </si>
-  <si>
-    <t>Gym, Bus Stop, Market, MRT, Park</t>
-  </si>
-  <si>
-    <t>(1.38667697369015,104.17592131768811)</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Park, Bus Stop, Pool, Playground, Market, MRT</t>
-  </si>
-  <si>
-    <t>(1.2711665847879066,104.61545907729048)</t>
-  </si>
-  <si>
-    <t>MRT, Park, Mall, Gym, Market</t>
-  </si>
-  <si>
-    <t>(1.4676969519371539,104.25848040921126)</t>
-  </si>
-  <si>
-    <t>Market, Mall, Playground</t>
-  </si>
-  <si>
-    <t>(1.3184634006484355,104.41988920436289)</t>
-  </si>
-  <si>
-    <t>(1.2819217038555417,104.48545528877086)</t>
-  </si>
-  <si>
-    <t>Mall, Playground, Park, Bus Stop, MRT, Market, Pool</t>
-  </si>
-  <si>
-    <t>(1.4239048695610368,104.03473494738076)</t>
-  </si>
-  <si>
-    <t>MRT, Mall, Gym, Bus Stop, Playground, Park, Pool</t>
-  </si>
-  <si>
-    <t>(1.4039600962426126,104.53065493111056)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Playground, Bus Stop, Gym, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.3542803267506454,104.5133996038143)</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Park</t>
-  </si>
-  <si>
-    <t>(1.3294491878580832,104.18688680669122)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Market, Gym, Mall, Playground, Pool</t>
-  </si>
-  <si>
-    <t>(1.334762363286311,104.07218655540062)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Market</t>
-  </si>
-  <si>
-    <t>(1.4623087126004373,104.14387544666126)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Gym, Mall, Playground, Market, Park, Pool</t>
-  </si>
-  <si>
-    <t>(1.3718111388904766,104.22603613147585)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.4662087922037728,104.10445930514112)</t>
-  </si>
-  <si>
-    <t>Park, Pool</t>
-  </si>
-  <si>
-    <t>(1.2756073491539284,104.33724861211412)</t>
-  </si>
-  <si>
-    <t>Mall, Park, Playground</t>
-  </si>
-  <si>
-    <t>(1.3274397745775806,104.1079304337008)</t>
-  </si>
-  <si>
-    <t>MRT, Bus Stop, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.4083087107783008,104.24052599805411)</t>
-  </si>
-  <si>
-    <t>(1.4550511360890361,104.52434477188456)</t>
-  </si>
-  <si>
-    <t>Gym, Mall</t>
-  </si>
-  <si>
-    <t>(1.306838183539997,104.06530096951641)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Playground, Market, MRT, Park, Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.3980466372390357,104.4721763754215)</t>
-  </si>
-  <si>
-    <t>Mall, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.3072621541078888,104.5622241781797)</t>
-  </si>
-  <si>
-    <t>Gym</t>
-  </si>
-  <si>
-    <t>(1.4670475545548363,104.35132408153518)</t>
-  </si>
-  <si>
-    <t>(1.2943836078360844,104.13891557115464)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Gym, Mall, Market, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2925880052487182,104.13300808224545)</t>
-  </si>
-  <si>
-    <t>Pool, Gym, Bus Stop, Mall, MRT, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.4102512838605086,104.19637749751092)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Mall, Gym, Bus Stop, Pool, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.3693507369724274,104.38727069606502)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Mall, MRT, Pool, Playground, Market, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.3602291553593355,104.47234383621871)</t>
-  </si>
-  <si>
-    <t>Mall</t>
-  </si>
-  <si>
-    <t>(1.3106643158505618,104.27175732440587)</t>
-  </si>
-  <si>
-    <t>Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4591384098304967,104.39563294383954)</t>
+    <t>(1.2734308348617114,104.37906267222691)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Playground, Gym, Pool, Park, MRT</t>
+  </si>
+  <si>
+    <t>(1.3654887032151937,104.5965536374197)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Bus Stop, Mall, Playground, Pool, Market, MRT</t>
+  </si>
+  <si>
+    <t>(1.2967880942591679,104.31661010393515)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, Mall, Gym, Market, Playground</t>
+  </si>
+  <si>
+    <t>(1.333177709639175,104.44984880820179)</t>
+  </si>
+  <si>
+    <t>(1.3102967347660446,104.39490863317447)</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Park, Bus Stop, Gym, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.331553229158701,104.09957165388633)</t>
+  </si>
+  <si>
+    <t>Pool, MRT, Market, Playground, Park, Gym, Mall</t>
+  </si>
+  <si>
+    <t>(1.3876418719075332,104.10859469087589)</t>
+  </si>
+  <si>
+    <t>Gym, Bus Stop, MRT</t>
+  </si>
+  <si>
+    <t>(1.3566442230537534,104.19558448876934)</t>
+  </si>
+  <si>
+    <t>Bus Stop, MRT, Playground, Gym</t>
+  </si>
+  <si>
+    <t>(1.4649461048450507,104.42446927295859)</t>
+  </si>
+  <si>
+    <t>Mall, MRT, Park, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3693354196982173,104.49205529067609)</t>
+  </si>
+  <si>
+    <t>(1.4092228032907854,104.34785623945605)</t>
+  </si>
+  <si>
+    <t>Park, Pool, Mall, Gym, Bus Stop, Market, Playground, MRT</t>
+  </si>
+  <si>
+    <t>(1.2909627886397017,104.21960199225914)</t>
+  </si>
+  <si>
+    <t>Market, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.279430520916184,104.14784017828158)</t>
+  </si>
+  <si>
+    <t>Playground, MRT, Bus Stop, Mall, Market, Gym, Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.3549375707132403,104.47111964121626)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, Gym, Playground, Market</t>
+  </si>
+  <si>
+    <t>(1.4134479567726055,104.32169674467187)</t>
+  </si>
+  <si>
+    <t>Market, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.4680607872445586,104.35570883158778)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.3741661518019996,104.03642634749994)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, Market</t>
+  </si>
+  <si>
+    <t>(1.4336532546755114,104.0724321362383)</t>
+  </si>
+  <si>
+    <t>Bus Stop, MRT, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.2934089570179261,104.14562937743105)</t>
+  </si>
+  <si>
+    <t>Gym, Mall, Market, Pool, Playground, MRT, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4175371388069749,104.32366014114854)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Gym, Pool, Market, Park, MRT</t>
+  </si>
+  <si>
+    <t>(1.309460580957579,104.25956757479814)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, Pool, MRT, Playground, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.320992450346101,104.21400241022249)</t>
   </si>
   <si>
     <t>Park</t>
   </si>
   <si>
-    <t>(1.3838600325763948,104.04424390275487)</t>
-  </si>
-  <si>
-    <t>Playground, MRT, Pool, Park, Mall, Market, Gym</t>
-  </si>
-  <si>
-    <t>(1.33193099538653,104.44554410563624)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Playground, Pool, MRT, Park, Mall</t>
-  </si>
-  <si>
-    <t>(1.463962847633754,104.44809989426265)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Playground</t>
-  </si>
-  <si>
-    <t>(1.3177817658753714,104.22670702417284)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.287672313568847,104.08612926847486)</t>
-  </si>
-  <si>
-    <t>(1.3794607878517136,104.14945933881816)</t>
-  </si>
-  <si>
-    <t>Mall, Market, Playground, Bus Stop, Gym, Park, MRT, Pool</t>
-  </si>
-  <si>
-    <t>(1.3822608890935442,104.24283835585877)</t>
-  </si>
-  <si>
-    <t>Pool, Market, Gym, MRT, Park, Playground, Mall, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2710343697543585,104.20614018672622)</t>
-  </si>
-  <si>
-    <t>Pool, Park, Gym, Playground, Market, Mall, MRT, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3705976409533398,104.54810735038492)</t>
-  </si>
-  <si>
-    <t>(1.3058977283918338,104.0480902161657)</t>
-  </si>
-  <si>
-    <t>Pool, Mall, Gym, Bus Stop, Playground, Park, MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.3103636867373034,104.63901500261679)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Bus Stop, Pool</t>
-  </si>
-  <si>
-    <t>(1.3624926401687423,104.52493838258329)</t>
-  </si>
-  <si>
-    <t>Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.321673774581881,104.52524089952902)</t>
-  </si>
-  <si>
-    <t>(1.455896806125561,104.40787051102288)</t>
-  </si>
-  <si>
-    <t>Playground, MRT</t>
-  </si>
-  <si>
-    <t>(1.3864020032093747,104.18586643983589)</t>
-  </si>
-  <si>
-    <t>(1.306024542580594,104.31025121428627)</t>
-  </si>
-  <si>
-    <t>(1.4219000814427603,104.24513083252715)</t>
-  </si>
-  <si>
-    <t>Gym, MRT, Market, Mall, Park, Playground, Pool</t>
-  </si>
-  <si>
-    <t>(1.3119779187712686,104.51964093429578)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool</t>
-  </si>
-  <si>
-    <t>(1.3004426060041867,104.5758660622643)</t>
-  </si>
-  <si>
-    <t>MRT, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.3950970837626806,104.14527345178846)</t>
-  </si>
-  <si>
-    <t>Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.2751344467796444,104.12140052576252)</t>
-  </si>
-  <si>
-    <t>(1.4210748947758267,104.35858163063453)</t>
-  </si>
-  <si>
-    <t>Gym, Playground, Park, Market, Mall, Pool, MRT, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3742144667940805,104.31569227636659)</t>
-  </si>
-  <si>
-    <t>Market, MRT, Park, Pool, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.4040159402072874,104.16017999442806)</t>
-  </si>
-  <si>
-    <t>Market, Bus Stop, Playground, Gym, Park, MRT, Pool</t>
-  </si>
-  <si>
-    <t>(1.2950484185765279,104.41377698923688)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.392176159026944,104.27750572979922)</t>
-  </si>
-  <si>
-    <t>(1.316748731061079,104.36668500324555)</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Playground, Park</t>
-  </si>
-  <si>
-    <t>(1.4263738360280422,104.36562077947895)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Gym, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3795443531120684,104.137029018411)</t>
-  </si>
-  <si>
-    <t>Gym, Market, Playground, Park, MRT, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.368596572809614,104.33750409290222)</t>
-  </si>
-  <si>
-    <t>Pool, Playground, Market, Mall, Bus Stop, MRT, Gym</t>
-  </si>
-  <si>
-    <t>(1.3893815627927686,104.11428981357973)</t>
-  </si>
-  <si>
-    <t>Park, Pool, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.4254607816112337,104.32062972284079)</t>
-  </si>
-  <si>
-    <t>Park, Mall, Playground</t>
-  </si>
-  <si>
-    <t>(1.289260572983045,104.31475839997451)</t>
-  </si>
-  <si>
-    <t>Mall, Pool, Gym, Bus Stop, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.368468017885013,104.25160323971569)</t>
-  </si>
-  <si>
-    <t>Market, MRT</t>
-  </si>
-  <si>
-    <t>(1.3650319326849236,104.13905804021496)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.4224575638361179,104.55139302953472)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Mall</t>
-  </si>
-  <si>
-    <t>(1.2779009337812555,104.47447585436313)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Mall, Pool, Playground, Gym</t>
-  </si>
-  <si>
-    <t>(1.3812855801138968,104.44342716139349)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Playground, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.2848497047105591,104.29256645108612)</t>
-  </si>
-  <si>
-    <t>Pool, MRT, Bus Stop, Gym, Market, Park, Mall</t>
-  </si>
-  <si>
-    <t>(1.2968478443325264,104.49528282168099)</t>
-  </si>
-  <si>
-    <t>Mall, MRT, Playground, Pool, Gym, Market</t>
-  </si>
-  <si>
-    <t>(1.2704814539986882,104.4584158640055)</t>
-  </si>
-  <si>
-    <t>Mall, Playground, Pool, MRT, Gym</t>
-  </si>
-  <si>
-    <t>(1.3070186301972138,104.15426331339528)</t>
-  </si>
-  <si>
-    <t>Mall, Playground, Gym, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.29645597801308,104.54685953668854)</t>
-  </si>
-  <si>
-    <t>Playground, Pool, Mall, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.3112264825179005,104.09631445882772)</t>
-  </si>
-  <si>
-    <t>Gym, MRT, Pool, Mall, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4681892814559123,104.27145724951436)</t>
-  </si>
-  <si>
-    <t>MRT</t>
+    <t>(1.3633761733712224,104.61971620939919)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Gym, Mall, Market, MRT, Playground</t>
+  </si>
+  <si>
+    <t>(1.4043071828782638,104.31603436679535)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Market</t>
+  </si>
+  <si>
+    <t>(1.467021650755483,104.33793086007361)</t>
+  </si>
+  <si>
+    <t>Pool, Mall, Park, Playground, Market, Bus Stop, Gym, MRT</t>
+  </si>
+  <si>
+    <t>(1.4464231397906167,104.05762334240802)</t>
+  </si>
+  <si>
+    <t>Gym, Mall, Bus Stop, Playground</t>
+  </si>
+  <si>
+    <t>(1.3063190163056282,104.14964029054653)</t>
+  </si>
+  <si>
+    <t>(1.3190404252026886,104.44775916551743)</t>
+  </si>
+  <si>
+    <t>Park, Mall, Bus Stop</t>
   </si>
 </sst>
 </file>
@@ -953,19 +959,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3257276</v>
+        <v>2920261</v>
       </c>
       <c r="C1">
-        <v>95.64751137865218</v>
+        <v>147.1016018537175</v>
       </c>
       <c r="D1">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1">
-        <v>34055</v>
+        <v>19852</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -979,25 +985,25 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1561677</v>
+        <v>761328</v>
       </c>
       <c r="C2">
-        <v>169.8952349869452</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>25.63825559858562</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>9192</v>
+        <v>29695</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1005,25 +1011,25 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1598140</v>
+        <v>1187992</v>
       </c>
       <c r="C3">
-        <v>53.33889593485081</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>80.74986405655247</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>29962</v>
+        <v>14712</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1031,25 +1037,25 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2759970</v>
+        <v>3457979</v>
       </c>
       <c r="C4">
-        <v>95.46435612742555</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>113.4842637261659</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>28911</v>
+        <v>30471</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1057,25 +1063,25 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4533310</v>
+        <v>3414391</v>
       </c>
       <c r="C5">
-        <v>133.2111897975375</v>
-      </c>
-      <c r="D5">
-        <v>45</v>
+        <v>226.1785241123476</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>34031</v>
+        <v>15096</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1083,25 +1089,25 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2321389</v>
+        <v>134354</v>
       </c>
       <c r="C6">
-        <v>182.1840370428504</v>
-      </c>
-      <c r="D6">
-        <v>27</v>
+        <v>32.14210526315789</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>12742</v>
+        <v>4180</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1109,25 +1115,25 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2113191</v>
+        <v>813011</v>
       </c>
       <c r="C7">
-        <v>485.1219008264463</v>
-      </c>
-      <c r="D7">
-        <v>34</v>
+        <v>51.73142020870451</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>4356</v>
+        <v>15716</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1135,22 +1141,22 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>4153805</v>
+        <v>581408</v>
       </c>
       <c r="C8">
-        <v>229.5173499834236</v>
+        <v>15.39623440934248</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>18098</v>
+        <v>37763</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
@@ -1161,19 +1167,19 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>833312</v>
+        <v>2053702</v>
       </c>
       <c r="C9">
-        <v>37.40179533213644</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
+        <v>87.97558259081563</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
       <c r="F9">
-        <v>22280</v>
+        <v>23344</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -1187,22 +1193,22 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1108464</v>
+        <v>1105579</v>
       </c>
       <c r="C10">
-        <v>28.8167212603338</v>
-      </c>
-      <c r="D10">
-        <v>80</v>
+        <v>38.14972394755004</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10">
-        <v>38466</v>
+        <v>28980</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -1213,25 +1219,25 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>4643429</v>
+        <v>3567623</v>
       </c>
       <c r="C11">
-        <v>278.7506903589867</v>
+        <v>3168.404085257549</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11">
-        <v>16658</v>
+        <v>1126</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1239,25 +1245,25 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1131111</v>
+        <v>4740240</v>
       </c>
       <c r="C12">
-        <v>46.63221470976254</v>
+        <v>401.7152542372881</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>24256</v>
+        <v>11800</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1265,25 +1271,25 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>908344</v>
+        <v>631745</v>
       </c>
       <c r="C13">
-        <v>910.1643286573146</v>
+        <v>257.5397472482674</v>
       </c>
       <c r="D13">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>2453</v>
+      </c>
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13">
-        <v>998</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1291,25 +1297,25 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1888084</v>
+        <v>4641002</v>
       </c>
       <c r="C14">
-        <v>49.78993170011339</v>
+        <v>224.0082054252341</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>37921</v>
+        <v>20718</v>
       </c>
       <c r="G14" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1317,22 +1323,22 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>4806803</v>
+        <v>3634037</v>
       </c>
       <c r="C15">
-        <v>682.7845170454545</v>
+        <v>113.2239842971087</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>7040</v>
+        <v>32096</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
         <v>37</v>
@@ -1343,22 +1349,22 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1752044</v>
+        <v>2282186</v>
       </c>
       <c r="C16">
-        <v>374.7687700534759</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
+        <v>123.4147739563054</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
       </c>
       <c r="F16">
-        <v>4675</v>
+        <v>18492</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
         <v>39</v>
@@ -1369,22 +1375,22 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3852812</v>
+        <v>1803730</v>
       </c>
       <c r="C17">
-        <v>271.0384804783679</v>
+        <v>59.38205761316873</v>
       </c>
       <c r="D17">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
       </c>
       <c r="F17">
-        <v>14215</v>
+        <v>30375</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
         <v>41</v>
@@ -1395,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2544609</v>
+        <v>1187728</v>
       </c>
       <c r="C18">
-        <v>124.4672764625318</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+        <v>223.5933734939759</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>42</v>
       </c>
       <c r="F18">
-        <v>20444</v>
+        <v>5312</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1421,25 +1427,25 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>840354</v>
+        <v>3908609</v>
       </c>
       <c r="C19">
-        <v>55.65995496092198</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+        <v>1732.53945035461</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19">
-        <v>15098</v>
+        <v>2256</v>
       </c>
       <c r="G19" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1447,25 +1453,25 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1181990</v>
+        <v>455639</v>
       </c>
       <c r="C20">
-        <v>34.18230718065878</v>
+        <v>15.41091118176284</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
         <v>46</v>
       </c>
       <c r="F20">
-        <v>34579</v>
+        <v>29566</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1473,25 +1479,25 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>554501</v>
+        <v>4115101</v>
       </c>
       <c r="C21">
-        <v>102.0428781744571</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
+        <v>217.1901092521244</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
       </c>
       <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21">
+        <v>18947</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
         <v>48</v>
-      </c>
-      <c r="F21">
-        <v>5434</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1499,25 +1505,25 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2748051</v>
+        <v>1609232</v>
       </c>
       <c r="C22">
-        <v>341.6698992913092</v>
-      </c>
-      <c r="D22">
-        <v>32</v>
+        <v>43.78505156041684</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
       </c>
       <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22">
+        <v>36753</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
         <v>50</v>
-      </c>
-      <c r="F22">
-        <v>8043</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1525,25 +1531,25 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2287512</v>
+        <v>561510</v>
       </c>
       <c r="C23">
-        <v>174.8595016052591</v>
+        <v>291.8451143451143</v>
       </c>
       <c r="D23">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23">
-        <v>13082</v>
+        <v>1924</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1551,25 +1557,25 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1756821</v>
+        <v>3738465</v>
       </c>
       <c r="C24">
-        <v>78.41900638307369</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
+        <v>97.00723960765997</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24">
-        <v>22403</v>
+        <v>38538</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1577,25 +1583,25 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>455525</v>
+        <v>291516</v>
       </c>
       <c r="C25">
-        <v>67.74613325401546</v>
-      </c>
-      <c r="D25">
-        <v>59</v>
+        <v>21.17498365657006</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F25">
-        <v>6724</v>
+        <v>13767</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1603,25 +1609,25 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>4023299</v>
+        <v>829814</v>
       </c>
       <c r="C26">
-        <v>125.6338683487384</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
+        <v>24.74028800572434</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26">
-        <v>32024</v>
+        <v>33541</v>
       </c>
       <c r="G26" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1629,25 +1635,25 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>621065</v>
+        <v>3954563</v>
       </c>
       <c r="C27">
-        <v>19.12263686187573</v>
-      </c>
-      <c r="D27">
-        <v>23</v>
+        <v>215.9665228551144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27">
-        <v>32478</v>
+        <v>18311</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1655,25 +1661,25 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2152222</v>
+        <v>2505013</v>
       </c>
       <c r="C28">
-        <v>588.5211922340717</v>
-      </c>
-      <c r="D28">
-        <v>46</v>
+        <v>75.47948053513318</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F28">
-        <v>3657</v>
+        <v>33188</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1681,25 +1687,25 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>912543</v>
+        <v>2076106</v>
       </c>
       <c r="C29">
-        <v>63.54313766450804</v>
+        <v>106.7296936047707</v>
       </c>
       <c r="D29">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F29">
-        <v>14361</v>
+        <v>19452</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1707,25 +1713,25 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>4676913</v>
+        <v>108712</v>
       </c>
       <c r="C30">
-        <v>986.4823876819237</v>
+        <v>2.89112281261635</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F30">
-        <v>4741</v>
+        <v>37602</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1733,25 +1739,25 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1348544</v>
+        <v>448852</v>
       </c>
       <c r="C31">
-        <v>50.47512819553094</v>
-      </c>
-      <c r="D31">
-        <v>88</v>
+        <v>15.38745286253</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F31">
-        <v>26717</v>
+        <v>29170</v>
       </c>
       <c r="G31" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1759,25 +1765,25 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>4699011</v>
+        <v>3409264</v>
       </c>
       <c r="C32">
-        <v>141.600452011451</v>
+        <v>99.36648207519674</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32">
+        <v>34310</v>
+      </c>
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" t="s">
         <v>70</v>
-      </c>
-      <c r="F32">
-        <v>33185</v>
-      </c>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1785,25 +1791,25 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1014341</v>
+        <v>1002783</v>
       </c>
       <c r="C33">
-        <v>196.9594174757281</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
+        <v>85.09699592668025</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
       </c>
       <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33">
+        <v>11784</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
         <v>72</v>
-      </c>
-      <c r="F33">
-        <v>5150</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1811,25 +1817,25 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2997355</v>
+        <v>1792286</v>
       </c>
       <c r="C34">
-        <v>394.5964981569247</v>
+        <v>123.9907298512625</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34">
+        <v>14455</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s">
         <v>74</v>
-      </c>
-      <c r="F34">
-        <v>7596</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1837,25 +1843,25 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>2373164</v>
+        <v>1312866</v>
       </c>
       <c r="C35">
-        <v>90.90144405714942</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
+        <v>158.9233748940806</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
       </c>
       <c r="E35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35">
+        <v>8261</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
         <v>76</v>
-      </c>
-      <c r="F35">
-        <v>26107</v>
-      </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1863,25 +1869,25 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>4648046</v>
+        <v>2479799</v>
       </c>
       <c r="C36">
-        <v>233.2770890840652</v>
+        <v>118.5032495460193</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36">
+        <v>20926</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" t="s">
         <v>78</v>
-      </c>
-      <c r="F36">
-        <v>19925</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1889,25 +1895,25 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>4295946</v>
+        <v>1205737</v>
       </c>
       <c r="C37">
-        <v>673.7681932245922</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
+        <v>62.35388116046957</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
       </c>
       <c r="E37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37">
+        <v>19337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
         <v>80</v>
-      </c>
-      <c r="F37">
-        <v>6376</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1915,25 +1921,25 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>450005</v>
+        <v>4552234</v>
       </c>
       <c r="C38">
-        <v>19.29943817815328</v>
-      </c>
-      <c r="D38">
-        <v>98</v>
+        <v>119.3778092465843</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
       </c>
       <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38">
+        <v>38133</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
         <v>82</v>
-      </c>
-      <c r="F38">
-        <v>23317</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1941,25 +1947,25 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>937210</v>
+        <v>1997096</v>
       </c>
       <c r="C39">
-        <v>102.6404555908444</v>
-      </c>
-      <c r="D39">
-        <v>37</v>
+        <v>1514.098559514784</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
       </c>
       <c r="E39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39">
+        <v>1319</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" t="s">
         <v>84</v>
-      </c>
-      <c r="F39">
-        <v>9131</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1967,25 +1973,25 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2783874</v>
+        <v>4831622</v>
       </c>
       <c r="C40">
-        <v>1519.581877729258</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
+        <v>307.9035177160337</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
       </c>
       <c r="E40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40">
+        <v>15692</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
         <v>86</v>
-      </c>
-      <c r="F40">
-        <v>1832</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1993,25 +1999,25 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>4148771</v>
+        <v>3074897</v>
       </c>
       <c r="C41">
-        <v>230.0654910441968</v>
+        <v>178.0278485409912</v>
       </c>
       <c r="D41">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41">
+        <v>17272</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" t="s">
         <v>88</v>
-      </c>
-      <c r="F41">
-        <v>18033</v>
-      </c>
-      <c r="G41" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2019,25 +2025,25 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1141926</v>
+        <v>3972332</v>
       </c>
       <c r="C42">
-        <v>33.15311810474974</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
+        <v>259.4599608099281</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
       </c>
       <c r="E42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42">
+        <v>15310</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
         <v>90</v>
-      </c>
-      <c r="F42">
-        <v>34444</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2045,25 +2051,25 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>3890107</v>
+        <v>815095</v>
       </c>
       <c r="C43">
-        <v>445.7553569382376</v>
+        <v>35.57657893588232</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43">
+        <v>22911</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
         <v>92</v>
-      </c>
-      <c r="F43">
-        <v>8727</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2071,22 +2077,22 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1223052</v>
+        <v>1269882</v>
       </c>
       <c r="C44">
-        <v>35.85716379841098</v>
+        <v>55.36632368329264</v>
       </c>
       <c r="D44">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
         <v>93</v>
       </c>
       <c r="F44">
-        <v>34109</v>
+        <v>22936</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s">
         <v>94</v>
@@ -2097,22 +2103,22 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>608476</v>
+        <v>4856083</v>
       </c>
       <c r="C45">
-        <v>52.75041179020373</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
+        <v>1810.620059656972</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
       </c>
       <c r="E45" t="s">
         <v>95</v>
       </c>
       <c r="F45">
-        <v>11535</v>
+        <v>2682</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
         <v>96</v>
@@ -2123,22 +2129,22 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1779079</v>
+        <v>1037381</v>
       </c>
       <c r="C46">
-        <v>68.71949476611688</v>
-      </c>
-      <c r="D46">
-        <v>98</v>
+        <v>71.87563223169127</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
       </c>
       <c r="E46" t="s">
         <v>97</v>
       </c>
       <c r="F46">
-        <v>25889</v>
+        <v>14433</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="H46" t="s">
         <v>98</v>
@@ -2149,22 +2155,22 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1565745</v>
+        <v>134942</v>
       </c>
       <c r="C47">
-        <v>54.64506334415245</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
+        <v>4.175056464837103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
       </c>
       <c r="E47" t="s">
         <v>99</v>
       </c>
       <c r="F47">
-        <v>28653</v>
+        <v>32321</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
         <v>100</v>
@@ -2175,25 +2181,25 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1974153</v>
+        <v>3365039</v>
       </c>
       <c r="C48">
-        <v>537.6233660130719</v>
+        <v>350.1237124128602</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
         <v>101</v>
       </c>
       <c r="F48">
-        <v>3672</v>
+        <v>9611</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2201,25 +2207,25 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2188654</v>
+        <v>2615706</v>
       </c>
       <c r="C49">
-        <v>211.7710691823899</v>
+        <v>80.36456925156692</v>
       </c>
       <c r="D49">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F49">
-        <v>10335</v>
+        <v>32548</v>
       </c>
       <c r="G49" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2227,25 +2233,25 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>4844791</v>
+        <v>3295005</v>
       </c>
       <c r="C50">
-        <v>226.3075018684604</v>
-      </c>
-      <c r="D50">
-        <v>78</v>
+        <v>187.3865445859873</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F50">
-        <v>21408</v>
+        <v>17584</v>
       </c>
       <c r="G50" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2253,25 +2259,25 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>2714903</v>
+        <v>1448162</v>
       </c>
       <c r="C51">
-        <v>1812.351802403204</v>
+        <v>119.3966526506719</v>
       </c>
       <c r="D51">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F51">
-        <v>1498</v>
+        <v>12129</v>
       </c>
       <c r="G51" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2279,25 +2285,25 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>3394980</v>
+        <v>390642</v>
       </c>
       <c r="C52">
-        <v>2314.233128834356</v>
+        <v>13.47924502260101</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F52">
-        <v>1467</v>
+        <v>28981</v>
       </c>
       <c r="G52" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H52" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2305,22 +2311,22 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>4233049</v>
+        <v>2994343</v>
       </c>
       <c r="C53">
-        <v>158.5352233998727</v>
+        <v>263.8885167885785</v>
       </c>
       <c r="D53">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E53" t="s">
         <v>110</v>
       </c>
       <c r="F53">
-        <v>26701</v>
+        <v>11347</v>
       </c>
       <c r="G53" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
         <v>111</v>
@@ -2331,22 +2337,22 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>571536</v>
+        <v>3012640</v>
       </c>
       <c r="C54">
-        <v>52.30493273542601</v>
-      </c>
-      <c r="D54">
-        <v>60</v>
+        <v>126.8693674724164</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
       </c>
       <c r="E54" t="s">
         <v>112</v>
       </c>
       <c r="F54">
-        <v>10927</v>
+        <v>23746</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s">
         <v>113</v>
@@ -2357,22 +2363,22 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>4338973</v>
+        <v>2725514</v>
       </c>
       <c r="C55">
-        <v>152.5658579465542</v>
-      </c>
-      <c r="D55">
-        <v>92</v>
+        <v>197.2722929936306</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
       </c>
       <c r="E55" t="s">
         <v>114</v>
       </c>
       <c r="F55">
-        <v>28440</v>
+        <v>13816</v>
       </c>
       <c r="G55" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H55" t="s">
         <v>115</v>
@@ -2383,22 +2389,22 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>1188046</v>
+        <v>3480765</v>
       </c>
       <c r="C56">
-        <v>117.0027575339768</v>
+        <v>695.7355586648011</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E56" t="s">
         <v>116</v>
       </c>
       <c r="F56">
-        <v>10154</v>
+        <v>5003</v>
       </c>
       <c r="G56" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
         <v>117</v>
@@ -2409,22 +2415,22 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>2153441</v>
+        <v>477051</v>
       </c>
       <c r="C57">
-        <v>169.963772691397</v>
+        <v>109.9195852534562</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="E57" t="s">
         <v>118</v>
       </c>
       <c r="F57">
-        <v>12670</v>
+        <v>4340</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H57" t="s">
         <v>119</v>
@@ -2435,22 +2441,22 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>2983922</v>
+        <v>471546</v>
       </c>
       <c r="C58">
-        <v>128.0268588835972</v>
+        <v>208.9260079751883</v>
       </c>
       <c r="D58">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E58" t="s">
         <v>120</v>
       </c>
       <c r="F58">
-        <v>23307</v>
+        <v>2257</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H58" t="s">
         <v>121</v>
@@ -2461,22 +2467,22 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>3353889</v>
+        <v>1767491</v>
       </c>
       <c r="C59">
-        <v>553.1731815932707</v>
+        <v>65.55732354141166</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E59" t="s">
         <v>122</v>
       </c>
       <c r="F59">
-        <v>6063</v>
+        <v>26961</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s">
         <v>123</v>
@@ -2487,25 +2493,25 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>3560442</v>
+        <v>1171111</v>
       </c>
       <c r="C60">
-        <v>114.4763037746769</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
+        <v>66.0227195850716</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
       </c>
       <c r="E60" t="s">
         <v>124</v>
       </c>
       <c r="F60">
-        <v>31102</v>
+        <v>17738</v>
       </c>
       <c r="G60" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2513,25 +2519,25 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>4991619</v>
+        <v>4700406</v>
       </c>
       <c r="C61">
-        <v>147.4933959755341</v>
+        <v>134.5394853593611</v>
       </c>
       <c r="D61">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F61">
-        <v>33843</v>
+        <v>34937</v>
       </c>
       <c r="G61" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2539,25 +2545,25 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>3928246</v>
+        <v>2878936</v>
       </c>
       <c r="C62">
-        <v>205.9584753316206</v>
+        <v>979.8965282505105</v>
       </c>
       <c r="D62">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F62">
-        <v>19073</v>
+        <v>2938</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2565,25 +2571,25 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>3916033</v>
+        <v>2337879</v>
       </c>
       <c r="C63">
-        <v>247.7874588711719</v>
+        <v>113.0721125943122</v>
       </c>
       <c r="D63">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F63">
-        <v>15804</v>
+        <v>20676</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H63" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2591,25 +2597,25 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1179874</v>
+        <v>2496056</v>
       </c>
       <c r="C64">
-        <v>95.97933783453998</v>
+        <v>131.6207551149546</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E64" t="s">
         <v>131</v>
       </c>
       <c r="F64">
-        <v>12293</v>
+        <v>18964</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2617,25 +2623,25 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>4118682</v>
+        <v>231915</v>
       </c>
       <c r="C65">
-        <v>446.1793955151121</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
+        <v>6.136616215071973</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F65">
-        <v>9231</v>
+        <v>37792</v>
       </c>
       <c r="G65" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2643,25 +2649,25 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>2429331</v>
+        <v>3095364</v>
       </c>
       <c r="C66">
-        <v>79.65019672131147</v>
+        <v>173.1478435979191</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F66">
-        <v>30500</v>
+        <v>17877</v>
       </c>
       <c r="G66" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2669,22 +2675,22 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>4612840</v>
+        <v>4679541</v>
       </c>
       <c r="C67">
-        <v>160.1346941609387</v>
+        <v>397.9878380676986</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
         <v>136</v>
       </c>
       <c r="F67">
-        <v>28806</v>
+        <v>11758</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H67" t="s">
         <v>137</v>
@@ -2695,25 +2701,25 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>1152125</v>
+        <v>996887</v>
       </c>
       <c r="C68">
-        <v>32.61038777243136</v>
-      </c>
-      <c r="D68">
-        <v>27</v>
+        <v>61.52104418662059</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
       </c>
       <c r="E68" t="s">
         <v>138</v>
       </c>
       <c r="F68">
-        <v>35330</v>
+        <v>16204</v>
       </c>
       <c r="G68" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="H68" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2721,25 +2727,25 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>2941968</v>
+        <v>4432368</v>
       </c>
       <c r="C69">
-        <v>156.6876864081807</v>
+        <v>324.5491689243611</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F69">
-        <v>18776</v>
+        <v>13657</v>
       </c>
       <c r="G69" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2747,25 +2753,25 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>2779006</v>
+        <v>2630589</v>
       </c>
       <c r="C70">
-        <v>79.6390886946554</v>
+        <v>75.06103406950865</v>
       </c>
       <c r="D70">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="E70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F70">
-        <v>34895</v>
+        <v>35046</v>
       </c>
       <c r="G70" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2773,25 +2779,25 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>2138345</v>
+        <v>942673</v>
       </c>
       <c r="C71">
-        <v>70.33566870600619</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
+        <v>43.20818627675666</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F71">
-        <v>30402</v>
+        <v>21817</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H71" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2799,25 +2805,25 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>4885388</v>
+        <v>3599338</v>
       </c>
       <c r="C72">
-        <v>532.6995965543562</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
+        <v>816.5467332123412</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F72">
-        <v>9171</v>
+        <v>4408</v>
       </c>
       <c r="G72" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H72" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2825,25 +2831,25 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>2064858</v>
+        <v>165911</v>
       </c>
       <c r="C73">
-        <v>67.22637147973303</v>
+        <v>7.64109059089025</v>
       </c>
       <c r="D73">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F73">
-        <v>30715</v>
+        <v>21713</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2851,25 +2857,25 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>3950391</v>
+        <v>4182285</v>
       </c>
       <c r="C74">
-        <v>569.548875432526</v>
-      </c>
-      <c r="D74">
-        <v>55</v>
+        <v>335.7646917148362</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F74">
-        <v>6936</v>
+        <v>12456</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H74" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2877,25 +2883,25 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>4430619</v>
+        <v>4606811</v>
       </c>
       <c r="C75">
-        <v>423.8204515018175</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
+        <v>744.8360549717057</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F75">
-        <v>10454</v>
+        <v>6185</v>
       </c>
       <c r="G75" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2903,25 +2909,25 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>4480532</v>
+        <v>3362188</v>
       </c>
       <c r="C76">
-        <v>166.3584450302603</v>
+        <v>87.52279057659769</v>
       </c>
       <c r="D76">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F76">
-        <v>26933</v>
+        <v>38415</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2929,25 +2935,25 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>4326917</v>
+        <v>1945165</v>
       </c>
       <c r="C77">
-        <v>166.1195915076592</v>
-      </c>
-      <c r="D77">
-        <v>74</v>
+        <v>50.94588931667583</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F77">
-        <v>26047</v>
+        <v>38181</v>
       </c>
       <c r="G77" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2955,25 +2961,25 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>4898486</v>
+        <v>4004206</v>
       </c>
       <c r="C78">
-        <v>617.6378766864203</v>
+        <v>353.2603440670489</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E78" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F78">
-        <v>7931</v>
+        <v>11335</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2981,25 +2987,25 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>3876764</v>
+        <v>385979</v>
       </c>
       <c r="C79">
-        <v>100.9232291151433</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
+        <v>13.75058781617385</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F79">
-        <v>38413</v>
+        <v>28070</v>
       </c>
       <c r="G79" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3007,25 +3013,25 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>2828824</v>
+        <v>4532334</v>
       </c>
       <c r="C80">
-        <v>217.1175070995472</v>
+        <v>257.2558746736293</v>
       </c>
       <c r="D80">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E80" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F80">
-        <v>13029</v>
+        <v>17618</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H80" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3033,25 +3039,25 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>3939551</v>
+        <v>1798173</v>
       </c>
       <c r="C81">
-        <v>108.4409424977291</v>
+        <v>167.2407924107143</v>
       </c>
       <c r="D81">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F81">
-        <v>36329</v>
+        <v>10752</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3059,25 +3065,25 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>4487455</v>
+        <v>360260</v>
       </c>
       <c r="C82">
-        <v>117.951241950322</v>
-      </c>
-      <c r="D82">
-        <v>57</v>
+        <v>15.26072775024357</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F82">
-        <v>38045</v>
+        <v>23607</v>
       </c>
       <c r="G82" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H82" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3085,25 +3091,25 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>2161502</v>
+        <v>986667</v>
       </c>
       <c r="C83">
-        <v>84.66517822169996</v>
-      </c>
-      <c r="D83">
-        <v>22</v>
+        <v>48.1935720216871</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F83">
-        <v>25530</v>
+        <v>20473</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H83" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3111,25 +3117,25 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>923129</v>
+        <v>218445</v>
       </c>
       <c r="C84">
-        <v>25.7490446570528</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
+        <v>13.8247579267135</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F84">
-        <v>35851</v>
+        <v>15801</v>
       </c>
       <c r="G84" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3137,25 +3143,25 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>299001</v>
+        <v>1322365</v>
       </c>
       <c r="C85">
-        <v>11.94809190809191</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
+        <v>562.7085106382979</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F85">
-        <v>25025</v>
+        <v>2350</v>
       </c>
       <c r="G85" t="s">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3163,25 +3169,25 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>4159441</v>
+        <v>2004838</v>
       </c>
       <c r="C86">
-        <v>110.5117434507678</v>
+        <v>371.1975560081466</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F86">
-        <v>37638</v>
+        <v>5401</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H86" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3189,25 +3195,25 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>4477131</v>
+        <v>3620201</v>
       </c>
       <c r="C87">
-        <v>202.1825776734104</v>
+        <v>1272.478383128295</v>
       </c>
       <c r="D87">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F87">
-        <v>22144</v>
+        <v>2845</v>
       </c>
       <c r="G87" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="H87" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3215,25 +3221,25 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1194216</v>
+        <v>4214956</v>
       </c>
       <c r="C88">
-        <v>150.8991660348749</v>
+        <v>135.7692382026091</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F88">
-        <v>7914</v>
+        <v>31045</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H88" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3241,25 +3247,25 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>1108635</v>
+        <v>3272998</v>
       </c>
       <c r="C89">
-        <v>41.19788182831661</v>
+        <v>638.2601404056162</v>
       </c>
       <c r="D89">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F89">
-        <v>26910</v>
+        <v>5128</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H89" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3267,25 +3273,25 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>2741624</v>
+        <v>3453533</v>
       </c>
       <c r="C90">
-        <v>135.4758116321589</v>
+        <v>248.867406499964</v>
       </c>
       <c r="D90">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F90">
-        <v>20237</v>
+        <v>13877</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H90" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3293,25 +3299,25 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>959264</v>
+        <v>2952759</v>
       </c>
       <c r="C91">
-        <v>377.811736904293</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
+        <v>794.3930589184827</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F91">
-        <v>2539</v>
+        <v>3717</v>
       </c>
       <c r="G91" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3319,25 +3325,25 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>4052791</v>
+        <v>4832342</v>
       </c>
       <c r="C92">
-        <v>370.3546559444393</v>
+        <v>184.8002600481854</v>
       </c>
       <c r="D92">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F92">
-        <v>10943</v>
+        <v>26149</v>
       </c>
       <c r="G92" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H92" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3345,25 +3351,25 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>3480379</v>
+        <v>581934</v>
       </c>
       <c r="C93">
-        <v>126.0504509072471</v>
-      </c>
-      <c r="D93">
-        <v>42</v>
+        <v>24.78635318170202</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F93">
-        <v>27611</v>
+        <v>23478</v>
       </c>
       <c r="G93" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H93" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3371,25 +3377,25 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>3863859</v>
+        <v>2580884</v>
       </c>
       <c r="C94">
-        <v>275.9505070704185</v>
-      </c>
-      <c r="D94">
-        <v>43</v>
+        <v>77.51566301246433</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F94">
-        <v>14002</v>
+        <v>33295</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H94" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3397,25 +3403,25 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>662583</v>
+        <v>1959503</v>
       </c>
       <c r="C95">
-        <v>514.0287044220325</v>
-      </c>
-      <c r="D95">
-        <v>96</v>
+        <v>71.47036510194405</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F95">
-        <v>1289</v>
+        <v>27417</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H95" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3423,25 +3429,25 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>4713915</v>
+        <v>4299679</v>
       </c>
       <c r="C96">
-        <v>123.7930355313953</v>
+        <v>485.8394350282486</v>
       </c>
       <c r="D96">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F96">
-        <v>38079</v>
+        <v>8850</v>
       </c>
       <c r="G96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H96" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3449,25 +3455,25 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3418354</v>
+        <v>3143852</v>
       </c>
       <c r="C97">
-        <v>183.2995871092284</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
+        <v>98.3006691263836</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F97">
-        <v>18649</v>
+        <v>31982</v>
       </c>
       <c r="G97" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H97" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3475,25 +3481,25 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>4365582</v>
+        <v>1284840</v>
       </c>
       <c r="C98">
-        <v>285.3694600601386</v>
+        <v>45.21059854322812</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F98">
-        <v>15298</v>
+        <v>28419</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H98" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3501,25 +3507,25 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>2794202</v>
+        <v>888300</v>
       </c>
       <c r="C99">
-        <v>108.8635991740367</v>
-      </c>
-      <c r="D99">
-        <v>8</v>
+        <v>201.0183299389002</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F99">
-        <v>25667</v>
+        <v>4419</v>
       </c>
       <c r="G99" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H99" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3527,25 +3533,25 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>4247259</v>
+        <v>4445983</v>
       </c>
       <c r="C100">
-        <v>112.8419724222216</v>
-      </c>
-      <c r="D100">
-        <v>69</v>
+        <v>120.4090293575994</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F100">
-        <v>37639</v>
+        <v>36924</v>
       </c>
       <c r="G100" t="s">
         <v>23</v>
       </c>
       <c r="H100" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/prototype/RGB.xlsx
+++ b/prototype/RGB.xlsx
@@ -14,609 +14,600 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="201">
-  <si>
-    <t>(1.3217410538654801,104.27181409541896)</t>
-  </si>
-  <si>
-    <t>Executive Condo</t>
-  </si>
-  <si>
-    <t>Park, Playground, Bus Stop, Market, Pool, Mall, MRT, Gym</t>
-  </si>
-  <si>
-    <t>Free Hold</t>
-  </si>
-  <si>
-    <t>(1.4578264381435682,104.49280105433851)</t>
-  </si>
-  <si>
-    <t>5 Room Flat</t>
-  </si>
-  <si>
-    <t>MRT, Mall, Market, Gym, Bus Stop, Playground, Pool</t>
-  </si>
-  <si>
-    <t>(1.307223716343131,104.6400907824246)</t>
-  </si>
-  <si>
-    <t>4 Room Flat</t>
-  </si>
-  <si>
-    <t>Park, Market, Playground, MRT, Mall, Pool, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.3426259593938485,104.5795591002795)</t>
-  </si>
-  <si>
-    <t>Pool</t>
-  </si>
-  <si>
-    <t>(1.3868360460111502,104.27678575789297)</t>
-  </si>
-  <si>
-    <t>3 Room Flat</t>
-  </si>
-  <si>
-    <t>Playground, Park</t>
-  </si>
-  <si>
-    <t>(1.4113977625941172,104.09386048875098)</t>
-  </si>
-  <si>
-    <t>Terrace</t>
-  </si>
-  <si>
-    <t>Bus Stop, Market, Pool, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.2777102797875535,104.5988562019776)</t>
-  </si>
-  <si>
-    <t>Market, Gym, Pool, Bus Stop, Park, Mall, Playground</t>
-  </si>
-  <si>
-    <t>(1.3927823717792351,104.49012378664301)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Gym, MRT, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.3293531793391027,104.45399421717958)</t>
-  </si>
-  <si>
-    <t>Shophouse</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="198">
+  <si>
+    <t>Freehold</t>
+  </si>
+  <si>
+    <t>(1.3894905904215642,104.4767231709773)</t>
+  </si>
+  <si>
+    <t>HDB</t>
+  </si>
+  <si>
+    <t>Gym, Mall, Park, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3478860448959573,104.5206707543142)</t>
+  </si>
+  <si>
+    <t>Executive Condominium</t>
+  </si>
+  <si>
+    <t>Mall, Park, Bus Stop, Gym, Playground, Market, MRT</t>
+  </si>
+  <si>
+    <t>(1.4069093181249324,104.31506678379374)</t>
+  </si>
+  <si>
+    <t>Private Property</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>(1.4626658274242006,104.25450534167275)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Park, Gym, Market</t>
+  </si>
+  <si>
+    <t>(1.448131195082653,104.26204445436953)</t>
   </si>
   <si>
     <t>Pool, Market</t>
   </si>
   <si>
-    <t>(1.433674260413089,104.0443302207795)</t>
-  </si>
-  <si>
-    <t>Gym, Market, Bus Stop, Playground, Pool, Mall, MRT</t>
-  </si>
-  <si>
-    <t>(1.4386378756087306,104.05615957323228)</t>
-  </si>
-  <si>
-    <t>Mansion</t>
-  </si>
-  <si>
-    <t>Bus Stop, Mall, Playground, MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.3762803510669832,104.61017236254577)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Market, Park, Pool</t>
-  </si>
-  <si>
-    <t>(1.3050055056158634,104.06738912986637)</t>
-  </si>
-  <si>
-    <t>Mall, Park, MRT, Gym, Pool</t>
-  </si>
-  <si>
-    <t>(1.458631446763417,104.15108059227195)</t>
-  </si>
-  <si>
-    <t>Mall, Market, Gym, Playground, Pool, Park, MRT, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4049962827387006,104.46478710024387)</t>
-  </si>
-  <si>
-    <t>Mall, Pool, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.3327200632907292,104.60520502499328)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.416590265475539,104.57579580813882)</t>
+    <t>(1.3489234839448359,104.24207158513414)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, Market, Gym, Playground</t>
+  </si>
+  <si>
+    <t>(1.4384701563889093,104.14863603766992)</t>
+  </si>
+  <si>
+    <t>Pool, Market, Gym, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.4191918928399767,104.53506508140815)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, MRT, Market, Mall, Gym, Playground</t>
+  </si>
+  <si>
+    <t>(1.3570661835390891,104.31418293421795)</t>
+  </si>
+  <si>
+    <t>Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4599492869267525,104.54473839676017)</t>
+  </si>
+  <si>
+    <t>Playground, Bus Stop, MRT, Park, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.3925299835849474,104.36814524378627)</t>
+  </si>
+  <si>
+    <t>Playground, Park, MRT, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.2913641685949027,104.51059369192275)</t>
+  </si>
+  <si>
+    <t>Playground, MRT, Park</t>
+  </si>
+  <si>
+    <t>(1.3698254470873328,104.44222675965536)</t>
+  </si>
+  <si>
+    <t>Gym, Pool, Mall, Park, Market, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3893420852177008,104.28094560073694)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Market, Park</t>
+  </si>
+  <si>
+    <t>(1.3458923020908293,104.64260210476306)</t>
+  </si>
+  <si>
+    <t>Market, Park</t>
+  </si>
+  <si>
+    <t>(1.2764938024090347,104.05495607902152)</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>(1.4416536577716952,104.15904596552262)</t>
-  </si>
-  <si>
-    <t>Private Condo</t>
-  </si>
-  <si>
-    <t>Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4624977368523715,104.16329544378635)</t>
-  </si>
-  <si>
-    <t>(1.3184063287977201,104.55242770745309)</t>
-  </si>
-  <si>
-    <t>(1.404591556541349,104.59894319393808)</t>
-  </si>
-  <si>
-    <t>Gym</t>
-  </si>
-  <si>
-    <t>(1.2910428073914058,104.49569172801965)</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Bus Stop, MRT, Gym, Pool, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.298773753308161,104.19532912128595)</t>
-  </si>
-  <si>
-    <t>(1.43750131553675,104.48712191119985)</t>
-  </si>
-  <si>
-    <t>Mall, Pool, Gym, MRT, Market, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.2899521794952746,104.57007976843109)</t>
-  </si>
-  <si>
-    <t>Playground, Gym, Bus Stop, Pool, Market, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.4372597509393024,104.29797899195846)</t>
-  </si>
-  <si>
-    <t>Bungalow</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Gym, MRT, Market, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.280239424717622,104.53102553814621)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, MRT, Park, Market, Gym</t>
-  </si>
-  <si>
-    <t>(1.442443918909462,104.27886979978943)</t>
-  </si>
-  <si>
-    <t>Gym, Bus Stop, Playground, Mall, Park, MRT, Pool, Market</t>
-  </si>
-  <si>
-    <t>(1.3523553565476836,104.5041755135612)</t>
-  </si>
-  <si>
-    <t>Gym, Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.397230504847218,104.49215768276379)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Playground, Market, Bus Stop, Mall</t>
-  </si>
-  <si>
-    <t>(1.4217175814636769,104.20962226477207)</t>
-  </si>
-  <si>
-    <t>Market, Pool, Mall, MRT, Playground, Bus Stop, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.3796170716405185,104.27278291183336)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Mall</t>
-  </si>
-  <si>
-    <t>(1.3016015855818353,104.19310100488919)</t>
-  </si>
-  <si>
-    <t>MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.381156275043274,104.56892678476251)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Park, Playground, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.4083229358057392,104.34971439069645)</t>
-  </si>
-  <si>
-    <t>Park, Market, Mall, Pool, Bus Stop, Gym, MRT, Playground</t>
-  </si>
-  <si>
-    <t>(1.365377358233594,104.40886081284718)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Market, Bus Stop, Playground, Park, Mall</t>
-  </si>
-  <si>
-    <t>(1.355040483777655,104.25867287972326)</t>
-  </si>
-  <si>
-    <t>Pool, Gym, Mall</t>
-  </si>
-  <si>
-    <t>(1.4576033654051088,104.46692850658607)</t>
-  </si>
-  <si>
-    <t>Pool, Bus Stop, Gym, Playground</t>
-  </si>
-  <si>
-    <t>(1.332809486912252,104.44012850363606)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Market, Park, Gym, Mall, MRT</t>
-  </si>
-  <si>
-    <t>(1.3685327707231143,104.47741881791875)</t>
-  </si>
-  <si>
-    <t>Pool, MRT, Gym, Bus Stop, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.3516323775147239,104.15914668481399)</t>
+    <t>(1.445052730120356,104.02818231415958)</t>
+  </si>
+  <si>
+    <t>Playground, Mall, Pool, MRT, Gym, Market, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.4312061596379948,104.1504550383104)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Mall, Pool, Market</t>
+  </si>
+  <si>
+    <t>(1.3659529426619952,104.39221033523009)</t>
+  </si>
+  <si>
+    <t>Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.4192446602429378,104.24244231546108)</t>
+  </si>
+  <si>
+    <t>Market, Gym, MRT, Mall, Playground</t>
+  </si>
+  <si>
+    <t>(1.3499427638718888,104.27185762317764)</t>
+  </si>
+  <si>
+    <t>Mall, Gym, Bus Stop, Pool, Park, MRT, Playground, Market</t>
+  </si>
+  <si>
+    <t>(1.318905357641771,104.19194900125532)</t>
+  </si>
+  <si>
+    <t>Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.4148140772799196,104.20809553048126)</t>
+  </si>
+  <si>
+    <t>Gym, Mall, Park</t>
+  </si>
+  <si>
+    <t>(1.3740309756364462,104.172316217982)</t>
+  </si>
+  <si>
+    <t>Playground, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.3359858389003176,104.58605319222727)</t>
+  </si>
+  <si>
+    <t>Playground, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.4608952074465729,104.38054331628014)</t>
+  </si>
+  <si>
+    <t>Playground, MRT, Market, Bus Stop, Gym, Park, Pool</t>
+  </si>
+  <si>
+    <t>(1.3755613672875364,104.04206925764835)</t>
+  </si>
+  <si>
+    <t>Playground, Park, Pool, Gym, Market, Mall, Bus Stop, MRT</t>
+  </si>
+  <si>
+    <t>(1.4297479606584755,104.12465219269097)</t>
+  </si>
+  <si>
+    <t>Pool, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.2926289065743328,104.62546755209415)</t>
+  </si>
+  <si>
+    <t>Pool, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3622699365924242,104.10003725565068)</t>
+  </si>
+  <si>
+    <t>Playground, Mall, Pool, MRT, Market</t>
+  </si>
+  <si>
+    <t>(1.4562862206438396,104.3128129802637)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Market, Playground, Pool, Mall, MRT, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.401411509248339,104.16028273819896)</t>
+  </si>
+  <si>
+    <t>Park, Playground, Mall, Gym, MRT</t>
+  </si>
+  <si>
+    <t>(1.393586163698429,104.0414113479654)</t>
+  </si>
+  <si>
+    <t>(1.346194455153728,104.55196717326298)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Market, Mall, Playground, Gym, Pool, MRT</t>
+  </si>
+  <si>
+    <t>(1.3732346679137608,104.02916442171718)</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>(1.4308660051417974,104.19240422039792)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Playground, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.3469392323870764,104.55862808155224)</t>
+  </si>
+  <si>
+    <t>Market, Playground, Park, Bus Stop, Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.2891598932759132,104.40630222948835)</t>
+  </si>
+  <si>
+    <t>MRT, Bus Stop, Playground, Market, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.2923428649723978,104.45150983216861)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Gym, Mall, Playground, Bus Stop, Pool, Market</t>
+  </si>
+  <si>
+    <t>(1.4554292293065563,104.56231751049211)</t>
+  </si>
+  <si>
+    <t>Park, Playground, MRT, Gym, Bus Stop, Market, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.3097713834175655,104.09238403327019)</t>
+  </si>
+  <si>
+    <t>MRT, Park</t>
+  </si>
+  <si>
+    <t>(1.3162333086502507,104.58565279696764)</t>
+  </si>
+  <si>
+    <t>Market, Pool, MRT</t>
+  </si>
+  <si>
+    <t>(1.3600954150095013,104.33979217036693)</t>
+  </si>
+  <si>
+    <t>Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.373225428876679,104.35073082701626)</t>
+  </si>
+  <si>
+    <t>(1.3874540621023144,104.54687979424767)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop, Mall, MRT, Playground, Park</t>
+  </si>
+  <si>
+    <t>(1.298513574909235,104.5461140755436)</t>
+  </si>
+  <si>
+    <t>Playground, MRT, Park, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.31188685571011,104.38657276573903)</t>
   </si>
   <si>
     <t>Mall</t>
   </si>
   <si>
-    <t>(1.4132375978477263,104.07234605755315)</t>
-  </si>
-  <si>
-    <t>Playground, Bus Stop, Market, Mall, Gym</t>
-  </si>
-  <si>
-    <t>(1.4098089396876716,104.52258573516266)</t>
-  </si>
-  <si>
-    <t>Playground, Pool, Park, Gym, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.2915064384363186,104.47660745004767)</t>
-  </si>
-  <si>
-    <t>Park, Mall, Market, Gym, Pool, Bus Stop, MRT</t>
-  </si>
-  <si>
-    <t>(1.3201228631302029,104.27984567636943)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Market, Gym</t>
-  </si>
-  <si>
-    <t>(1.353163234678874,104.12436552607527)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Playground, Pool, Mall, Park, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.3547573391666874,104.47704667385109)</t>
-  </si>
-  <si>
-    <t>MRT, Mall, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.393145151359821,104.10139567850698)</t>
-  </si>
-  <si>
-    <t>Pool, Playground, Mall, MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.4515720708995037,104.07673716762729)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Park, Mall</t>
-  </si>
-  <si>
-    <t>(1.3100254145528558,104.16286700772125)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Mall, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3420838114794489,104.39839802309903)</t>
-  </si>
-  <si>
-    <t>Gym, MRT, Park, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.3869986035749229,104.31611390580704)</t>
-  </si>
-  <si>
-    <t>(1.391337764392163,104.64064539270215)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.3701157247438236,104.3458470645681)</t>
-  </si>
-  <si>
-    <t>Pool, Mall, Gym, MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.4133052896682734,104.48419667553917)</t>
-  </si>
-  <si>
-    <t>MRT, Park, Mall, Playground, Bus Stop, Gym, Market, Pool</t>
-  </si>
-  <si>
-    <t>(1.3884314642916382,104.43342566755695)</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Bus Stop, Pool</t>
-  </si>
-  <si>
-    <t>(1.372389510519124,104.47275935274372)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Gym, Playground, Mall, Pool, Park, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3789620547482155,104.53291705533378)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Market, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2774042985438314,104.13084407613232)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Playground, Mall, Gym, Market, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3959808416234083,104.43385618058207)</t>
-  </si>
-  <si>
-    <t>Park, Pool, Mall, Gym, MRT, Market, Playground</t>
-  </si>
-  <si>
-    <t>(1.3341570230866586,104.11502889838901)</t>
-  </si>
-  <si>
-    <t>Gym, Playground, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.3965852551074636,104.36975919930319)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, MRT</t>
-  </si>
-  <si>
-    <t>(1.4455541988990104,104.09901252880668)</t>
-  </si>
-  <si>
-    <t>(1.3567355217807868,104.2977213523106)</t>
-  </si>
-  <si>
-    <t>Market, Bus Stop, Gym, Mall, Park</t>
-  </si>
-  <si>
-    <t>(1.3878089409381265,104.08537786386142)</t>
-  </si>
-  <si>
-    <t>Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.4090441098911466,104.21381175440054)</t>
-  </si>
-  <si>
-    <t>(1.4623044449422677,104.22258200685427)</t>
-  </si>
-  <si>
-    <t>Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.3238747038522458,104.61065643412437)</t>
-  </si>
-  <si>
-    <t>Mall, Market, Playground, Bus Stop, Gym, Pool</t>
-  </si>
-  <si>
-    <t>(1.2769690448397522,104.62467744529322)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Playground, Mall, Gym</t>
-  </si>
-  <si>
-    <t>(1.4550871229950497,104.2375469932883)</t>
-  </si>
-  <si>
-    <t>Mall, Park</t>
-  </si>
-  <si>
-    <t>(1.2806957842774251,104.09705914201402)</t>
-  </si>
-  <si>
-    <t>Park, MRT</t>
-  </si>
-  <si>
-    <t>(1.311116401415026,104.39754852526993)</t>
+    <t>(1.3785480719202439,104.33598178483615)</t>
+  </si>
+  <si>
+    <t>MRT, Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4340656853897797,104.3903986740565)</t>
+  </si>
+  <si>
+    <t>Mall, Playground, Pool</t>
+  </si>
+  <si>
+    <t>(1.455347303096121,104.37381042274825)</t>
+  </si>
+  <si>
+    <t>Park, Gym, MRT</t>
+  </si>
+  <si>
+    <t>(1.3985863626087784,104.34130443101589)</t>
+  </si>
+  <si>
+    <t>Park, Pool, MRT, Bus Stop, Market, Mall, Playground, Gym</t>
+  </si>
+  <si>
+    <t>(1.3644196852588892,104.26022907080018)</t>
+  </si>
+  <si>
+    <t>Pool, Bus Stop, Gym, Mall, MRT, Park, Playground, Market</t>
+  </si>
+  <si>
+    <t>(1.395541379348349,104.36638286502753)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Gym, Pool, MRT, Park</t>
+  </si>
+  <si>
+    <t>(1.3766334204341923,104.36550369076369)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, MRT, Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.3953156955736976,104.37642393260272)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Market, MRT, Pool, Bus Stop, Mall</t>
+  </si>
+  <si>
+    <t>(1.3038214135779091,104.12162465724727)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Market, Mall, Pool, MRT</t>
+  </si>
+  <si>
+    <t>(1.4315869768468388,104.32710301341315)</t>
+  </si>
+  <si>
+    <t>Playground, Mall, Gym, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2962156544171406,104.43498791240489)</t>
+  </si>
+  <si>
+    <t>Market, Playground, Park, Gym, Bus Stop, Pool, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.464621591588068,104.31880500015161)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Market, Pool</t>
+  </si>
+  <si>
+    <t>(1.2808783930646876,104.49701730028514)</t>
+  </si>
+  <si>
+    <t>(1.359668930233392,104.06971379842341)</t>
+  </si>
+  <si>
+    <t>Market, Park, Playground, Gym</t>
+  </si>
+  <si>
+    <t>(1.4654372184763937,104.1130698291564)</t>
+  </si>
+  <si>
+    <t>Market, Pool</t>
+  </si>
+  <si>
+    <t>(1.3588362754554275,104.54027618404676)</t>
+  </si>
+  <si>
+    <t>Mall, Playground, MRT, Park, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3464478901624646,104.64026892647804)</t>
+  </si>
+  <si>
+    <t>Playground, Pool, Mall, Park, Market, MRT, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.391664312763094,104.59714365664271)</t>
+  </si>
+  <si>
+    <t>Park, Gym, Market, Playground, MRT</t>
+  </si>
+  <si>
+    <t>(1.3756306343159663,104.53857988745366)</t>
+  </si>
+  <si>
+    <t>Park, Pool, Mall, Market, MRT, Gym, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3552924381228726,104.39090742767885)</t>
+  </si>
+  <si>
+    <t>Playground, Park, Pool, MRT, Gym, Bus Stop, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.3461408436391817,104.02880984642326)</t>
+  </si>
+  <si>
+    <t>(1.3243541159201686,104.11087012110154)</t>
+  </si>
+  <si>
+    <t>Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.4263524425455953,104.27141468863546)</t>
+  </si>
+  <si>
+    <t>MRT, Bus Stop, Playground, Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.4675109004934441,104.61488506120544)</t>
+  </si>
+  <si>
+    <t>Playground, Pool, MRT, Gym, Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3497010512809826,104.57469399744019)</t>
+  </si>
+  <si>
+    <t>Market, MRT, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.3318138512046596,104.28724805779501)</t>
+  </si>
+  <si>
+    <t>Mall, Park, Bus Stop, Playground, Market</t>
+  </si>
+  <si>
+    <t>(1.3572469766996822,104.57443976009964)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Mall, MRT, Gym</t>
+  </si>
+  <si>
+    <t>(1.4570077248877369,104.30360854461222)</t>
+  </si>
+  <si>
+    <t>(1.3162543614119289,104.6088956685973)</t>
+  </si>
+  <si>
+    <t>MRT, Pool</t>
+  </si>
+  <si>
+    <t>(1.313218883952678,104.62207822780996)</t>
+  </si>
+  <si>
+    <t>Market, Park, Playground</t>
+  </si>
+  <si>
+    <t>(1.3244620502979167,104.51769457061862)</t>
+  </si>
+  <si>
+    <t>Market, Gym, Park, Playground, Bus Stop, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.3524079162038087,104.20053729371838)</t>
+  </si>
+  <si>
+    <t>Pool, Gym, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.3238844716496554,104.3988908549891)</t>
+  </si>
+  <si>
+    <t>Market, Park, Pool</t>
+  </si>
+  <si>
+    <t>(1.3541498909836818,104.57627248707036)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Mall, Pool, Gym, MRT, Park</t>
+  </si>
+  <si>
+    <t>(1.467493077375039,104.21966685849846)</t>
+  </si>
+  <si>
+    <t>Pool, MRT, Park, Market, Bus Stop, Mall</t>
+  </si>
+  <si>
+    <t>(1.4676736519891496,104.10374476860439)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.3389751608348934,104.1863282669569)</t>
+  </si>
+  <si>
+    <t>(1.466342017841384,104.30721370986346)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, Gym, Park, MRT, Mall, Playground</t>
+  </si>
+  <si>
+    <t>(1.4516805905253556,104.29799436328157)</t>
   </si>
   <si>
     <t>Market</t>
   </si>
   <si>
-    <t>(1.2734308348617114,104.37906267222691)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Playground, Gym, Pool, Park, MRT</t>
-  </si>
-  <si>
-    <t>(1.3654887032151937,104.5965536374197)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Bus Stop, Mall, Playground, Pool, Market, MRT</t>
-  </si>
-  <si>
-    <t>(1.2967880942591679,104.31661010393515)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, Mall, Gym, Market, Playground</t>
-  </si>
-  <si>
-    <t>(1.333177709639175,104.44984880820179)</t>
-  </si>
-  <si>
-    <t>(1.3102967347660446,104.39490863317447)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Park, Bus Stop, Gym, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.331553229158701,104.09957165388633)</t>
-  </si>
-  <si>
-    <t>Pool, MRT, Market, Playground, Park, Gym, Mall</t>
-  </si>
-  <si>
-    <t>(1.3876418719075332,104.10859469087589)</t>
-  </si>
-  <si>
-    <t>Gym, Bus Stop, MRT</t>
-  </si>
-  <si>
-    <t>(1.3566442230537534,104.19558448876934)</t>
-  </si>
-  <si>
-    <t>Bus Stop, MRT, Playground, Gym</t>
-  </si>
-  <si>
-    <t>(1.4649461048450507,104.42446927295859)</t>
-  </si>
-  <si>
-    <t>Mall, MRT, Park, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3693354196982173,104.49205529067609)</t>
-  </si>
-  <si>
-    <t>(1.4092228032907854,104.34785623945605)</t>
-  </si>
-  <si>
-    <t>Park, Pool, Mall, Gym, Bus Stop, Market, Playground, MRT</t>
-  </si>
-  <si>
-    <t>(1.2909627886397017,104.21960199225914)</t>
-  </si>
-  <si>
-    <t>Market, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.279430520916184,104.14784017828158)</t>
-  </si>
-  <si>
-    <t>Playground, MRT, Bus Stop, Mall, Market, Gym, Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.3549375707132403,104.47111964121626)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Gym, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.4134479567726055,104.32169674467187)</t>
-  </si>
-  <si>
-    <t>Market, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.4680607872445586,104.35570883158778)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.3741661518019996,104.03642634749994)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Market</t>
-  </si>
-  <si>
-    <t>(1.4336532546755114,104.0724321362383)</t>
-  </si>
-  <si>
-    <t>Bus Stop, MRT, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.2934089570179261,104.14562937743105)</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Market, Pool, Playground, MRT, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4175371388069749,104.32366014114854)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Gym, Pool, Market, Park, MRT</t>
-  </si>
-  <si>
-    <t>(1.309460580957579,104.25956757479814)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Pool, MRT, Playground, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.320992450346101,104.21400241022249)</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>(1.3633761733712224,104.61971620939919)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Gym, Mall, Market, MRT, Playground</t>
-  </si>
-  <si>
-    <t>(1.4043071828782638,104.31603436679535)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Market</t>
-  </si>
-  <si>
-    <t>(1.467021650755483,104.33793086007361)</t>
-  </si>
-  <si>
-    <t>Pool, Mall, Park, Playground, Market, Bus Stop, Gym, MRT</t>
-  </si>
-  <si>
-    <t>(1.4464231397906167,104.05762334240802)</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Bus Stop, Playground</t>
-  </si>
-  <si>
-    <t>(1.3063190163056282,104.14964029054653)</t>
-  </si>
-  <si>
-    <t>(1.3190404252026886,104.44775916551743)</t>
-  </si>
-  <si>
-    <t>Park, Mall, Bus Stop</t>
+    <t>(1.3477884256723933,104.05441699864377)</t>
+  </si>
+  <si>
+    <t>Gym, Pool, MRT, Bus Stop, Playground, Market, Park</t>
+  </si>
+  <si>
+    <t>(1.3386146938551167,104.19357452798286)</t>
+  </si>
+  <si>
+    <t>Pool, MRT, Playground, Gym, Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2819105754648537,104.24924271727826)</t>
+  </si>
+  <si>
+    <t>Gym, Pool, Market, Playground, Park, Mall, MRT, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.446593488941607,104.40449141851663)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Playground, Mall, Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.4603200246637855,104.58583863342686)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Pool, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.3450178168189804,104.56747925580635)</t>
+  </si>
+  <si>
+    <t>Park, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.380824641648786,104.47648650953981)</t>
+  </si>
+  <si>
+    <t>Gym, MRT, Bus Stop, Market, Playground</t>
+  </si>
+  <si>
+    <t>(1.3546585753622304,104.19250288589114)</t>
+  </si>
+  <si>
+    <t>Playground, Market, MRT</t>
+  </si>
+  <si>
+    <t>(1.461652493063212,104.60573911276414)</t>
+  </si>
+  <si>
+    <t>Gym, Pool, MRT, Bus Stop, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.3922373476463474,104.4022741046317)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.4620725216586938,104.40436475327556)</t>
+  </si>
+  <si>
+    <t>Pool, MRT</t>
+  </si>
+  <si>
+    <t>(1.3876453501474089,104.20306562702103)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Bus Stop, Pool, Playground, Market, Mall, Gym</t>
+  </si>
+  <si>
+    <t>(1.2688619696833903,104.49491080879244)</t>
+  </si>
+  <si>
+    <t>Park, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.3304475255813495,104.1197015562024)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Pool, Playground, Gym, Mall, Bus Stop</t>
   </si>
 </sst>
 </file>
@@ -959,25 +950,25 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>2920261</v>
+        <v>1078913</v>
       </c>
       <c r="C1">
-        <v>147.1016018537175</v>
-      </c>
-      <c r="D1">
-        <v>99</v>
+        <v>27.98954523049783</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>19852</v>
+        <v>38547</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -985,19 +976,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>761328</v>
+        <v>3104073</v>
       </c>
       <c r="C2">
-        <v>25.63825559858562</v>
+        <v>129.3741091151586</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>29695</v>
+        <v>23993</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -1011,19 +1002,19 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1187992</v>
+        <v>1466055</v>
       </c>
       <c r="C3">
-        <v>80.74986405655247</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
+        <v>41.06941759811749</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3">
-        <v>14712</v>
+        <v>35697</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -1037,22 +1028,22 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3457979</v>
+        <v>568517</v>
       </c>
       <c r="C4">
-        <v>113.4842637261659</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
+        <v>136.1717365269461</v>
+      </c>
+      <c r="D4">
+        <v>999</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>30471</v>
+        <v>4175</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -1063,25 +1054,25 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3414391</v>
+        <v>345180</v>
       </c>
       <c r="C5">
-        <v>226.1785241123476</v>
+        <v>51.61184210526316</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5">
-        <v>15096</v>
+        <v>6688</v>
       </c>
       <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1089,25 +1080,25 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>134354</v>
+        <v>3480437</v>
       </c>
       <c r="C6">
-        <v>32.14210526315789</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
+        <v>90.19246417372827</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>38589</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
-      </c>
-      <c r="F6">
-        <v>4180</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1115,25 +1106,25 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>813011</v>
+        <v>4692058</v>
       </c>
       <c r="C7">
-        <v>51.73142020870451</v>
+        <v>151.2591231463572</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>15716</v>
+        <v>31020</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1141,25 +1132,25 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>581408</v>
+        <v>1730137</v>
       </c>
       <c r="C8">
-        <v>15.39623440934248</v>
-      </c>
-      <c r="D8">
-        <v>99</v>
+        <v>273.5394466403162</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>37763</v>
+        <v>6325</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1167,25 +1158,25 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2053702</v>
+        <v>3904021</v>
       </c>
       <c r="C9">
-        <v>87.97558259081563</v>
+        <v>226.0317855488652</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>23344</v>
+        <v>17272</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1193,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1105579</v>
+        <v>2115292</v>
       </c>
       <c r="C10">
-        <v>38.14972394755004</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
+        <v>86.12752442996742</v>
+      </c>
+      <c r="D10">
+        <v>999</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>28980</v>
+        <v>24560</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1219,25 +1210,25 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>3567623</v>
+        <v>2689019</v>
       </c>
       <c r="C11">
-        <v>3168.404085257549</v>
-      </c>
-      <c r="D11">
-        <v>99</v>
+        <v>588.2780573178735</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11">
-        <v>1126</v>
+        <v>4571</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1245,25 +1236,25 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>4740240</v>
+        <v>378628</v>
       </c>
       <c r="C12">
-        <v>401.7152542372881</v>
+        <v>10.64907889185769</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>11800</v>
+        <v>35555</v>
       </c>
       <c r="G12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1271,25 +1262,25 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>631745</v>
+        <v>3641384</v>
       </c>
       <c r="C13">
-        <v>257.5397472482674</v>
+        <v>239.8171759747102</v>
       </c>
       <c r="D13">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>2453</v>
+        <v>15184</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1297,25 +1288,25 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4641002</v>
+        <v>2978107</v>
       </c>
       <c r="C14">
-        <v>224.0082054252341</v>
-      </c>
-      <c r="D14">
-        <v>99</v>
+        <v>167.6767636957379</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>20718</v>
+        <v>17761</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1323,25 +1314,25 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>3634037</v>
+        <v>602100</v>
       </c>
       <c r="C15">
-        <v>113.2239842971087</v>
+        <v>16.48324572930355</v>
       </c>
       <c r="D15">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>32096</v>
+        <v>36528</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1349,25 +1340,25 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2282186</v>
+        <v>1242340</v>
       </c>
       <c r="C16">
-        <v>123.4147739563054</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
+        <v>56.2373817391698</v>
+      </c>
+      <c r="D16">
+        <v>999</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>18492</v>
+        <v>22091</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1375,25 +1366,25 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1803730</v>
+        <v>2927388</v>
       </c>
       <c r="C17">
-        <v>59.38205761316873</v>
+        <v>455.0579822788745</v>
       </c>
       <c r="D17">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>30375</v>
+        <v>6433</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1401,25 +1392,25 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1187728</v>
+        <v>1263436</v>
       </c>
       <c r="C18">
-        <v>223.5933734939759</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
+        <v>72.79534454943536</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>5312</v>
+        <v>17356</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1427,25 +1418,25 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>3908609</v>
+        <v>1457437</v>
       </c>
       <c r="C19">
-        <v>1732.53945035461</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
+        <v>43.51467470814797</v>
+      </c>
+      <c r="D19">
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>2256</v>
+        <v>33493</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1453,25 +1444,25 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>455639</v>
+        <v>128512</v>
       </c>
       <c r="C20">
-        <v>15.41091118176284</v>
+        <v>5.025300121221601</v>
       </c>
       <c r="D20">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>29566</v>
+        <v>25573</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1479,25 +1470,25 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>4115101</v>
+        <v>1544406</v>
       </c>
       <c r="C21">
-        <v>217.1901092521244</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
+        <v>134.0746592586162</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F21">
-        <v>18947</v>
+        <v>11519</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1505,25 +1496,25 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1609232</v>
+        <v>4784004</v>
       </c>
       <c r="C22">
-        <v>43.78505156041684</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
+        <v>1118.019163355924</v>
+      </c>
+      <c r="D22">
+        <v>999</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F22">
-        <v>36753</v>
+        <v>4279</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1531,25 +1522,25 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>561510</v>
+        <v>2544516</v>
       </c>
       <c r="C23">
-        <v>291.8451143451143</v>
-      </c>
-      <c r="D23">
-        <v>99</v>
+        <v>98.13776612156742</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F23">
-        <v>1924</v>
+        <v>25928</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1557,25 +1548,25 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>3738465</v>
+        <v>2007428</v>
       </c>
       <c r="C24">
-        <v>97.00723960765997</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
+        <v>104.3415977961432</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <v>38538</v>
+        <v>19239</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1583,25 +1574,25 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>291516</v>
+        <v>2535946</v>
       </c>
       <c r="C25">
-        <v>21.17498365657006</v>
+        <v>81.51808158410749</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F25">
-        <v>13767</v>
+        <v>31109</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1609,25 +1600,25 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>829814</v>
+        <v>4719155</v>
       </c>
       <c r="C26">
-        <v>24.74028800572434</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
+        <v>519.330362055684</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F26">
-        <v>33541</v>
+        <v>9087</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1635,25 +1626,25 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>3954563</v>
+        <v>2053117</v>
       </c>
       <c r="C27">
-        <v>215.9665228551144</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
+        <v>104.2297187531729</v>
+      </c>
+      <c r="D27">
+        <v>999</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F27">
-        <v>18311</v>
+        <v>19698</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1661,25 +1652,25 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2505013</v>
+        <v>3923775</v>
       </c>
       <c r="C28">
-        <v>75.47948053513318</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
+        <v>148.3244499886596</v>
+      </c>
+      <c r="D28">
+        <v>999</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F28">
-        <v>33188</v>
+        <v>26454</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1687,25 +1678,25 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2076106</v>
+        <v>743450</v>
       </c>
       <c r="C29">
-        <v>106.7296936047707</v>
+        <v>27.14311792625046</v>
       </c>
       <c r="D29">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F29">
-        <v>19452</v>
+        <v>27390</v>
       </c>
       <c r="G29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1713,25 +1704,25 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>108712</v>
+        <v>3030271</v>
       </c>
       <c r="C30">
-        <v>2.89112281261635</v>
+        <v>242.4410752860229</v>
       </c>
       <c r="D30">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F30">
-        <v>37602</v>
+        <v>12499</v>
       </c>
       <c r="G30" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1739,25 +1730,25 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>448852</v>
+        <v>4083146</v>
       </c>
       <c r="C31">
-        <v>15.38745286253</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
+        <v>292.7406079724691</v>
+      </c>
+      <c r="D31">
+        <v>999</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F31">
-        <v>29170</v>
+        <v>13948</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1765,25 +1756,25 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>3409264</v>
+        <v>4536585</v>
       </c>
       <c r="C32">
-        <v>99.36648207519674</v>
+        <v>333.1315171097077</v>
       </c>
       <c r="D32">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F32">
-        <v>34310</v>
+        <v>13618</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1791,25 +1782,25 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1002783</v>
+        <v>4565417</v>
       </c>
       <c r="C33">
-        <v>85.09699592668025</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
+        <v>546.8875179683756</v>
+      </c>
+      <c r="D33">
+        <v>999</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F33">
-        <v>11784</v>
+        <v>8348</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1817,25 +1808,25 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1792286</v>
+        <v>1544685</v>
       </c>
       <c r="C34">
-        <v>123.9907298512625</v>
+        <v>111.4250162302532</v>
       </c>
       <c r="D34">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F34">
-        <v>14455</v>
+        <v>13863</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1843,25 +1834,25 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1312866</v>
+        <v>3979715</v>
       </c>
       <c r="C35">
-        <v>158.9233748940806</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
+        <v>1185.850715137068</v>
+      </c>
+      <c r="D35">
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F35">
-        <v>8261</v>
+        <v>3356</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1869,25 +1860,25 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2479799</v>
+        <v>4567704</v>
       </c>
       <c r="C36">
-        <v>118.5032495460193</v>
+        <v>145.2323932466376</v>
       </c>
       <c r="D36">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F36">
-        <v>20926</v>
+        <v>31451</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1895,25 +1886,25 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1205737</v>
+        <v>1964825</v>
       </c>
       <c r="C37">
-        <v>62.35388116046957</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
+        <v>50.45905133670613</v>
+      </c>
+      <c r="D37">
+        <v>999</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F37">
-        <v>19337</v>
+        <v>38939</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1921,25 +1912,25 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>4552234</v>
+        <v>4887110</v>
       </c>
       <c r="C38">
-        <v>119.3778092465843</v>
+        <v>155.1709795205588</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F38">
-        <v>38133</v>
+        <v>31495</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1947,25 +1938,25 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1997096</v>
+        <v>4848197</v>
       </c>
       <c r="C39">
-        <v>1514.098559514784</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
+        <v>950.0679992161473</v>
+      </c>
+      <c r="D39">
+        <v>999</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F39">
-        <v>1319</v>
+        <v>5103</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1973,25 +1964,25 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>4831622</v>
+        <v>2144910</v>
       </c>
       <c r="C40">
-        <v>307.9035177160337</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3</v>
+        <v>60.1792828685259</v>
+      </c>
+      <c r="D40">
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F40">
-        <v>15692</v>
+        <v>35642</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1999,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>3074897</v>
+        <v>1616839</v>
       </c>
       <c r="C41">
-        <v>178.0278485409912</v>
+        <v>428.8697612732096</v>
       </c>
       <c r="D41">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F41">
-        <v>17272</v>
+        <v>3770</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2025,25 +2016,25 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>3972332</v>
+        <v>3581879</v>
       </c>
       <c r="C42">
-        <v>259.4599608099281</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
+        <v>1394.269754768392</v>
+      </c>
+      <c r="D42">
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F42">
-        <v>15310</v>
+        <v>2569</v>
       </c>
       <c r="G42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2051,25 +2042,25 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>815095</v>
+        <v>4528945</v>
       </c>
       <c r="C43">
-        <v>35.57657893588232</v>
+        <v>786.4117034207328</v>
       </c>
       <c r="D43">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F43">
-        <v>22911</v>
+        <v>5759</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2077,25 +2068,25 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1269882</v>
+        <v>1417899</v>
       </c>
       <c r="C44">
-        <v>55.36632368329264</v>
+        <v>39.44854352725148</v>
       </c>
       <c r="D44">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F44">
-        <v>22936</v>
+        <v>35943</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2103,25 +2094,25 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>4856083</v>
+        <v>222250</v>
       </c>
       <c r="C45">
-        <v>1810.620059656972</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3</v>
+        <v>30.31232951445718</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F45">
-        <v>2682</v>
+        <v>7332</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2129,25 +2120,25 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1037381</v>
+        <v>2736413</v>
       </c>
       <c r="C46">
-        <v>71.87563223169127</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3</v>
+        <v>220.1458567980692</v>
+      </c>
+      <c r="D46">
+        <v>999</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F46">
-        <v>14433</v>
+        <v>12430</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2155,25 +2146,25 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>134942</v>
+        <v>2618132</v>
       </c>
       <c r="C47">
-        <v>4.175056464837103</v>
+        <v>124.1350339007159</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F47">
-        <v>32321</v>
+        <v>21091</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2181,25 +2172,25 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>3365039</v>
+        <v>2106356</v>
       </c>
       <c r="C48">
-        <v>350.1237124128602</v>
-      </c>
-      <c r="D48">
-        <v>99</v>
+        <v>54.31132197096666</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F48">
-        <v>9611</v>
+        <v>38783</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2207,25 +2198,25 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2615706</v>
+        <v>291129</v>
       </c>
       <c r="C49">
-        <v>80.36456925156692</v>
+        <v>8.784026792987961</v>
       </c>
       <c r="D49">
+        <v>999</v>
+      </c>
+      <c r="E49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49">
+        <v>33143</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" t="s">
         <v>99</v>
-      </c>
-      <c r="E49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49">
-        <v>32548</v>
-      </c>
-      <c r="G49" t="s">
-        <v>43</v>
-      </c>
-      <c r="H49" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2233,25 +2224,25 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3295005</v>
+        <v>1436721</v>
       </c>
       <c r="C50">
-        <v>187.3865445859873</v>
+        <v>41.7142152023692</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F50">
-        <v>17584</v>
+        <v>34442</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2259,25 +2250,25 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1448162</v>
+        <v>1954728</v>
       </c>
       <c r="C51">
-        <v>119.3966526506719</v>
-      </c>
-      <c r="D51">
-        <v>99</v>
+        <v>53.36995576912576</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F51">
-        <v>12129</v>
+        <v>36626</v>
       </c>
       <c r="G51" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2285,25 +2276,25 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>390642</v>
+        <v>2948537</v>
       </c>
       <c r="C52">
-        <v>13.47924502260101</v>
+        <v>113.2136768545538</v>
       </c>
       <c r="D52">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F52">
-        <v>28981</v>
+        <v>26044</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2311,25 +2302,25 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>2994343</v>
+        <v>958184</v>
       </c>
       <c r="C53">
-        <v>263.8885167885785</v>
+        <v>393.1817808781288</v>
       </c>
       <c r="D53">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F53">
-        <v>11347</v>
+        <v>2437</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2337,25 +2328,25 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3012640</v>
+        <v>2385408</v>
       </c>
       <c r="C54">
-        <v>126.8693674724164</v>
-      </c>
-      <c r="D54" t="s">
-        <v>3</v>
+        <v>69.12422846214031</v>
+      </c>
+      <c r="D54">
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F54">
-        <v>23746</v>
+        <v>34509</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2363,25 +2354,25 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>2725514</v>
+        <v>3668894</v>
       </c>
       <c r="C55">
-        <v>197.2722929936306</v>
-      </c>
-      <c r="D55" t="s">
-        <v>3</v>
+        <v>362.8975272007913</v>
+      </c>
+      <c r="D55">
+        <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F55">
-        <v>13816</v>
+        <v>10110</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2389,25 +2380,25 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3480765</v>
+        <v>3633056</v>
       </c>
       <c r="C56">
-        <v>695.7355586648011</v>
+        <v>141.91625</v>
       </c>
       <c r="D56">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F56">
-        <v>5003</v>
+        <v>25600</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2415,25 +2406,25 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>477051</v>
+        <v>4211169</v>
       </c>
       <c r="C57">
-        <v>109.9195852534562</v>
-      </c>
-      <c r="D57">
-        <v>99</v>
+        <v>534.8195326390653</v>
+      </c>
+      <c r="D57" t="s">
+        <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F57">
-        <v>4340</v>
+        <v>7874</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H57" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2441,25 +2432,25 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>471546</v>
+        <v>3350984</v>
       </c>
       <c r="C58">
-        <v>208.9260079751883</v>
-      </c>
-      <c r="D58">
-        <v>99</v>
+        <v>140.9338436303991</v>
+      </c>
+      <c r="D58" t="s">
+        <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F58">
-        <v>2257</v>
+        <v>23777</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H58" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2467,25 +2458,25 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>1767491</v>
+        <v>3129789</v>
       </c>
       <c r="C59">
-        <v>65.55732354141166</v>
-      </c>
-      <c r="D59">
-        <v>99</v>
+        <v>245.7241893695533</v>
+      </c>
+      <c r="D59" t="s">
+        <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F59">
-        <v>26961</v>
+        <v>12737</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2493,25 +2484,25 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1171111</v>
+        <v>4129542</v>
       </c>
       <c r="C60">
-        <v>66.0227195850716</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
+        <v>202.0323874755382</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F60">
-        <v>17738</v>
+        <v>20440</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2519,25 +2510,25 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>4700406</v>
+        <v>2446435</v>
       </c>
       <c r="C61">
-        <v>134.5394853593611</v>
-      </c>
-      <c r="D61">
-        <v>99</v>
+        <v>78.97330363483762</v>
+      </c>
+      <c r="D61" t="s">
+        <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F61">
-        <v>34937</v>
+        <v>30978</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2545,25 +2536,25 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>2878936</v>
+        <v>2706297</v>
       </c>
       <c r="C62">
-        <v>979.8965282505105</v>
-      </c>
-      <c r="D62">
-        <v>99</v>
+        <v>70.92344986634519</v>
+      </c>
+      <c r="D62" t="s">
+        <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F62">
-        <v>2938</v>
+        <v>38158</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2571,25 +2562,25 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>2337879</v>
+        <v>1003550</v>
       </c>
       <c r="C63">
-        <v>113.0721125943122</v>
+        <v>50.53121852970796</v>
       </c>
       <c r="D63">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F63">
-        <v>20676</v>
+        <v>19860</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H63" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2597,25 +2588,25 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>2496056</v>
+        <v>3754884</v>
       </c>
       <c r="C64">
-        <v>131.6207551149546</v>
-      </c>
-      <c r="D64">
-        <v>99</v>
+        <v>232.9766085499783</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F64">
-        <v>18964</v>
+        <v>16117</v>
       </c>
       <c r="G64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2623,25 +2614,25 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>231915</v>
+        <v>4806195</v>
       </c>
       <c r="C65">
-        <v>6.136616215071973</v>
-      </c>
-      <c r="D65" t="s">
-        <v>3</v>
+        <v>216.7491205916839</v>
+      </c>
+      <c r="D65">
+        <v>999</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F65">
-        <v>37792</v>
+        <v>22174</v>
       </c>
       <c r="G65" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H65" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2649,25 +2640,25 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>3095364</v>
+        <v>3833983</v>
       </c>
       <c r="C66">
-        <v>173.1478435979191</v>
+        <v>1482.018940858137</v>
       </c>
       <c r="D66">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F66">
-        <v>17877</v>
+        <v>2587</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2675,25 +2666,25 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>4679541</v>
+        <v>4627094</v>
       </c>
       <c r="C67">
-        <v>397.9878380676986</v>
+        <v>422.797331871345</v>
       </c>
       <c r="D67">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E67" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F67">
-        <v>11758</v>
+        <v>10944</v>
       </c>
       <c r="G67" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="H67" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2701,25 +2692,25 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>996887</v>
+        <v>1057321</v>
       </c>
       <c r="C68">
-        <v>61.52104418662059</v>
+        <v>37.82225004471472</v>
       </c>
       <c r="D68" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F68">
-        <v>16204</v>
+        <v>27955</v>
       </c>
       <c r="G68" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="H68" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2727,25 +2718,25 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>4432368</v>
+        <v>4710192</v>
       </c>
       <c r="C69">
-        <v>324.5491689243611</v>
+        <v>1197.30350788002</v>
       </c>
       <c r="D69">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E69" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F69">
-        <v>13657</v>
+        <v>3934</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H69" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2753,25 +2744,25 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>2630589</v>
+        <v>1596923</v>
       </c>
       <c r="C70">
-        <v>75.06103406950865</v>
-      </c>
-      <c r="D70">
-        <v>99</v>
+        <v>91.12776763296051</v>
+      </c>
+      <c r="D70" t="s">
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F70">
-        <v>35046</v>
+        <v>17524</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H70" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2779,25 +2770,25 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>942673</v>
+        <v>4029366</v>
       </c>
       <c r="C71">
-        <v>43.20818627675666</v>
-      </c>
-      <c r="D71" t="s">
-        <v>3</v>
+        <v>767.3521234050658</v>
+      </c>
+      <c r="D71">
+        <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F71">
-        <v>21817</v>
+        <v>5251</v>
       </c>
       <c r="G71" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H71" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2805,25 +2796,25 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>3599338</v>
+        <v>3420634</v>
       </c>
       <c r="C72">
-        <v>816.5467332123412</v>
-      </c>
-      <c r="D72" t="s">
-        <v>3</v>
+        <v>102.093239814953</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F72">
-        <v>4408</v>
+        <v>33505</v>
       </c>
       <c r="G72" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H72" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2831,25 +2822,25 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>165911</v>
+        <v>675409</v>
       </c>
       <c r="C73">
-        <v>7.64109059089025</v>
+        <v>19.39604273160646</v>
       </c>
       <c r="D73">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F73">
-        <v>21713</v>
+        <v>34822</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H73" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2857,25 +2848,25 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>4182285</v>
+        <v>1970459</v>
       </c>
       <c r="C74">
-        <v>335.7646917148362</v>
+        <v>700.2341862117981</v>
       </c>
       <c r="D74" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F74">
-        <v>12456</v>
+        <v>2814</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H74" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2883,25 +2874,25 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>4606811</v>
+        <v>3128466</v>
       </c>
       <c r="C75">
-        <v>744.8360549717057</v>
-      </c>
-      <c r="D75" t="s">
-        <v>3</v>
+        <v>105.6771382245642</v>
+      </c>
+      <c r="D75">
+        <v>999</v>
       </c>
       <c r="E75" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F75">
-        <v>6185</v>
+        <v>29604</v>
       </c>
       <c r="G75" t="s">
         <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2909,25 +2900,25 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>3362188</v>
+        <v>1455029</v>
       </c>
       <c r="C76">
-        <v>87.52279057659769</v>
-      </c>
-      <c r="D76">
-        <v>99</v>
+        <v>45.98846360504441</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F76">
-        <v>38415</v>
+        <v>31639</v>
       </c>
       <c r="G76" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2935,25 +2926,25 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>1945165</v>
+        <v>1503597</v>
       </c>
       <c r="C77">
-        <v>50.94588931667583</v>
-      </c>
-      <c r="D77" t="s">
-        <v>3</v>
+        <v>41.34054603942702</v>
+      </c>
+      <c r="D77">
+        <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F77">
-        <v>38181</v>
+        <v>36371</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2961,25 +2952,25 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>4004206</v>
+        <v>2290381</v>
       </c>
       <c r="C78">
-        <v>353.2603440670489</v>
+        <v>1306.549343981746</v>
       </c>
       <c r="D78">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F78">
-        <v>11335</v>
+        <v>1753</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2987,25 +2978,25 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>385979</v>
+        <v>3121460</v>
       </c>
       <c r="C79">
-        <v>13.75058781617385</v>
-      </c>
-      <c r="D79" t="s">
-        <v>3</v>
+        <v>313.4625426792529</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F79">
-        <v>28070</v>
+        <v>9958</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3013,25 +3004,25 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>4532334</v>
+        <v>1153278</v>
       </c>
       <c r="C80">
-        <v>257.2558746736293</v>
+        <v>102.2772259666548</v>
       </c>
       <c r="D80">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F80">
-        <v>17618</v>
+        <v>11276</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H80" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3039,25 +3030,25 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>1798173</v>
+        <v>4091049</v>
       </c>
       <c r="C81">
-        <v>167.2407924107143</v>
+        <v>107.6138731060606</v>
       </c>
       <c r="D81">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F81">
-        <v>10752</v>
+        <v>38016</v>
       </c>
       <c r="G81" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H81" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3065,25 +3056,25 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>360260</v>
+        <v>2297069</v>
       </c>
       <c r="C82">
-        <v>15.26072775024357</v>
-      </c>
-      <c r="D82" t="s">
-        <v>3</v>
+        <v>1903.122618061309</v>
+      </c>
+      <c r="D82">
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F82">
-        <v>23607</v>
+        <v>1207</v>
       </c>
       <c r="G82" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H82" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3091,25 +3082,25 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>986667</v>
+        <v>4222254</v>
       </c>
       <c r="C83">
-        <v>48.1935720216871</v>
-      </c>
-      <c r="D83" t="s">
-        <v>3</v>
+        <v>186.7262515478507</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
       </c>
       <c r="E83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F83">
-        <v>20473</v>
+        <v>22612</v>
       </c>
       <c r="G83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H83" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3117,25 +3108,25 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>218445</v>
+        <v>4981758</v>
       </c>
       <c r="C84">
-        <v>13.8247579267135</v>
+        <v>138.7328524882342</v>
       </c>
       <c r="D84" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F84">
-        <v>15801</v>
+        <v>35909</v>
       </c>
       <c r="G84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H84" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3143,25 +3134,25 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>1322365</v>
+        <v>1751561</v>
       </c>
       <c r="C85">
-        <v>562.7085106382979</v>
-      </c>
-      <c r="D85" t="s">
-        <v>3</v>
+        <v>155.1014787921721</v>
+      </c>
+      <c r="D85">
+        <v>46</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F85">
-        <v>2350</v>
+        <v>11293</v>
       </c>
       <c r="G85" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3169,25 +3160,25 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>2004838</v>
+        <v>1142875</v>
       </c>
       <c r="C86">
-        <v>371.1975560081466</v>
+        <v>87.4158635459691</v>
       </c>
       <c r="D86">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E86" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F86">
-        <v>5401</v>
+        <v>13074</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H86" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3195,25 +3186,25 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>3620201</v>
+        <v>572848</v>
       </c>
       <c r="C87">
-        <v>1272.478383128295</v>
+        <v>186.0500162390387</v>
       </c>
       <c r="D87">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E87" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F87">
-        <v>2845</v>
+        <v>3079</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3221,25 +3212,25 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>4214956</v>
+        <v>1826114</v>
       </c>
       <c r="C88">
-        <v>135.7692382026091</v>
+        <v>102.2918440510867</v>
       </c>
       <c r="D88">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E88" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F88">
-        <v>31045</v>
+        <v>17852</v>
       </c>
       <c r="G88" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3247,25 +3238,25 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>3272998</v>
+        <v>1368546</v>
       </c>
       <c r="C89">
-        <v>638.2601404056162</v>
+        <v>41.1271186440678</v>
       </c>
       <c r="D89">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E89" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F89">
-        <v>5128</v>
+        <v>33276</v>
       </c>
       <c r="G89" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H89" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3273,25 +3264,25 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>3453533</v>
+        <v>4679842</v>
       </c>
       <c r="C90">
-        <v>248.867406499964</v>
+        <v>125.1930659960943</v>
       </c>
       <c r="D90">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E90" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F90">
-        <v>13877</v>
+        <v>37381</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3299,25 +3290,25 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2952759</v>
+        <v>2273880</v>
       </c>
       <c r="C91">
-        <v>794.3930589184827</v>
-      </c>
-      <c r="D91" t="s">
-        <v>3</v>
+        <v>69.55888650963597</v>
+      </c>
+      <c r="D91">
+        <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F91">
-        <v>3717</v>
+        <v>32690</v>
       </c>
       <c r="G91" t="s">
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3325,25 +3316,25 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>4832342</v>
+        <v>1528865</v>
       </c>
       <c r="C92">
-        <v>184.8002600481854</v>
+        <v>49.01150862345323</v>
       </c>
       <c r="D92">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E92" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F92">
-        <v>26149</v>
+        <v>31194</v>
       </c>
       <c r="G92" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="H92" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3351,25 +3342,25 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>581934</v>
+        <v>991978</v>
       </c>
       <c r="C93">
-        <v>24.78635318170202</v>
+        <v>41.78684864568853</v>
       </c>
       <c r="D93" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F93">
-        <v>23478</v>
+        <v>23739</v>
       </c>
       <c r="G93" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H93" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3377,25 +3368,25 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>2580884</v>
+        <v>4559308</v>
       </c>
       <c r="C94">
-        <v>77.51566301246433</v>
-      </c>
-      <c r="D94" t="s">
-        <v>3</v>
+        <v>1177.811418238181</v>
+      </c>
+      <c r="D94">
+        <v>999</v>
       </c>
       <c r="E94" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F94">
-        <v>33295</v>
+        <v>3871</v>
       </c>
       <c r="G94" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H94" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3403,25 +3394,25 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>1959503</v>
+        <v>4264145</v>
       </c>
       <c r="C95">
-        <v>71.47036510194405</v>
-      </c>
-      <c r="D95" t="s">
-        <v>3</v>
+        <v>753.7820399505038</v>
+      </c>
+      <c r="D95">
+        <v>17</v>
       </c>
       <c r="E95" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F95">
-        <v>27417</v>
+        <v>5657</v>
       </c>
       <c r="G95" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3429,25 +3420,25 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>4299679</v>
+        <v>3669913</v>
       </c>
       <c r="C96">
-        <v>485.8394350282486</v>
+        <v>2670.970160116448</v>
       </c>
       <c r="D96">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E96" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F96">
-        <v>8850</v>
+        <v>1374</v>
       </c>
       <c r="G96" t="s">
         <v>8</v>
       </c>
       <c r="H96" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3455,25 +3446,25 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3143852</v>
+        <v>3580273</v>
       </c>
       <c r="C97">
-        <v>98.3006691263836</v>
-      </c>
-      <c r="D97" t="s">
-        <v>3</v>
+        <v>370.6670462780826</v>
+      </c>
+      <c r="D97">
+        <v>999</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F97">
-        <v>31982</v>
+        <v>9659</v>
       </c>
       <c r="G97" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H97" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3481,25 +3472,25 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>1284840</v>
+        <v>3720336</v>
       </c>
       <c r="C98">
-        <v>45.21059854322812</v>
+        <v>114.3557618418221</v>
       </c>
       <c r="D98">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E98" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F98">
-        <v>28419</v>
+        <v>32533</v>
       </c>
       <c r="G98" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3507,25 +3498,25 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>888300</v>
+        <v>333759</v>
       </c>
       <c r="C99">
-        <v>201.0183299389002</v>
-      </c>
-      <c r="D99" t="s">
-        <v>3</v>
+        <v>33.8497971602434</v>
+      </c>
+      <c r="D99">
+        <v>999</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F99">
-        <v>4419</v>
+        <v>9860</v>
       </c>
       <c r="G99" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3533,25 +3524,25 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>4445983</v>
+        <v>4709385</v>
       </c>
       <c r="C100">
-        <v>120.4090293575994</v>
-      </c>
-      <c r="D100" t="s">
-        <v>3</v>
+        <v>375.1900095602294</v>
+      </c>
+      <c r="D100">
+        <v>60</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F100">
-        <v>36924</v>
+        <v>12552</v>
       </c>
       <c r="G100" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/prototype/RGB.xlsx
+++ b/prototype/RGB.xlsx
@@ -14,600 +14,600 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="198">
+  <si>
+    <t>(1.3497329896613266,104.29054361914957)</t>
+  </si>
+  <si>
+    <t>HDB</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Park, MRT, Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.4480798900983505,104.33062327546864)</t>
+  </si>
+  <si>
+    <t>Private Property</t>
+  </si>
+  <si>
+    <t>Bus Stop, Mall, Market, Park, MRT</t>
+  </si>
   <si>
     <t>Freehold</t>
   </si>
   <si>
-    <t>(1.3894905904215642,104.4767231709773)</t>
-  </si>
-  <si>
-    <t>HDB</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Park, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3478860448959573,104.5206707543142)</t>
+    <t>(1.4452497540770426,104.05181897320644)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Gym, Market</t>
+  </si>
+  <si>
+    <t>(1.3828476861269878,104.62034345604954)</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>(1.377364208829871,104.03381145956362)</t>
+  </si>
+  <si>
+    <t>Pool, Playground, Bus Stop, Gym, MRT</t>
+  </si>
+  <si>
+    <t>(1.4187245712465395,104.26372945473172)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Playground, Gym, Bus Stop, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.379899434977426,104.24704941491052)</t>
   </si>
   <si>
     <t>Executive Condominium</t>
   </si>
   <si>
-    <t>Mall, Park, Bus Stop, Gym, Playground, Market, MRT</t>
-  </si>
-  <si>
-    <t>(1.4069093181249324,104.31506678379374)</t>
-  </si>
-  <si>
-    <t>Private Property</t>
+    <t>Mall, MRT, Market, Bus Stop, Gym, Pool, Park, Playground</t>
+  </si>
+  <si>
+    <t>(1.4646058648451163,104.36094660737977)</t>
+  </si>
+  <si>
+    <t>Playground, Bus Stop, Pool, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.2739171604897082,104.12550991761196)</t>
+  </si>
+  <si>
+    <t>Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3941793461052991,104.4675027614531)</t>
+  </si>
+  <si>
+    <t>Mall</t>
+  </si>
+  <si>
+    <t>(1.2958511405072994,104.28550235673316)</t>
+  </si>
+  <si>
+    <t>Pool, Bus Stop, Park, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.2980125560018028,104.62696519785308)</t>
+  </si>
+  <si>
+    <t>Market, Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.3034408827623485,104.1463689808568)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, MRT, Playground</t>
+  </si>
+  <si>
+    <t>(1.401013700305174,104.34261571056005)</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>(1.46635478779118,104.35849310707046)</t>
+  </si>
+  <si>
+    <t>Market, Gym, MRT, Playground, Mall, Pool, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.4098161033829446,104.18148515396157)</t>
+  </si>
+  <si>
+    <t>Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.4490451904756276,104.12618413541762)</t>
+  </si>
+  <si>
+    <t>Bus Stop, MRT, Playground, Pool, Park, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.419266126690188,104.4372208701998)</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Pool, Market, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.3137887743788692,104.07596423899672)</t>
+  </si>
+  <si>
+    <t>Park, Market, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3524102254638943,104.07774139669608)</t>
+  </si>
+  <si>
+    <t>Park, Playground, Market, Pool, Mall, Gym, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2918131383481046,104.47637956652193)</t>
+  </si>
+  <si>
+    <t>MRT, Bus Stop, Playground, Gym</t>
+  </si>
+  <si>
+    <t>(1.3379563499975682,104.48687223265087)</t>
+  </si>
+  <si>
+    <t>Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.30602166300159,104.33026135374288)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Bus Stop, Mall, Park, Pool</t>
+  </si>
+  <si>
+    <t>(1.4313744090152118,104.398782569425)</t>
+  </si>
+  <si>
+    <t>Mall, MRT, Playground, Pool, Market, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.4165341288815294,104.36194094290585)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Playground, Pool, Market, Park, Bus Stop, Mall</t>
+  </si>
+  <si>
+    <t>(1.3736757768848342,104.3629621083129)</t>
+  </si>
+  <si>
+    <t>Mall, Gym</t>
+  </si>
+  <si>
+    <t>(1.4613959296824226,104.57651481542784)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2959379527670327,104.33293680807373)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.4101433549029185,104.18373302492242)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Market, Mall, Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.4461785899287927,104.25297489111674)</t>
+  </si>
+  <si>
+    <t>Playground, MRT, Gym</t>
+  </si>
+  <si>
+    <t>(1.281442421416227,104.34433829891977)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.3220955282269304,104.23066286879225)</t>
+  </si>
+  <si>
+    <t>Pool, Mall, Gym, Playground, Bus Stop, MRT, Market, Park</t>
+  </si>
+  <si>
+    <t>(1.4212098627319703,104.45073073377337)</t>
+  </si>
+  <si>
+    <t>Playground, Market, Gym, Bus Stop, MRT, Park, Mall</t>
+  </si>
+  <si>
+    <t>(1.3239670565514512,104.2789071480478)</t>
+  </si>
+  <si>
+    <t>Pool, Park, MRT, Bus Stop, Playground, Market, Gym, Mall</t>
+  </si>
+  <si>
+    <t>(1.3406068510469882,104.2446424713932)</t>
+  </si>
+  <si>
+    <t>Mall, MRT, Bus Stop, Playground</t>
+  </si>
+  <si>
+    <t>(1.4097929084247893,104.02914163022528)</t>
+  </si>
+  <si>
+    <t>Park, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.3156031719164831,104.37929833413828)</t>
+  </si>
+  <si>
+    <t>Market, MRT, Gym, Bus Stop, Pool</t>
+  </si>
+  <si>
+    <t>(1.442683808136753,104.42025874627107)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Playground, Mall, Bus Stop, Market, Pool</t>
+  </si>
+  <si>
+    <t>(1.2700408592304255,104.35441085050925)</t>
+  </si>
+  <si>
+    <t>Pool, Mall, Gym</t>
+  </si>
+  <si>
+    <t>(1.430914937344005,104.61282012346432)</t>
+  </si>
+  <si>
+    <t>Gym, Pool, Bus Stop, MRT, Playground, Park</t>
+  </si>
+  <si>
+    <t>(1.307604147705544,104.19677038731605)</t>
   </si>
   <si>
     <t>Gym</t>
   </si>
   <si>
-    <t>(1.4626658274242006,104.25450534167275)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Park, Gym, Market</t>
-  </si>
-  <si>
-    <t>(1.448131195082653,104.26204445436953)</t>
-  </si>
-  <si>
-    <t>Pool, Market</t>
-  </si>
-  <si>
-    <t>(1.3489234839448359,104.24207158513414)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, Market, Gym, Playground</t>
-  </si>
-  <si>
-    <t>(1.4384701563889093,104.14863603766992)</t>
-  </si>
-  <si>
-    <t>Pool, Market, Gym, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.4191918928399767,104.53506508140815)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, MRT, Market, Mall, Gym, Playground</t>
-  </si>
-  <si>
-    <t>(1.3570661835390891,104.31418293421795)</t>
-  </si>
-  <si>
-    <t>Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4599492869267525,104.54473839676017)</t>
-  </si>
-  <si>
-    <t>Playground, Bus Stop, MRT, Park, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.3925299835849474,104.36814524378627)</t>
-  </si>
-  <si>
-    <t>Playground, Park, MRT, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.2913641685949027,104.51059369192275)</t>
-  </si>
-  <si>
-    <t>Playground, MRT, Park</t>
-  </si>
-  <si>
-    <t>(1.3698254470873328,104.44222675965536)</t>
-  </si>
-  <si>
-    <t>Gym, Pool, Mall, Park, Market, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3893420852177008,104.28094560073694)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.3458923020908293,104.64260210476306)</t>
+    <t>(1.348047315313424,104.62352968243714)</t>
+  </si>
+  <si>
+    <t>Bus Stop, MRT, Park, Pool, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.3683800879979253,104.41424886810987)</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>(1.3887283890771733,104.3076324059941)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Gym, Park, Pool, MRT, Playground</t>
+  </si>
+  <si>
+    <t>(1.295129696892396,104.46007571117838)</t>
+  </si>
+  <si>
+    <t>Gym, Playground</t>
+  </si>
+  <si>
+    <t>(1.3219434455925771,104.4624333612484)</t>
+  </si>
+  <si>
+    <t>(1.3043448706819203,104.15723540000836)</t>
+  </si>
+  <si>
+    <t>Mall, Playground</t>
+  </si>
+  <si>
+    <t>(1.3767199835218735,104.4066151560358)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Park, Gym, Market</t>
+  </si>
+  <si>
+    <t>(1.3962328811352676,104.29196279733205)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Playground, Pool, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3835597847632566,104.34212421942115)</t>
+  </si>
+  <si>
+    <t>Market, Park, Mall, Pool, Bus Stop, Gym, Playground</t>
+  </si>
+  <si>
+    <t>(1.4126126767220906,104.48208971464537)</t>
+  </si>
+  <si>
+    <t>Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.4115490938238566,104.13713840321884)</t>
+  </si>
+  <si>
+    <t>Market, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.4284696078059822,104.48772605437412)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Gym, Mall, Market, Playground, Pool, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.356778526810546,104.31426129561127)</t>
+  </si>
+  <si>
+    <t>Pool, Market, Playground, Park, Gym, Mall</t>
+  </si>
+  <si>
+    <t>(1.3901016544772684,104.22361448994096)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Playground, Market, Gym, MRT, Pool, Mall, Park</t>
+  </si>
+  <si>
+    <t>(1.3744318701148033,104.31015192198073)</t>
+  </si>
+  <si>
+    <t>(1.4049934426552777,104.41954207021477)</t>
+  </si>
+  <si>
+    <t>Park, Pool, Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2825884614308085,104.28540149391566)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Gym, Market, Park, MRT, Pool, Mall, Playground</t>
+  </si>
+  <si>
+    <t>(1.4150513191728427,104.49887496268883)</t>
+  </si>
+  <si>
+    <t>Gym, Playground, Market, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.431201393251852,104.09568178392091)</t>
+  </si>
+  <si>
+    <t>Playground, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.3077667951749556,104.4587144937679)</t>
+  </si>
+  <si>
+    <t>Market, Playground, Park</t>
+  </si>
+  <si>
+    <t>(1.2758307851942208,104.34590714598049)</t>
+  </si>
+  <si>
+    <t>(1.354877257537175,104.27754020493178)</t>
+  </si>
+  <si>
+    <t>Gym, Market, MRT, Mall, Pool, Park, Playground</t>
+  </si>
+  <si>
+    <t>(1.4637706842321216,104.34636345992115)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, Playground, MRT</t>
+  </si>
+  <si>
+    <t>(1.355467894254333,104.05773629522781)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop, Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.3413830058289087,104.24617417026506)</t>
+  </si>
+  <si>
+    <t>Market, MRT, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.326643305726175,104.08634419557583)</t>
+  </si>
+  <si>
+    <t>Gym, Mall, Park, Bus Stop, MRT, Playground</t>
+  </si>
+  <si>
+    <t>(1.2701523049065924,104.33850906519305)</t>
+  </si>
+  <si>
+    <t>Market, Park, Mall</t>
+  </si>
+  <si>
+    <t>(1.4471780668447753,104.10598128658346)</t>
+  </si>
+  <si>
+    <t>Mall, Market, MRT, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.457280121944153,104.05745855051931)</t>
+  </si>
+  <si>
+    <t>Pool, MRT, Gym, Bus Stop, Playground</t>
+  </si>
+  <si>
+    <t>(1.356535398734435,104.5950381264933)</t>
+  </si>
+  <si>
+    <t>Pool, Gym, Bus Stop, Park, Mall, Market, Playground</t>
+  </si>
+  <si>
+    <t>(1.3908324399807497,104.36003919306297)</t>
+  </si>
+  <si>
+    <t>Pool, Gym, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2740473350162422,104.2071641895767)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.3450720430512553,104.39933433597805)</t>
+  </si>
+  <si>
+    <t>Park, Pool, Playground, MRT</t>
+  </si>
+  <si>
+    <t>(1.4332856217590872,104.3022993250827)</t>
+  </si>
+  <si>
+    <t>Market, Pool, MRT, Mall, Playground, Bus Stop, Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.3056713089304988,104.48459151951644)</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Park</t>
+  </si>
+  <si>
+    <t>(1.33398824434839,104.16479068993856)</t>
   </si>
   <si>
     <t>Market, Park</t>
   </si>
   <si>
-    <t>(1.2764938024090347,104.05495607902152)</t>
-  </si>
-  <si>
-    <t>MRT</t>
-  </si>
-  <si>
-    <t>(1.445052730120356,104.02818231415958)</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Pool, MRT, Gym, Market, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.4312061596379948,104.1504550383104)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Mall, Pool, Market</t>
-  </si>
-  <si>
-    <t>(1.3659529426619952,104.39221033523009)</t>
-  </si>
-  <si>
-    <t>Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.4192446602429378,104.24244231546108)</t>
-  </si>
-  <si>
-    <t>Market, Gym, MRT, Mall, Playground</t>
-  </si>
-  <si>
-    <t>(1.3499427638718888,104.27185762317764)</t>
-  </si>
-  <si>
-    <t>Mall, Gym, Bus Stop, Pool, Park, MRT, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.318905357641771,104.19194900125532)</t>
-  </si>
-  <si>
-    <t>Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.4148140772799196,104.20809553048126)</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Park</t>
-  </si>
-  <si>
-    <t>(1.3740309756364462,104.172316217982)</t>
-  </si>
-  <si>
-    <t>Playground, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.3359858389003176,104.58605319222727)</t>
-  </si>
-  <si>
-    <t>Playground, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.4608952074465729,104.38054331628014)</t>
-  </si>
-  <si>
-    <t>Playground, MRT, Market, Bus Stop, Gym, Park, Pool</t>
-  </si>
-  <si>
-    <t>(1.3755613672875364,104.04206925764835)</t>
-  </si>
-  <si>
-    <t>Playground, Park, Pool, Gym, Market, Mall, Bus Stop, MRT</t>
-  </si>
-  <si>
-    <t>(1.4297479606584755,104.12465219269097)</t>
-  </si>
-  <si>
-    <t>Pool, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.2926289065743328,104.62546755209415)</t>
-  </si>
-  <si>
-    <t>Pool, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3622699365924242,104.10003725565068)</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Pool, MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.4562862206438396,104.3128129802637)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Market, Playground, Pool, Mall, MRT, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.401411509248339,104.16028273819896)</t>
-  </si>
-  <si>
-    <t>Park, Playground, Mall, Gym, MRT</t>
-  </si>
-  <si>
-    <t>(1.393586163698429,104.0414113479654)</t>
-  </si>
-  <si>
-    <t>(1.346194455153728,104.55196717326298)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Market, Mall, Playground, Gym, Pool, MRT</t>
-  </si>
-  <si>
-    <t>(1.3732346679137608,104.02916442171718)</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>(1.4308660051417974,104.19240422039792)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Playground, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.3469392323870764,104.55862808155224)</t>
-  </si>
-  <si>
-    <t>Market, Playground, Park, Bus Stop, Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.2891598932759132,104.40630222948835)</t>
-  </si>
-  <si>
-    <t>MRT, Bus Stop, Playground, Market, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.2923428649723978,104.45150983216861)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Gym, Mall, Playground, Bus Stop, Pool, Market</t>
-  </si>
-  <si>
-    <t>(1.4554292293065563,104.56231751049211)</t>
-  </si>
-  <si>
-    <t>Park, Playground, MRT, Gym, Bus Stop, Market, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.3097713834175655,104.09238403327019)</t>
-  </si>
-  <si>
-    <t>MRT, Park</t>
-  </si>
-  <si>
-    <t>(1.3162333086502507,104.58565279696764)</t>
-  </si>
-  <si>
-    <t>Market, Pool, MRT</t>
-  </si>
-  <si>
-    <t>(1.3600954150095013,104.33979217036693)</t>
-  </si>
-  <si>
-    <t>Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.373225428876679,104.35073082701626)</t>
-  </si>
-  <si>
-    <t>(1.3874540621023144,104.54687979424767)</t>
-  </si>
-  <si>
-    <t>Market, Bus Stop, Mall, MRT, Playground, Park</t>
-  </si>
-  <si>
-    <t>(1.298513574909235,104.5461140755436)</t>
-  </si>
-  <si>
-    <t>Playground, MRT, Park, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.31188685571011,104.38657276573903)</t>
-  </si>
-  <si>
-    <t>Mall</t>
-  </si>
-  <si>
-    <t>(1.3785480719202439,104.33598178483615)</t>
-  </si>
-  <si>
-    <t>MRT, Mall, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4340656853897797,104.3903986740565)</t>
-  </si>
-  <si>
-    <t>Mall, Playground, Pool</t>
-  </si>
-  <si>
-    <t>(1.455347303096121,104.37381042274825)</t>
-  </si>
-  <si>
-    <t>Park, Gym, MRT</t>
-  </si>
-  <si>
-    <t>(1.3985863626087784,104.34130443101589)</t>
-  </si>
-  <si>
-    <t>Park, Pool, MRT, Bus Stop, Market, Mall, Playground, Gym</t>
-  </si>
-  <si>
-    <t>(1.3644196852588892,104.26022907080018)</t>
-  </si>
-  <si>
-    <t>Pool, Bus Stop, Gym, Mall, MRT, Park, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.395541379348349,104.36638286502753)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Gym, Pool, MRT, Park</t>
-  </si>
-  <si>
-    <t>(1.3766334204341923,104.36550369076369)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, MRT, Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.3953156955736976,104.37642393260272)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Market, MRT, Pool, Bus Stop, Mall</t>
-  </si>
-  <si>
-    <t>(1.3038214135779091,104.12162465724727)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Market, Mall, Pool, MRT</t>
-  </si>
-  <si>
-    <t>(1.4315869768468388,104.32710301341315)</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Gym, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2962156544171406,104.43498791240489)</t>
-  </si>
-  <si>
-    <t>Market, Playground, Park, Gym, Bus Stop, Pool, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.464621591588068,104.31880500015161)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Market, Pool</t>
-  </si>
-  <si>
-    <t>(1.2808783930646876,104.49701730028514)</t>
-  </si>
-  <si>
-    <t>(1.359668930233392,104.06971379842341)</t>
-  </si>
-  <si>
-    <t>Market, Park, Playground, Gym</t>
-  </si>
-  <si>
-    <t>(1.4654372184763937,104.1130698291564)</t>
-  </si>
-  <si>
-    <t>Market, Pool</t>
-  </si>
-  <si>
-    <t>(1.3588362754554275,104.54027618404676)</t>
-  </si>
-  <si>
-    <t>Mall, Playground, MRT, Park, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3464478901624646,104.64026892647804)</t>
-  </si>
-  <si>
-    <t>Playground, Pool, Mall, Park, Market, MRT, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.391664312763094,104.59714365664271)</t>
-  </si>
-  <si>
-    <t>Park, Gym, Market, Playground, MRT</t>
-  </si>
-  <si>
-    <t>(1.3756306343159663,104.53857988745366)</t>
-  </si>
-  <si>
-    <t>Park, Pool, Mall, Market, MRT, Gym, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3552924381228726,104.39090742767885)</t>
-  </si>
-  <si>
-    <t>Playground, Park, Pool, MRT, Gym, Bus Stop, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.3461408436391817,104.02880984642326)</t>
-  </si>
-  <si>
-    <t>(1.3243541159201686,104.11087012110154)</t>
-  </si>
-  <si>
-    <t>Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.4263524425455953,104.27141468863546)</t>
-  </si>
-  <si>
-    <t>MRT, Bus Stop, Playground, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.4675109004934441,104.61488506120544)</t>
-  </si>
-  <si>
-    <t>Playground, Pool, MRT, Gym, Mall, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3497010512809826,104.57469399744019)</t>
-  </si>
-  <si>
-    <t>Market, MRT, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.3318138512046596,104.28724805779501)</t>
-  </si>
-  <si>
-    <t>Mall, Park, Bus Stop, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.3572469766996822,104.57443976009964)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Mall, MRT, Gym</t>
-  </si>
-  <si>
-    <t>(1.4570077248877369,104.30360854461222)</t>
-  </si>
-  <si>
-    <t>(1.3162543614119289,104.6088956685973)</t>
-  </si>
-  <si>
-    <t>MRT, Pool</t>
-  </si>
-  <si>
-    <t>(1.313218883952678,104.62207822780996)</t>
+    <t>(1.376248465069042,104.3566095364475)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Market, Playground, Pool, MRT, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.3308512390931784,104.21873082307859)</t>
+  </si>
+  <si>
+    <t>(1.284255907015851,104.2242221408778)</t>
+  </si>
+  <si>
+    <t>Playground</t>
+  </si>
+  <si>
+    <t>(1.453214251305086,104.3237185287968)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.4213984870031322,104.17240497186535)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, Pool, Market, MRT, Mall, Playground, Gym</t>
+  </si>
+  <si>
+    <t>(1.314223012046777,104.38837713829463)</t>
+  </si>
+  <si>
+    <t>Market, MRT, Gym, Park, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2864527542965958,104.21622500260905)</t>
+  </si>
+  <si>
+    <t>Gym, MRT, Mall, Park, Pool, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4660339913597553,104.59726031752022)</t>
+  </si>
+  <si>
+    <t>Playground, Gym, Bus Stop, MRT, Market, Pool, Mall, Park</t>
+  </si>
+  <si>
+    <t>(1.4678066289006781,104.26022934719218)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Mall, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4172145744145768,104.44451860527512)</t>
+  </si>
+  <si>
+    <t>Mall, Pool, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3601700015655909,104.49988837984932)</t>
+  </si>
+  <si>
+    <t>Pool, Playground</t>
+  </si>
+  <si>
+    <t>(1.4091464048272488,104.47807182951247)</t>
+  </si>
+  <si>
+    <t>(1.3811442540049645,104.51714005729643)</t>
+  </si>
+  <si>
+    <t>Market, Mall, Bus Stop, Park, Playground, Pool, MRT, Gym</t>
+  </si>
+  <si>
+    <t>(1.2873617809818396,104.4958414160427)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Market, Park, Gym, MRT, Playground, Pool</t>
+  </si>
+  <si>
+    <t>(1.285941903066894,104.44155390618948)</t>
+  </si>
+  <si>
+    <t>Park, Playground, Bus Stop, Market, MRT, Mall, Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.4155745123031471,104.20379828348565)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.387319988265413,104.05343981502945)</t>
+  </si>
+  <si>
+    <t>Park, Playground, Gym, Market</t>
+  </si>
+  <si>
+    <t>(1.2713980984751079,104.2983456152791)</t>
+  </si>
+  <si>
+    <t>Playground, Pool, Market, Park, Mall, Gym, MRT, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3569749275621683,104.14176390460133)</t>
+  </si>
+  <si>
+    <t>Playground, Bus Stop, Gym, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.4563998274682373,104.63579088136967)</t>
   </si>
   <si>
     <t>Market, Park, Playground</t>
   </si>
   <si>
-    <t>(1.3244620502979167,104.51769457061862)</t>
-  </si>
-  <si>
-    <t>Market, Gym, Park, Playground, Bus Stop, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.3524079162038087,104.20053729371838)</t>
-  </si>
-  <si>
-    <t>Pool, Gym, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.3238844716496554,104.3988908549891)</t>
-  </si>
-  <si>
-    <t>Market, Park, Pool</t>
-  </si>
-  <si>
-    <t>(1.3541498909836818,104.57627248707036)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Mall, Pool, Gym, MRT, Park</t>
-  </si>
-  <si>
-    <t>(1.467493077375039,104.21966685849846)</t>
-  </si>
-  <si>
-    <t>Pool, MRT, Park, Market, Bus Stop, Mall</t>
-  </si>
-  <si>
-    <t>(1.4676736519891496,104.10374476860439)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.3389751608348934,104.1863282669569)</t>
-  </si>
-  <si>
-    <t>(1.466342017841384,104.30721370986346)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, Gym, Park, MRT, Mall, Playground</t>
-  </si>
-  <si>
-    <t>(1.4516805905253556,104.29799436328157)</t>
-  </si>
-  <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>(1.3477884256723933,104.05441699864377)</t>
-  </si>
-  <si>
-    <t>Gym, Pool, MRT, Bus Stop, Playground, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.3386146938551167,104.19357452798286)</t>
-  </si>
-  <si>
-    <t>Pool, MRT, Playground, Gym, Mall, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2819105754648537,104.24924271727826)</t>
-  </si>
-  <si>
-    <t>Gym, Pool, Market, Playground, Park, Mall, MRT, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.446593488941607,104.40449141851663)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Playground, Mall, Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.4603200246637855,104.58583863342686)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Pool, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.3450178168189804,104.56747925580635)</t>
-  </si>
-  <si>
-    <t>Park, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.380824641648786,104.47648650953981)</t>
-  </si>
-  <si>
-    <t>Gym, MRT, Bus Stop, Market, Playground</t>
-  </si>
-  <si>
-    <t>(1.3546585753622304,104.19250288589114)</t>
-  </si>
-  <si>
-    <t>Playground, Market, MRT</t>
-  </si>
-  <si>
-    <t>(1.461652493063212,104.60573911276414)</t>
-  </si>
-  <si>
-    <t>Gym, Pool, MRT, Bus Stop, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.3922373476463474,104.4022741046317)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.4620725216586938,104.40436475327556)</t>
-  </si>
-  <si>
-    <t>Pool, MRT</t>
-  </si>
-  <si>
-    <t>(1.3876453501474089,104.20306562702103)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Bus Stop, Pool, Playground, Market, Mall, Gym</t>
-  </si>
-  <si>
-    <t>(1.2688619696833903,104.49491080879244)</t>
-  </si>
-  <si>
-    <t>Park, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.3304475255813495,104.1197015562024)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Pool, Playground, Gym, Mall, Bus Stop</t>
+    <t>(1.30004254860773,104.60424119461553)</t>
+  </si>
+  <si>
+    <t>(1.3582811489878677,104.60782921037367)</t>
+  </si>
+  <si>
+    <t>Mall, Park, Market, Bus Stop, MRT</t>
+  </si>
+  <si>
+    <t>(1.3311788176945336,104.2402956692074)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop, Gym, Park, Playground, Mall</t>
   </si>
 </sst>
 </file>
@@ -950,25 +950,25 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1078913</v>
+        <v>1632868</v>
       </c>
       <c r="C1">
-        <v>27.98954523049783</v>
-      </c>
-      <c r="D1" t="s">
+        <v>78.00076430686921</v>
+      </c>
+      <c r="D1">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1">
+        <v>20934</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="F1">
-        <v>38547</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -976,25 +976,25 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3104073</v>
+        <v>2169809</v>
       </c>
       <c r="C2">
-        <v>129.3741091151586</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
+        <v>79.41327819053545</v>
+      </c>
+      <c r="D2">
+        <v>58</v>
       </c>
       <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>27323</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>23993</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1002,25 +1002,25 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1466055</v>
+        <v>3392672</v>
       </c>
       <c r="C3">
-        <v>41.06941759811749</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
+        <v>174.2960184947341</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3">
-        <v>35697</v>
+        <v>19465</v>
       </c>
       <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1028,25 +1028,25 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>568517</v>
+        <v>1886654</v>
       </c>
       <c r="C4">
-        <v>136.1717365269461</v>
-      </c>
-      <c r="D4">
-        <v>999</v>
+        <v>117.6511598902469</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>16036</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4">
-        <v>4175</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1054,25 +1054,25 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>345180</v>
+        <v>2534458</v>
       </c>
       <c r="C5">
-        <v>51.61184210526316</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
+        <v>79.80785338665491</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>31757</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
-      </c>
-      <c r="F5">
-        <v>6688</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1080,25 +1080,25 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3480437</v>
+        <v>4213712</v>
       </c>
       <c r="C6">
-        <v>90.19246417372827</v>
+        <v>1077.124744376278</v>
       </c>
       <c r="D6">
+        <v>999</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6">
+        <v>3912</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
-      </c>
-      <c r="F6">
-        <v>38589</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1106,22 +1106,22 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4692058</v>
+        <v>2085063</v>
       </c>
       <c r="C7">
-        <v>151.2591231463572</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
+        <v>54.38490831790083</v>
+      </c>
+      <c r="D7">
+        <v>999</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>31020</v>
+        <v>38339</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -1132,22 +1132,22 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1730137</v>
+        <v>2195976</v>
       </c>
       <c r="C8">
-        <v>273.5394466403162</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
+        <v>192.4100587049855</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8">
-        <v>6325</v>
+        <v>11413</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -1158,22 +1158,22 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3904021</v>
+        <v>2430018</v>
       </c>
       <c r="C9">
-        <v>226.0317855488652</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
+        <v>270.5732101102327</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
       <c r="F9">
-        <v>17272</v>
+        <v>8981</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
@@ -1184,22 +1184,22 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2115292</v>
+        <v>3034609</v>
       </c>
       <c r="C10">
-        <v>86.12752442996742</v>
-      </c>
-      <c r="D10">
-        <v>999</v>
+        <v>88.53193103247075</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="F10">
-        <v>24560</v>
+        <v>34277</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -1210,22 +1210,22 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2689019</v>
+        <v>2404895</v>
       </c>
       <c r="C11">
-        <v>588.2780573178735</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
+        <v>73.84226848440187</v>
+      </c>
+      <c r="D11">
+        <v>999</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="F11">
-        <v>4571</v>
+        <v>32568</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -1236,10 +1236,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>378628</v>
+        <v>1749065</v>
       </c>
       <c r="C12">
-        <v>10.64907889185769</v>
+        <v>193.1601325234677</v>
       </c>
       <c r="D12">
         <v>999</v>
@@ -1248,10 +1248,10 @@
         <v>26</v>
       </c>
       <c r="F12">
-        <v>35555</v>
+        <v>9055</v>
       </c>
       <c r="G12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>27</v>
@@ -1262,22 +1262,22 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3641384</v>
+        <v>4907255</v>
       </c>
       <c r="C13">
-        <v>239.8171759747102</v>
+        <v>1351.116464757709</v>
       </c>
       <c r="D13">
-        <v>999</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="F13">
-        <v>15184</v>
+        <v>3632</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -1288,22 +1288,22 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2978107</v>
+        <v>1156371</v>
       </c>
       <c r="C14">
-        <v>167.6767636957379</v>
+        <v>41.65151460577027</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14">
-        <v>17761</v>
+        <v>27763</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
         <v>31</v>
@@ -1314,22 +1314,22 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>602100</v>
+        <v>4588469</v>
       </c>
       <c r="C15">
-        <v>16.48324572930355</v>
+        <v>970.6936746350751</v>
       </c>
       <c r="D15">
-        <v>999</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
       <c r="F15">
-        <v>36528</v>
+        <v>4727</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
         <v>33</v>
@@ -1340,22 +1340,22 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1242340</v>
+        <v>3697349</v>
       </c>
       <c r="C16">
-        <v>56.2373817391698</v>
-      </c>
-      <c r="D16">
-        <v>999</v>
+        <v>220.6055489260143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
       </c>
       <c r="F16">
-        <v>22091</v>
+        <v>16760</v>
       </c>
       <c r="G16" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
@@ -1366,22 +1366,22 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2927388</v>
+        <v>351978</v>
       </c>
       <c r="C17">
-        <v>455.0579822788745</v>
-      </c>
-      <c r="D17">
-        <v>82</v>
+        <v>18.10679561705849</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
       </c>
       <c r="F17">
-        <v>6433</v>
+        <v>19439</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
         <v>37</v>
@@ -1392,22 +1392,22 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1263436</v>
+        <v>573201</v>
       </c>
       <c r="C18">
-        <v>72.79534454943536</v>
-      </c>
-      <c r="D18">
-        <v>40</v>
+        <v>42.83693296465137</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
       </c>
       <c r="F18">
-        <v>17356</v>
+        <v>13381</v>
       </c>
       <c r="G18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>39</v>
@@ -1418,22 +1418,22 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1457437</v>
+        <v>437648</v>
       </c>
       <c r="C19">
-        <v>43.51467470814797</v>
+        <v>31.47867366755376</v>
       </c>
       <c r="D19">
-        <v>73</v>
+        <v>999</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19">
-        <v>33493</v>
+        <v>13903</v>
       </c>
       <c r="G19" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
         <v>41</v>
@@ -1444,22 +1444,22 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>128512</v>
+        <v>684012</v>
       </c>
       <c r="C20">
-        <v>5.025300121221601</v>
-      </c>
-      <c r="D20">
-        <v>999</v>
+        <v>283.9402241594022</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>42</v>
       </c>
       <c r="F20">
-        <v>25573</v>
+        <v>2409</v>
       </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
@@ -1470,22 +1470,22 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1544406</v>
+        <v>4916238</v>
       </c>
       <c r="C21">
-        <v>134.0746592586162</v>
+        <v>1321.214189733942</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
         <v>44</v>
       </c>
       <c r="F21">
-        <v>11519</v>
+        <v>3721</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
         <v>45</v>
@@ -1496,22 +1496,22 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>4784004</v>
+        <v>4059465</v>
       </c>
       <c r="C22">
-        <v>1118.019163355924</v>
-      </c>
-      <c r="D22">
-        <v>999</v>
+        <v>177.3234176385795</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
       </c>
       <c r="F22">
-        <v>4279</v>
+        <v>22893</v>
       </c>
       <c r="G22" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
         <v>47</v>
@@ -1522,22 +1522,22 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2544516</v>
+        <v>4608785</v>
       </c>
       <c r="C23">
-        <v>98.13776612156742</v>
+        <v>128.9783953208519</v>
       </c>
       <c r="D23" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
         <v>48</v>
       </c>
       <c r="F23">
-        <v>25928</v>
+        <v>35733</v>
       </c>
       <c r="G23" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
         <v>49</v>
@@ -1548,22 +1548,22 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2007428</v>
+        <v>4891556</v>
       </c>
       <c r="C24">
-        <v>104.3415977961432</v>
+        <v>145.9948067452619</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>999</v>
       </c>
       <c r="E24" t="s">
         <v>50</v>
       </c>
       <c r="F24">
-        <v>19239</v>
+        <v>33505</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H24" t="s">
         <v>51</v>
@@ -1574,22 +1574,22 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2535946</v>
+        <v>1530006</v>
       </c>
       <c r="C25">
-        <v>81.51808158410749</v>
-      </c>
-      <c r="D25" t="s">
-        <v>0</v>
+        <v>56.52035463612856</v>
+      </c>
+      <c r="D25">
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>52</v>
       </c>
       <c r="F25">
-        <v>31109</v>
+        <v>27070</v>
       </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
         <v>53</v>
@@ -1600,22 +1600,22 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>4719155</v>
+        <v>3134958</v>
       </c>
       <c r="C26">
-        <v>519.330362055684</v>
+        <v>218.9828164291702</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>999</v>
       </c>
       <c r="E26" t="s">
         <v>54</v>
       </c>
       <c r="F26">
-        <v>9087</v>
+        <v>14316</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
         <v>55</v>
@@ -1626,22 +1626,22 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2053117</v>
+        <v>4490541</v>
       </c>
       <c r="C27">
-        <v>104.2297187531729</v>
+        <v>292.7150120591878</v>
       </c>
       <c r="D27">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
       </c>
       <c r="F27">
-        <v>19698</v>
+        <v>15341</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
         <v>57</v>
@@ -1652,10 +1652,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>3923775</v>
+        <v>231306</v>
       </c>
       <c r="C28">
-        <v>148.3244499886596</v>
+        <v>7.223120881866159</v>
       </c>
       <c r="D28">
         <v>999</v>
@@ -1664,10 +1664,10 @@
         <v>58</v>
       </c>
       <c r="F28">
-        <v>26454</v>
+        <v>32023</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H28" t="s">
         <v>59</v>
@@ -1678,22 +1678,22 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>743450</v>
+        <v>2175486</v>
       </c>
       <c r="C29">
-        <v>27.14311792625046</v>
+        <v>61.90734469707749</v>
       </c>
       <c r="D29">
-        <v>999</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
         <v>60</v>
       </c>
       <c r="F29">
-        <v>27390</v>
+        <v>35141</v>
       </c>
       <c r="G29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
         <v>61</v>
@@ -1704,22 +1704,22 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>3030271</v>
+        <v>2973782</v>
       </c>
       <c r="C30">
-        <v>242.4410752860229</v>
-      </c>
-      <c r="D30">
-        <v>999</v>
+        <v>98.21268866210906</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
       </c>
       <c r="F30">
-        <v>12499</v>
+        <v>30279</v>
       </c>
       <c r="G30" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
         <v>63</v>
@@ -1730,10 +1730,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>4083146</v>
+        <v>1401712</v>
       </c>
       <c r="C31">
-        <v>292.7406079724691</v>
+        <v>118.2779512277445</v>
       </c>
       <c r="D31">
         <v>999</v>
@@ -1742,10 +1742,10 @@
         <v>64</v>
       </c>
       <c r="F31">
-        <v>13948</v>
+        <v>11851</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>65</v>
@@ -1756,10 +1756,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>4536585</v>
+        <v>4670935</v>
       </c>
       <c r="C32">
-        <v>333.1315171097077</v>
+        <v>361.4435502592277</v>
       </c>
       <c r="D32">
         <v>999</v>
@@ -1768,10 +1768,10 @@
         <v>66</v>
       </c>
       <c r="F32">
-        <v>13618</v>
+        <v>12923</v>
       </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>67</v>
@@ -1782,10 +1782,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>4565417</v>
+        <v>4288216</v>
       </c>
       <c r="C33">
-        <v>546.8875179683756</v>
+        <v>225.9810286677909</v>
       </c>
       <c r="D33">
         <v>999</v>
@@ -1794,13 +1794,13 @@
         <v>68</v>
       </c>
       <c r="F33">
-        <v>8348</v>
+        <v>18976</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1808,25 +1808,25 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1544685</v>
+        <v>3640725</v>
       </c>
       <c r="C34">
-        <v>111.4250162302532</v>
+        <v>96.66069295101553</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34">
-        <v>13863</v>
+        <v>37665</v>
       </c>
       <c r="G34" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1834,25 +1834,25 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>3979715</v>
+        <v>3086387</v>
       </c>
       <c r="C35">
-        <v>1185.850715137068</v>
+        <v>528.853152844414</v>
       </c>
       <c r="D35">
-        <v>90</v>
+        <v>999</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35">
-        <v>3356</v>
+        <v>5836</v>
       </c>
       <c r="G35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1860,25 +1860,25 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>4567704</v>
+        <v>3281410</v>
       </c>
       <c r="C36">
-        <v>145.2323932466376</v>
-      </c>
-      <c r="D36">
-        <v>999</v>
+        <v>94.03398670334708</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36">
-        <v>31451</v>
+        <v>34896</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1886,25 +1886,25 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1964825</v>
+        <v>4684166</v>
       </c>
       <c r="C37">
-        <v>50.45905133670613</v>
+        <v>487.8323265986253</v>
       </c>
       <c r="D37">
         <v>999</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37">
-        <v>38939</v>
+        <v>9602</v>
       </c>
       <c r="G37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1912,25 +1912,25 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>4887110</v>
+        <v>777899</v>
       </c>
       <c r="C38">
-        <v>155.1709795205588</v>
-      </c>
-      <c r="D38" t="s">
-        <v>0</v>
+        <v>42.64797149122807</v>
+      </c>
+      <c r="D38">
+        <v>999</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38">
-        <v>31495</v>
+        <v>18240</v>
       </c>
       <c r="G38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1938,25 +1938,25 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>4848197</v>
+        <v>2917188</v>
       </c>
       <c r="C39">
-        <v>950.0679992161473</v>
-      </c>
-      <c r="D39">
-        <v>999</v>
+        <v>3838.405263157895</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39">
-        <v>5103</v>
+        <v>760</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1964,25 +1964,25 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2144910</v>
+        <v>2211130</v>
       </c>
       <c r="C40">
-        <v>60.1792828685259</v>
-      </c>
-      <c r="D40">
-        <v>33</v>
+        <v>90.48287432990956</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F40">
-        <v>35642</v>
+        <v>24437</v>
       </c>
       <c r="G40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1616839</v>
+        <v>1567912</v>
       </c>
       <c r="C41">
-        <v>428.8697612732096</v>
-      </c>
-      <c r="D41">
-        <v>999</v>
+        <v>153.8073376495978</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41">
-        <v>3770</v>
+        <v>10194</v>
       </c>
       <c r="G41" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2016,25 +2016,25 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>3581879</v>
+        <v>4622292</v>
       </c>
       <c r="C42">
-        <v>1394.269754768392</v>
+        <v>664.5998562185478</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F42">
-        <v>2569</v>
+        <v>6955</v>
       </c>
       <c r="G42" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2042,25 +2042,25 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>4528945</v>
+        <v>1106666</v>
       </c>
       <c r="C43">
-        <v>786.4117034207328</v>
-      </c>
-      <c r="D43">
-        <v>92</v>
+        <v>28.73785348879483</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F43">
-        <v>5759</v>
+        <v>38509</v>
       </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2068,25 +2068,25 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1417899</v>
+        <v>405005</v>
       </c>
       <c r="C44">
-        <v>39.44854352725148</v>
+        <v>11.11124828532236</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>999</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44">
-        <v>35943</v>
+        <v>36450</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2094,25 +2094,25 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>222250</v>
+        <v>535969</v>
       </c>
       <c r="C45">
-        <v>30.31232951445718</v>
+        <v>22.03638681029521</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>999</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F45">
-        <v>7332</v>
+        <v>24322</v>
       </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2120,25 +2120,25 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2736413</v>
+        <v>1312392</v>
       </c>
       <c r="C46">
-        <v>220.1458567980692</v>
+        <v>35.428879950328</v>
       </c>
       <c r="D46">
-        <v>999</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F46">
-        <v>12430</v>
+        <v>37043</v>
       </c>
       <c r="G46" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2146,25 +2146,25 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2618132</v>
+        <v>895644</v>
       </c>
       <c r="C47">
-        <v>124.1350339007159</v>
+        <v>112.673795445968</v>
       </c>
       <c r="D47" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F47">
-        <v>21091</v>
+        <v>7949</v>
       </c>
       <c r="G47" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2172,25 +2172,25 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2106356</v>
+        <v>2722443</v>
       </c>
       <c r="C48">
-        <v>54.31132197096666</v>
-      </c>
-      <c r="D48" t="s">
-        <v>0</v>
+        <v>168.1558369363805</v>
+      </c>
+      <c r="D48">
+        <v>999</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F48">
-        <v>38783</v>
+        <v>16190</v>
       </c>
       <c r="G48" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2198,25 +2198,25 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>291129</v>
+        <v>390330</v>
       </c>
       <c r="C49">
-        <v>8.784026792987961</v>
+        <v>200.3747433264887</v>
       </c>
       <c r="D49">
         <v>999</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F49">
-        <v>33143</v>
+        <v>1948</v>
       </c>
       <c r="G49" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2224,25 +2224,25 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1436721</v>
+        <v>915266</v>
       </c>
       <c r="C50">
-        <v>41.7142152023692</v>
-      </c>
-      <c r="D50" t="s">
-        <v>0</v>
+        <v>188.6757369614512</v>
+      </c>
+      <c r="D50">
+        <v>999</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F50">
-        <v>34442</v>
+        <v>4851</v>
       </c>
       <c r="G50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2250,25 +2250,25 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1954728</v>
+        <v>771723</v>
       </c>
       <c r="C51">
-        <v>53.36995576912576</v>
-      </c>
-      <c r="D51" t="s">
-        <v>0</v>
+        <v>26.4288698630137</v>
+      </c>
+      <c r="D51">
+        <v>999</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F51">
-        <v>36626</v>
+        <v>29200</v>
       </c>
       <c r="G51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2276,25 +2276,25 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>2948537</v>
+        <v>3014156</v>
       </c>
       <c r="C52">
-        <v>113.2136768545538</v>
+        <v>340.4287327761464</v>
       </c>
       <c r="D52">
-        <v>999</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F52">
-        <v>26044</v>
+        <v>8854</v>
       </c>
       <c r="G52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2302,25 +2302,25 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>958184</v>
+        <v>3618957</v>
       </c>
       <c r="C53">
-        <v>393.1817808781288</v>
+        <v>97.40161485668148</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F53">
-        <v>2437</v>
+        <v>37155</v>
       </c>
       <c r="G53" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2328,25 +2328,25 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>2385408</v>
+        <v>2704595</v>
       </c>
       <c r="C54">
-        <v>69.12422846214031</v>
+        <v>435.2421950434503</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F54">
-        <v>34509</v>
+        <v>6214</v>
       </c>
       <c r="G54" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2354,25 +2354,25 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>3668894</v>
+        <v>4908085</v>
       </c>
       <c r="C55">
-        <v>362.8975272007913</v>
+        <v>127.4496234744222</v>
       </c>
       <c r="D55">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>10110</v>
+        <v>38510</v>
       </c>
       <c r="G55" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2380,25 +2380,25 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3633056</v>
+        <v>3688725</v>
       </c>
       <c r="C56">
-        <v>141.91625</v>
+        <v>154.5145143048632</v>
       </c>
       <c r="D56">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F56">
-        <v>25600</v>
+        <v>23873</v>
       </c>
       <c r="G56" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2406,22 +2406,22 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>4211169</v>
+        <v>739165</v>
       </c>
       <c r="C57">
-        <v>534.8195326390653</v>
-      </c>
-      <c r="D57" t="s">
-        <v>0</v>
+        <v>57.50914183459115</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
       </c>
       <c r="E57" t="s">
         <v>114</v>
       </c>
       <c r="F57">
-        <v>7874</v>
+        <v>12853</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H57" t="s">
         <v>115</v>
@@ -2432,22 +2432,22 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>3350984</v>
+        <v>2958469</v>
       </c>
       <c r="C58">
-        <v>140.9338436303991</v>
-      </c>
-      <c r="D58" t="s">
-        <v>0</v>
+        <v>113.0437889266746</v>
+      </c>
+      <c r="D58">
+        <v>68</v>
       </c>
       <c r="E58" t="s">
         <v>116</v>
       </c>
       <c r="F58">
-        <v>23777</v>
+        <v>26171</v>
       </c>
       <c r="G58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
         <v>117</v>
@@ -2458,22 +2458,22 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>3129789</v>
+        <v>4690912</v>
       </c>
       <c r="C59">
-        <v>245.7241893695533</v>
-      </c>
-      <c r="D59" t="s">
-        <v>0</v>
+        <v>614.1544907043728</v>
+      </c>
+      <c r="D59">
+        <v>999</v>
       </c>
       <c r="E59" t="s">
         <v>118</v>
       </c>
       <c r="F59">
-        <v>12737</v>
+        <v>7638</v>
       </c>
       <c r="G59" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>119</v>
@@ -2484,25 +2484,25 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>4129542</v>
+        <v>1419018</v>
       </c>
       <c r="C60">
-        <v>202.0323874755382</v>
+        <v>73.52043935547381</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E60" t="s">
         <v>120</v>
       </c>
       <c r="F60">
-        <v>20440</v>
+        <v>19301</v>
       </c>
       <c r="G60" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2510,25 +2510,25 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>2446435</v>
+        <v>4454005</v>
       </c>
       <c r="C61">
-        <v>78.97330363483762</v>
-      </c>
-      <c r="D61" t="s">
-        <v>0</v>
+        <v>2228.11655827914</v>
+      </c>
+      <c r="D61">
+        <v>999</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F61">
-        <v>30978</v>
+        <v>1999</v>
       </c>
       <c r="G61" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2536,25 +2536,25 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>2706297</v>
+        <v>1481273</v>
       </c>
       <c r="C62">
-        <v>70.92344986634519</v>
-      </c>
-      <c r="D62" t="s">
-        <v>0</v>
+        <v>69.85818713450293</v>
+      </c>
+      <c r="D62">
+        <v>999</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F62">
-        <v>38158</v>
+        <v>21204</v>
       </c>
       <c r="G62" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H62" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2562,22 +2562,22 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>1003550</v>
+        <v>930336</v>
       </c>
       <c r="C63">
-        <v>50.53121852970796</v>
-      </c>
-      <c r="D63">
-        <v>58</v>
+        <v>26.52872907696256</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
       </c>
       <c r="E63" t="s">
         <v>125</v>
       </c>
       <c r="F63">
-        <v>19860</v>
+        <v>35069</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H63" t="s">
         <v>126</v>
@@ -2588,22 +2588,22 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>3754884</v>
+        <v>1908035</v>
       </c>
       <c r="C64">
-        <v>232.9766085499783</v>
+        <v>57.62889244616267</v>
       </c>
       <c r="D64" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E64" t="s">
         <v>127</v>
       </c>
       <c r="F64">
-        <v>16117</v>
+        <v>33109</v>
       </c>
       <c r="G64" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H64" t="s">
         <v>128</v>
@@ -2614,10 +2614,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>4806195</v>
+        <v>939693</v>
       </c>
       <c r="C65">
-        <v>216.7491205916839</v>
+        <v>115.1725701679127</v>
       </c>
       <c r="D65">
         <v>999</v>
@@ -2626,10 +2626,10 @@
         <v>129</v>
       </c>
       <c r="F65">
-        <v>22174</v>
+        <v>8159</v>
       </c>
       <c r="G65" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s">
         <v>130</v>
@@ -2640,22 +2640,22 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>3833983</v>
+        <v>1917028</v>
       </c>
       <c r="C66">
-        <v>1482.018940858137</v>
+        <v>135.3642140940545</v>
       </c>
       <c r="D66">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
         <v>131</v>
       </c>
       <c r="F66">
-        <v>2587</v>
+        <v>14162</v>
       </c>
       <c r="G66" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>132</v>
@@ -2666,22 +2666,22 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>4627094</v>
+        <v>2645609</v>
       </c>
       <c r="C67">
-        <v>422.797331871345</v>
-      </c>
-      <c r="D67">
-        <v>73</v>
+        <v>159.2780854906683</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
       </c>
       <c r="E67" t="s">
         <v>133</v>
       </c>
       <c r="F67">
-        <v>10944</v>
+        <v>16610</v>
       </c>
       <c r="G67" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H67" t="s">
         <v>134</v>
@@ -2692,25 +2692,25 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>1057321</v>
+        <v>363455</v>
       </c>
       <c r="C68">
-        <v>37.82225004471472</v>
-      </c>
-      <c r="D68" t="s">
-        <v>0</v>
+        <v>9.870325611710072</v>
+      </c>
+      <c r="D68">
+        <v>999</v>
       </c>
       <c r="E68" t="s">
         <v>135</v>
       </c>
       <c r="F68">
-        <v>27955</v>
+        <v>36823</v>
       </c>
       <c r="G68" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2718,25 +2718,25 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>4710192</v>
+        <v>914487</v>
       </c>
       <c r="C69">
-        <v>1197.30350788002</v>
-      </c>
-      <c r="D69">
-        <v>999</v>
+        <v>37.66731196968449</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F69">
-        <v>3934</v>
+        <v>24278</v>
       </c>
       <c r="G69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2744,25 +2744,25 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>1596923</v>
+        <v>4004819</v>
       </c>
       <c r="C70">
-        <v>91.12776763296051</v>
+        <v>461.9168396770473</v>
       </c>
       <c r="D70" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F70">
-        <v>17524</v>
+        <v>8670</v>
       </c>
       <c r="G70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2770,25 +2770,25 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>4029366</v>
+        <v>612675</v>
       </c>
       <c r="C71">
-        <v>767.3521234050658</v>
-      </c>
-      <c r="D71">
-        <v>48</v>
+        <v>20.5609436874958</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F71">
-        <v>5251</v>
+        <v>29798</v>
       </c>
       <c r="G71" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2796,25 +2796,25 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>3420634</v>
+        <v>1370382</v>
       </c>
       <c r="C72">
-        <v>102.093239814953</v>
+        <v>414.1378059836809</v>
       </c>
       <c r="D72">
+        <v>84</v>
+      </c>
+      <c r="E72" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72">
+        <v>3309</v>
+      </c>
+      <c r="G72" t="s">
         <v>1</v>
       </c>
-      <c r="E72" t="s">
-        <v>142</v>
-      </c>
-      <c r="F72">
-        <v>33505</v>
-      </c>
-      <c r="G72" t="s">
-        <v>8</v>
-      </c>
       <c r="H72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2822,25 +2822,25 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>675409</v>
+        <v>1151048</v>
       </c>
       <c r="C73">
-        <v>19.39604273160646</v>
+        <v>162.0509643812474</v>
       </c>
       <c r="D73">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F73">
-        <v>34822</v>
+        <v>7103</v>
       </c>
       <c r="G73" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2848,25 +2848,25 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>1970459</v>
+        <v>2887401</v>
       </c>
       <c r="C74">
-        <v>700.2341862117981</v>
+        <v>375.2795684949311</v>
       </c>
       <c r="D74" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F74">
-        <v>2814</v>
+        <v>7694</v>
       </c>
       <c r="G74" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2874,25 +2874,25 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>3128466</v>
+        <v>1296547</v>
       </c>
       <c r="C75">
-        <v>105.6771382245642</v>
+        <v>93.6879109762266</v>
       </c>
       <c r="D75">
         <v>999</v>
       </c>
       <c r="E75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F75">
-        <v>29604</v>
+        <v>13839</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2900,25 +2900,25 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>1455029</v>
+        <v>2582570</v>
       </c>
       <c r="C76">
-        <v>45.98846360504441</v>
-      </c>
-      <c r="D76" t="s">
-        <v>0</v>
+        <v>75.52257573985261</v>
+      </c>
+      <c r="D76">
+        <v>82</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F76">
-        <v>31639</v>
+        <v>34196</v>
       </c>
       <c r="G76" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2926,25 +2926,25 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>1503597</v>
+        <v>4842535</v>
       </c>
       <c r="C77">
-        <v>41.34054603942702</v>
-      </c>
-      <c r="D77">
-        <v>16</v>
+        <v>131.2944988205949</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F77">
-        <v>36371</v>
+        <v>36883</v>
       </c>
       <c r="G77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2952,25 +2952,25 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>2290381</v>
+        <v>4172813</v>
       </c>
       <c r="C78">
-        <v>1306.549343981746</v>
-      </c>
-      <c r="D78">
-        <v>49</v>
+        <v>382.5110459253827</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F78">
-        <v>1753</v>
+        <v>10909</v>
       </c>
       <c r="G78" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2978,25 +2978,25 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>3121460</v>
+        <v>2472835</v>
       </c>
       <c r="C79">
-        <v>313.4625426792529</v>
-      </c>
-      <c r="D79">
-        <v>5</v>
+        <v>143.3195201112785</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F79">
-        <v>9958</v>
+        <v>17254</v>
       </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H79" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3004,25 +3004,25 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>1153278</v>
+        <v>2404170</v>
       </c>
       <c r="C80">
-        <v>102.2772259666548</v>
+        <v>89.49078726968175</v>
       </c>
       <c r="D80">
-        <v>56</v>
+        <v>999</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F80">
-        <v>11276</v>
+        <v>26865</v>
       </c>
       <c r="G80" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3030,25 +3030,25 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>4091049</v>
+        <v>3800696</v>
       </c>
       <c r="C81">
-        <v>107.6138731060606</v>
+        <v>205.4763475158134</v>
       </c>
       <c r="D81">
-        <v>67</v>
+        <v>999</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F81">
-        <v>38016</v>
+        <v>18497</v>
       </c>
       <c r="G81" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3056,25 +3056,25 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>2297069</v>
+        <v>1173206</v>
       </c>
       <c r="C82">
-        <v>1903.122618061309</v>
-      </c>
-      <c r="D82">
-        <v>12</v>
+        <v>60.07506784781607</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F82">
-        <v>1207</v>
+        <v>19529</v>
       </c>
       <c r="G82" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3082,25 +3082,25 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>4222254</v>
+        <v>1404706</v>
       </c>
       <c r="C83">
-        <v>186.7262515478507</v>
-      </c>
-      <c r="D83">
-        <v>50</v>
+        <v>42.84991763772802</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F83">
-        <v>22612</v>
+        <v>32782</v>
       </c>
       <c r="G83" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3108,25 +3108,25 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>4981758</v>
+        <v>2075373</v>
       </c>
       <c r="C84">
-        <v>138.7328524882342</v>
+        <v>183.8891547049442</v>
       </c>
       <c r="D84" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F84">
-        <v>35909</v>
+        <v>11286</v>
       </c>
       <c r="G84" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3134,25 +3134,25 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>1751561</v>
+        <v>3090926</v>
       </c>
       <c r="C85">
-        <v>155.1014787921721</v>
+        <v>83.99027200347817</v>
       </c>
       <c r="D85">
-        <v>46</v>
+        <v>999</v>
       </c>
       <c r="E85" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F85">
-        <v>11293</v>
+        <v>36801</v>
       </c>
       <c r="G85" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3160,25 +3160,25 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>1142875</v>
+        <v>607888</v>
       </c>
       <c r="C86">
-        <v>87.4158635459691</v>
+        <v>25.77872015605784</v>
       </c>
       <c r="D86">
         <v>999</v>
       </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F86">
-        <v>13074</v>
+        <v>23581</v>
       </c>
       <c r="G86" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3186,25 +3186,25 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>572848</v>
+        <v>2156883</v>
       </c>
       <c r="C87">
-        <v>186.0500162390387</v>
+        <v>402.8545013074337</v>
       </c>
       <c r="D87">
         <v>999</v>
       </c>
       <c r="E87" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F87">
-        <v>3079</v>
+        <v>5354</v>
       </c>
       <c r="G87" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H87" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3212,25 +3212,25 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1826114</v>
+        <v>1142010</v>
       </c>
       <c r="C88">
-        <v>102.2918440510867</v>
+        <v>100.2026849170834</v>
       </c>
       <c r="D88">
         <v>999</v>
       </c>
       <c r="E88" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F88">
-        <v>17852</v>
+        <v>11397</v>
       </c>
       <c r="G88" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3238,25 +3238,25 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>1368546</v>
+        <v>4200337</v>
       </c>
       <c r="C89">
-        <v>41.1271186440678</v>
-      </c>
-      <c r="D89">
-        <v>76</v>
+        <v>414.4796723899743</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F89">
-        <v>33276</v>
+        <v>10134</v>
       </c>
       <c r="G89" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H89" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3264,25 +3264,25 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>4679842</v>
+        <v>1388025</v>
       </c>
       <c r="C90">
-        <v>125.1930659960943</v>
+        <v>60.546346782988</v>
       </c>
       <c r="D90">
-        <v>999</v>
+        <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F90">
-        <v>37381</v>
+        <v>22925</v>
       </c>
       <c r="G90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3290,25 +3290,25 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2273880</v>
+        <v>2566600</v>
       </c>
       <c r="C91">
-        <v>69.55888650963597</v>
+        <v>81.83267440377503</v>
       </c>
       <c r="D91">
-        <v>25</v>
+        <v>999</v>
       </c>
       <c r="E91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F91">
-        <v>32690</v>
+        <v>31364</v>
       </c>
       <c r="G91" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3316,25 +3316,25 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1528865</v>
+        <v>2199435</v>
       </c>
       <c r="C92">
-        <v>49.01150862345323</v>
+        <v>76.74232379623169</v>
       </c>
       <c r="D92">
-        <v>999</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F92">
-        <v>31194</v>
+        <v>28660</v>
       </c>
       <c r="G92" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3342,25 +3342,25 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>991978</v>
+        <v>3743437</v>
       </c>
       <c r="C93">
-        <v>41.78684864568853</v>
-      </c>
-      <c r="D93" t="s">
-        <v>0</v>
+        <v>103.6819554078382</v>
+      </c>
+      <c r="D93">
+        <v>999</v>
       </c>
       <c r="E93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F93">
-        <v>23739</v>
+        <v>36105</v>
       </c>
       <c r="G93" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3368,25 +3368,25 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>4559308</v>
+        <v>2632600</v>
       </c>
       <c r="C94">
-        <v>1177.811418238181</v>
+        <v>754.1105700372386</v>
       </c>
       <c r="D94">
         <v>999</v>
       </c>
       <c r="E94" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F94">
-        <v>3871</v>
+        <v>3491</v>
       </c>
       <c r="G94" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3394,25 +3394,25 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>4264145</v>
+        <v>4660144</v>
       </c>
       <c r="C95">
-        <v>753.7820399505038</v>
+        <v>127.8783820866034</v>
       </c>
       <c r="D95">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F95">
-        <v>5657</v>
+        <v>36442</v>
       </c>
       <c r="G95" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3420,25 +3420,25 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>3669913</v>
+        <v>4221162</v>
       </c>
       <c r="C96">
-        <v>2670.970160116448</v>
-      </c>
-      <c r="D96">
-        <v>999</v>
+        <v>384.7212905577834</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F96">
-        <v>1374</v>
+        <v>10972</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H96" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3446,25 +3446,25 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3580273</v>
+        <v>3884133</v>
       </c>
       <c r="C97">
-        <v>370.6670462780826</v>
+        <v>101.0125091022574</v>
       </c>
       <c r="D97">
         <v>999</v>
       </c>
       <c r="E97" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F97">
-        <v>9659</v>
+        <v>38452</v>
       </c>
       <c r="G97" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H97" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3472,25 +3472,25 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>3720336</v>
+        <v>1662481</v>
       </c>
       <c r="C98">
-        <v>114.3557618418221</v>
+        <v>68.71175862781567</v>
       </c>
       <c r="D98">
-        <v>999</v>
+        <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F98">
-        <v>32533</v>
+        <v>24195</v>
       </c>
       <c r="G98" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H98" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3498,10 +3498,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>333759</v>
+        <v>1374182</v>
       </c>
       <c r="C99">
-        <v>33.8497971602434</v>
+        <v>1201.208041958042</v>
       </c>
       <c r="D99">
         <v>999</v>
@@ -3510,10 +3510,10 @@
         <v>194</v>
       </c>
       <c r="F99">
-        <v>9860</v>
+        <v>1144</v>
       </c>
       <c r="G99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>195</v>
@@ -3524,22 +3524,22 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>4709385</v>
+        <v>3390256</v>
       </c>
       <c r="C100">
-        <v>375.1900095602294</v>
+        <v>223.1753011651636</v>
       </c>
       <c r="D100">
-        <v>60</v>
+        <v>999</v>
       </c>
       <c r="E100" t="s">
         <v>196</v>
       </c>
       <c r="F100">
-        <v>12552</v>
+        <v>15191</v>
       </c>
       <c r="G100" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H100" t="s">
         <v>197</v>

--- a/prototype/RGB.xlsx
+++ b/prototype/RGB.xlsx
@@ -14,600 +14,600 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="198">
-  <si>
-    <t>(1.3497329896613266,104.29054361914957)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="198">
+  <si>
+    <t>Freehold</t>
+  </si>
+  <si>
+    <t>(1.3894905904215642,104.4767231709773)</t>
   </si>
   <si>
     <t>HDB</t>
   </si>
   <si>
-    <t>Mall, Bus Stop, Park, MRT, Market, Gym</t>
-  </si>
-  <si>
-    <t>(1.4480798900983505,104.33062327546864)</t>
+    <t>Gym, Mall, Park, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3478860448959573,104.5206707543142)</t>
+  </si>
+  <si>
+    <t>Executive Condominium</t>
+  </si>
+  <si>
+    <t>Mall, Park, Bus Stop, Gym, Playground, Market, MRT</t>
+  </si>
+  <si>
+    <t>(1.4069093181249324,104.31506678379374)</t>
   </si>
   <si>
     <t>Private Property</t>
   </si>
   <si>
-    <t>Bus Stop, Mall, Market, Park, MRT</t>
-  </si>
-  <si>
-    <t>Freehold</t>
-  </si>
-  <si>
-    <t>(1.4452497540770426,104.05181897320644)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Gym, Market</t>
-  </si>
-  <si>
-    <t>(1.3828476861269878,104.62034345604954)</t>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>(1.4626658274242006,104.25450534167275)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Park, Gym, Market</t>
+  </si>
+  <si>
+    <t>(1.448131195082653,104.26204445436953)</t>
+  </si>
+  <si>
+    <t>Pool, Market</t>
+  </si>
+  <si>
+    <t>(1.3489234839448359,104.24207158513414)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, Market, Gym, Playground</t>
+  </si>
+  <si>
+    <t>(1.4384701563889093,104.14863603766992)</t>
+  </si>
+  <si>
+    <t>Pool, Market, Gym, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.4191918928399767,104.53506508140815)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, MRT, Market, Mall, Gym, Playground</t>
+  </si>
+  <si>
+    <t>(1.3570661835390891,104.31418293421795)</t>
+  </si>
+  <si>
+    <t>Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4599492869267525,104.54473839676017)</t>
+  </si>
+  <si>
+    <t>Playground, Bus Stop, MRT, Park, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.3925299835849474,104.36814524378627)</t>
+  </si>
+  <si>
+    <t>Playground, Park, MRT, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.2913641685949027,104.51059369192275)</t>
+  </si>
+  <si>
+    <t>Playground, MRT, Park</t>
+  </si>
+  <si>
+    <t>(1.3698254470873328,104.44222675965536)</t>
+  </si>
+  <si>
+    <t>Gym, Pool, Mall, Park, Market, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3893420852177008,104.28094560073694)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Market, Park</t>
+  </si>
+  <si>
+    <t>(1.3458923020908293,104.64260210476306)</t>
+  </si>
+  <si>
+    <t>Market, Park</t>
+  </si>
+  <si>
+    <t>(1.2764938024090347,104.05495607902152)</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>(1.445052730120356,104.02818231415958)</t>
+  </si>
+  <si>
+    <t>Playground, Mall, Pool, MRT, Gym, Market, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.4312061596379948,104.1504550383104)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Mall, Pool, Market</t>
+  </si>
+  <si>
+    <t>(1.3659529426619952,104.39221033523009)</t>
+  </si>
+  <si>
+    <t>Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.4192446602429378,104.24244231546108)</t>
+  </si>
+  <si>
+    <t>Market, Gym, MRT, Mall, Playground</t>
+  </si>
+  <si>
+    <t>(1.3499427638718888,104.27185762317764)</t>
+  </si>
+  <si>
+    <t>Mall, Gym, Bus Stop, Pool, Park, MRT, Playground, Market</t>
+  </si>
+  <si>
+    <t>(1.318905357641771,104.19194900125532)</t>
+  </si>
+  <si>
+    <t>Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.4148140772799196,104.20809553048126)</t>
+  </si>
+  <si>
+    <t>Gym, Mall, Park</t>
+  </si>
+  <si>
+    <t>(1.3740309756364462,104.172316217982)</t>
+  </si>
+  <si>
+    <t>Playground, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.3359858389003176,104.58605319222727)</t>
+  </si>
+  <si>
+    <t>Playground, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.4608952074465729,104.38054331628014)</t>
+  </si>
+  <si>
+    <t>Playground, MRT, Market, Bus Stop, Gym, Park, Pool</t>
+  </si>
+  <si>
+    <t>(1.3755613672875364,104.04206925764835)</t>
+  </si>
+  <si>
+    <t>Playground, Park, Pool, Gym, Market, Mall, Bus Stop, MRT</t>
+  </si>
+  <si>
+    <t>(1.4297479606584755,104.12465219269097)</t>
+  </si>
+  <si>
+    <t>Pool, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.2926289065743328,104.62546755209415)</t>
+  </si>
+  <si>
+    <t>Pool, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3622699365924242,104.10003725565068)</t>
+  </si>
+  <si>
+    <t>Playground, Mall, Pool, MRT, Market</t>
+  </si>
+  <si>
+    <t>(1.4562862206438396,104.3128129802637)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Market, Playground, Pool, Mall, MRT, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.401411509248339,104.16028273819896)</t>
+  </si>
+  <si>
+    <t>Park, Playground, Mall, Gym, MRT</t>
+  </si>
+  <si>
+    <t>(1.393586163698429,104.0414113479654)</t>
+  </si>
+  <si>
+    <t>(1.346194455153728,104.55196717326298)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Market, Mall, Playground, Gym, Pool, MRT</t>
+  </si>
+  <si>
+    <t>(1.3732346679137608,104.02916442171718)</t>
   </si>
   <si>
     <t>Park</t>
   </si>
   <si>
-    <t>(1.377364208829871,104.03381145956362)</t>
-  </si>
-  <si>
-    <t>Pool, Playground, Bus Stop, Gym, MRT</t>
-  </si>
-  <si>
-    <t>(1.4187245712465395,104.26372945473172)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Playground, Gym, Bus Stop, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.379899434977426,104.24704941491052)</t>
-  </si>
-  <si>
-    <t>Executive Condominium</t>
-  </si>
-  <si>
-    <t>Mall, MRT, Market, Bus Stop, Gym, Pool, Park, Playground</t>
-  </si>
-  <si>
-    <t>(1.4646058648451163,104.36094660737977)</t>
-  </si>
-  <si>
-    <t>Playground, Bus Stop, Pool, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.2739171604897082,104.12550991761196)</t>
-  </si>
-  <si>
-    <t>Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3941793461052991,104.4675027614531)</t>
+    <t>(1.4308660051417974,104.19240422039792)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Playground, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.3469392323870764,104.55862808155224)</t>
+  </si>
+  <si>
+    <t>Market, Playground, Park, Bus Stop, Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.2891598932759132,104.40630222948835)</t>
+  </si>
+  <si>
+    <t>MRT, Bus Stop, Playground, Market, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.2923428649723978,104.45150983216861)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Gym, Mall, Playground, Bus Stop, Pool, Market</t>
+  </si>
+  <si>
+    <t>(1.4554292293065563,104.56231751049211)</t>
+  </si>
+  <si>
+    <t>Park, Playground, MRT, Gym, Bus Stop, Market, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.3097713834175655,104.09238403327019)</t>
+  </si>
+  <si>
+    <t>MRT, Park</t>
+  </si>
+  <si>
+    <t>(1.3162333086502507,104.58565279696764)</t>
+  </si>
+  <si>
+    <t>Market, Pool, MRT</t>
+  </si>
+  <si>
+    <t>(1.3600954150095013,104.33979217036693)</t>
+  </si>
+  <si>
+    <t>Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.373225428876679,104.35073082701626)</t>
+  </si>
+  <si>
+    <t>(1.3874540621023144,104.54687979424767)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop, Mall, MRT, Playground, Park</t>
+  </si>
+  <si>
+    <t>(1.298513574909235,104.5461140755436)</t>
+  </si>
+  <si>
+    <t>Playground, MRT, Park, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.31188685571011,104.38657276573903)</t>
   </si>
   <si>
     <t>Mall</t>
   </si>
   <si>
-    <t>(1.2958511405072994,104.28550235673316)</t>
-  </si>
-  <si>
-    <t>Pool, Bus Stop, Park, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.2980125560018028,104.62696519785308)</t>
-  </si>
-  <si>
-    <t>Market, Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.3034408827623485,104.1463689808568)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, MRT, Playground</t>
-  </si>
-  <si>
-    <t>(1.401013700305174,104.34261571056005)</t>
+    <t>(1.3785480719202439,104.33598178483615)</t>
+  </si>
+  <si>
+    <t>MRT, Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4340656853897797,104.3903986740565)</t>
+  </si>
+  <si>
+    <t>Mall, Playground, Pool</t>
+  </si>
+  <si>
+    <t>(1.455347303096121,104.37381042274825)</t>
+  </si>
+  <si>
+    <t>Park, Gym, MRT</t>
+  </si>
+  <si>
+    <t>(1.3985863626087784,104.34130443101589)</t>
+  </si>
+  <si>
+    <t>Park, Pool, MRT, Bus Stop, Market, Mall, Playground, Gym</t>
+  </si>
+  <si>
+    <t>(1.3644196852588892,104.26022907080018)</t>
+  </si>
+  <si>
+    <t>Pool, Bus Stop, Gym, Mall, MRT, Park, Playground, Market</t>
+  </si>
+  <si>
+    <t>(1.395541379348349,104.36638286502753)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Gym, Pool, MRT, Park</t>
+  </si>
+  <si>
+    <t>(1.3766334204341923,104.36550369076369)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, MRT, Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.3953156955736976,104.37642393260272)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Market, MRT, Pool, Bus Stop, Mall</t>
+  </si>
+  <si>
+    <t>(1.3038214135779091,104.12162465724727)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Market, Mall, Pool, MRT</t>
+  </si>
+  <si>
+    <t>(1.4315869768468388,104.32710301341315)</t>
+  </si>
+  <si>
+    <t>Playground, Mall, Gym, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2962156544171406,104.43498791240489)</t>
+  </si>
+  <si>
+    <t>Market, Playground, Park, Gym, Bus Stop, Pool, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.464621591588068,104.31880500015161)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Market, Pool</t>
+  </si>
+  <si>
+    <t>(1.2808783930646876,104.49701730028514)</t>
+  </si>
+  <si>
+    <t>(1.359668930233392,104.06971379842341)</t>
+  </si>
+  <si>
+    <t>Market, Park, Playground, Gym</t>
+  </si>
+  <si>
+    <t>(1.4654372184763937,104.1130698291564)</t>
+  </si>
+  <si>
+    <t>Market, Pool</t>
+  </si>
+  <si>
+    <t>(1.3588362754554275,104.54027618404676)</t>
+  </si>
+  <si>
+    <t>Mall, Playground, MRT, Park, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3464478901624646,104.64026892647804)</t>
+  </si>
+  <si>
+    <t>Playground, Pool, Mall, Park, Market, MRT, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.391664312763094,104.59714365664271)</t>
+  </si>
+  <si>
+    <t>Park, Gym, Market, Playground, MRT</t>
+  </si>
+  <si>
+    <t>(1.3756306343159663,104.53857988745366)</t>
+  </si>
+  <si>
+    <t>Park, Pool, Mall, Market, MRT, Gym, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3552924381228726,104.39090742767885)</t>
+  </si>
+  <si>
+    <t>Playground, Park, Pool, MRT, Gym, Bus Stop, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.3461408436391817,104.02880984642326)</t>
+  </si>
+  <si>
+    <t>(1.3243541159201686,104.11087012110154)</t>
+  </si>
+  <si>
+    <t>Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.4263524425455953,104.27141468863546)</t>
+  </si>
+  <si>
+    <t>MRT, Bus Stop, Playground, Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.4675109004934441,104.61488506120544)</t>
+  </si>
+  <si>
+    <t>Playground, Pool, MRT, Gym, Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3497010512809826,104.57469399744019)</t>
+  </si>
+  <si>
+    <t>Market, MRT, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.3318138512046596,104.28724805779501)</t>
+  </si>
+  <si>
+    <t>Mall, Park, Bus Stop, Playground, Market</t>
+  </si>
+  <si>
+    <t>(1.3572469766996822,104.57443976009964)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Mall, MRT, Gym</t>
+  </si>
+  <si>
+    <t>(1.4570077248877369,104.30360854461222)</t>
+  </si>
+  <si>
+    <t>(1.3162543614119289,104.6088956685973)</t>
+  </si>
+  <si>
+    <t>MRT, Pool</t>
+  </si>
+  <si>
+    <t>(1.313218883952678,104.62207822780996)</t>
+  </si>
+  <si>
+    <t>Market, Park, Playground</t>
+  </si>
+  <si>
+    <t>(1.3244620502979167,104.51769457061862)</t>
+  </si>
+  <si>
+    <t>Market, Gym, Park, Playground, Bus Stop, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.3524079162038087,104.20053729371838)</t>
+  </si>
+  <si>
+    <t>Pool, Gym, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.3238844716496554,104.3988908549891)</t>
+  </si>
+  <si>
+    <t>Market, Park, Pool</t>
+  </si>
+  <si>
+    <t>(1.3541498909836818,104.57627248707036)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Mall, Pool, Gym, MRT, Park</t>
+  </si>
+  <si>
+    <t>(1.467493077375039,104.21966685849846)</t>
+  </si>
+  <si>
+    <t>Pool, MRT, Park, Market, Bus Stop, Mall</t>
+  </si>
+  <si>
+    <t>(1.4676736519891496,104.10374476860439)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.3389751608348934,104.1863282669569)</t>
+  </si>
+  <si>
+    <t>(1.466342017841384,104.30721370986346)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, Gym, Park, MRT, Mall, Playground</t>
+  </si>
+  <si>
+    <t>(1.4516805905253556,104.29799436328157)</t>
   </si>
   <si>
     <t>Market</t>
   </si>
   <si>
-    <t>(1.46635478779118,104.35849310707046)</t>
-  </si>
-  <si>
-    <t>Market, Gym, MRT, Playground, Mall, Pool, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.4098161033829446,104.18148515396157)</t>
-  </si>
-  <si>
-    <t>Market, Gym</t>
-  </si>
-  <si>
-    <t>(1.4490451904756276,104.12618413541762)</t>
-  </si>
-  <si>
-    <t>Bus Stop, MRT, Playground, Pool, Park, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.419266126690188,104.4372208701998)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Pool, Market, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.3137887743788692,104.07596423899672)</t>
-  </si>
-  <si>
-    <t>Park, Market, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3524102254638943,104.07774139669608)</t>
-  </si>
-  <si>
-    <t>Park, Playground, Market, Pool, Mall, Gym, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2918131383481046,104.47637956652193)</t>
-  </si>
-  <si>
-    <t>MRT, Bus Stop, Playground, Gym</t>
-  </si>
-  <si>
-    <t>(1.3379563499975682,104.48687223265087)</t>
-  </si>
-  <si>
-    <t>Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.30602166300159,104.33026135374288)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Bus Stop, Mall, Park, Pool</t>
-  </si>
-  <si>
-    <t>(1.4313744090152118,104.398782569425)</t>
-  </si>
-  <si>
-    <t>Mall, MRT, Playground, Pool, Market, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.4165341288815294,104.36194094290585)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Playground, Pool, Market, Park, Bus Stop, Mall</t>
-  </si>
-  <si>
-    <t>(1.3736757768848342,104.3629621083129)</t>
-  </si>
-  <si>
-    <t>Mall, Gym</t>
-  </si>
-  <si>
-    <t>(1.4613959296824226,104.57651481542784)</t>
-  </si>
-  <si>
-    <t>Market, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2959379527670327,104.33293680807373)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Market, Gym</t>
-  </si>
-  <si>
-    <t>(1.4101433549029185,104.18373302492242)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Market, Mall, Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.4461785899287927,104.25297489111674)</t>
-  </si>
-  <si>
-    <t>Playground, MRT, Gym</t>
-  </si>
-  <si>
-    <t>(1.281442421416227,104.34433829891977)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.3220955282269304,104.23066286879225)</t>
-  </si>
-  <si>
-    <t>Pool, Mall, Gym, Playground, Bus Stop, MRT, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.4212098627319703,104.45073073377337)</t>
-  </si>
-  <si>
-    <t>Playground, Market, Gym, Bus Stop, MRT, Park, Mall</t>
-  </si>
-  <si>
-    <t>(1.3239670565514512,104.2789071480478)</t>
-  </si>
-  <si>
-    <t>Pool, Park, MRT, Bus Stop, Playground, Market, Gym, Mall</t>
-  </si>
-  <si>
-    <t>(1.3406068510469882,104.2446424713932)</t>
-  </si>
-  <si>
-    <t>Mall, MRT, Bus Stop, Playground</t>
-  </si>
-  <si>
-    <t>(1.4097929084247893,104.02914163022528)</t>
-  </si>
-  <si>
-    <t>Park, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.3156031719164831,104.37929833413828)</t>
-  </si>
-  <si>
-    <t>Market, MRT, Gym, Bus Stop, Pool</t>
-  </si>
-  <si>
-    <t>(1.442683808136753,104.42025874627107)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Playground, Mall, Bus Stop, Market, Pool</t>
-  </si>
-  <si>
-    <t>(1.2700408592304255,104.35441085050925)</t>
-  </si>
-  <si>
-    <t>Pool, Mall, Gym</t>
-  </si>
-  <si>
-    <t>(1.430914937344005,104.61282012346432)</t>
-  </si>
-  <si>
-    <t>Gym, Pool, Bus Stop, MRT, Playground, Park</t>
-  </si>
-  <si>
-    <t>(1.307604147705544,104.19677038731605)</t>
-  </si>
-  <si>
-    <t>Gym</t>
-  </si>
-  <si>
-    <t>(1.348047315313424,104.62352968243714)</t>
-  </si>
-  <si>
-    <t>Bus Stop, MRT, Park, Pool, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.3683800879979253,104.41424886810987)</t>
-  </si>
-  <si>
-    <t>Pool</t>
-  </si>
-  <si>
-    <t>(1.3887283890771733,104.3076324059941)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Gym, Park, Pool, MRT, Playground</t>
-  </si>
-  <si>
-    <t>(1.295129696892396,104.46007571117838)</t>
-  </si>
-  <si>
-    <t>Gym, Playground</t>
-  </si>
-  <si>
-    <t>(1.3219434455925771,104.4624333612484)</t>
-  </si>
-  <si>
-    <t>(1.3043448706819203,104.15723540000836)</t>
-  </si>
-  <si>
-    <t>Mall, Playground</t>
-  </si>
-  <si>
-    <t>(1.3767199835218735,104.4066151560358)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Park, Gym, Market</t>
-  </si>
-  <si>
-    <t>(1.3962328811352676,104.29196279733205)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Playground, Pool, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3835597847632566,104.34212421942115)</t>
-  </si>
-  <si>
-    <t>Market, Park, Mall, Pool, Bus Stop, Gym, Playground</t>
-  </si>
-  <si>
-    <t>(1.4126126767220906,104.48208971464537)</t>
-  </si>
-  <si>
-    <t>Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.4115490938238566,104.13713840321884)</t>
-  </si>
-  <si>
-    <t>Market, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.4284696078059822,104.48772605437412)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Gym, Mall, Market, Playground, Pool, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.356778526810546,104.31426129561127)</t>
-  </si>
-  <si>
-    <t>Pool, Market, Playground, Park, Gym, Mall</t>
-  </si>
-  <si>
-    <t>(1.3901016544772684,104.22361448994096)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Playground, Market, Gym, MRT, Pool, Mall, Park</t>
-  </si>
-  <si>
-    <t>(1.3744318701148033,104.31015192198073)</t>
-  </si>
-  <si>
-    <t>(1.4049934426552777,104.41954207021477)</t>
-  </si>
-  <si>
-    <t>Park, Pool, Mall, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2825884614308085,104.28540149391566)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Gym, Market, Park, MRT, Pool, Mall, Playground</t>
-  </si>
-  <si>
-    <t>(1.4150513191728427,104.49887496268883)</t>
-  </si>
-  <si>
-    <t>Gym, Playground, Market, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.431201393251852,104.09568178392091)</t>
-  </si>
-  <si>
-    <t>Playground, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.3077667951749556,104.4587144937679)</t>
-  </si>
-  <si>
-    <t>Market, Playground, Park</t>
-  </si>
-  <si>
-    <t>(1.2758307851942208,104.34590714598049)</t>
-  </si>
-  <si>
-    <t>(1.354877257537175,104.27754020493178)</t>
-  </si>
-  <si>
-    <t>Gym, Market, MRT, Mall, Pool, Park, Playground</t>
-  </si>
-  <si>
-    <t>(1.4637706842321216,104.34636345992115)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Playground, MRT</t>
-  </si>
-  <si>
-    <t>(1.355467894254333,104.05773629522781)</t>
-  </si>
-  <si>
-    <t>Market, Bus Stop, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.3413830058289087,104.24617417026506)</t>
-  </si>
-  <si>
-    <t>Market, MRT, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.326643305726175,104.08634419557583)</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Park, Bus Stop, MRT, Playground</t>
-  </si>
-  <si>
-    <t>(1.2701523049065924,104.33850906519305)</t>
-  </si>
-  <si>
-    <t>Market, Park, Mall</t>
-  </si>
-  <si>
-    <t>(1.4471780668447753,104.10598128658346)</t>
-  </si>
-  <si>
-    <t>Mall, Market, MRT, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.457280121944153,104.05745855051931)</t>
-  </si>
-  <si>
-    <t>Pool, MRT, Gym, Bus Stop, Playground</t>
-  </si>
-  <si>
-    <t>(1.356535398734435,104.5950381264933)</t>
-  </si>
-  <si>
-    <t>Pool, Gym, Bus Stop, Park, Mall, Market, Playground</t>
-  </si>
-  <si>
-    <t>(1.3908324399807497,104.36003919306297)</t>
-  </si>
-  <si>
-    <t>Pool, Gym, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2740473350162422,104.2071641895767)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.3450720430512553,104.39933433597805)</t>
-  </si>
-  <si>
-    <t>Park, Pool, Playground, MRT</t>
-  </si>
-  <si>
-    <t>(1.4332856217590872,104.3022993250827)</t>
-  </si>
-  <si>
-    <t>Market, Pool, MRT, Mall, Playground, Bus Stop, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.3056713089304988,104.48459151951644)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Park</t>
-  </si>
-  <si>
-    <t>(1.33398824434839,104.16479068993856)</t>
-  </si>
-  <si>
-    <t>Market, Park</t>
-  </si>
-  <si>
-    <t>(1.376248465069042,104.3566095364475)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Market, Playground, Pool, MRT, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.3308512390931784,104.21873082307859)</t>
-  </si>
-  <si>
-    <t>(1.284255907015851,104.2242221408778)</t>
-  </si>
-  <si>
-    <t>Playground</t>
-  </si>
-  <si>
-    <t>(1.453214251305086,104.3237185287968)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.4213984870031322,104.17240497186535)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Pool, Market, MRT, Mall, Playground, Gym</t>
-  </si>
-  <si>
-    <t>(1.314223012046777,104.38837713829463)</t>
-  </si>
-  <si>
-    <t>Market, MRT, Gym, Park, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2864527542965958,104.21622500260905)</t>
-  </si>
-  <si>
-    <t>Gym, MRT, Mall, Park, Pool, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4660339913597553,104.59726031752022)</t>
-  </si>
-  <si>
-    <t>Playground, Gym, Bus Stop, MRT, Market, Pool, Mall, Park</t>
-  </si>
-  <si>
-    <t>(1.4678066289006781,104.26022934719218)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Mall, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4172145744145768,104.44451860527512)</t>
-  </si>
-  <si>
-    <t>Mall, Pool, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3601700015655909,104.49988837984932)</t>
-  </si>
-  <si>
-    <t>Pool, Playground</t>
-  </si>
-  <si>
-    <t>(1.4091464048272488,104.47807182951247)</t>
-  </si>
-  <si>
-    <t>(1.3811442540049645,104.51714005729643)</t>
-  </si>
-  <si>
-    <t>Market, Mall, Bus Stop, Park, Playground, Pool, MRT, Gym</t>
-  </si>
-  <si>
-    <t>(1.2873617809818396,104.4958414160427)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Market, Park, Gym, MRT, Playground, Pool</t>
-  </si>
-  <si>
-    <t>(1.285941903066894,104.44155390618948)</t>
-  </si>
-  <si>
-    <t>Park, Playground, Bus Stop, Market, MRT, Mall, Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.4155745123031471,104.20379828348565)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.387319988265413,104.05343981502945)</t>
-  </si>
-  <si>
-    <t>Park, Playground, Gym, Market</t>
-  </si>
-  <si>
-    <t>(1.2713980984751079,104.2983456152791)</t>
-  </si>
-  <si>
-    <t>Playground, Pool, Market, Park, Mall, Gym, MRT, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3569749275621683,104.14176390460133)</t>
-  </si>
-  <si>
-    <t>Playground, Bus Stop, Gym, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.4563998274682373,104.63579088136967)</t>
-  </si>
-  <si>
-    <t>Market, Park, Playground</t>
-  </si>
-  <si>
-    <t>(1.30004254860773,104.60424119461553)</t>
-  </si>
-  <si>
-    <t>(1.3582811489878677,104.60782921037367)</t>
-  </si>
-  <si>
-    <t>Mall, Park, Market, Bus Stop, MRT</t>
-  </si>
-  <si>
-    <t>(1.3311788176945336,104.2402956692074)</t>
-  </si>
-  <si>
-    <t>Market, Bus Stop, Gym, Park, Playground, Mall</t>
+    <t>(1.3477884256723933,104.05441699864377)</t>
+  </si>
+  <si>
+    <t>Gym, Pool, MRT, Bus Stop, Playground, Market, Park</t>
+  </si>
+  <si>
+    <t>(1.3386146938551167,104.19357452798286)</t>
+  </si>
+  <si>
+    <t>Pool, MRT, Playground, Gym, Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2819105754648537,104.24924271727826)</t>
+  </si>
+  <si>
+    <t>Gym, Pool, Market, Playground, Park, Mall, MRT, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.446593488941607,104.40449141851663)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Playground, Mall, Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.4603200246637855,104.58583863342686)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Pool, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.3450178168189804,104.56747925580635)</t>
+  </si>
+  <si>
+    <t>Park, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.380824641648786,104.47648650953981)</t>
+  </si>
+  <si>
+    <t>Gym, MRT, Bus Stop, Market, Playground</t>
+  </si>
+  <si>
+    <t>(1.3546585753622304,104.19250288589114)</t>
+  </si>
+  <si>
+    <t>Playground, Market, MRT</t>
+  </si>
+  <si>
+    <t>(1.461652493063212,104.60573911276414)</t>
+  </si>
+  <si>
+    <t>Gym, Pool, MRT, Bus Stop, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.3922373476463474,104.4022741046317)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.4620725216586938,104.40436475327556)</t>
+  </si>
+  <si>
+    <t>Pool, MRT</t>
+  </si>
+  <si>
+    <t>(1.3876453501474089,104.20306562702103)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Bus Stop, Pool, Playground, Market, Mall, Gym</t>
+  </si>
+  <si>
+    <t>(1.2688619696833903,104.49491080879244)</t>
+  </si>
+  <si>
+    <t>Park, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.3304475255813495,104.1197015562024)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Pool, Playground, Gym, Mall, Bus Stop</t>
   </si>
 </sst>
 </file>
@@ -950,25 +950,25 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1632868</v>
+        <v>1078913</v>
       </c>
       <c r="C1">
-        <v>78.00076430686921</v>
-      </c>
-      <c r="D1">
-        <v>89</v>
+        <v>27.98954523049783</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>20934</v>
+        <v>38547</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -976,25 +976,25 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2169809</v>
+        <v>3104073</v>
       </c>
       <c r="C2">
-        <v>79.41327819053545</v>
-      </c>
-      <c r="D2">
-        <v>58</v>
+        <v>129.3741091151586</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>27323</v>
+        <v>23993</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1002,25 +1002,25 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3392672</v>
+        <v>1466055</v>
       </c>
       <c r="C3">
-        <v>174.2960184947341</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>41.06941759811749</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3">
-        <v>19465</v>
+        <v>35697</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1028,25 +1028,25 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1886654</v>
+        <v>568517</v>
       </c>
       <c r="C4">
-        <v>117.6511598902469</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>136.1717365269461</v>
+      </c>
+      <c r="D4">
+        <v>999</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>16036</v>
+        <v>4175</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1054,25 +1054,25 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2534458</v>
+        <v>345180</v>
       </c>
       <c r="C5">
-        <v>79.80785338665491</v>
-      </c>
-      <c r="D5">
-        <v>41</v>
+        <v>51.61184210526316</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>31757</v>
+        <v>6688</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1080,25 +1080,25 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4213712</v>
+        <v>3480437</v>
       </c>
       <c r="C6">
-        <v>1077.124744376278</v>
+        <v>90.19246417372827</v>
       </c>
       <c r="D6">
-        <v>999</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>3912</v>
+        <v>38589</v>
       </c>
       <c r="G6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1106,22 +1106,22 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2085063</v>
+        <v>4692058</v>
       </c>
       <c r="C7">
-        <v>54.38490831790083</v>
-      </c>
-      <c r="D7">
-        <v>999</v>
+        <v>151.2591231463572</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>38339</v>
+        <v>31020</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -1132,22 +1132,22 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2195976</v>
+        <v>1730137</v>
       </c>
       <c r="C8">
-        <v>192.4100587049855</v>
-      </c>
-      <c r="D8">
-        <v>46</v>
+        <v>273.5394466403162</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8">
-        <v>11413</v>
+        <v>6325</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
@@ -1158,22 +1158,22 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2430018</v>
+        <v>3904021</v>
       </c>
       <c r="C9">
-        <v>270.5732101102327</v>
-      </c>
-      <c r="D9">
-        <v>48</v>
+        <v>226.0317855488652</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
       <c r="F9">
-        <v>8981</v>
+        <v>17272</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
@@ -1184,22 +1184,22 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>3034609</v>
+        <v>2115292</v>
       </c>
       <c r="C10">
-        <v>88.53193103247075</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
+        <v>86.12752442996742</v>
+      </c>
+      <c r="D10">
+        <v>999</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="F10">
-        <v>34277</v>
+        <v>24560</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -1210,22 +1210,22 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2404895</v>
+        <v>2689019</v>
       </c>
       <c r="C11">
-        <v>73.84226848440187</v>
-      </c>
-      <c r="D11">
-        <v>999</v>
+        <v>588.2780573178735</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="F11">
-        <v>32568</v>
+        <v>4571</v>
       </c>
       <c r="G11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
         <v>25</v>
@@ -1236,10 +1236,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1749065</v>
+        <v>378628</v>
       </c>
       <c r="C12">
-        <v>193.1601325234677</v>
+        <v>10.64907889185769</v>
       </c>
       <c r="D12">
         <v>999</v>
@@ -1248,10 +1248,10 @@
         <v>26</v>
       </c>
       <c r="F12">
-        <v>9055</v>
+        <v>35555</v>
       </c>
       <c r="G12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
         <v>27</v>
@@ -1262,22 +1262,22 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4907255</v>
+        <v>3641384</v>
       </c>
       <c r="C13">
-        <v>1351.116464757709</v>
+        <v>239.8171759747102</v>
       </c>
       <c r="D13">
-        <v>81</v>
+        <v>999</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="F13">
-        <v>3632</v>
+        <v>15184</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -1288,22 +1288,22 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1156371</v>
+        <v>2978107</v>
       </c>
       <c r="C14">
-        <v>41.65151460577027</v>
+        <v>167.6767636957379</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14">
-        <v>27763</v>
+        <v>17761</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
         <v>31</v>
@@ -1314,22 +1314,22 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>4588469</v>
+        <v>602100</v>
       </c>
       <c r="C15">
-        <v>970.6936746350751</v>
+        <v>16.48324572930355</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>999</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
       <c r="F15">
-        <v>4727</v>
+        <v>36528</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
         <v>33</v>
@@ -1340,22 +1340,22 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>3697349</v>
+        <v>1242340</v>
       </c>
       <c r="C16">
-        <v>220.6055489260143</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>56.2373817391698</v>
+      </c>
+      <c r="D16">
+        <v>999</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
       </c>
       <c r="F16">
-        <v>16760</v>
+        <v>22091</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
@@ -1366,22 +1366,22 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>351978</v>
+        <v>2927388</v>
       </c>
       <c r="C17">
-        <v>18.10679561705849</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
+        <v>455.0579822788745</v>
+      </c>
+      <c r="D17">
+        <v>82</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
       </c>
       <c r="F17">
-        <v>19439</v>
+        <v>6433</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
         <v>37</v>
@@ -1392,22 +1392,22 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>573201</v>
+        <v>1263436</v>
       </c>
       <c r="C18">
-        <v>42.83693296465137</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
+        <v>72.79534454943536</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
       </c>
       <c r="F18">
-        <v>13381</v>
+        <v>17356</v>
       </c>
       <c r="G18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
         <v>39</v>
@@ -1418,22 +1418,22 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>437648</v>
+        <v>1457437</v>
       </c>
       <c r="C19">
-        <v>31.47867366755376</v>
+        <v>43.51467470814797</v>
       </c>
       <c r="D19">
-        <v>999</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19">
-        <v>13903</v>
+        <v>33493</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
         <v>41</v>
@@ -1444,22 +1444,22 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>684012</v>
+        <v>128512</v>
       </c>
       <c r="C20">
-        <v>283.9402241594022</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
+        <v>5.025300121221601</v>
+      </c>
+      <c r="D20">
+        <v>999</v>
       </c>
       <c r="E20" t="s">
         <v>42</v>
       </c>
       <c r="F20">
-        <v>2409</v>
+        <v>25573</v>
       </c>
       <c r="G20" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
@@ -1470,22 +1470,22 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>4916238</v>
+        <v>1544406</v>
       </c>
       <c r="C21">
-        <v>1321.214189733942</v>
+        <v>134.0746592586162</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>44</v>
       </c>
       <c r="F21">
-        <v>3721</v>
+        <v>11519</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
         <v>45</v>
@@ -1496,22 +1496,22 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>4059465</v>
+        <v>4784004</v>
       </c>
       <c r="C22">
-        <v>177.3234176385795</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
+        <v>1118.019163355924</v>
+      </c>
+      <c r="D22">
+        <v>999</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
       </c>
       <c r="F22">
-        <v>22893</v>
+        <v>4279</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H22" t="s">
         <v>47</v>
@@ -1522,22 +1522,22 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>4608785</v>
+        <v>2544516</v>
       </c>
       <c r="C23">
-        <v>128.9783953208519</v>
+        <v>98.13776612156742</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>48</v>
       </c>
       <c r="F23">
-        <v>35733</v>
+        <v>25928</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H23" t="s">
         <v>49</v>
@@ -1548,22 +1548,22 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>4891556</v>
+        <v>2007428</v>
       </c>
       <c r="C24">
-        <v>145.9948067452619</v>
+        <v>104.3415977961432</v>
       </c>
       <c r="D24">
-        <v>999</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
         <v>50</v>
       </c>
       <c r="F24">
-        <v>33505</v>
+        <v>19239</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
         <v>51</v>
@@ -1574,22 +1574,22 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1530006</v>
+        <v>2535946</v>
       </c>
       <c r="C25">
-        <v>56.52035463612856</v>
-      </c>
-      <c r="D25">
-        <v>52</v>
+        <v>81.51808158410749</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>52</v>
       </c>
       <c r="F25">
-        <v>27070</v>
+        <v>31109</v>
       </c>
       <c r="G25" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
         <v>53</v>
@@ -1600,22 +1600,22 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>3134958</v>
+        <v>4719155</v>
       </c>
       <c r="C26">
-        <v>218.9828164291702</v>
+        <v>519.330362055684</v>
       </c>
       <c r="D26">
-        <v>999</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
         <v>54</v>
       </c>
       <c r="F26">
-        <v>14316</v>
+        <v>9087</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
         <v>55</v>
@@ -1626,22 +1626,22 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>4490541</v>
+        <v>2053117</v>
       </c>
       <c r="C27">
-        <v>292.7150120591878</v>
+        <v>104.2297187531729</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
       </c>
       <c r="F27">
-        <v>15341</v>
+        <v>19698</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H27" t="s">
         <v>57</v>
@@ -1652,10 +1652,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>231306</v>
+        <v>3923775</v>
       </c>
       <c r="C28">
-        <v>7.223120881866159</v>
+        <v>148.3244499886596</v>
       </c>
       <c r="D28">
         <v>999</v>
@@ -1664,10 +1664,10 @@
         <v>58</v>
       </c>
       <c r="F28">
-        <v>32023</v>
+        <v>26454</v>
       </c>
       <c r="G28" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H28" t="s">
         <v>59</v>
@@ -1678,22 +1678,22 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2175486</v>
+        <v>743450</v>
       </c>
       <c r="C29">
-        <v>61.90734469707749</v>
+        <v>27.14311792625046</v>
       </c>
       <c r="D29">
-        <v>97</v>
+        <v>999</v>
       </c>
       <c r="E29" t="s">
         <v>60</v>
       </c>
       <c r="F29">
-        <v>35141</v>
+        <v>27390</v>
       </c>
       <c r="G29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
         <v>61</v>
@@ -1704,22 +1704,22 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2973782</v>
+        <v>3030271</v>
       </c>
       <c r="C30">
-        <v>98.21268866210906</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
+        <v>242.4410752860229</v>
+      </c>
+      <c r="D30">
+        <v>999</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
       </c>
       <c r="F30">
-        <v>30279</v>
+        <v>12499</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
         <v>63</v>
@@ -1730,10 +1730,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1401712</v>
+        <v>4083146</v>
       </c>
       <c r="C31">
-        <v>118.2779512277445</v>
+        <v>292.7406079724691</v>
       </c>
       <c r="D31">
         <v>999</v>
@@ -1742,10 +1742,10 @@
         <v>64</v>
       </c>
       <c r="F31">
-        <v>11851</v>
+        <v>13948</v>
       </c>
       <c r="G31" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H31" t="s">
         <v>65</v>
@@ -1756,10 +1756,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>4670935</v>
+        <v>4536585</v>
       </c>
       <c r="C32">
-        <v>361.4435502592277</v>
+        <v>333.1315171097077</v>
       </c>
       <c r="D32">
         <v>999</v>
@@ -1768,10 +1768,10 @@
         <v>66</v>
       </c>
       <c r="F32">
-        <v>12923</v>
+        <v>13618</v>
       </c>
       <c r="G32" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H32" t="s">
         <v>67</v>
@@ -1782,10 +1782,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>4288216</v>
+        <v>4565417</v>
       </c>
       <c r="C33">
-        <v>225.9810286677909</v>
+        <v>546.8875179683756</v>
       </c>
       <c r="D33">
         <v>999</v>
@@ -1794,13 +1794,13 @@
         <v>68</v>
       </c>
       <c r="F33">
-        <v>18976</v>
+        <v>8348</v>
       </c>
       <c r="G33" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1808,25 +1808,25 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>3640725</v>
+        <v>1544685</v>
       </c>
       <c r="C34">
-        <v>96.66069295101553</v>
+        <v>111.4250162302532</v>
       </c>
       <c r="D34">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34">
+        <v>13863</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
         <v>70</v>
-      </c>
-      <c r="F34">
-        <v>37665</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1834,25 +1834,25 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>3086387</v>
+        <v>3979715</v>
       </c>
       <c r="C35">
-        <v>528.853152844414</v>
+        <v>1185.850715137068</v>
       </c>
       <c r="D35">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35">
+        <v>3356</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
         <v>72</v>
-      </c>
-      <c r="F35">
-        <v>5836</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1860,25 +1860,25 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>3281410</v>
+        <v>4567704</v>
       </c>
       <c r="C36">
-        <v>94.03398670334708</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
+        <v>145.2323932466376</v>
+      </c>
+      <c r="D36">
+        <v>999</v>
       </c>
       <c r="E36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36">
+        <v>31451</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
         <v>74</v>
-      </c>
-      <c r="F36">
-        <v>34896</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1886,25 +1886,25 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>4684166</v>
+        <v>1964825</v>
       </c>
       <c r="C37">
-        <v>487.8323265986253</v>
+        <v>50.45905133670613</v>
       </c>
       <c r="D37">
         <v>999</v>
       </c>
       <c r="E37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37">
+        <v>38939</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
         <v>76</v>
-      </c>
-      <c r="F37">
-        <v>9602</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1912,25 +1912,25 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>777899</v>
+        <v>4887110</v>
       </c>
       <c r="C38">
-        <v>42.64797149122807</v>
-      </c>
-      <c r="D38">
-        <v>999</v>
+        <v>155.1709795205588</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
       </c>
       <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38">
+        <v>31495</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
         <v>78</v>
-      </c>
-      <c r="F38">
-        <v>18240</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1938,25 +1938,25 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2917188</v>
+        <v>4848197</v>
       </c>
       <c r="C39">
-        <v>3838.405263157895</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
+        <v>950.0679992161473</v>
+      </c>
+      <c r="D39">
+        <v>999</v>
       </c>
       <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39">
+        <v>5103</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
         <v>80</v>
-      </c>
-      <c r="F39">
-        <v>760</v>
-      </c>
-      <c r="G39" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1964,25 +1964,25 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2211130</v>
+        <v>2144910</v>
       </c>
       <c r="C40">
-        <v>90.48287432990956</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
+        <v>60.1792828685259</v>
+      </c>
+      <c r="D40">
+        <v>33</v>
       </c>
       <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40">
+        <v>35642</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
         <v>82</v>
-      </c>
-      <c r="F40">
-        <v>24437</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1567912</v>
+        <v>1616839</v>
       </c>
       <c r="C41">
-        <v>153.8073376495978</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
+        <v>428.8697612732096</v>
+      </c>
+      <c r="D41">
+        <v>999</v>
       </c>
       <c r="E41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41">
+        <v>3770</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
         <v>84</v>
-      </c>
-      <c r="F41">
-        <v>10194</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2016,25 +2016,25 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>4622292</v>
+        <v>3581879</v>
       </c>
       <c r="C42">
-        <v>664.5998562185478</v>
+        <v>1394.269754768392</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42">
+        <v>2569</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
         <v>86</v>
-      </c>
-      <c r="F42">
-        <v>6955</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2042,25 +2042,25 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1106666</v>
+        <v>4528945</v>
       </c>
       <c r="C43">
-        <v>28.73785348879483</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
+        <v>786.4117034207328</v>
+      </c>
+      <c r="D43">
+        <v>92</v>
       </c>
       <c r="E43" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43">
+        <v>5759</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
         <v>88</v>
-      </c>
-      <c r="F43">
-        <v>38509</v>
-      </c>
-      <c r="G43" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2068,25 +2068,25 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>405005</v>
+        <v>1417899</v>
       </c>
       <c r="C44">
-        <v>11.11124828532236</v>
+        <v>39.44854352725148</v>
       </c>
       <c r="D44">
-        <v>999</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F44">
-        <v>36450</v>
+        <v>35943</v>
       </c>
       <c r="G44" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2094,25 +2094,25 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>535969</v>
+        <v>222250</v>
       </c>
       <c r="C45">
-        <v>22.03638681029521</v>
+        <v>30.31232951445718</v>
       </c>
       <c r="D45">
-        <v>999</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F45">
-        <v>24322</v>
+        <v>7332</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2120,25 +2120,25 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1312392</v>
+        <v>2736413</v>
       </c>
       <c r="C46">
-        <v>35.428879950328</v>
+        <v>220.1458567980692</v>
       </c>
       <c r="D46">
-        <v>96</v>
+        <v>999</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F46">
-        <v>37043</v>
+        <v>12430</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2146,25 +2146,25 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>895644</v>
+        <v>2618132</v>
       </c>
       <c r="C47">
-        <v>112.673795445968</v>
+        <v>124.1350339007159</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47">
+        <v>21091</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
         <v>95</v>
-      </c>
-      <c r="F47">
-        <v>7949</v>
-      </c>
-      <c r="G47" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2172,25 +2172,25 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2722443</v>
+        <v>2106356</v>
       </c>
       <c r="C48">
-        <v>168.1558369363805</v>
-      </c>
-      <c r="D48">
-        <v>999</v>
+        <v>54.31132197096666</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
       </c>
       <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48">
+        <v>38783</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
         <v>97</v>
-      </c>
-      <c r="F48">
-        <v>16190</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2198,25 +2198,25 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>390330</v>
+        <v>291129</v>
       </c>
       <c r="C49">
-        <v>200.3747433264887</v>
+        <v>8.784026792987961</v>
       </c>
       <c r="D49">
         <v>999</v>
       </c>
       <c r="E49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49">
+        <v>33143</v>
+      </c>
+      <c r="G49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" t="s">
         <v>99</v>
-      </c>
-      <c r="F49">
-        <v>1948</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2224,25 +2224,25 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>915266</v>
+        <v>1436721</v>
       </c>
       <c r="C50">
-        <v>188.6757369614512</v>
-      </c>
-      <c r="D50">
-        <v>999</v>
+        <v>41.7142152023692</v>
+      </c>
+      <c r="D50" t="s">
+        <v>0</v>
       </c>
       <c r="E50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <v>34442</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
         <v>101</v>
-      </c>
-      <c r="F50">
-        <v>4851</v>
-      </c>
-      <c r="G50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2250,25 +2250,25 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>771723</v>
+        <v>1954728</v>
       </c>
       <c r="C51">
-        <v>26.4288698630137</v>
-      </c>
-      <c r="D51">
-        <v>999</v>
+        <v>53.36995576912576</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
       </c>
       <c r="E51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51">
+        <v>36626</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" t="s">
         <v>103</v>
-      </c>
-      <c r="F51">
-        <v>29200</v>
-      </c>
-      <c r="G51" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2276,25 +2276,25 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>3014156</v>
+        <v>2948537</v>
       </c>
       <c r="C52">
-        <v>340.4287327761464</v>
+        <v>113.2136768545538</v>
       </c>
       <c r="D52">
-        <v>48</v>
+        <v>999</v>
       </c>
       <c r="E52" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52">
+        <v>26044</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
         <v>105</v>
-      </c>
-      <c r="F52">
-        <v>8854</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2302,25 +2302,25 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>3618957</v>
+        <v>958184</v>
       </c>
       <c r="C53">
-        <v>97.40161485668148</v>
+        <v>393.1817808781288</v>
       </c>
       <c r="D53">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53">
+        <v>2437</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
         <v>107</v>
-      </c>
-      <c r="F53">
-        <v>37155</v>
-      </c>
-      <c r="G53" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2328,25 +2328,25 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>2704595</v>
+        <v>2385408</v>
       </c>
       <c r="C54">
-        <v>435.2421950434503</v>
+        <v>69.12422846214031</v>
       </c>
       <c r="D54">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54">
+        <v>34509</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
         <v>109</v>
-      </c>
-      <c r="F54">
-        <v>6214</v>
-      </c>
-      <c r="G54" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2354,25 +2354,25 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>4908085</v>
+        <v>3668894</v>
       </c>
       <c r="C55">
-        <v>127.4496234744222</v>
+        <v>362.8975272007913</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E55" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55">
+        <v>10110</v>
+      </c>
+      <c r="G55" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
         <v>111</v>
-      </c>
-      <c r="F55">
-        <v>38510</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2380,25 +2380,25 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3688725</v>
+        <v>3633056</v>
       </c>
       <c r="C56">
-        <v>154.5145143048632</v>
+        <v>141.91625</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="E56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56">
+        <v>25600</v>
+      </c>
+      <c r="G56" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" t="s">
         <v>113</v>
-      </c>
-      <c r="F56">
-        <v>23873</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2406,22 +2406,22 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>739165</v>
+        <v>4211169</v>
       </c>
       <c r="C57">
-        <v>57.50914183459115</v>
-      </c>
-      <c r="D57">
-        <v>7</v>
+        <v>534.8195326390653</v>
+      </c>
+      <c r="D57" t="s">
+        <v>0</v>
       </c>
       <c r="E57" t="s">
         <v>114</v>
       </c>
       <c r="F57">
-        <v>12853</v>
+        <v>7874</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H57" t="s">
         <v>115</v>
@@ -2432,22 +2432,22 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>2958469</v>
+        <v>3350984</v>
       </c>
       <c r="C58">
-        <v>113.0437889266746</v>
-      </c>
-      <c r="D58">
-        <v>68</v>
+        <v>140.9338436303991</v>
+      </c>
+      <c r="D58" t="s">
+        <v>0</v>
       </c>
       <c r="E58" t="s">
         <v>116</v>
       </c>
       <c r="F58">
-        <v>26171</v>
+        <v>23777</v>
       </c>
       <c r="G58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H58" t="s">
         <v>117</v>
@@ -2458,22 +2458,22 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>4690912</v>
+        <v>3129789</v>
       </c>
       <c r="C59">
-        <v>614.1544907043728</v>
-      </c>
-      <c r="D59">
-        <v>999</v>
+        <v>245.7241893695533</v>
+      </c>
+      <c r="D59" t="s">
+        <v>0</v>
       </c>
       <c r="E59" t="s">
         <v>118</v>
       </c>
       <c r="F59">
-        <v>7638</v>
+        <v>12737</v>
       </c>
       <c r="G59" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H59" t="s">
         <v>119</v>
@@ -2484,25 +2484,25 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1419018</v>
+        <v>4129542</v>
       </c>
       <c r="C60">
-        <v>73.52043935547381</v>
+        <v>202.0323874755382</v>
       </c>
       <c r="D60">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
         <v>120</v>
       </c>
       <c r="F60">
-        <v>19301</v>
+        <v>20440</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2510,25 +2510,25 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>4454005</v>
+        <v>2446435</v>
       </c>
       <c r="C61">
-        <v>2228.11655827914</v>
-      </c>
-      <c r="D61">
-        <v>999</v>
+        <v>78.97330363483762</v>
+      </c>
+      <c r="D61" t="s">
+        <v>0</v>
       </c>
       <c r="E61" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61">
+        <v>30978</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
         <v>122</v>
-      </c>
-      <c r="F61">
-        <v>1999</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2536,25 +2536,25 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>1481273</v>
+        <v>2706297</v>
       </c>
       <c r="C62">
-        <v>69.85818713450293</v>
-      </c>
-      <c r="D62">
-        <v>999</v>
+        <v>70.92344986634519</v>
+      </c>
+      <c r="D62" t="s">
+        <v>0</v>
       </c>
       <c r="E62" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62">
+        <v>38158</v>
+      </c>
+      <c r="G62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
         <v>124</v>
-      </c>
-      <c r="F62">
-        <v>21204</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2562,22 +2562,22 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>930336</v>
+        <v>1003550</v>
       </c>
       <c r="C63">
-        <v>26.52872907696256</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
+        <v>50.53121852970796</v>
+      </c>
+      <c r="D63">
+        <v>58</v>
       </c>
       <c r="E63" t="s">
         <v>125</v>
       </c>
       <c r="F63">
-        <v>35069</v>
+        <v>19860</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H63" t="s">
         <v>126</v>
@@ -2588,22 +2588,22 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1908035</v>
+        <v>3754884</v>
       </c>
       <c r="C64">
-        <v>57.62889244616267</v>
+        <v>232.9766085499783</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E64" t="s">
         <v>127</v>
       </c>
       <c r="F64">
-        <v>33109</v>
+        <v>16117</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H64" t="s">
         <v>128</v>
@@ -2614,10 +2614,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>939693</v>
+        <v>4806195</v>
       </c>
       <c r="C65">
-        <v>115.1725701679127</v>
+        <v>216.7491205916839</v>
       </c>
       <c r="D65">
         <v>999</v>
@@ -2626,10 +2626,10 @@
         <v>129</v>
       </c>
       <c r="F65">
-        <v>8159</v>
+        <v>22174</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H65" t="s">
         <v>130</v>
@@ -2640,22 +2640,22 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>1917028</v>
+        <v>3833983</v>
       </c>
       <c r="C66">
-        <v>135.3642140940545</v>
+        <v>1482.018940858137</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E66" t="s">
         <v>131</v>
       </c>
       <c r="F66">
-        <v>14162</v>
+        <v>2587</v>
       </c>
       <c r="G66" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H66" t="s">
         <v>132</v>
@@ -2666,22 +2666,22 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>2645609</v>
+        <v>4627094</v>
       </c>
       <c r="C67">
-        <v>159.2780854906683</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
+        <v>422.797331871345</v>
+      </c>
+      <c r="D67">
+        <v>73</v>
       </c>
       <c r="E67" t="s">
         <v>133</v>
       </c>
       <c r="F67">
-        <v>16610</v>
+        <v>10944</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H67" t="s">
         <v>134</v>
@@ -2692,25 +2692,25 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>363455</v>
+        <v>1057321</v>
       </c>
       <c r="C68">
-        <v>9.870325611710072</v>
-      </c>
-      <c r="D68">
-        <v>999</v>
+        <v>37.82225004471472</v>
+      </c>
+      <c r="D68" t="s">
+        <v>0</v>
       </c>
       <c r="E68" t="s">
         <v>135</v>
       </c>
       <c r="F68">
-        <v>36823</v>
+        <v>27955</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H68" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2718,25 +2718,25 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>914487</v>
+        <v>4710192</v>
       </c>
       <c r="C69">
-        <v>37.66731196968449</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
+        <v>1197.30350788002</v>
+      </c>
+      <c r="D69">
+        <v>999</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69">
+        <v>3934</v>
+      </c>
+      <c r="G69" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69">
-        <v>24278</v>
-      </c>
-      <c r="G69" t="s">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2744,25 +2744,25 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>4004819</v>
+        <v>1596923</v>
       </c>
       <c r="C70">
-        <v>461.9168396770473</v>
+        <v>91.12776763296051</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70">
+        <v>17524</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70">
-        <v>8670</v>
-      </c>
-      <c r="G70" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2770,25 +2770,25 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>612675</v>
+        <v>4029366</v>
       </c>
       <c r="C71">
-        <v>20.5609436874958</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
+        <v>767.3521234050658</v>
+      </c>
+      <c r="D71">
+        <v>48</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71">
+        <v>5251</v>
+      </c>
+      <c r="G71" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71">
-        <v>29798</v>
-      </c>
-      <c r="G71" t="s">
-        <v>4</v>
-      </c>
-      <c r="H71" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2796,25 +2796,25 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>1370382</v>
+        <v>3420634</v>
       </c>
       <c r="C72">
-        <v>414.1378059836809</v>
+        <v>102.093239814953</v>
       </c>
       <c r="D72">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72">
+        <v>33505</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72">
-        <v>3309</v>
-      </c>
-      <c r="G72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2822,25 +2822,25 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>1151048</v>
+        <v>675409</v>
       </c>
       <c r="C73">
-        <v>162.0509643812474</v>
+        <v>19.39604273160646</v>
       </c>
       <c r="D73">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73">
+        <v>34822</v>
+      </c>
+      <c r="G73" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73">
-        <v>7103</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2848,25 +2848,25 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>2887401</v>
+        <v>1970459</v>
       </c>
       <c r="C74">
-        <v>375.2795684949311</v>
+        <v>700.2341862117981</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74">
+        <v>2814</v>
+      </c>
+      <c r="G74" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74">
-        <v>7694</v>
-      </c>
-      <c r="G74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2874,25 +2874,25 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>1296547</v>
+        <v>3128466</v>
       </c>
       <c r="C75">
-        <v>93.6879109762266</v>
+        <v>105.6771382245642</v>
       </c>
       <c r="D75">
         <v>999</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F75">
-        <v>13839</v>
+        <v>29604</v>
       </c>
       <c r="G75" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2900,25 +2900,25 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>2582570</v>
+        <v>1455029</v>
       </c>
       <c r="C76">
-        <v>75.52257573985261</v>
-      </c>
-      <c r="D76">
-        <v>82</v>
+        <v>45.98846360504441</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76">
-        <v>34196</v>
+        <v>31639</v>
       </c>
       <c r="G76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2926,25 +2926,25 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>4842535</v>
+        <v>1503597</v>
       </c>
       <c r="C77">
-        <v>131.2944988205949</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
+        <v>41.34054603942702</v>
+      </c>
+      <c r="D77">
+        <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77">
-        <v>36883</v>
+        <v>36371</v>
       </c>
       <c r="G77" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2952,25 +2952,25 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>4172813</v>
+        <v>2290381</v>
       </c>
       <c r="C78">
-        <v>382.5110459253827</v>
-      </c>
-      <c r="D78" t="s">
-        <v>6</v>
+        <v>1306.549343981746</v>
+      </c>
+      <c r="D78">
+        <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78">
-        <v>10909</v>
+        <v>1753</v>
       </c>
       <c r="G78" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2978,25 +2978,25 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>2472835</v>
+        <v>3121460</v>
       </c>
       <c r="C79">
-        <v>143.3195201112785</v>
-      </c>
-      <c r="D79" t="s">
-        <v>6</v>
+        <v>313.4625426792529</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79">
-        <v>17254</v>
+        <v>9958</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H79" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3004,25 +3004,25 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>2404170</v>
+        <v>1153278</v>
       </c>
       <c r="C80">
-        <v>89.49078726968175</v>
+        <v>102.2772259666548</v>
       </c>
       <c r="D80">
-        <v>999</v>
+        <v>56</v>
       </c>
       <c r="E80" t="s">
+        <v>157</v>
+      </c>
+      <c r="F80">
+        <v>11276</v>
+      </c>
+      <c r="G80" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" t="s">
         <v>158</v>
-      </c>
-      <c r="F80">
-        <v>26865</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3030,25 +3030,25 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>3800696</v>
+        <v>4091049</v>
       </c>
       <c r="C81">
-        <v>205.4763475158134</v>
+        <v>107.6138731060606</v>
       </c>
       <c r="D81">
-        <v>999</v>
+        <v>67</v>
       </c>
       <c r="E81" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81">
+        <v>38016</v>
+      </c>
+      <c r="G81" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" t="s">
         <v>160</v>
-      </c>
-      <c r="F81">
-        <v>18497</v>
-      </c>
-      <c r="G81" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3056,25 +3056,25 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>1173206</v>
+        <v>2297069</v>
       </c>
       <c r="C82">
-        <v>60.07506784781607</v>
-      </c>
-      <c r="D82" t="s">
-        <v>6</v>
+        <v>1903.122618061309</v>
+      </c>
+      <c r="D82">
+        <v>12</v>
       </c>
       <c r="E82" t="s">
+        <v>161</v>
+      </c>
+      <c r="F82">
+        <v>1207</v>
+      </c>
+      <c r="G82" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" t="s">
         <v>162</v>
-      </c>
-      <c r="F82">
-        <v>19529</v>
-      </c>
-      <c r="G82" t="s">
-        <v>4</v>
-      </c>
-      <c r="H82" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3082,25 +3082,25 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>1404706</v>
+        <v>4222254</v>
       </c>
       <c r="C83">
-        <v>42.84991763772802</v>
-      </c>
-      <c r="D83" t="s">
-        <v>6</v>
+        <v>186.7262515478507</v>
+      </c>
+      <c r="D83">
+        <v>50</v>
       </c>
       <c r="E83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83">
+        <v>22612</v>
+      </c>
+      <c r="G83" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" t="s">
         <v>164</v>
-      </c>
-      <c r="F83">
-        <v>32782</v>
-      </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3108,25 +3108,25 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>2075373</v>
+        <v>4981758</v>
       </c>
       <c r="C84">
-        <v>183.8891547049442</v>
+        <v>138.7328524882342</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F84">
-        <v>11286</v>
+        <v>35909</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H84" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3134,25 +3134,25 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>3090926</v>
+        <v>1751561</v>
       </c>
       <c r="C85">
-        <v>83.99027200347817</v>
+        <v>155.1014787921721</v>
       </c>
       <c r="D85">
-        <v>999</v>
+        <v>46</v>
       </c>
       <c r="E85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F85">
-        <v>36801</v>
+        <v>11293</v>
       </c>
       <c r="G85" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3160,25 +3160,25 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>607888</v>
+        <v>1142875</v>
       </c>
       <c r="C86">
-        <v>25.77872015605784</v>
+        <v>87.4158635459691</v>
       </c>
       <c r="D86">
         <v>999</v>
       </c>
       <c r="E86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F86">
-        <v>23581</v>
+        <v>13074</v>
       </c>
       <c r="G86" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3186,25 +3186,25 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>2156883</v>
+        <v>572848</v>
       </c>
       <c r="C87">
-        <v>402.8545013074337</v>
+        <v>186.0500162390387</v>
       </c>
       <c r="D87">
         <v>999</v>
       </c>
       <c r="E87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F87">
-        <v>5354</v>
+        <v>3079</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3212,25 +3212,25 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1142010</v>
+        <v>1826114</v>
       </c>
       <c r="C88">
-        <v>100.2026849170834</v>
+        <v>102.2918440510867</v>
       </c>
       <c r="D88">
         <v>999</v>
       </c>
       <c r="E88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F88">
-        <v>11397</v>
+        <v>17852</v>
       </c>
       <c r="G88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3238,25 +3238,25 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>4200337</v>
+        <v>1368546</v>
       </c>
       <c r="C89">
-        <v>414.4796723899743</v>
-      </c>
-      <c r="D89" t="s">
-        <v>6</v>
+        <v>41.1271186440678</v>
+      </c>
+      <c r="D89">
+        <v>76</v>
       </c>
       <c r="E89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F89">
-        <v>10134</v>
+        <v>33276</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H89" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3264,25 +3264,25 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>1388025</v>
+        <v>4679842</v>
       </c>
       <c r="C90">
-        <v>60.546346782988</v>
+        <v>125.1930659960943</v>
       </c>
       <c r="D90">
-        <v>67</v>
+        <v>999</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90">
+        <v>37381</v>
+      </c>
+      <c r="G90" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90">
-        <v>22925</v>
-      </c>
-      <c r="G90" t="s">
-        <v>4</v>
-      </c>
-      <c r="H90" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3290,25 +3290,25 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2566600</v>
+        <v>2273880</v>
       </c>
       <c r="C91">
-        <v>81.83267440377503</v>
+        <v>69.55888650963597</v>
       </c>
       <c r="D91">
-        <v>999</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91">
+        <v>32690</v>
+      </c>
+      <c r="G91" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91">
-        <v>31364</v>
-      </c>
-      <c r="G91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3316,25 +3316,25 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>2199435</v>
+        <v>1528865</v>
       </c>
       <c r="C92">
-        <v>76.74232379623169</v>
+        <v>49.01150862345323</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>999</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92">
+        <v>31194</v>
+      </c>
+      <c r="G92" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92">
-        <v>28660</v>
-      </c>
-      <c r="G92" t="s">
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3342,25 +3342,25 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>3743437</v>
+        <v>991978</v>
       </c>
       <c r="C93">
-        <v>103.6819554078382</v>
-      </c>
-      <c r="D93">
-        <v>999</v>
+        <v>41.78684864568853</v>
+      </c>
+      <c r="D93" t="s">
+        <v>0</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93">
+        <v>23739</v>
+      </c>
+      <c r="G93" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93">
-        <v>36105</v>
-      </c>
-      <c r="G93" t="s">
-        <v>1</v>
-      </c>
-      <c r="H93" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3368,25 +3368,25 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>2632600</v>
+        <v>4559308</v>
       </c>
       <c r="C94">
-        <v>754.1105700372386</v>
+        <v>1177.811418238181</v>
       </c>
       <c r="D94">
         <v>999</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94">
+        <v>3871</v>
+      </c>
+      <c r="G94" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94">
-        <v>3491</v>
-      </c>
-      <c r="G94" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3394,25 +3394,25 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>4660144</v>
+        <v>4264145</v>
       </c>
       <c r="C95">
-        <v>127.8783820866034</v>
+        <v>753.7820399505038</v>
       </c>
       <c r="D95">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95">
+        <v>5657</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95">
-        <v>36442</v>
-      </c>
-      <c r="G95" t="s">
-        <v>4</v>
-      </c>
-      <c r="H95" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3420,25 +3420,25 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>4221162</v>
+        <v>3669913</v>
       </c>
       <c r="C96">
-        <v>384.7212905577834</v>
-      </c>
-      <c r="D96" t="s">
-        <v>6</v>
+        <v>2670.970160116448</v>
+      </c>
+      <c r="D96">
+        <v>999</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96">
+        <v>1374</v>
+      </c>
+      <c r="G96" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96">
-        <v>10972</v>
-      </c>
-      <c r="G96" t="s">
-        <v>16</v>
-      </c>
-      <c r="H96" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3446,25 +3446,25 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3884133</v>
+        <v>3580273</v>
       </c>
       <c r="C97">
-        <v>101.0125091022574</v>
+        <v>370.6670462780826</v>
       </c>
       <c r="D97">
         <v>999</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97">
+        <v>9659</v>
+      </c>
+      <c r="G97" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97">
-        <v>38452</v>
-      </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3472,25 +3472,25 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>1662481</v>
+        <v>3720336</v>
       </c>
       <c r="C98">
-        <v>68.71175862781567</v>
+        <v>114.3557618418221</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98">
+        <v>32533</v>
+      </c>
+      <c r="G98" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98">
-        <v>24195</v>
-      </c>
-      <c r="G98" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3498,10 +3498,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>1374182</v>
+        <v>333759</v>
       </c>
       <c r="C99">
-        <v>1201.208041958042</v>
+        <v>33.8497971602434</v>
       </c>
       <c r="D99">
         <v>999</v>
@@ -3510,10 +3510,10 @@
         <v>194</v>
       </c>
       <c r="F99">
-        <v>1144</v>
+        <v>9860</v>
       </c>
       <c r="G99" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
         <v>195</v>
@@ -3524,22 +3524,22 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>3390256</v>
+        <v>4709385</v>
       </c>
       <c r="C100">
-        <v>223.1753011651636</v>
+        <v>375.1900095602294</v>
       </c>
       <c r="D100">
-        <v>999</v>
+        <v>60</v>
       </c>
       <c r="E100" t="s">
         <v>196</v>
       </c>
       <c r="F100">
-        <v>15191</v>
+        <v>12552</v>
       </c>
       <c r="G100" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H100" t="s">
         <v>197</v>

--- a/prototype/RGB.xlsx
+++ b/prototype/RGB.xlsx
@@ -14,600 +14,609 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="198">
-  <si>
-    <t>Freehold</t>
-  </si>
-  <si>
-    <t>(1.3894905904215642,104.4767231709773)</t>
-  </si>
-  <si>
-    <t>HDB</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Park, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3478860448959573,104.5206707543142)</t>
-  </si>
-  <si>
-    <t>Executive Condominium</t>
-  </si>
-  <si>
-    <t>Mall, Park, Bus Stop, Gym, Playground, Market, MRT</t>
-  </si>
-  <si>
-    <t>(1.4069093181249324,104.31506678379374)</t>
-  </si>
-  <si>
-    <t>Private Property</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="201">
+  <si>
+    <t>(1.3217410538654801,104.27181409541896)</t>
+  </si>
+  <si>
+    <t>Executive Condo</t>
+  </si>
+  <si>
+    <t>Park, Playground, Bus Stop, Market, Pool, Mall, MRT, Gym</t>
+  </si>
+  <si>
+    <t>Free Hold</t>
+  </si>
+  <si>
+    <t>(1.4578264381435682,104.49280105433851)</t>
+  </si>
+  <si>
+    <t>5 Room Flat</t>
+  </si>
+  <si>
+    <t>MRT, Mall, Market, Gym, Bus Stop, Playground, Pool</t>
+  </si>
+  <si>
+    <t>(1.307223716343131,104.6400907824246)</t>
+  </si>
+  <si>
+    <t>4 Room Flat</t>
+  </si>
+  <si>
+    <t>Park, Market, Playground, MRT, Mall, Pool, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.3426259593938485,104.5795591002795)</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>(1.3868360460111502,104.27678575789297)</t>
+  </si>
+  <si>
+    <t>3 Room Flat</t>
+  </si>
+  <si>
+    <t>Playground, Park</t>
+  </si>
+  <si>
+    <t>(1.4113977625941172,104.09386048875098)</t>
+  </si>
+  <si>
+    <t>Terrace</t>
+  </si>
+  <si>
+    <t>Bus Stop, Market, Pool, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.2777102797875535,104.5988562019776)</t>
+  </si>
+  <si>
+    <t>Market, Gym, Pool, Bus Stop, Park, Mall, Playground</t>
+  </si>
+  <si>
+    <t>(1.3927823717792351,104.49012378664301)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Gym, MRT, Playground, Market</t>
+  </si>
+  <si>
+    <t>(1.3293531793391027,104.45399421717958)</t>
+  </si>
+  <si>
+    <t>Shophouse</t>
+  </si>
+  <si>
+    <t>Pool, Market</t>
+  </si>
+  <si>
+    <t>(1.433674260413089,104.0443302207795)</t>
+  </si>
+  <si>
+    <t>Gym, Market, Bus Stop, Playground, Pool, Mall, MRT</t>
+  </si>
+  <si>
+    <t>(1.4386378756087306,104.05615957323228)</t>
+  </si>
+  <si>
+    <t>Mansion</t>
+  </si>
+  <si>
+    <t>Bus Stop, Mall, Playground, MRT, Market</t>
+  </si>
+  <si>
+    <t>(1.3762803510669832,104.61017236254577)</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Market, Park, Pool</t>
+  </si>
+  <si>
+    <t>(1.3050055056158634,104.06738912986637)</t>
+  </si>
+  <si>
+    <t>Mall, Park, MRT, Gym, Pool</t>
+  </si>
+  <si>
+    <t>(1.458631446763417,104.15108059227195)</t>
+  </si>
+  <si>
+    <t>Mall, Market, Gym, Playground, Pool, Park, MRT, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4049962827387006,104.46478710024387)</t>
+  </si>
+  <si>
+    <t>Mall, Pool, Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.3327200632907292,104.60520502499328)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.416590265475539,104.57579580813882)</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>(1.4416536577716952,104.15904596552262)</t>
+  </si>
+  <si>
+    <t>Private Condo</t>
+  </si>
+  <si>
+    <t>Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4624977368523715,104.16329544378635)</t>
+  </si>
+  <si>
+    <t>(1.3184063287977201,104.55242770745309)</t>
+  </si>
+  <si>
+    <t>(1.404591556541349,104.59894319393808)</t>
   </si>
   <si>
     <t>Gym</t>
   </si>
   <si>
-    <t>(1.4626658274242006,104.25450534167275)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Park, Gym, Market</t>
-  </si>
-  <si>
-    <t>(1.448131195082653,104.26204445436953)</t>
-  </si>
-  <si>
-    <t>Pool, Market</t>
-  </si>
-  <si>
-    <t>(1.3489234839448359,104.24207158513414)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, Market, Gym, Playground</t>
-  </si>
-  <si>
-    <t>(1.4384701563889093,104.14863603766992)</t>
-  </si>
-  <si>
-    <t>Pool, Market, Gym, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.4191918928399767,104.53506508140815)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, MRT, Market, Mall, Gym, Playground</t>
-  </si>
-  <si>
-    <t>(1.3570661835390891,104.31418293421795)</t>
-  </si>
-  <si>
-    <t>Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4599492869267525,104.54473839676017)</t>
-  </si>
-  <si>
-    <t>Playground, Bus Stop, MRT, Park, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.3925299835849474,104.36814524378627)</t>
-  </si>
-  <si>
-    <t>Playground, Park, MRT, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.2913641685949027,104.51059369192275)</t>
-  </si>
-  <si>
-    <t>Playground, MRT, Park</t>
-  </si>
-  <si>
-    <t>(1.3698254470873328,104.44222675965536)</t>
-  </si>
-  <si>
-    <t>Gym, Pool, Mall, Park, Market, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3893420852177008,104.28094560073694)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.3458923020908293,104.64260210476306)</t>
-  </si>
-  <si>
-    <t>Market, Park</t>
-  </si>
-  <si>
-    <t>(1.2764938024090347,104.05495607902152)</t>
-  </si>
-  <si>
-    <t>MRT</t>
-  </si>
-  <si>
-    <t>(1.445052730120356,104.02818231415958)</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Pool, MRT, Gym, Market, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.4312061596379948,104.1504550383104)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Mall, Pool, Market</t>
-  </si>
-  <si>
-    <t>(1.3659529426619952,104.39221033523009)</t>
-  </si>
-  <si>
-    <t>Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.4192446602429378,104.24244231546108)</t>
-  </si>
-  <si>
-    <t>Market, Gym, MRT, Mall, Playground</t>
-  </si>
-  <si>
-    <t>(1.3499427638718888,104.27185762317764)</t>
-  </si>
-  <si>
-    <t>Mall, Gym, Bus Stop, Pool, Park, MRT, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.318905357641771,104.19194900125532)</t>
+    <t>(1.2910428073914058,104.49569172801965)</t>
+  </si>
+  <si>
+    <t>Playground, Mall, Bus Stop, MRT, Gym, Pool, Market, Park</t>
+  </si>
+  <si>
+    <t>(1.298773753308161,104.19532912128595)</t>
+  </si>
+  <si>
+    <t>(1.43750131553675,104.48712191119985)</t>
+  </si>
+  <si>
+    <t>Mall, Pool, Gym, MRT, Market, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.2899521794952746,104.57007976843109)</t>
+  </si>
+  <si>
+    <t>Playground, Gym, Bus Stop, Pool, Market, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.4372597509393024,104.29797899195846)</t>
+  </si>
+  <si>
+    <t>Bungalow</t>
+  </si>
+  <si>
+    <t>Playground, Mall, Gym, MRT, Market, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.280239424717622,104.53102553814621)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, MRT, Park, Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.442443918909462,104.27886979978943)</t>
+  </si>
+  <si>
+    <t>Gym, Bus Stop, Playground, Mall, Park, MRT, Pool, Market</t>
+  </si>
+  <si>
+    <t>(1.3523553565476836,104.5041755135612)</t>
+  </si>
+  <si>
+    <t>Gym, Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.397230504847218,104.49215768276379)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Playground, Market, Bus Stop, Mall</t>
+  </si>
+  <si>
+    <t>(1.4217175814636769,104.20962226477207)</t>
+  </si>
+  <si>
+    <t>Market, Pool, Mall, MRT, Playground, Bus Stop, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.3796170716405185,104.27278291183336)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Mall</t>
+  </si>
+  <si>
+    <t>(1.3016015855818353,104.19310100488919)</t>
+  </si>
+  <si>
+    <t>MRT, Market</t>
+  </si>
+  <si>
+    <t>(1.381156275043274,104.56892678476251)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Park, Playground, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.4083229358057392,104.34971439069645)</t>
+  </si>
+  <si>
+    <t>Park, Market, Mall, Pool, Bus Stop, Gym, MRT, Playground</t>
+  </si>
+  <si>
+    <t>(1.365377358233594,104.40886081284718)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Market, Bus Stop, Playground, Park, Mall</t>
+  </si>
+  <si>
+    <t>(1.355040483777655,104.25867287972326)</t>
+  </si>
+  <si>
+    <t>Pool, Gym, Mall</t>
+  </si>
+  <si>
+    <t>(1.4576033654051088,104.46692850658607)</t>
+  </si>
+  <si>
+    <t>Pool, Bus Stop, Gym, Playground</t>
+  </si>
+  <si>
+    <t>(1.332809486912252,104.44012850363606)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Market, Park, Gym, Mall, MRT</t>
+  </si>
+  <si>
+    <t>(1.3685327707231143,104.47741881791875)</t>
+  </si>
+  <si>
+    <t>Pool, MRT, Gym, Bus Stop, Market, Park</t>
+  </si>
+  <si>
+    <t>(1.3516323775147239,104.15914668481399)</t>
+  </si>
+  <si>
+    <t>Mall</t>
+  </si>
+  <si>
+    <t>(1.4132375978477263,104.07234605755315)</t>
+  </si>
+  <si>
+    <t>Playground, Bus Stop, Market, Mall, Gym</t>
+  </si>
+  <si>
+    <t>(1.4098089396876716,104.52258573516266)</t>
+  </si>
+  <si>
+    <t>Playground, Pool, Park, Gym, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.2915064384363186,104.47660745004767)</t>
+  </si>
+  <si>
+    <t>Park, Mall, Market, Gym, Pool, Bus Stop, MRT</t>
+  </si>
+  <si>
+    <t>(1.3201228631302029,104.27984567636943)</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.353163234678874,104.12436552607527)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Playground, Pool, Mall, Park, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.3547573391666874,104.47704667385109)</t>
+  </si>
+  <si>
+    <t>MRT, Mall, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.393145151359821,104.10139567850698)</t>
+  </si>
+  <si>
+    <t>Pool, Playground, Mall, MRT, Market</t>
+  </si>
+  <si>
+    <t>(1.4515720708995037,104.07673716762729)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Park, Mall</t>
+  </si>
+  <si>
+    <t>(1.3100254145528558,104.16286700772125)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3420838114794489,104.39839802309903)</t>
+  </si>
+  <si>
+    <t>Gym, MRT, Park, Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.3869986035749229,104.31611390580704)</t>
+  </si>
+  <si>
+    <t>(1.391337764392163,104.64064539270215)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.3701157247438236,104.3458470645681)</t>
+  </si>
+  <si>
+    <t>Pool, Mall, Gym, MRT, Market</t>
+  </si>
+  <si>
+    <t>(1.4133052896682734,104.48419667553917)</t>
+  </si>
+  <si>
+    <t>MRT, Park, Mall, Playground, Bus Stop, Gym, Market, Pool</t>
+  </si>
+  <si>
+    <t>(1.3884314642916382,104.43342566755695)</t>
+  </si>
+  <si>
+    <t>Playground, Mall, Bus Stop, Pool</t>
+  </si>
+  <si>
+    <t>(1.372389510519124,104.47275935274372)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Gym, Playground, Mall, Pool, Park, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3789620547482155,104.53291705533378)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Market, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2774042985438314,104.13084407613232)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Playground, Mall, Gym, Market, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3959808416234083,104.43385618058207)</t>
+  </si>
+  <si>
+    <t>Park, Pool, Mall, Gym, MRT, Market, Playground</t>
+  </si>
+  <si>
+    <t>(1.3341570230866586,104.11502889838901)</t>
+  </si>
+  <si>
+    <t>Gym, Playground, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.3965852551074636,104.36975919930319)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, MRT</t>
+  </si>
+  <si>
+    <t>(1.4455541988990104,104.09901252880668)</t>
+  </si>
+  <si>
+    <t>(1.3567355217807868,104.2977213523106)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop, Gym, Mall, Park</t>
+  </si>
+  <si>
+    <t>(1.3878089409381265,104.08537786386142)</t>
+  </si>
+  <si>
+    <t>Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.4090441098911466,104.21381175440054)</t>
+  </si>
+  <si>
+    <t>(1.4623044449422677,104.22258200685427)</t>
   </si>
   <si>
     <t>Pool, Mall</t>
   </si>
   <si>
-    <t>(1.4148140772799196,104.20809553048126)</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Park</t>
-  </si>
-  <si>
-    <t>(1.3740309756364462,104.172316217982)</t>
-  </si>
-  <si>
-    <t>Playground, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.3359858389003176,104.58605319222727)</t>
-  </si>
-  <si>
-    <t>Playground, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.4608952074465729,104.38054331628014)</t>
-  </si>
-  <si>
-    <t>Playground, MRT, Market, Bus Stop, Gym, Park, Pool</t>
-  </si>
-  <si>
-    <t>(1.3755613672875364,104.04206925764835)</t>
-  </si>
-  <si>
-    <t>Playground, Park, Pool, Gym, Market, Mall, Bus Stop, MRT</t>
-  </si>
-  <si>
-    <t>(1.4297479606584755,104.12465219269097)</t>
-  </si>
-  <si>
-    <t>Pool, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.2926289065743328,104.62546755209415)</t>
-  </si>
-  <si>
-    <t>Pool, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3622699365924242,104.10003725565068)</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Pool, MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.4562862206438396,104.3128129802637)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Market, Playground, Pool, Mall, MRT, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.401411509248339,104.16028273819896)</t>
-  </si>
-  <si>
-    <t>Park, Playground, Mall, Gym, MRT</t>
-  </si>
-  <si>
-    <t>(1.393586163698429,104.0414113479654)</t>
-  </si>
-  <si>
-    <t>(1.346194455153728,104.55196717326298)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Market, Mall, Playground, Gym, Pool, MRT</t>
-  </si>
-  <si>
-    <t>(1.3732346679137608,104.02916442171718)</t>
+    <t>(1.3238747038522458,104.61065643412437)</t>
+  </si>
+  <si>
+    <t>Mall, Market, Playground, Bus Stop, Gym, Pool</t>
+  </si>
+  <si>
+    <t>(1.2769690448397522,104.62467744529322)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Playground, Mall, Gym</t>
+  </si>
+  <si>
+    <t>(1.4550871229950497,104.2375469932883)</t>
+  </si>
+  <si>
+    <t>Mall, Park</t>
+  </si>
+  <si>
+    <t>(1.2806957842774251,104.09705914201402)</t>
+  </si>
+  <si>
+    <t>Park, MRT</t>
+  </si>
+  <si>
+    <t>(1.311116401415026,104.39754852526993)</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>(1.2734308348617114,104.37906267222691)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Playground, Gym, Pool, Park, MRT</t>
+  </si>
+  <si>
+    <t>(1.3654887032151937,104.5965536374197)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Bus Stop, Mall, Playground, Pool, Market, MRT</t>
+  </si>
+  <si>
+    <t>(1.2967880942591679,104.31661010393515)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, Mall, Gym, Market, Playground</t>
+  </si>
+  <si>
+    <t>(1.333177709639175,104.44984880820179)</t>
+  </si>
+  <si>
+    <t>(1.3102967347660446,104.39490863317447)</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Park, Bus Stop, Gym, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.331553229158701,104.09957165388633)</t>
+  </si>
+  <si>
+    <t>Pool, MRT, Market, Playground, Park, Gym, Mall</t>
+  </si>
+  <si>
+    <t>(1.3876418719075332,104.10859469087589)</t>
+  </si>
+  <si>
+    <t>Gym, Bus Stop, MRT</t>
+  </si>
+  <si>
+    <t>(1.3566442230537534,104.19558448876934)</t>
+  </si>
+  <si>
+    <t>Bus Stop, MRT, Playground, Gym</t>
+  </si>
+  <si>
+    <t>(1.4649461048450507,104.42446927295859)</t>
+  </si>
+  <si>
+    <t>Mall, MRT, Park, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3693354196982173,104.49205529067609)</t>
+  </si>
+  <si>
+    <t>(1.4092228032907854,104.34785623945605)</t>
+  </si>
+  <si>
+    <t>Park, Pool, Mall, Gym, Bus Stop, Market, Playground, MRT</t>
+  </si>
+  <si>
+    <t>(1.2909627886397017,104.21960199225914)</t>
+  </si>
+  <si>
+    <t>Market, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.279430520916184,104.14784017828158)</t>
+  </si>
+  <si>
+    <t>Playground, MRT, Bus Stop, Mall, Market, Gym, Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.3549375707132403,104.47111964121626)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, Gym, Playground, Market</t>
+  </si>
+  <si>
+    <t>(1.4134479567726055,104.32169674467187)</t>
+  </si>
+  <si>
+    <t>Market, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.4680607872445586,104.35570883158778)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.3741661518019996,104.03642634749994)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, Market</t>
+  </si>
+  <si>
+    <t>(1.4336532546755114,104.0724321362383)</t>
+  </si>
+  <si>
+    <t>Bus Stop, MRT, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.2934089570179261,104.14562937743105)</t>
+  </si>
+  <si>
+    <t>Gym, Mall, Market, Pool, Playground, MRT, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4175371388069749,104.32366014114854)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Gym, Pool, Market, Park, MRT</t>
+  </si>
+  <si>
+    <t>(1.309460580957579,104.25956757479814)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, Pool, MRT, Playground, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.320992450346101,104.21400241022249)</t>
   </si>
   <si>
     <t>Park</t>
   </si>
   <si>
-    <t>(1.4308660051417974,104.19240422039792)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Playground, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.3469392323870764,104.55862808155224)</t>
-  </si>
-  <si>
-    <t>Market, Playground, Park, Bus Stop, Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.2891598932759132,104.40630222948835)</t>
-  </si>
-  <si>
-    <t>MRT, Bus Stop, Playground, Market, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.2923428649723978,104.45150983216861)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Gym, Mall, Playground, Bus Stop, Pool, Market</t>
-  </si>
-  <si>
-    <t>(1.4554292293065563,104.56231751049211)</t>
-  </si>
-  <si>
-    <t>Park, Playground, MRT, Gym, Bus Stop, Market, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.3097713834175655,104.09238403327019)</t>
-  </si>
-  <si>
-    <t>MRT, Park</t>
-  </si>
-  <si>
-    <t>(1.3162333086502507,104.58565279696764)</t>
-  </si>
-  <si>
-    <t>Market, Pool, MRT</t>
-  </si>
-  <si>
-    <t>(1.3600954150095013,104.33979217036693)</t>
-  </si>
-  <si>
-    <t>Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.373225428876679,104.35073082701626)</t>
-  </si>
-  <si>
-    <t>(1.3874540621023144,104.54687979424767)</t>
-  </si>
-  <si>
-    <t>Market, Bus Stop, Mall, MRT, Playground, Park</t>
-  </si>
-  <si>
-    <t>(1.298513574909235,104.5461140755436)</t>
-  </si>
-  <si>
-    <t>Playground, MRT, Park, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.31188685571011,104.38657276573903)</t>
-  </si>
-  <si>
-    <t>Mall</t>
-  </si>
-  <si>
-    <t>(1.3785480719202439,104.33598178483615)</t>
-  </si>
-  <si>
-    <t>MRT, Mall, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4340656853897797,104.3903986740565)</t>
-  </si>
-  <si>
-    <t>Mall, Playground, Pool</t>
-  </si>
-  <si>
-    <t>(1.455347303096121,104.37381042274825)</t>
-  </si>
-  <si>
-    <t>Park, Gym, MRT</t>
-  </si>
-  <si>
-    <t>(1.3985863626087784,104.34130443101589)</t>
-  </si>
-  <si>
-    <t>Park, Pool, MRT, Bus Stop, Market, Mall, Playground, Gym</t>
-  </si>
-  <si>
-    <t>(1.3644196852588892,104.26022907080018)</t>
-  </si>
-  <si>
-    <t>Pool, Bus Stop, Gym, Mall, MRT, Park, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.395541379348349,104.36638286502753)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Gym, Pool, MRT, Park</t>
-  </si>
-  <si>
-    <t>(1.3766334204341923,104.36550369076369)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, MRT, Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.3953156955736976,104.37642393260272)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Market, MRT, Pool, Bus Stop, Mall</t>
-  </si>
-  <si>
-    <t>(1.3038214135779091,104.12162465724727)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Market, Mall, Pool, MRT</t>
-  </si>
-  <si>
-    <t>(1.4315869768468388,104.32710301341315)</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Gym, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2962156544171406,104.43498791240489)</t>
-  </si>
-  <si>
-    <t>Market, Playground, Park, Gym, Bus Stop, Pool, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.464621591588068,104.31880500015161)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Market, Pool</t>
-  </si>
-  <si>
-    <t>(1.2808783930646876,104.49701730028514)</t>
-  </si>
-  <si>
-    <t>(1.359668930233392,104.06971379842341)</t>
-  </si>
-  <si>
-    <t>Market, Park, Playground, Gym</t>
-  </si>
-  <si>
-    <t>(1.4654372184763937,104.1130698291564)</t>
-  </si>
-  <si>
-    <t>Market, Pool</t>
-  </si>
-  <si>
-    <t>(1.3588362754554275,104.54027618404676)</t>
-  </si>
-  <si>
-    <t>Mall, Playground, MRT, Park, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3464478901624646,104.64026892647804)</t>
-  </si>
-  <si>
-    <t>Playground, Pool, Mall, Park, Market, MRT, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.391664312763094,104.59714365664271)</t>
-  </si>
-  <si>
-    <t>Park, Gym, Market, Playground, MRT</t>
-  </si>
-  <si>
-    <t>(1.3756306343159663,104.53857988745366)</t>
-  </si>
-  <si>
-    <t>Park, Pool, Mall, Market, MRT, Gym, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3552924381228726,104.39090742767885)</t>
-  </si>
-  <si>
-    <t>Playground, Park, Pool, MRT, Gym, Bus Stop, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.3461408436391817,104.02880984642326)</t>
-  </si>
-  <si>
-    <t>(1.3243541159201686,104.11087012110154)</t>
-  </si>
-  <si>
-    <t>Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.4263524425455953,104.27141468863546)</t>
-  </si>
-  <si>
-    <t>MRT, Bus Stop, Playground, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.4675109004934441,104.61488506120544)</t>
-  </si>
-  <si>
-    <t>Playground, Pool, MRT, Gym, Mall, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3497010512809826,104.57469399744019)</t>
-  </si>
-  <si>
-    <t>Market, MRT, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.3318138512046596,104.28724805779501)</t>
-  </si>
-  <si>
-    <t>Mall, Park, Bus Stop, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.3572469766996822,104.57443976009964)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Mall, MRT, Gym</t>
-  </si>
-  <si>
-    <t>(1.4570077248877369,104.30360854461222)</t>
-  </si>
-  <si>
-    <t>(1.3162543614119289,104.6088956685973)</t>
-  </si>
-  <si>
-    <t>MRT, Pool</t>
-  </si>
-  <si>
-    <t>(1.313218883952678,104.62207822780996)</t>
-  </si>
-  <si>
-    <t>Market, Park, Playground</t>
-  </si>
-  <si>
-    <t>(1.3244620502979167,104.51769457061862)</t>
-  </si>
-  <si>
-    <t>Market, Gym, Park, Playground, Bus Stop, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.3524079162038087,104.20053729371838)</t>
-  </si>
-  <si>
-    <t>Pool, Gym, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.3238844716496554,104.3988908549891)</t>
-  </si>
-  <si>
-    <t>Market, Park, Pool</t>
-  </si>
-  <si>
-    <t>(1.3541498909836818,104.57627248707036)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Mall, Pool, Gym, MRT, Park</t>
-  </si>
-  <si>
-    <t>(1.467493077375039,104.21966685849846)</t>
-  </si>
-  <si>
-    <t>Pool, MRT, Park, Market, Bus Stop, Mall</t>
-  </si>
-  <si>
-    <t>(1.4676736519891496,104.10374476860439)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.3389751608348934,104.1863282669569)</t>
-  </si>
-  <si>
-    <t>(1.466342017841384,104.30721370986346)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, Gym, Park, MRT, Mall, Playground</t>
-  </si>
-  <si>
-    <t>(1.4516805905253556,104.29799436328157)</t>
-  </si>
-  <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>(1.3477884256723933,104.05441699864377)</t>
-  </si>
-  <si>
-    <t>Gym, Pool, MRT, Bus Stop, Playground, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.3386146938551167,104.19357452798286)</t>
-  </si>
-  <si>
-    <t>Pool, MRT, Playground, Gym, Mall, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2819105754648537,104.24924271727826)</t>
-  </si>
-  <si>
-    <t>Gym, Pool, Market, Playground, Park, Mall, MRT, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.446593488941607,104.40449141851663)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Playground, Mall, Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.4603200246637855,104.58583863342686)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Pool, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.3450178168189804,104.56747925580635)</t>
-  </si>
-  <si>
-    <t>Park, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.380824641648786,104.47648650953981)</t>
-  </si>
-  <si>
-    <t>Gym, MRT, Bus Stop, Market, Playground</t>
-  </si>
-  <si>
-    <t>(1.3546585753622304,104.19250288589114)</t>
-  </si>
-  <si>
-    <t>Playground, Market, MRT</t>
-  </si>
-  <si>
-    <t>(1.461652493063212,104.60573911276414)</t>
-  </si>
-  <si>
-    <t>Gym, Pool, MRT, Bus Stop, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.3922373476463474,104.4022741046317)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.4620725216586938,104.40436475327556)</t>
-  </si>
-  <si>
-    <t>Pool, MRT</t>
-  </si>
-  <si>
-    <t>(1.3876453501474089,104.20306562702103)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Bus Stop, Pool, Playground, Market, Mall, Gym</t>
-  </si>
-  <si>
-    <t>(1.2688619696833903,104.49491080879244)</t>
-  </si>
-  <si>
-    <t>Park, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.3304475255813495,104.1197015562024)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Pool, Playground, Gym, Mall, Bus Stop</t>
+    <t>(1.3633761733712224,104.61971620939919)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Gym, Mall, Market, MRT, Playground</t>
+  </si>
+  <si>
+    <t>(1.4043071828782638,104.31603436679535)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Market</t>
+  </si>
+  <si>
+    <t>(1.467021650755483,104.33793086007361)</t>
+  </si>
+  <si>
+    <t>Pool, Mall, Park, Playground, Market, Bus Stop, Gym, MRT</t>
+  </si>
+  <si>
+    <t>(1.4464231397906167,104.05762334240802)</t>
+  </si>
+  <si>
+    <t>Gym, Mall, Bus Stop, Playground</t>
+  </si>
+  <si>
+    <t>(1.3063190163056282,104.14964029054653)</t>
+  </si>
+  <si>
+    <t>(1.3190404252026886,104.44775916551743)</t>
+  </si>
+  <si>
+    <t>Park, Mall, Bus Stop</t>
   </si>
 </sst>
 </file>
@@ -950,25 +959,25 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1078913</v>
+        <v>2920261</v>
       </c>
       <c r="C1">
-        <v>27.98954523049783</v>
-      </c>
-      <c r="D1" t="s">
+        <v>147.1016018537175</v>
+      </c>
+      <c r="D1">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1">
+        <v>19852</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="F1">
-        <v>38547</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -976,19 +985,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3104073</v>
+        <v>761328</v>
       </c>
       <c r="C2">
-        <v>129.3741091151586</v>
+        <v>25.63825559858562</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>23993</v>
+        <v>29695</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -1002,19 +1011,19 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1466055</v>
+        <v>1187992</v>
       </c>
       <c r="C3">
-        <v>41.06941759811749</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
+        <v>80.74986405655247</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3">
-        <v>35697</v>
+        <v>14712</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -1028,22 +1037,22 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>568517</v>
+        <v>3457979</v>
       </c>
       <c r="C4">
-        <v>136.1717365269461</v>
-      </c>
-      <c r="D4">
-        <v>999</v>
+        <v>113.4842637261659</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>4175</v>
+        <v>30471</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -1054,25 +1063,25 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>345180</v>
+        <v>3414391</v>
       </c>
       <c r="C5">
-        <v>51.61184210526316</v>
+        <v>226.1785241123476</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5">
-        <v>6688</v>
+        <v>15096</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1080,25 +1089,25 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3480437</v>
+        <v>134354</v>
       </c>
       <c r="C6">
-        <v>90.19246417372827</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
+        <v>32.14210526315789</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>38589</v>
+        <v>4180</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1106,25 +1115,25 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4692058</v>
+        <v>813011</v>
       </c>
       <c r="C7">
-        <v>151.2591231463572</v>
+        <v>51.73142020870451</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>31020</v>
+        <v>15716</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1132,25 +1141,25 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1730137</v>
+        <v>581408</v>
       </c>
       <c r="C8">
-        <v>273.5394466403162</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
+        <v>15.39623440934248</v>
+      </c>
+      <c r="D8">
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>6325</v>
+        <v>37763</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1158,25 +1167,25 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>3904021</v>
+        <v>2053702</v>
       </c>
       <c r="C9">
-        <v>226.0317855488652</v>
+        <v>87.97558259081563</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>17272</v>
+        <v>23344</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1184,25 +1193,25 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2115292</v>
+        <v>1105579</v>
       </c>
       <c r="C10">
-        <v>86.12752442996742</v>
-      </c>
-      <c r="D10">
-        <v>999</v>
+        <v>38.14972394755004</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>24560</v>
+        <v>28980</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1210,25 +1219,25 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2689019</v>
+        <v>3567623</v>
       </c>
       <c r="C11">
-        <v>588.2780573178735</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
+        <v>3168.404085257549</v>
+      </c>
+      <c r="D11">
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F11">
-        <v>4571</v>
+        <v>1126</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1236,25 +1245,25 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>378628</v>
+        <v>4740240</v>
       </c>
       <c r="C12">
-        <v>10.64907889185769</v>
+        <v>401.7152542372881</v>
       </c>
       <c r="D12">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>35555</v>
+        <v>11800</v>
       </c>
       <c r="G12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1262,25 +1271,25 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3641384</v>
+        <v>631745</v>
       </c>
       <c r="C13">
-        <v>239.8171759747102</v>
+        <v>257.5397472482674</v>
       </c>
       <c r="D13">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>15184</v>
+        <v>2453</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1288,25 +1297,25 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2978107</v>
+        <v>4641002</v>
       </c>
       <c r="C14">
-        <v>167.6767636957379</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
+        <v>224.0082054252341</v>
+      </c>
+      <c r="D14">
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>17761</v>
+        <v>20718</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1314,25 +1323,25 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>602100</v>
+        <v>3634037</v>
       </c>
       <c r="C15">
-        <v>16.48324572930355</v>
+        <v>113.2239842971087</v>
       </c>
       <c r="D15">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>36528</v>
+        <v>32096</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1340,25 +1349,25 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1242340</v>
+        <v>2282186</v>
       </c>
       <c r="C16">
-        <v>56.2373817391698</v>
-      </c>
-      <c r="D16">
-        <v>999</v>
+        <v>123.4147739563054</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>22091</v>
+        <v>18492</v>
       </c>
       <c r="G16" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1366,25 +1375,25 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2927388</v>
+        <v>1803730</v>
       </c>
       <c r="C17">
-        <v>455.0579822788745</v>
+        <v>59.38205761316873</v>
       </c>
       <c r="D17">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>6433</v>
+        <v>30375</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1392,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1263436</v>
+        <v>1187728</v>
       </c>
       <c r="C18">
-        <v>72.79534454943536</v>
-      </c>
-      <c r="D18">
-        <v>40</v>
+        <v>223.5933734939759</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>17356</v>
+        <v>5312</v>
       </c>
       <c r="G18" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1418,25 +1427,25 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1457437</v>
+        <v>3908609</v>
       </c>
       <c r="C19">
-        <v>43.51467470814797</v>
-      </c>
-      <c r="D19">
-        <v>73</v>
+        <v>1732.53945035461</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F19">
-        <v>33493</v>
+        <v>2256</v>
       </c>
       <c r="G19" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1444,25 +1453,25 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>128512</v>
+        <v>455639</v>
       </c>
       <c r="C20">
-        <v>5.025300121221601</v>
+        <v>15.41091118176284</v>
       </c>
       <c r="D20">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F20">
-        <v>25573</v>
+        <v>29566</v>
       </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1470,25 +1479,25 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1544406</v>
+        <v>4115101</v>
       </c>
       <c r="C21">
-        <v>134.0746592586162</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
+        <v>217.1901092521244</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F21">
-        <v>11519</v>
+        <v>18947</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1496,25 +1505,25 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>4784004</v>
+        <v>1609232</v>
       </c>
       <c r="C22">
-        <v>1118.019163355924</v>
-      </c>
-      <c r="D22">
-        <v>999</v>
+        <v>43.78505156041684</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F22">
-        <v>4279</v>
+        <v>36753</v>
       </c>
       <c r="G22" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1522,25 +1531,25 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2544516</v>
+        <v>561510</v>
       </c>
       <c r="C23">
-        <v>98.13776612156742</v>
-      </c>
-      <c r="D23" t="s">
-        <v>0</v>
+        <v>291.8451143451143</v>
+      </c>
+      <c r="D23">
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F23">
-        <v>25928</v>
+        <v>1924</v>
       </c>
       <c r="G23" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1548,25 +1557,25 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2007428</v>
+        <v>3738465</v>
       </c>
       <c r="C24">
-        <v>104.3415977961432</v>
-      </c>
-      <c r="D24">
-        <v>19</v>
+        <v>97.00723960765997</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24">
-        <v>19239</v>
+        <v>38538</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1574,25 +1583,25 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2535946</v>
+        <v>291516</v>
       </c>
       <c r="C25">
-        <v>81.51808158410749</v>
+        <v>21.17498365657006</v>
       </c>
       <c r="D25" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F25">
-        <v>31109</v>
+        <v>13767</v>
       </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1600,25 +1609,25 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>4719155</v>
+        <v>829814</v>
       </c>
       <c r="C26">
-        <v>519.330362055684</v>
-      </c>
-      <c r="D26">
-        <v>40</v>
+        <v>24.74028800572434</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F26">
-        <v>9087</v>
+        <v>33541</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1626,25 +1635,25 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2053117</v>
+        <v>3954563</v>
       </c>
       <c r="C27">
-        <v>104.2297187531729</v>
-      </c>
-      <c r="D27">
-        <v>999</v>
+        <v>215.9665228551144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F27">
-        <v>19698</v>
+        <v>18311</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1652,25 +1661,25 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>3923775</v>
+        <v>2505013</v>
       </c>
       <c r="C28">
-        <v>148.3244499886596</v>
-      </c>
-      <c r="D28">
-        <v>999</v>
+        <v>75.47948053513318</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F28">
-        <v>26454</v>
+        <v>33188</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1678,25 +1687,25 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>743450</v>
+        <v>2076106</v>
       </c>
       <c r="C29">
-        <v>27.14311792625046</v>
+        <v>106.7296936047707</v>
       </c>
       <c r="D29">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F29">
-        <v>27390</v>
+        <v>19452</v>
       </c>
       <c r="G29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1704,25 +1713,25 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>3030271</v>
+        <v>108712</v>
       </c>
       <c r="C30">
-        <v>242.4410752860229</v>
+        <v>2.89112281261635</v>
       </c>
       <c r="D30">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F30">
-        <v>12499</v>
+        <v>37602</v>
       </c>
       <c r="G30" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1730,25 +1739,25 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>4083146</v>
+        <v>448852</v>
       </c>
       <c r="C31">
-        <v>292.7406079724691</v>
-      </c>
-      <c r="D31">
-        <v>999</v>
+        <v>15.38745286253</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F31">
-        <v>13948</v>
+        <v>29170</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1756,25 +1765,25 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>4536585</v>
+        <v>3409264</v>
       </c>
       <c r="C32">
-        <v>333.1315171097077</v>
+        <v>99.36648207519674</v>
       </c>
       <c r="D32">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F32">
-        <v>13618</v>
+        <v>34310</v>
       </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="H32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1782,25 +1791,25 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>4565417</v>
+        <v>1002783</v>
       </c>
       <c r="C33">
-        <v>546.8875179683756</v>
-      </c>
-      <c r="D33">
-        <v>999</v>
+        <v>85.09699592668025</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F33">
-        <v>8348</v>
+        <v>11784</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1808,25 +1817,25 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1544685</v>
+        <v>1792286</v>
       </c>
       <c r="C34">
-        <v>111.4250162302532</v>
+        <v>123.9907298512625</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F34">
-        <v>13863</v>
+        <v>14455</v>
       </c>
       <c r="G34" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1834,25 +1843,25 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>3979715</v>
+        <v>1312866</v>
       </c>
       <c r="C35">
-        <v>1185.850715137068</v>
-      </c>
-      <c r="D35">
-        <v>90</v>
+        <v>158.9233748940806</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F35">
-        <v>3356</v>
+        <v>8261</v>
       </c>
       <c r="G35" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1860,25 +1869,25 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>4567704</v>
+        <v>2479799</v>
       </c>
       <c r="C36">
-        <v>145.2323932466376</v>
+        <v>118.5032495460193</v>
       </c>
       <c r="D36">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F36">
-        <v>31451</v>
+        <v>20926</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1886,25 +1895,25 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1964825</v>
+        <v>1205737</v>
       </c>
       <c r="C37">
-        <v>50.45905133670613</v>
-      </c>
-      <c r="D37">
-        <v>999</v>
+        <v>62.35388116046957</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F37">
-        <v>38939</v>
+        <v>19337</v>
       </c>
       <c r="G37" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1912,25 +1921,25 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>4887110</v>
+        <v>4552234</v>
       </c>
       <c r="C38">
-        <v>155.1709795205588</v>
+        <v>119.3778092465843</v>
       </c>
       <c r="D38" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F38">
-        <v>31495</v>
+        <v>38133</v>
       </c>
       <c r="G38" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1938,25 +1947,25 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>4848197</v>
+        <v>1997096</v>
       </c>
       <c r="C39">
-        <v>950.0679992161473</v>
-      </c>
-      <c r="D39">
-        <v>999</v>
+        <v>1514.098559514784</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F39">
-        <v>5103</v>
+        <v>1319</v>
       </c>
       <c r="G39" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1964,25 +1973,25 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2144910</v>
+        <v>4831622</v>
       </c>
       <c r="C40">
-        <v>60.1792828685259</v>
-      </c>
-      <c r="D40">
-        <v>33</v>
+        <v>307.9035177160337</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F40">
-        <v>35642</v>
+        <v>15692</v>
       </c>
       <c r="G40" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1990,25 +1999,25 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1616839</v>
+        <v>3074897</v>
       </c>
       <c r="C41">
-        <v>428.8697612732096</v>
+        <v>178.0278485409912</v>
       </c>
       <c r="D41">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F41">
-        <v>3770</v>
+        <v>17272</v>
       </c>
       <c r="G41" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2016,25 +2025,25 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>3581879</v>
+        <v>3972332</v>
       </c>
       <c r="C42">
-        <v>1394.269754768392</v>
-      </c>
-      <c r="D42">
-        <v>42</v>
+        <v>259.4599608099281</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F42">
-        <v>2569</v>
+        <v>15310</v>
       </c>
       <c r="G42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2042,25 +2051,25 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>4528945</v>
+        <v>815095</v>
       </c>
       <c r="C43">
-        <v>786.4117034207328</v>
+        <v>35.57657893588232</v>
       </c>
       <c r="D43">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F43">
-        <v>5759</v>
+        <v>22911</v>
       </c>
       <c r="G43" t="s">
         <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2068,25 +2077,25 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1417899</v>
+        <v>1269882</v>
       </c>
       <c r="C44">
-        <v>39.44854352725148</v>
+        <v>55.36632368329264</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F44">
-        <v>35943</v>
+        <v>22936</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2094,25 +2103,25 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>222250</v>
+        <v>4856083</v>
       </c>
       <c r="C45">
-        <v>30.31232951445718</v>
-      </c>
-      <c r="D45">
-        <v>13</v>
+        <v>1810.620059656972</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F45">
-        <v>7332</v>
+        <v>2682</v>
       </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2120,25 +2129,25 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2736413</v>
+        <v>1037381</v>
       </c>
       <c r="C46">
-        <v>220.1458567980692</v>
-      </c>
-      <c r="D46">
-        <v>999</v>
+        <v>71.87563223169127</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F46">
-        <v>12430</v>
+        <v>14433</v>
       </c>
       <c r="G46" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="H46" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2146,25 +2155,25 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2618132</v>
+        <v>134942</v>
       </c>
       <c r="C47">
-        <v>124.1350339007159</v>
+        <v>4.175056464837103</v>
       </c>
       <c r="D47" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F47">
-        <v>21091</v>
+        <v>32321</v>
       </c>
       <c r="G47" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2172,25 +2181,25 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2106356</v>
+        <v>3365039</v>
       </c>
       <c r="C48">
-        <v>54.31132197096666</v>
-      </c>
-      <c r="D48" t="s">
-        <v>0</v>
+        <v>350.1237124128602</v>
+      </c>
+      <c r="D48">
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F48">
-        <v>38783</v>
+        <v>9611</v>
       </c>
       <c r="G48" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2198,25 +2207,25 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>291129</v>
+        <v>2615706</v>
       </c>
       <c r="C49">
-        <v>8.784026792987961</v>
+        <v>80.36456925156692</v>
       </c>
       <c r="D49">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F49">
-        <v>33143</v>
+        <v>32548</v>
       </c>
       <c r="G49" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2224,25 +2233,25 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1436721</v>
+        <v>3295005</v>
       </c>
       <c r="C50">
-        <v>41.7142152023692</v>
+        <v>187.3865445859873</v>
       </c>
       <c r="D50" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F50">
-        <v>34442</v>
+        <v>17584</v>
       </c>
       <c r="G50" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2250,25 +2259,25 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1954728</v>
+        <v>1448162</v>
       </c>
       <c r="C51">
-        <v>53.36995576912576</v>
-      </c>
-      <c r="D51" t="s">
-        <v>0</v>
+        <v>119.3966526506719</v>
+      </c>
+      <c r="D51">
+        <v>99</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F51">
-        <v>36626</v>
+        <v>12129</v>
       </c>
       <c r="G51" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H51" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2276,25 +2285,25 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>2948537</v>
+        <v>390642</v>
       </c>
       <c r="C52">
-        <v>113.2136768545538</v>
+        <v>13.47924502260101</v>
       </c>
       <c r="D52">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F52">
-        <v>26044</v>
+        <v>28981</v>
       </c>
       <c r="G52" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H52" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2302,25 +2311,25 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>958184</v>
+        <v>2994343</v>
       </c>
       <c r="C53">
-        <v>393.1817808781288</v>
+        <v>263.8885167885785</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F53">
-        <v>2437</v>
+        <v>11347</v>
       </c>
       <c r="G53" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H53" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2328,25 +2337,25 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>2385408</v>
+        <v>3012640</v>
       </c>
       <c r="C54">
-        <v>69.12422846214031</v>
-      </c>
-      <c r="D54">
-        <v>45</v>
+        <v>126.8693674724164</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F54">
-        <v>34509</v>
+        <v>23746</v>
       </c>
       <c r="G54" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2354,25 +2363,25 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>3668894</v>
+        <v>2725514</v>
       </c>
       <c r="C55">
-        <v>362.8975272007913</v>
-      </c>
-      <c r="D55">
-        <v>43</v>
+        <v>197.2722929936306</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F55">
-        <v>10110</v>
+        <v>13816</v>
       </c>
       <c r="G55" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H55" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2380,25 +2389,25 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3633056</v>
+        <v>3480765</v>
       </c>
       <c r="C56">
-        <v>141.91625</v>
+        <v>695.7355586648011</v>
       </c>
       <c r="D56">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F56">
-        <v>25600</v>
+        <v>5003</v>
       </c>
       <c r="G56" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H56" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2406,25 +2415,25 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>4211169</v>
+        <v>477051</v>
       </c>
       <c r="C57">
-        <v>534.8195326390653</v>
-      </c>
-      <c r="D57" t="s">
-        <v>0</v>
+        <v>109.9195852534562</v>
+      </c>
+      <c r="D57">
+        <v>99</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F57">
-        <v>7874</v>
+        <v>4340</v>
       </c>
       <c r="G57" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H57" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2432,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>3350984</v>
+        <v>471546</v>
       </c>
       <c r="C58">
-        <v>140.9338436303991</v>
-      </c>
-      <c r="D58" t="s">
-        <v>0</v>
+        <v>208.9260079751883</v>
+      </c>
+      <c r="D58">
+        <v>99</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F58">
-        <v>23777</v>
+        <v>2257</v>
       </c>
       <c r="G58" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H58" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2458,25 +2467,25 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>3129789</v>
+        <v>1767491</v>
       </c>
       <c r="C59">
-        <v>245.7241893695533</v>
-      </c>
-      <c r="D59" t="s">
-        <v>0</v>
+        <v>65.55732354141166</v>
+      </c>
+      <c r="D59">
+        <v>99</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F59">
-        <v>12737</v>
+        <v>26961</v>
       </c>
       <c r="G59" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2484,25 +2493,25 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>4129542</v>
+        <v>1171111</v>
       </c>
       <c r="C60">
-        <v>202.0323874755382</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
+        <v>66.0227195850716</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F60">
-        <v>20440</v>
+        <v>17738</v>
       </c>
       <c r="G60" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2510,25 +2519,25 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>2446435</v>
+        <v>4700406</v>
       </c>
       <c r="C61">
-        <v>78.97330363483762</v>
-      </c>
-      <c r="D61" t="s">
-        <v>0</v>
+        <v>134.5394853593611</v>
+      </c>
+      <c r="D61">
+        <v>99</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F61">
-        <v>30978</v>
+        <v>34937</v>
       </c>
       <c r="G61" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="H61" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2536,25 +2545,25 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>2706297</v>
+        <v>2878936</v>
       </c>
       <c r="C62">
-        <v>70.92344986634519</v>
-      </c>
-      <c r="D62" t="s">
-        <v>0</v>
+        <v>979.8965282505105</v>
+      </c>
+      <c r="D62">
+        <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F62">
-        <v>38158</v>
+        <v>2938</v>
       </c>
       <c r="G62" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2562,25 +2571,25 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>1003550</v>
+        <v>2337879</v>
       </c>
       <c r="C63">
-        <v>50.53121852970796</v>
+        <v>113.0721125943122</v>
       </c>
       <c r="D63">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F63">
-        <v>19860</v>
+        <v>20676</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H63" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2588,25 +2597,25 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>3754884</v>
+        <v>2496056</v>
       </c>
       <c r="C64">
-        <v>232.9766085499783</v>
-      </c>
-      <c r="D64" t="s">
-        <v>0</v>
+        <v>131.6207551149546</v>
+      </c>
+      <c r="D64">
+        <v>99</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F64">
-        <v>16117</v>
+        <v>18964</v>
       </c>
       <c r="G64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2614,25 +2623,25 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>4806195</v>
+        <v>231915</v>
       </c>
       <c r="C65">
-        <v>216.7491205916839</v>
-      </c>
-      <c r="D65">
-        <v>999</v>
+        <v>6.136616215071973</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F65">
-        <v>22174</v>
+        <v>37792</v>
       </c>
       <c r="G65" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H65" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2640,25 +2649,25 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>3833983</v>
+        <v>3095364</v>
       </c>
       <c r="C66">
-        <v>1482.018940858137</v>
+        <v>173.1478435979191</v>
       </c>
       <c r="D66">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F66">
-        <v>2587</v>
+        <v>17877</v>
       </c>
       <c r="G66" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2666,25 +2675,25 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>4627094</v>
+        <v>4679541</v>
       </c>
       <c r="C67">
-        <v>422.797331871345</v>
+        <v>397.9878380676986</v>
       </c>
       <c r="D67">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F67">
-        <v>10944</v>
+        <v>11758</v>
       </c>
       <c r="G67" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="H67" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2692,25 +2701,25 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>1057321</v>
+        <v>996887</v>
       </c>
       <c r="C68">
-        <v>37.82225004471472</v>
+        <v>61.52104418662059</v>
       </c>
       <c r="D68" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F68">
-        <v>27955</v>
+        <v>16204</v>
       </c>
       <c r="G68" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2718,25 +2727,25 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>4710192</v>
+        <v>4432368</v>
       </c>
       <c r="C69">
-        <v>1197.30350788002</v>
+        <v>324.5491689243611</v>
       </c>
       <c r="D69">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E69" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F69">
-        <v>3934</v>
+        <v>13657</v>
       </c>
       <c r="G69" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H69" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2744,25 +2753,25 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>1596923</v>
+        <v>2630589</v>
       </c>
       <c r="C70">
-        <v>91.12776763296051</v>
-      </c>
-      <c r="D70" t="s">
-        <v>0</v>
+        <v>75.06103406950865</v>
+      </c>
+      <c r="D70">
+        <v>99</v>
       </c>
       <c r="E70" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F70">
-        <v>17524</v>
+        <v>35046</v>
       </c>
       <c r="G70" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H70" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2770,25 +2779,25 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>4029366</v>
+        <v>942673</v>
       </c>
       <c r="C71">
-        <v>767.3521234050658</v>
-      </c>
-      <c r="D71">
-        <v>48</v>
+        <v>43.20818627675666</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F71">
-        <v>5251</v>
+        <v>21817</v>
       </c>
       <c r="G71" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H71" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2796,25 +2805,25 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>3420634</v>
+        <v>3599338</v>
       </c>
       <c r="C72">
-        <v>102.093239814953</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
+        <v>816.5467332123412</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F72">
-        <v>33505</v>
+        <v>4408</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H72" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2822,25 +2831,25 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>675409</v>
+        <v>165911</v>
       </c>
       <c r="C73">
-        <v>19.39604273160646</v>
+        <v>7.64109059089025</v>
       </c>
       <c r="D73">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="E73" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F73">
-        <v>34822</v>
+        <v>21713</v>
       </c>
       <c r="G73" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2848,25 +2857,25 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>1970459</v>
+        <v>4182285</v>
       </c>
       <c r="C74">
-        <v>700.2341862117981</v>
+        <v>335.7646917148362</v>
       </c>
       <c r="D74" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F74">
-        <v>2814</v>
+        <v>12456</v>
       </c>
       <c r="G74" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H74" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2874,25 +2883,25 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>3128466</v>
+        <v>4606811</v>
       </c>
       <c r="C75">
-        <v>105.6771382245642</v>
-      </c>
-      <c r="D75">
-        <v>999</v>
+        <v>744.8360549717057</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F75">
-        <v>29604</v>
+        <v>6185</v>
       </c>
       <c r="G75" t="s">
         <v>8</v>
       </c>
       <c r="H75" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2900,25 +2909,25 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>1455029</v>
+        <v>3362188</v>
       </c>
       <c r="C76">
-        <v>45.98846360504441</v>
-      </c>
-      <c r="D76" t="s">
-        <v>0</v>
+        <v>87.52279057659769</v>
+      </c>
+      <c r="D76">
+        <v>99</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F76">
-        <v>31639</v>
+        <v>38415</v>
       </c>
       <c r="G76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2926,25 +2935,25 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>1503597</v>
+        <v>1945165</v>
       </c>
       <c r="C77">
-        <v>41.34054603942702</v>
-      </c>
-      <c r="D77">
-        <v>16</v>
+        <v>50.94588931667583</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F77">
-        <v>36371</v>
+        <v>38181</v>
       </c>
       <c r="G77" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2952,25 +2961,25 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>2290381</v>
+        <v>4004206</v>
       </c>
       <c r="C78">
-        <v>1306.549343981746</v>
+        <v>353.2603440670489</v>
       </c>
       <c r="D78">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F78">
-        <v>1753</v>
+        <v>11335</v>
       </c>
       <c r="G78" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2978,25 +2987,25 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>3121460</v>
+        <v>385979</v>
       </c>
       <c r="C79">
-        <v>313.4625426792529</v>
-      </c>
-      <c r="D79">
-        <v>5</v>
+        <v>13.75058781617385</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F79">
-        <v>9958</v>
+        <v>28070</v>
       </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3004,25 +3013,25 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>1153278</v>
+        <v>4532334</v>
       </c>
       <c r="C80">
-        <v>102.2772259666548</v>
+        <v>257.2558746736293</v>
       </c>
       <c r="D80">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F80">
-        <v>11276</v>
+        <v>17618</v>
       </c>
       <c r="G80" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H80" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3030,25 +3039,25 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>4091049</v>
+        <v>1798173</v>
       </c>
       <c r="C81">
-        <v>107.6138731060606</v>
+        <v>167.2407924107143</v>
       </c>
       <c r="D81">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F81">
-        <v>38016</v>
+        <v>10752</v>
       </c>
       <c r="G81" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3056,25 +3065,25 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>2297069</v>
+        <v>360260</v>
       </c>
       <c r="C82">
-        <v>1903.122618061309</v>
-      </c>
-      <c r="D82">
-        <v>12</v>
+        <v>15.26072775024357</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F82">
-        <v>1207</v>
+        <v>23607</v>
       </c>
       <c r="G82" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H82" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3082,25 +3091,25 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>4222254</v>
+        <v>986667</v>
       </c>
       <c r="C83">
-        <v>186.7262515478507</v>
-      </c>
-      <c r="D83">
-        <v>50</v>
+        <v>48.1935720216871</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F83">
-        <v>22612</v>
+        <v>20473</v>
       </c>
       <c r="G83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H83" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3108,25 +3117,25 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>4981758</v>
+        <v>218445</v>
       </c>
       <c r="C84">
-        <v>138.7328524882342</v>
+        <v>13.8247579267135</v>
       </c>
       <c r="D84" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F84">
-        <v>35909</v>
+        <v>15801</v>
       </c>
       <c r="G84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3134,25 +3143,25 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>1751561</v>
+        <v>1322365</v>
       </c>
       <c r="C85">
-        <v>155.1014787921721</v>
-      </c>
-      <c r="D85">
-        <v>46</v>
+        <v>562.7085106382979</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F85">
-        <v>11293</v>
+        <v>2350</v>
       </c>
       <c r="G85" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3160,25 +3169,25 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>1142875</v>
+        <v>2004838</v>
       </c>
       <c r="C86">
-        <v>87.4158635459691</v>
+        <v>371.1975560081466</v>
       </c>
       <c r="D86">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F86">
-        <v>13074</v>
+        <v>5401</v>
       </c>
       <c r="G86" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H86" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3186,25 +3195,25 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>572848</v>
+        <v>3620201</v>
       </c>
       <c r="C87">
-        <v>186.0500162390387</v>
+        <v>1272.478383128295</v>
       </c>
       <c r="D87">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E87" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F87">
-        <v>3079</v>
+        <v>2845</v>
       </c>
       <c r="G87" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H87" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3212,25 +3221,25 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1826114</v>
+        <v>4214956</v>
       </c>
       <c r="C88">
-        <v>102.2918440510867</v>
+        <v>135.7692382026091</v>
       </c>
       <c r="D88">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E88" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F88">
-        <v>17852</v>
+        <v>31045</v>
       </c>
       <c r="G88" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H88" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3238,25 +3247,25 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>1368546</v>
+        <v>3272998</v>
       </c>
       <c r="C89">
-        <v>41.1271186440678</v>
+        <v>638.2601404056162</v>
       </c>
       <c r="D89">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E89" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F89">
-        <v>33276</v>
+        <v>5128</v>
       </c>
       <c r="G89" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H89" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3264,25 +3273,25 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>4679842</v>
+        <v>3453533</v>
       </c>
       <c r="C90">
-        <v>125.1930659960943</v>
+        <v>248.867406499964</v>
       </c>
       <c r="D90">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E90" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F90">
-        <v>37381</v>
+        <v>13877</v>
       </c>
       <c r="G90" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H90" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3290,25 +3299,25 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2273880</v>
+        <v>2952759</v>
       </c>
       <c r="C91">
-        <v>69.55888650963597</v>
-      </c>
-      <c r="D91">
-        <v>25</v>
+        <v>794.3930589184827</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F91">
-        <v>32690</v>
+        <v>3717</v>
       </c>
       <c r="G91" t="s">
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3316,25 +3325,25 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1528865</v>
+        <v>4832342</v>
       </c>
       <c r="C92">
-        <v>49.01150862345323</v>
+        <v>184.8002600481854</v>
       </c>
       <c r="D92">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E92" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F92">
-        <v>31194</v>
+        <v>26149</v>
       </c>
       <c r="G92" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="H92" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3342,25 +3351,25 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>991978</v>
+        <v>581934</v>
       </c>
       <c r="C93">
-        <v>41.78684864568853</v>
+        <v>24.78635318170202</v>
       </c>
       <c r="D93" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F93">
-        <v>23739</v>
+        <v>23478</v>
       </c>
       <c r="G93" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H93" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3368,25 +3377,25 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>4559308</v>
+        <v>2580884</v>
       </c>
       <c r="C94">
-        <v>1177.811418238181</v>
-      </c>
-      <c r="D94">
-        <v>999</v>
+        <v>77.51566301246433</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F94">
-        <v>3871</v>
+        <v>33295</v>
       </c>
       <c r="G94" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H94" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3394,25 +3403,25 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>4264145</v>
+        <v>1959503</v>
       </c>
       <c r="C95">
-        <v>753.7820399505038</v>
-      </c>
-      <c r="D95">
-        <v>17</v>
+        <v>71.47036510194405</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F95">
-        <v>5657</v>
+        <v>27417</v>
       </c>
       <c r="G95" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H95" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3420,25 +3429,25 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>3669913</v>
+        <v>4299679</v>
       </c>
       <c r="C96">
-        <v>2670.970160116448</v>
+        <v>485.8394350282486</v>
       </c>
       <c r="D96">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F96">
-        <v>1374</v>
+        <v>8850</v>
       </c>
       <c r="G96" t="s">
         <v>8</v>
       </c>
       <c r="H96" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3446,25 +3455,25 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3580273</v>
+        <v>3143852</v>
       </c>
       <c r="C97">
-        <v>370.6670462780826</v>
-      </c>
-      <c r="D97">
-        <v>999</v>
+        <v>98.3006691263836</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F97">
-        <v>9659</v>
+        <v>31982</v>
       </c>
       <c r="G97" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H97" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3472,25 +3481,25 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>3720336</v>
+        <v>1284840</v>
       </c>
       <c r="C98">
-        <v>114.3557618418221</v>
+        <v>45.21059854322812</v>
       </c>
       <c r="D98">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E98" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F98">
-        <v>32533</v>
+        <v>28419</v>
       </c>
       <c r="G98" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H98" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3498,25 +3507,25 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>333759</v>
+        <v>888300</v>
       </c>
       <c r="C99">
-        <v>33.8497971602434</v>
-      </c>
-      <c r="D99">
-        <v>999</v>
+        <v>201.0183299389002</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F99">
-        <v>9860</v>
+        <v>4419</v>
       </c>
       <c r="G99" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="H99" t="s">
-        <v>195</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3524,25 +3533,25 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>4709385</v>
+        <v>4445983</v>
       </c>
       <c r="C100">
-        <v>375.1900095602294</v>
-      </c>
-      <c r="D100">
-        <v>60</v>
+        <v>120.4090293575994</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F100">
-        <v>12552</v>
+        <v>36924</v>
       </c>
       <c r="G100" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H100" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/prototype/RGB.xlsx
+++ b/prototype/RGB.xlsx
@@ -14,609 +14,600 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="201">
-  <si>
-    <t>(1.3217410538654801,104.27181409541896)</t>
-  </si>
-  <si>
-    <t>Executive Condo</t>
-  </si>
-  <si>
-    <t>Park, Playground, Bus Stop, Market, Pool, Mall, MRT, Gym</t>
-  </si>
-  <si>
-    <t>Free Hold</t>
-  </si>
-  <si>
-    <t>(1.4578264381435682,104.49280105433851)</t>
-  </si>
-  <si>
-    <t>5 Room Flat</t>
-  </si>
-  <si>
-    <t>MRT, Mall, Market, Gym, Bus Stop, Playground, Pool</t>
-  </si>
-  <si>
-    <t>(1.307223716343131,104.6400907824246)</t>
-  </si>
-  <si>
-    <t>4 Room Flat</t>
-  </si>
-  <si>
-    <t>Park, Market, Playground, MRT, Mall, Pool, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.3426259593938485,104.5795591002795)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="198">
+  <si>
+    <t>(1.3497329896613266,104.29054361914957)</t>
+  </si>
+  <si>
+    <t>HDB</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Park, MRT, Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.4480798900983505,104.33062327546864)</t>
+  </si>
+  <si>
+    <t>Private Property</t>
+  </si>
+  <si>
+    <t>Bus Stop, Mall, Market, Park, MRT</t>
+  </si>
+  <si>
+    <t>Freehold</t>
+  </si>
+  <si>
+    <t>(1.4452497540770426,104.05181897320644)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Gym, Market</t>
+  </si>
+  <si>
+    <t>(1.3828476861269878,104.62034345604954)</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>(1.377364208829871,104.03381145956362)</t>
+  </si>
+  <si>
+    <t>Pool, Playground, Bus Stop, Gym, MRT</t>
+  </si>
+  <si>
+    <t>(1.4187245712465395,104.26372945473172)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Playground, Gym, Bus Stop, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.379899434977426,104.24704941491052)</t>
+  </si>
+  <si>
+    <t>Executive Condominium</t>
+  </si>
+  <si>
+    <t>Mall, MRT, Market, Bus Stop, Gym, Pool, Park, Playground</t>
+  </si>
+  <si>
+    <t>(1.4646058648451163,104.36094660737977)</t>
+  </si>
+  <si>
+    <t>Playground, Bus Stop, Pool, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.2739171604897082,104.12550991761196)</t>
+  </si>
+  <si>
+    <t>Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3941793461052991,104.4675027614531)</t>
+  </si>
+  <si>
+    <t>Mall</t>
+  </si>
+  <si>
+    <t>(1.2958511405072994,104.28550235673316)</t>
+  </si>
+  <si>
+    <t>Pool, Bus Stop, Park, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.2980125560018028,104.62696519785308)</t>
+  </si>
+  <si>
+    <t>Market, Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.3034408827623485,104.1463689808568)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, MRT, Playground</t>
+  </si>
+  <si>
+    <t>(1.401013700305174,104.34261571056005)</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>(1.46635478779118,104.35849310707046)</t>
+  </si>
+  <si>
+    <t>Market, Gym, MRT, Playground, Mall, Pool, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.4098161033829446,104.18148515396157)</t>
+  </si>
+  <si>
+    <t>Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.4490451904756276,104.12618413541762)</t>
+  </si>
+  <si>
+    <t>Bus Stop, MRT, Playground, Pool, Park, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.419266126690188,104.4372208701998)</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Pool, Market, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.3137887743788692,104.07596423899672)</t>
+  </si>
+  <si>
+    <t>Park, Market, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3524102254638943,104.07774139669608)</t>
+  </si>
+  <si>
+    <t>Park, Playground, Market, Pool, Mall, Gym, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2918131383481046,104.47637956652193)</t>
+  </si>
+  <si>
+    <t>MRT, Bus Stop, Playground, Gym</t>
+  </si>
+  <si>
+    <t>(1.3379563499975682,104.48687223265087)</t>
+  </si>
+  <si>
+    <t>Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.30602166300159,104.33026135374288)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Bus Stop, Mall, Park, Pool</t>
+  </si>
+  <si>
+    <t>(1.4313744090152118,104.398782569425)</t>
+  </si>
+  <si>
+    <t>Mall, MRT, Playground, Pool, Market, Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.4165341288815294,104.36194094290585)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Playground, Pool, Market, Park, Bus Stop, Mall</t>
+  </si>
+  <si>
+    <t>(1.3736757768848342,104.3629621083129)</t>
+  </si>
+  <si>
+    <t>Mall, Gym</t>
+  </si>
+  <si>
+    <t>(1.4613959296824226,104.57651481542784)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2959379527670327,104.33293680807373)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.4101433549029185,104.18373302492242)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Market, Mall, Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.4461785899287927,104.25297489111674)</t>
+  </si>
+  <si>
+    <t>Playground, MRT, Gym</t>
+  </si>
+  <si>
+    <t>(1.281442421416227,104.34433829891977)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.3220955282269304,104.23066286879225)</t>
+  </si>
+  <si>
+    <t>Pool, Mall, Gym, Playground, Bus Stop, MRT, Market, Park</t>
+  </si>
+  <si>
+    <t>(1.4212098627319703,104.45073073377337)</t>
+  </si>
+  <si>
+    <t>Playground, Market, Gym, Bus Stop, MRT, Park, Mall</t>
+  </si>
+  <si>
+    <t>(1.3239670565514512,104.2789071480478)</t>
+  </si>
+  <si>
+    <t>Pool, Park, MRT, Bus Stop, Playground, Market, Gym, Mall</t>
+  </si>
+  <si>
+    <t>(1.3406068510469882,104.2446424713932)</t>
+  </si>
+  <si>
+    <t>Mall, MRT, Bus Stop, Playground</t>
+  </si>
+  <si>
+    <t>(1.4097929084247893,104.02914163022528)</t>
+  </si>
+  <si>
+    <t>Park, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.3156031719164831,104.37929833413828)</t>
+  </si>
+  <si>
+    <t>Market, MRT, Gym, Bus Stop, Pool</t>
+  </si>
+  <si>
+    <t>(1.442683808136753,104.42025874627107)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Playground, Mall, Bus Stop, Market, Pool</t>
+  </si>
+  <si>
+    <t>(1.2700408592304255,104.35441085050925)</t>
+  </si>
+  <si>
+    <t>Pool, Mall, Gym</t>
+  </si>
+  <si>
+    <t>(1.430914937344005,104.61282012346432)</t>
+  </si>
+  <si>
+    <t>Gym, Pool, Bus Stop, MRT, Playground, Park</t>
+  </si>
+  <si>
+    <t>(1.307604147705544,104.19677038731605)</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>(1.348047315313424,104.62352968243714)</t>
+  </si>
+  <si>
+    <t>Bus Stop, MRT, Park, Pool, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.3683800879979253,104.41424886810987)</t>
   </si>
   <si>
     <t>Pool</t>
   </si>
   <si>
-    <t>(1.3868360460111502,104.27678575789297)</t>
-  </si>
-  <si>
-    <t>3 Room Flat</t>
-  </si>
-  <si>
-    <t>Playground, Park</t>
-  </si>
-  <si>
-    <t>(1.4113977625941172,104.09386048875098)</t>
-  </si>
-  <si>
-    <t>Terrace</t>
-  </si>
-  <si>
-    <t>Bus Stop, Market, Pool, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.2777102797875535,104.5988562019776)</t>
-  </si>
-  <si>
-    <t>Market, Gym, Pool, Bus Stop, Park, Mall, Playground</t>
-  </si>
-  <si>
-    <t>(1.3927823717792351,104.49012378664301)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Gym, MRT, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.3293531793391027,104.45399421717958)</t>
-  </si>
-  <si>
-    <t>Shophouse</t>
-  </si>
-  <si>
-    <t>Pool, Market</t>
-  </si>
-  <si>
-    <t>(1.433674260413089,104.0443302207795)</t>
-  </si>
-  <si>
-    <t>Gym, Market, Bus Stop, Playground, Pool, Mall, MRT</t>
-  </si>
-  <si>
-    <t>(1.4386378756087306,104.05615957323228)</t>
-  </si>
-  <si>
-    <t>Mansion</t>
-  </si>
-  <si>
-    <t>Bus Stop, Mall, Playground, MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.3762803510669832,104.61017236254577)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Market, Park, Pool</t>
-  </si>
-  <si>
-    <t>(1.3050055056158634,104.06738912986637)</t>
-  </si>
-  <si>
-    <t>Mall, Park, MRT, Gym, Pool</t>
-  </si>
-  <si>
-    <t>(1.458631446763417,104.15108059227195)</t>
-  </si>
-  <si>
-    <t>Mall, Market, Gym, Playground, Pool, Park, MRT, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4049962827387006,104.46478710024387)</t>
-  </si>
-  <si>
-    <t>Mall, Pool, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.3327200632907292,104.60520502499328)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.416590265475539,104.57579580813882)</t>
-  </si>
-  <si>
-    <t>MRT</t>
-  </si>
-  <si>
-    <t>(1.4416536577716952,104.15904596552262)</t>
-  </si>
-  <si>
-    <t>Private Condo</t>
-  </si>
-  <si>
-    <t>Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4624977368523715,104.16329544378635)</t>
-  </si>
-  <si>
-    <t>(1.3184063287977201,104.55242770745309)</t>
-  </si>
-  <si>
-    <t>(1.404591556541349,104.59894319393808)</t>
-  </si>
-  <si>
-    <t>Gym</t>
-  </si>
-  <si>
-    <t>(1.2910428073914058,104.49569172801965)</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Bus Stop, MRT, Gym, Pool, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.298773753308161,104.19532912128595)</t>
-  </si>
-  <si>
-    <t>(1.43750131553675,104.48712191119985)</t>
-  </si>
-  <si>
-    <t>Mall, Pool, Gym, MRT, Market, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.2899521794952746,104.57007976843109)</t>
-  </si>
-  <si>
-    <t>Playground, Gym, Bus Stop, Pool, Market, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.4372597509393024,104.29797899195846)</t>
-  </si>
-  <si>
-    <t>Bungalow</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Gym, MRT, Market, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.280239424717622,104.53102553814621)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, MRT, Park, Market, Gym</t>
-  </si>
-  <si>
-    <t>(1.442443918909462,104.27886979978943)</t>
-  </si>
-  <si>
-    <t>Gym, Bus Stop, Playground, Mall, Park, MRT, Pool, Market</t>
-  </si>
-  <si>
-    <t>(1.3523553565476836,104.5041755135612)</t>
-  </si>
-  <si>
-    <t>Gym, Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.397230504847218,104.49215768276379)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Playground, Market, Bus Stop, Mall</t>
-  </si>
-  <si>
-    <t>(1.4217175814636769,104.20962226477207)</t>
-  </si>
-  <si>
-    <t>Market, Pool, Mall, MRT, Playground, Bus Stop, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.3796170716405185,104.27278291183336)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Mall</t>
-  </si>
-  <si>
-    <t>(1.3016015855818353,104.19310100488919)</t>
-  </si>
-  <si>
-    <t>MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.381156275043274,104.56892678476251)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Park, Playground, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.4083229358057392,104.34971439069645)</t>
-  </si>
-  <si>
-    <t>Park, Market, Mall, Pool, Bus Stop, Gym, MRT, Playground</t>
-  </si>
-  <si>
-    <t>(1.365377358233594,104.40886081284718)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Market, Bus Stop, Playground, Park, Mall</t>
-  </si>
-  <si>
-    <t>(1.355040483777655,104.25867287972326)</t>
-  </si>
-  <si>
-    <t>Pool, Gym, Mall</t>
-  </si>
-  <si>
-    <t>(1.4576033654051088,104.46692850658607)</t>
-  </si>
-  <si>
-    <t>Pool, Bus Stop, Gym, Playground</t>
-  </si>
-  <si>
-    <t>(1.332809486912252,104.44012850363606)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Market, Park, Gym, Mall, MRT</t>
-  </si>
-  <si>
-    <t>(1.3685327707231143,104.47741881791875)</t>
-  </si>
-  <si>
-    <t>Pool, MRT, Gym, Bus Stop, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.3516323775147239,104.15914668481399)</t>
-  </si>
-  <si>
-    <t>Mall</t>
-  </si>
-  <si>
-    <t>(1.4132375978477263,104.07234605755315)</t>
-  </si>
-  <si>
-    <t>Playground, Bus Stop, Market, Mall, Gym</t>
-  </si>
-  <si>
-    <t>(1.4098089396876716,104.52258573516266)</t>
-  </si>
-  <si>
-    <t>Playground, Pool, Park, Gym, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.2915064384363186,104.47660745004767)</t>
-  </si>
-  <si>
-    <t>Park, Mall, Market, Gym, Pool, Bus Stop, MRT</t>
-  </si>
-  <si>
-    <t>(1.3201228631302029,104.27984567636943)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Market, Gym</t>
-  </si>
-  <si>
-    <t>(1.353163234678874,104.12436552607527)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Playground, Pool, Mall, Park, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.3547573391666874,104.47704667385109)</t>
-  </si>
-  <si>
-    <t>MRT, Mall, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.393145151359821,104.10139567850698)</t>
-  </si>
-  <si>
-    <t>Pool, Playground, Mall, MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.4515720708995037,104.07673716762729)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Park, Mall</t>
-  </si>
-  <si>
-    <t>(1.3100254145528558,104.16286700772125)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Mall, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3420838114794489,104.39839802309903)</t>
-  </si>
-  <si>
-    <t>Gym, MRT, Park, Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.3869986035749229,104.31611390580704)</t>
-  </si>
-  <si>
-    <t>(1.391337764392163,104.64064539270215)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.3701157247438236,104.3458470645681)</t>
-  </si>
-  <si>
-    <t>Pool, Mall, Gym, MRT, Market</t>
-  </si>
-  <si>
-    <t>(1.4133052896682734,104.48419667553917)</t>
-  </si>
-  <si>
-    <t>MRT, Park, Mall, Playground, Bus Stop, Gym, Market, Pool</t>
-  </si>
-  <si>
-    <t>(1.3884314642916382,104.43342566755695)</t>
-  </si>
-  <si>
-    <t>Playground, Mall, Bus Stop, Pool</t>
-  </si>
-  <si>
-    <t>(1.372389510519124,104.47275935274372)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Gym, Playground, Mall, Pool, Park, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3789620547482155,104.53291705533378)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Market, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2774042985438314,104.13084407613232)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Playground, Mall, Gym, Market, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3959808416234083,104.43385618058207)</t>
-  </si>
-  <si>
-    <t>Park, Pool, Mall, Gym, MRT, Market, Playground</t>
-  </si>
-  <si>
-    <t>(1.3341570230866586,104.11502889838901)</t>
-  </si>
-  <si>
-    <t>Gym, Playground, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.3965852551074636,104.36975919930319)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, MRT</t>
-  </si>
-  <si>
-    <t>(1.4455541988990104,104.09901252880668)</t>
-  </si>
-  <si>
-    <t>(1.3567355217807868,104.2977213523106)</t>
-  </si>
-  <si>
-    <t>Market, Bus Stop, Gym, Mall, Park</t>
-  </si>
-  <si>
-    <t>(1.3878089409381265,104.08537786386142)</t>
-  </si>
-  <si>
-    <t>Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.4090441098911466,104.21381175440054)</t>
-  </si>
-  <si>
-    <t>(1.4623044449422677,104.22258200685427)</t>
-  </si>
-  <si>
-    <t>Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.3238747038522458,104.61065643412437)</t>
-  </si>
-  <si>
-    <t>Mall, Market, Playground, Bus Stop, Gym, Pool</t>
-  </si>
-  <si>
-    <t>(1.2769690448397522,104.62467744529322)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Playground, Mall, Gym</t>
-  </si>
-  <si>
-    <t>(1.4550871229950497,104.2375469932883)</t>
-  </si>
-  <si>
-    <t>Mall, Park</t>
-  </si>
-  <si>
-    <t>(1.2806957842774251,104.09705914201402)</t>
-  </si>
-  <si>
-    <t>Park, MRT</t>
-  </si>
-  <si>
-    <t>(1.311116401415026,104.39754852526993)</t>
-  </si>
-  <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>(1.2734308348617114,104.37906267222691)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Playground, Gym, Pool, Park, MRT</t>
-  </si>
-  <si>
-    <t>(1.3654887032151937,104.5965536374197)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Bus Stop, Mall, Playground, Pool, Market, MRT</t>
-  </si>
-  <si>
-    <t>(1.2967880942591679,104.31661010393515)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, Mall, Gym, Market, Playground</t>
-  </si>
-  <si>
-    <t>(1.333177709639175,104.44984880820179)</t>
-  </si>
-  <si>
-    <t>(1.3102967347660446,104.39490863317447)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Park, Bus Stop, Gym, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.331553229158701,104.09957165388633)</t>
-  </si>
-  <si>
-    <t>Pool, MRT, Market, Playground, Park, Gym, Mall</t>
-  </si>
-  <si>
-    <t>(1.3876418719075332,104.10859469087589)</t>
-  </si>
-  <si>
-    <t>Gym, Bus Stop, MRT</t>
-  </si>
-  <si>
-    <t>(1.3566442230537534,104.19558448876934)</t>
-  </si>
-  <si>
-    <t>Bus Stop, MRT, Playground, Gym</t>
-  </si>
-  <si>
-    <t>(1.4649461048450507,104.42446927295859)</t>
-  </si>
-  <si>
-    <t>Mall, MRT, Park, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3693354196982173,104.49205529067609)</t>
-  </si>
-  <si>
-    <t>(1.4092228032907854,104.34785623945605)</t>
-  </si>
-  <si>
-    <t>Park, Pool, Mall, Gym, Bus Stop, Market, Playground, MRT</t>
-  </si>
-  <si>
-    <t>(1.2909627886397017,104.21960199225914)</t>
+    <t>(1.3887283890771733,104.3076324059941)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Gym, Park, Pool, MRT, Playground</t>
+  </si>
+  <si>
+    <t>(1.295129696892396,104.46007571117838)</t>
+  </si>
+  <si>
+    <t>Gym, Playground</t>
+  </si>
+  <si>
+    <t>(1.3219434455925771,104.4624333612484)</t>
+  </si>
+  <si>
+    <t>(1.3043448706819203,104.15723540000836)</t>
+  </si>
+  <si>
+    <t>Mall, Playground</t>
+  </si>
+  <si>
+    <t>(1.3767199835218735,104.4066151560358)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Park, Gym, Market</t>
+  </si>
+  <si>
+    <t>(1.3962328811352676,104.29196279733205)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Playground, Pool, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3835597847632566,104.34212421942115)</t>
+  </si>
+  <si>
+    <t>Market, Park, Mall, Pool, Bus Stop, Gym, Playground</t>
+  </si>
+  <si>
+    <t>(1.4126126767220906,104.48208971464537)</t>
+  </si>
+  <si>
+    <t>Mall, Pool</t>
+  </si>
+  <si>
+    <t>(1.4115490938238566,104.13713840321884)</t>
   </si>
   <si>
     <t>Market, Playground, Mall</t>
   </si>
   <si>
-    <t>(1.279430520916184,104.14784017828158)</t>
-  </si>
-  <si>
-    <t>Playground, MRT, Bus Stop, Mall, Market, Gym, Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.3549375707132403,104.47111964121626)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Gym, Playground, Market</t>
-  </si>
-  <si>
-    <t>(1.4134479567726055,104.32169674467187)</t>
-  </si>
-  <si>
-    <t>Market, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.4680607872445586,104.35570883158778)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.3741661518019996,104.03642634749994)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Market</t>
-  </si>
-  <si>
-    <t>(1.4336532546755114,104.0724321362383)</t>
-  </si>
-  <si>
-    <t>Bus Stop, MRT, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.2934089570179261,104.14562937743105)</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Market, Pool, Playground, MRT, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4175371388069749,104.32366014114854)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Gym, Pool, Market, Park, MRT</t>
-  </si>
-  <si>
-    <t>(1.309460580957579,104.25956757479814)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Pool, MRT, Playground, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.320992450346101,104.21400241022249)</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>(1.3633761733712224,104.61971620939919)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Gym, Mall, Market, MRT, Playground</t>
-  </si>
-  <si>
-    <t>(1.4043071828782638,104.31603436679535)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Market</t>
-  </si>
-  <si>
-    <t>(1.467021650755483,104.33793086007361)</t>
-  </si>
-  <si>
-    <t>Pool, Mall, Park, Playground, Market, Bus Stop, Gym, MRT</t>
-  </si>
-  <si>
-    <t>(1.4464231397906167,104.05762334240802)</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Bus Stop, Playground</t>
-  </si>
-  <si>
-    <t>(1.3063190163056282,104.14964029054653)</t>
-  </si>
-  <si>
-    <t>(1.3190404252026886,104.44775916551743)</t>
-  </si>
-  <si>
-    <t>Park, Mall, Bus Stop</t>
+    <t>(1.4284696078059822,104.48772605437412)</t>
+  </si>
+  <si>
+    <t>Park, MRT, Gym, Mall, Market, Playground, Pool, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.356778526810546,104.31426129561127)</t>
+  </si>
+  <si>
+    <t>Pool, Market, Playground, Park, Gym, Mall</t>
+  </si>
+  <si>
+    <t>(1.3901016544772684,104.22361448994096)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Playground, Market, Gym, MRT, Pool, Mall, Park</t>
+  </si>
+  <si>
+    <t>(1.3744318701148033,104.31015192198073)</t>
+  </si>
+  <si>
+    <t>(1.4049934426552777,104.41954207021477)</t>
+  </si>
+  <si>
+    <t>Park, Pool, Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2825884614308085,104.28540149391566)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Gym, Market, Park, MRT, Pool, Mall, Playground</t>
+  </si>
+  <si>
+    <t>(1.4150513191728427,104.49887496268883)</t>
+  </si>
+  <si>
+    <t>Gym, Playground, Market, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.431201393251852,104.09568178392091)</t>
+  </si>
+  <si>
+    <t>Playground, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.3077667951749556,104.4587144937679)</t>
+  </si>
+  <si>
+    <t>Market, Playground, Park</t>
+  </si>
+  <si>
+    <t>(1.2758307851942208,104.34590714598049)</t>
+  </si>
+  <si>
+    <t>(1.354877257537175,104.27754020493178)</t>
+  </si>
+  <si>
+    <t>Gym, Market, MRT, Mall, Pool, Park, Playground</t>
+  </si>
+  <si>
+    <t>(1.4637706842321216,104.34636345992115)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, Playground, MRT</t>
+  </si>
+  <si>
+    <t>(1.355467894254333,104.05773629522781)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop, Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.3413830058289087,104.24617417026506)</t>
+  </si>
+  <si>
+    <t>Market, MRT, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.326643305726175,104.08634419557583)</t>
+  </si>
+  <si>
+    <t>Gym, Mall, Park, Bus Stop, MRT, Playground</t>
+  </si>
+  <si>
+    <t>(1.2701523049065924,104.33850906519305)</t>
+  </si>
+  <si>
+    <t>Market, Park, Mall</t>
+  </si>
+  <si>
+    <t>(1.4471780668447753,104.10598128658346)</t>
+  </si>
+  <si>
+    <t>Mall, Market, MRT, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.457280121944153,104.05745855051931)</t>
+  </si>
+  <si>
+    <t>Pool, MRT, Gym, Bus Stop, Playground</t>
+  </si>
+  <si>
+    <t>(1.356535398734435,104.5950381264933)</t>
+  </si>
+  <si>
+    <t>Pool, Gym, Bus Stop, Park, Mall, Market, Playground</t>
+  </si>
+  <si>
+    <t>(1.3908324399807497,104.36003919306297)</t>
+  </si>
+  <si>
+    <t>Pool, Gym, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2740473350162422,104.2071641895767)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.3450720430512553,104.39933433597805)</t>
+  </si>
+  <si>
+    <t>Park, Pool, Playground, MRT</t>
+  </si>
+  <si>
+    <t>(1.4332856217590872,104.3022993250827)</t>
+  </si>
+  <si>
+    <t>Market, Pool, MRT, Mall, Playground, Bus Stop, Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.3056713089304988,104.48459151951644)</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Park</t>
+  </si>
+  <si>
+    <t>(1.33398824434839,104.16479068993856)</t>
+  </si>
+  <si>
+    <t>Market, Park</t>
+  </si>
+  <si>
+    <t>(1.376248465069042,104.3566095364475)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Market, Playground, Pool, MRT, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.3308512390931784,104.21873082307859)</t>
+  </si>
+  <si>
+    <t>(1.284255907015851,104.2242221408778)</t>
+  </si>
+  <si>
+    <t>Playground</t>
+  </si>
+  <si>
+    <t>(1.453214251305086,104.3237185287968)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.4213984870031322,104.17240497186535)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, Pool, Market, MRT, Mall, Playground, Gym</t>
+  </si>
+  <si>
+    <t>(1.314223012046777,104.38837713829463)</t>
+  </si>
+  <si>
+    <t>Market, MRT, Gym, Park, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.2864527542965958,104.21622500260905)</t>
+  </si>
+  <si>
+    <t>Gym, MRT, Mall, Park, Pool, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4660339913597553,104.59726031752022)</t>
+  </si>
+  <si>
+    <t>Playground, Gym, Bus Stop, MRT, Market, Pool, Mall, Park</t>
+  </si>
+  <si>
+    <t>(1.4678066289006781,104.26022934719218)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Mall, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.4172145744145768,104.44451860527512)</t>
+  </si>
+  <si>
+    <t>Mall, Pool, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3601700015655909,104.49988837984932)</t>
+  </si>
+  <si>
+    <t>Pool, Playground</t>
+  </si>
+  <si>
+    <t>(1.4091464048272488,104.47807182951247)</t>
+  </si>
+  <si>
+    <t>(1.3811442540049645,104.51714005729643)</t>
+  </si>
+  <si>
+    <t>Market, Mall, Bus Stop, Park, Playground, Pool, MRT, Gym</t>
+  </si>
+  <si>
+    <t>(1.2873617809818396,104.4958414160427)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Market, Park, Gym, MRT, Playground, Pool</t>
+  </si>
+  <si>
+    <t>(1.285941903066894,104.44155390618948)</t>
+  </si>
+  <si>
+    <t>Park, Playground, Bus Stop, Market, MRT, Mall, Pool, Gym</t>
+  </si>
+  <si>
+    <t>(1.4155745123031471,104.20379828348565)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.387319988265413,104.05343981502945)</t>
+  </si>
+  <si>
+    <t>Park, Playground, Gym, Market</t>
+  </si>
+  <si>
+    <t>(1.2713980984751079,104.2983456152791)</t>
+  </si>
+  <si>
+    <t>Playground, Pool, Market, Park, Mall, Gym, MRT, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3569749275621683,104.14176390460133)</t>
+  </si>
+  <si>
+    <t>Playground, Bus Stop, Gym, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.4563998274682373,104.63579088136967)</t>
+  </si>
+  <si>
+    <t>Market, Park, Playground</t>
+  </si>
+  <si>
+    <t>(1.30004254860773,104.60424119461553)</t>
+  </si>
+  <si>
+    <t>(1.3582811489878677,104.60782921037367)</t>
+  </si>
+  <si>
+    <t>Mall, Park, Market, Bus Stop, MRT</t>
+  </si>
+  <si>
+    <t>(1.3311788176945336,104.2402956692074)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop, Gym, Park, Playground, Mall</t>
   </si>
 </sst>
 </file>
@@ -959,19 +950,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>2920261</v>
+        <v>1632868</v>
       </c>
       <c r="C1">
-        <v>147.1016018537175</v>
+        <v>78.00076430686921</v>
       </c>
       <c r="D1">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1">
-        <v>19852</v>
+        <v>20934</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -985,25 +976,25 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>761328</v>
+        <v>2169809</v>
       </c>
       <c r="C2">
-        <v>25.63825559858562</v>
-      </c>
-      <c r="D2" t="s">
+        <v>79.41327819053545</v>
+      </c>
+      <c r="D2">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>27323</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>29695</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1011,25 +1002,25 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1187992</v>
+        <v>3392672</v>
       </c>
       <c r="C3">
-        <v>80.74986405655247</v>
+        <v>174.2960184947341</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3">
-        <v>14712</v>
+        <v>19465</v>
       </c>
       <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1037,25 +1028,25 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3457979</v>
+        <v>1886654</v>
       </c>
       <c r="C4">
-        <v>113.4842637261659</v>
+        <v>117.6511598902469</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>16036</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4">
-        <v>30471</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1063,25 +1054,25 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3414391</v>
+        <v>2534458</v>
       </c>
       <c r="C5">
-        <v>226.1785241123476</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
+        <v>79.80785338665491</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>31757</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
-      </c>
-      <c r="F5">
-        <v>15096</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1089,25 +1080,25 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>134354</v>
+        <v>4213712</v>
       </c>
       <c r="C6">
-        <v>32.14210526315789</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
+        <v>1077.124744376278</v>
+      </c>
+      <c r="D6">
+        <v>999</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>4180</v>
+        <v>3912</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1115,25 +1106,25 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>813011</v>
+        <v>2085063</v>
       </c>
       <c r="C7">
-        <v>51.73142020870451</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
+        <v>54.38490831790083</v>
+      </c>
+      <c r="D7">
+        <v>999</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>15716</v>
+        <v>38339</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1141,25 +1132,25 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>581408</v>
+        <v>2195976</v>
       </c>
       <c r="C8">
-        <v>15.39623440934248</v>
+        <v>192.4100587049855</v>
       </c>
       <c r="D8">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>37763</v>
+        <v>11413</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1167,25 +1158,25 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2053702</v>
+        <v>2430018</v>
       </c>
       <c r="C9">
-        <v>87.97558259081563</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
+        <v>270.5732101102327</v>
+      </c>
+      <c r="D9">
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>23344</v>
+        <v>8981</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1193,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1105579</v>
+        <v>3034609</v>
       </c>
       <c r="C10">
-        <v>38.14972394755004</v>
+        <v>88.53193103247075</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>28980</v>
+        <v>34277</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1219,25 +1210,25 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>3567623</v>
+        <v>2404895</v>
       </c>
       <c r="C11">
-        <v>3168.404085257549</v>
+        <v>73.84226848440187</v>
       </c>
       <c r="D11">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11">
-        <v>1126</v>
+        <v>32568</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1245,25 +1236,25 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>4740240</v>
+        <v>1749065</v>
       </c>
       <c r="C12">
-        <v>401.7152542372881</v>
+        <v>193.1601325234677</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>11800</v>
+        <v>9055</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1271,25 +1262,25 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>631745</v>
+        <v>4907255</v>
       </c>
       <c r="C13">
-        <v>257.5397472482674</v>
+        <v>1351.116464757709</v>
       </c>
       <c r="D13">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F13">
-        <v>2453</v>
+        <v>3632</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1297,25 +1288,25 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4641002</v>
+        <v>1156371</v>
       </c>
       <c r="C14">
-        <v>224.0082054252341</v>
-      </c>
-      <c r="D14">
-        <v>99</v>
+        <v>41.65151460577027</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>20718</v>
+        <v>27763</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1323,25 +1314,25 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>3634037</v>
+        <v>4588469</v>
       </c>
       <c r="C15">
-        <v>113.2239842971087</v>
+        <v>970.6936746350751</v>
       </c>
       <c r="D15">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>32096</v>
+        <v>4727</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1349,25 +1340,25 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2282186</v>
+        <v>3697349</v>
       </c>
       <c r="C16">
-        <v>123.4147739563054</v>
+        <v>220.6055489260143</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>18492</v>
+        <v>16760</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1375,25 +1366,25 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1803730</v>
+        <v>351978</v>
       </c>
       <c r="C17">
-        <v>59.38205761316873</v>
-      </c>
-      <c r="D17">
-        <v>99</v>
+        <v>18.10679561705849</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>30375</v>
+        <v>19439</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1401,25 +1392,25 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1187728</v>
+        <v>573201</v>
       </c>
       <c r="C18">
-        <v>223.5933734939759</v>
+        <v>42.83693296465137</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>5312</v>
+        <v>13381</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1427,25 +1418,25 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>3908609</v>
+        <v>437648</v>
       </c>
       <c r="C19">
-        <v>1732.53945035461</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
+        <v>31.47867366755376</v>
+      </c>
+      <c r="D19">
+        <v>999</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>2256</v>
+        <v>13903</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1453,25 +1444,25 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>455639</v>
+        <v>684012</v>
       </c>
       <c r="C20">
-        <v>15.41091118176284</v>
-      </c>
-      <c r="D20">
-        <v>99</v>
+        <v>283.9402241594022</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>29566</v>
+        <v>2409</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1479,25 +1470,25 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>4115101</v>
+        <v>4916238</v>
       </c>
       <c r="C21">
-        <v>217.1901092521244</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
+        <v>1321.214189733942</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F21">
-        <v>18947</v>
+        <v>3721</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1505,25 +1496,25 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1609232</v>
+        <v>4059465</v>
       </c>
       <c r="C22">
-        <v>43.78505156041684</v>
+        <v>177.3234176385795</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F22">
-        <v>36753</v>
+        <v>22893</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1531,25 +1522,25 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>561510</v>
+        <v>4608785</v>
       </c>
       <c r="C23">
-        <v>291.8451143451143</v>
-      </c>
-      <c r="D23">
-        <v>99</v>
+        <v>128.9783953208519</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F23">
-        <v>1924</v>
+        <v>35733</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1557,25 +1548,25 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>3738465</v>
+        <v>4891556</v>
       </c>
       <c r="C24">
-        <v>97.00723960765997</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
+        <v>145.9948067452619</v>
+      </c>
+      <c r="D24">
+        <v>999</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24">
-        <v>38538</v>
+        <v>33505</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1583,25 +1574,25 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>291516</v>
+        <v>1530006</v>
       </c>
       <c r="C25">
-        <v>21.17498365657006</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
+        <v>56.52035463612856</v>
+      </c>
+      <c r="D25">
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F25">
-        <v>13767</v>
+        <v>27070</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1609,25 +1600,25 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>829814</v>
+        <v>3134958</v>
       </c>
       <c r="C26">
-        <v>24.74028800572434</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
+        <v>218.9828164291702</v>
+      </c>
+      <c r="D26">
+        <v>999</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F26">
-        <v>33541</v>
+        <v>14316</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1635,25 +1626,25 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>3954563</v>
+        <v>4490541</v>
       </c>
       <c r="C27">
-        <v>215.9665228551144</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
+        <v>292.7150120591878</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F27">
-        <v>18311</v>
+        <v>15341</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1661,25 +1652,25 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2505013</v>
+        <v>231306</v>
       </c>
       <c r="C28">
-        <v>75.47948053513318</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
+        <v>7.223120881866159</v>
+      </c>
+      <c r="D28">
+        <v>999</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F28">
-        <v>33188</v>
+        <v>32023</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1687,25 +1678,25 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2076106</v>
+        <v>2175486</v>
       </c>
       <c r="C29">
-        <v>106.7296936047707</v>
+        <v>61.90734469707749</v>
       </c>
       <c r="D29">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F29">
-        <v>19452</v>
+        <v>35141</v>
       </c>
       <c r="G29" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1713,25 +1704,25 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>108712</v>
+        <v>2973782</v>
       </c>
       <c r="C30">
-        <v>2.89112281261635</v>
-      </c>
-      <c r="D30">
-        <v>99</v>
+        <v>98.21268866210906</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F30">
-        <v>37602</v>
+        <v>30279</v>
       </c>
       <c r="G30" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1739,25 +1730,25 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>448852</v>
+        <v>1401712</v>
       </c>
       <c r="C31">
-        <v>15.38745286253</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
+        <v>118.2779512277445</v>
+      </c>
+      <c r="D31">
+        <v>999</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F31">
-        <v>29170</v>
+        <v>11851</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1765,25 +1756,25 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>3409264</v>
+        <v>4670935</v>
       </c>
       <c r="C32">
-        <v>99.36648207519674</v>
+        <v>361.4435502592277</v>
       </c>
       <c r="D32">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F32">
-        <v>34310</v>
+        <v>12923</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1791,25 +1782,25 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1002783</v>
+        <v>4288216</v>
       </c>
       <c r="C33">
-        <v>85.09699592668025</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
+        <v>225.9810286677909</v>
+      </c>
+      <c r="D33">
+        <v>999</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F33">
-        <v>11784</v>
+        <v>18976</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1817,25 +1808,25 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1792286</v>
+        <v>3640725</v>
       </c>
       <c r="C34">
-        <v>123.9907298512625</v>
+        <v>96.66069295101553</v>
       </c>
       <c r="D34">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F34">
-        <v>14455</v>
+        <v>37665</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1843,25 +1834,25 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1312866</v>
+        <v>3086387</v>
       </c>
       <c r="C35">
-        <v>158.9233748940806</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
+        <v>528.853152844414</v>
+      </c>
+      <c r="D35">
+        <v>999</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F35">
-        <v>8261</v>
+        <v>5836</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1869,25 +1860,25 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2479799</v>
+        <v>3281410</v>
       </c>
       <c r="C36">
-        <v>118.5032495460193</v>
-      </c>
-      <c r="D36">
-        <v>99</v>
+        <v>94.03398670334708</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F36">
-        <v>20926</v>
+        <v>34896</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1895,25 +1886,25 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1205737</v>
+        <v>4684166</v>
       </c>
       <c r="C37">
-        <v>62.35388116046957</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
+        <v>487.8323265986253</v>
+      </c>
+      <c r="D37">
+        <v>999</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F37">
-        <v>19337</v>
+        <v>9602</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1921,25 +1912,25 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>4552234</v>
+        <v>777899</v>
       </c>
       <c r="C38">
-        <v>119.3778092465843</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3</v>
+        <v>42.64797149122807</v>
+      </c>
+      <c r="D38">
+        <v>999</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F38">
-        <v>38133</v>
+        <v>18240</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1947,25 +1938,25 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1997096</v>
+        <v>2917188</v>
       </c>
       <c r="C39">
-        <v>1514.098559514784</v>
+        <v>3838.405263157895</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F39">
-        <v>1319</v>
+        <v>760</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1973,25 +1964,25 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>4831622</v>
+        <v>2211130</v>
       </c>
       <c r="C40">
-        <v>307.9035177160337</v>
+        <v>90.48287432990956</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F40">
-        <v>15692</v>
+        <v>24437</v>
       </c>
       <c r="G40" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1999,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>3074897</v>
+        <v>1567912</v>
       </c>
       <c r="C41">
-        <v>178.0278485409912</v>
-      </c>
-      <c r="D41">
-        <v>99</v>
+        <v>153.8073376495978</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F41">
-        <v>17272</v>
+        <v>10194</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2025,25 +2016,25 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>3972332</v>
+        <v>4622292</v>
       </c>
       <c r="C42">
-        <v>259.4599608099281</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
+        <v>664.5998562185478</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F42">
-        <v>15310</v>
+        <v>6955</v>
       </c>
       <c r="G42" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2051,25 +2042,25 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>815095</v>
+        <v>1106666</v>
       </c>
       <c r="C43">
-        <v>35.57657893588232</v>
-      </c>
-      <c r="D43">
-        <v>99</v>
+        <v>28.73785348879483</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F43">
-        <v>22911</v>
+        <v>38509</v>
       </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2077,25 +2068,25 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1269882</v>
+        <v>405005</v>
       </c>
       <c r="C44">
-        <v>55.36632368329264</v>
+        <v>11.11124828532236</v>
       </c>
       <c r="D44">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F44">
-        <v>22936</v>
+        <v>36450</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2103,25 +2094,25 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>4856083</v>
+        <v>535969</v>
       </c>
       <c r="C45">
-        <v>1810.620059656972</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3</v>
+        <v>22.03638681029521</v>
+      </c>
+      <c r="D45">
+        <v>999</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F45">
-        <v>2682</v>
+        <v>24322</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2129,25 +2120,25 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1037381</v>
+        <v>1312392</v>
       </c>
       <c r="C46">
-        <v>71.87563223169127</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3</v>
+        <v>35.428879950328</v>
+      </c>
+      <c r="D46">
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F46">
-        <v>14433</v>
+        <v>37043</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2155,25 +2146,25 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>134942</v>
+        <v>895644</v>
       </c>
       <c r="C47">
-        <v>4.175056464837103</v>
+        <v>112.673795445968</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F47">
-        <v>32321</v>
+        <v>7949</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2181,25 +2172,25 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>3365039</v>
+        <v>2722443</v>
       </c>
       <c r="C48">
-        <v>350.1237124128602</v>
+        <v>168.1558369363805</v>
       </c>
       <c r="D48">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F48">
-        <v>9611</v>
+        <v>16190</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2207,25 +2198,25 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2615706</v>
+        <v>390330</v>
       </c>
       <c r="C49">
-        <v>80.36456925156692</v>
+        <v>200.3747433264887</v>
       </c>
       <c r="D49">
+        <v>999</v>
+      </c>
+      <c r="E49" t="s">
         <v>99</v>
       </c>
-      <c r="E49" t="s">
-        <v>103</v>
-      </c>
       <c r="F49">
-        <v>32548</v>
+        <v>1948</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2233,25 +2224,25 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3295005</v>
+        <v>915266</v>
       </c>
       <c r="C50">
-        <v>187.3865445859873</v>
-      </c>
-      <c r="D50" t="s">
-        <v>3</v>
+        <v>188.6757369614512</v>
+      </c>
+      <c r="D50">
+        <v>999</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F50">
-        <v>17584</v>
+        <v>4851</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2259,25 +2250,25 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1448162</v>
+        <v>771723</v>
       </c>
       <c r="C51">
-        <v>119.3966526506719</v>
+        <v>26.4288698630137</v>
       </c>
       <c r="D51">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F51">
-        <v>12129</v>
+        <v>29200</v>
       </c>
       <c r="G51" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2285,25 +2276,25 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>390642</v>
+        <v>3014156</v>
       </c>
       <c r="C52">
-        <v>13.47924502260101</v>
+        <v>340.4287327761464</v>
       </c>
       <c r="D52">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F52">
-        <v>28981</v>
+        <v>8854</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2311,25 +2302,25 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>2994343</v>
+        <v>3618957</v>
       </c>
       <c r="C53">
-        <v>263.8885167885785</v>
+        <v>97.40161485668148</v>
       </c>
       <c r="D53">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F53">
-        <v>11347</v>
+        <v>37155</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2337,25 +2328,25 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3012640</v>
+        <v>2704595</v>
       </c>
       <c r="C54">
-        <v>126.8693674724164</v>
-      </c>
-      <c r="D54" t="s">
-        <v>3</v>
+        <v>435.2421950434503</v>
+      </c>
+      <c r="D54">
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F54">
-        <v>23746</v>
+        <v>6214</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2363,25 +2354,25 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>2725514</v>
+        <v>4908085</v>
       </c>
       <c r="C55">
-        <v>197.2722929936306</v>
-      </c>
-      <c r="D55" t="s">
-        <v>3</v>
+        <v>127.4496234744222</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>13816</v>
+        <v>38510</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
       </c>
       <c r="H55" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2389,25 +2380,25 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3480765</v>
+        <v>3688725</v>
       </c>
       <c r="C56">
-        <v>695.7355586648011</v>
+        <v>154.5145143048632</v>
       </c>
       <c r="D56">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F56">
-        <v>5003</v>
+        <v>23873</v>
       </c>
       <c r="G56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s">
         <v>23</v>
-      </c>
-      <c r="H56" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2415,25 +2406,25 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>477051</v>
+        <v>739165</v>
       </c>
       <c r="C57">
-        <v>109.9195852534562</v>
+        <v>57.50914183459115</v>
       </c>
       <c r="D57">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F57">
-        <v>4340</v>
+        <v>12853</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2441,25 +2432,25 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>471546</v>
+        <v>2958469</v>
       </c>
       <c r="C58">
-        <v>208.9260079751883</v>
+        <v>113.0437889266746</v>
       </c>
       <c r="D58">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F58">
-        <v>2257</v>
+        <v>26171</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2467,25 +2458,25 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>1767491</v>
+        <v>4690912</v>
       </c>
       <c r="C59">
-        <v>65.55732354141166</v>
+        <v>614.1544907043728</v>
       </c>
       <c r="D59">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F59">
-        <v>26961</v>
+        <v>7638</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2493,25 +2484,25 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1171111</v>
+        <v>1419018</v>
       </c>
       <c r="C60">
-        <v>66.0227195850716</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
+        <v>73.52043935547381</v>
+      </c>
+      <c r="D60">
+        <v>74</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F60">
-        <v>17738</v>
+        <v>19301</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2519,25 +2510,25 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>4700406</v>
+        <v>4454005</v>
       </c>
       <c r="C61">
-        <v>134.5394853593611</v>
+        <v>2228.11655827914</v>
       </c>
       <c r="D61">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F61">
-        <v>34937</v>
+        <v>1999</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2545,25 +2536,25 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>2878936</v>
+        <v>1481273</v>
       </c>
       <c r="C62">
-        <v>979.8965282505105</v>
+        <v>69.85818713450293</v>
       </c>
       <c r="D62">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F62">
-        <v>2938</v>
+        <v>21204</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H62" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2571,25 +2562,25 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>2337879</v>
+        <v>930336</v>
       </c>
       <c r="C63">
-        <v>113.0721125943122</v>
-      </c>
-      <c r="D63">
-        <v>99</v>
+        <v>26.52872907696256</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F63">
-        <v>20676</v>
+        <v>35069</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H63" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2597,25 +2588,25 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>2496056</v>
+        <v>1908035</v>
       </c>
       <c r="C64">
-        <v>131.6207551149546</v>
-      </c>
-      <c r="D64">
-        <v>99</v>
+        <v>57.62889244616267</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F64">
-        <v>18964</v>
+        <v>33109</v>
       </c>
       <c r="G64" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H64" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2623,25 +2614,25 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>231915</v>
+        <v>939693</v>
       </c>
       <c r="C65">
-        <v>6.136616215071973</v>
-      </c>
-      <c r="D65" t="s">
-        <v>3</v>
+        <v>115.1725701679127</v>
+      </c>
+      <c r="D65">
+        <v>999</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F65">
-        <v>37792</v>
+        <v>8159</v>
       </c>
       <c r="G65" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2649,25 +2640,25 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>3095364</v>
+        <v>1917028</v>
       </c>
       <c r="C66">
-        <v>173.1478435979191</v>
+        <v>135.3642140940545</v>
       </c>
       <c r="D66">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F66">
-        <v>17877</v>
+        <v>14162</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2675,25 +2666,25 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>4679541</v>
+        <v>2645609</v>
       </c>
       <c r="C67">
-        <v>397.9878380676986</v>
-      </c>
-      <c r="D67">
-        <v>99</v>
+        <v>159.2780854906683</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F67">
-        <v>11758</v>
+        <v>16610</v>
       </c>
       <c r="G67" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H67" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2701,25 +2692,25 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>996887</v>
+        <v>363455</v>
       </c>
       <c r="C68">
-        <v>61.52104418662059</v>
-      </c>
-      <c r="D68" t="s">
-        <v>3</v>
+        <v>9.870325611710072</v>
+      </c>
+      <c r="D68">
+        <v>999</v>
       </c>
       <c r="E68" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F68">
-        <v>16204</v>
+        <v>36823</v>
       </c>
       <c r="G68" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2727,25 +2718,25 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>4432368</v>
+        <v>914487</v>
       </c>
       <c r="C69">
-        <v>324.5491689243611</v>
-      </c>
-      <c r="D69">
-        <v>99</v>
+        <v>37.66731196968449</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F69">
-        <v>13657</v>
+        <v>24278</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2753,25 +2744,25 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>2630589</v>
+        <v>4004819</v>
       </c>
       <c r="C70">
-        <v>75.06103406950865</v>
-      </c>
-      <c r="D70">
-        <v>99</v>
+        <v>461.9168396770473</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F70">
-        <v>35046</v>
+        <v>8670</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2779,25 +2770,25 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>942673</v>
+        <v>612675</v>
       </c>
       <c r="C71">
-        <v>43.20818627675666</v>
+        <v>20.5609436874958</v>
       </c>
       <c r="D71" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F71">
-        <v>21817</v>
+        <v>29798</v>
       </c>
       <c r="G71" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2805,25 +2796,25 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>3599338</v>
+        <v>1370382</v>
       </c>
       <c r="C72">
-        <v>816.5467332123412</v>
-      </c>
-      <c r="D72" t="s">
-        <v>3</v>
+        <v>414.1378059836809</v>
+      </c>
+      <c r="D72">
+        <v>84</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F72">
-        <v>4408</v>
+        <v>3309</v>
       </c>
       <c r="G72" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2831,25 +2822,25 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>165911</v>
+        <v>1151048</v>
       </c>
       <c r="C73">
-        <v>7.64109059089025</v>
+        <v>162.0509643812474</v>
       </c>
       <c r="D73">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F73">
-        <v>21713</v>
+        <v>7103</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2857,25 +2848,25 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>4182285</v>
+        <v>2887401</v>
       </c>
       <c r="C74">
-        <v>335.7646917148362</v>
+        <v>375.2795684949311</v>
       </c>
       <c r="D74" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F74">
-        <v>12456</v>
+        <v>7694</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2883,25 +2874,25 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>4606811</v>
+        <v>1296547</v>
       </c>
       <c r="C75">
-        <v>744.8360549717057</v>
-      </c>
-      <c r="D75" t="s">
-        <v>3</v>
+        <v>93.6879109762266</v>
+      </c>
+      <c r="D75">
+        <v>999</v>
       </c>
       <c r="E75" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F75">
-        <v>6185</v>
+        <v>13839</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2909,25 +2900,25 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>3362188</v>
+        <v>2582570</v>
       </c>
       <c r="C76">
-        <v>87.52279057659769</v>
+        <v>75.52257573985261</v>
       </c>
       <c r="D76">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F76">
-        <v>38415</v>
+        <v>34196</v>
       </c>
       <c r="G76" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2935,25 +2926,25 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>1945165</v>
+        <v>4842535</v>
       </c>
       <c r="C77">
-        <v>50.94588931667583</v>
+        <v>131.2944988205949</v>
       </c>
       <c r="D77" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F77">
-        <v>38181</v>
+        <v>36883</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2961,25 +2952,25 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>4004206</v>
+        <v>4172813</v>
       </c>
       <c r="C78">
-        <v>353.2603440670489</v>
-      </c>
-      <c r="D78">
-        <v>99</v>
+        <v>382.5110459253827</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F78">
-        <v>11335</v>
+        <v>10909</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2987,25 +2978,25 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>385979</v>
+        <v>2472835</v>
       </c>
       <c r="C79">
-        <v>13.75058781617385</v>
+        <v>143.3195201112785</v>
       </c>
       <c r="D79" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F79">
-        <v>28070</v>
+        <v>17254</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H79" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3013,25 +3004,25 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>4532334</v>
+        <v>2404170</v>
       </c>
       <c r="C80">
-        <v>257.2558746736293</v>
+        <v>89.49078726968175</v>
       </c>
       <c r="D80">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F80">
-        <v>17618</v>
+        <v>26865</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3039,25 +3030,25 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>1798173</v>
+        <v>3800696</v>
       </c>
       <c r="C81">
-        <v>167.2407924107143</v>
+        <v>205.4763475158134</v>
       </c>
       <c r="D81">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F81">
-        <v>10752</v>
+        <v>18497</v>
       </c>
       <c r="G81" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3065,25 +3056,25 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>360260</v>
+        <v>1173206</v>
       </c>
       <c r="C82">
-        <v>15.26072775024357</v>
+        <v>60.07506784781607</v>
       </c>
       <c r="D82" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F82">
-        <v>23607</v>
+        <v>19529</v>
       </c>
       <c r="G82" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3091,25 +3082,25 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>986667</v>
+        <v>1404706</v>
       </c>
       <c r="C83">
-        <v>48.1935720216871</v>
+        <v>42.84991763772802</v>
       </c>
       <c r="D83" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F83">
-        <v>20473</v>
+        <v>32782</v>
       </c>
       <c r="G83" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3117,25 +3108,25 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>218445</v>
+        <v>2075373</v>
       </c>
       <c r="C84">
-        <v>13.8247579267135</v>
+        <v>183.8891547049442</v>
       </c>
       <c r="D84" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F84">
-        <v>15801</v>
+        <v>11286</v>
       </c>
       <c r="G84" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3143,25 +3134,25 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>1322365</v>
+        <v>3090926</v>
       </c>
       <c r="C85">
-        <v>562.7085106382979</v>
-      </c>
-      <c r="D85" t="s">
-        <v>3</v>
+        <v>83.99027200347817</v>
+      </c>
+      <c r="D85">
+        <v>999</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F85">
-        <v>2350</v>
+        <v>36801</v>
       </c>
       <c r="G85" t="s">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3169,25 +3160,25 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>2004838</v>
+        <v>607888</v>
       </c>
       <c r="C86">
-        <v>371.1975560081466</v>
+        <v>25.77872015605784</v>
       </c>
       <c r="D86">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F86">
-        <v>5401</v>
+        <v>23581</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3195,25 +3186,25 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>3620201</v>
+        <v>2156883</v>
       </c>
       <c r="C87">
-        <v>1272.478383128295</v>
+        <v>402.8545013074337</v>
       </c>
       <c r="D87">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F87">
-        <v>2845</v>
+        <v>5354</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3221,25 +3212,25 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>4214956</v>
+        <v>1142010</v>
       </c>
       <c r="C88">
-        <v>135.7692382026091</v>
+        <v>100.2026849170834</v>
       </c>
       <c r="D88">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="E88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F88">
-        <v>31045</v>
+        <v>11397</v>
       </c>
       <c r="G88" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3247,25 +3238,25 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>3272998</v>
+        <v>4200337</v>
       </c>
       <c r="C89">
-        <v>638.2601404056162</v>
-      </c>
-      <c r="D89">
-        <v>99</v>
+        <v>414.4796723899743</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F89">
-        <v>5128</v>
+        <v>10134</v>
       </c>
       <c r="G89" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H89" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3273,25 +3264,25 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>3453533</v>
+        <v>1388025</v>
       </c>
       <c r="C90">
-        <v>248.867406499964</v>
+        <v>60.546346782988</v>
       </c>
       <c r="D90">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F90">
-        <v>13877</v>
+        <v>22925</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3299,25 +3290,25 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2952759</v>
+        <v>2566600</v>
       </c>
       <c r="C91">
-        <v>794.3930589184827</v>
-      </c>
-      <c r="D91" t="s">
-        <v>3</v>
+        <v>81.83267440377503</v>
+      </c>
+      <c r="D91">
+        <v>999</v>
       </c>
       <c r="E91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F91">
-        <v>3717</v>
+        <v>31364</v>
       </c>
       <c r="G91" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3325,25 +3316,25 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>4832342</v>
+        <v>2199435</v>
       </c>
       <c r="C92">
-        <v>184.8002600481854</v>
+        <v>76.74232379623169</v>
       </c>
       <c r="D92">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F92">
-        <v>26149</v>
+        <v>28660</v>
       </c>
       <c r="G92" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3351,25 +3342,25 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>581934</v>
+        <v>3743437</v>
       </c>
       <c r="C93">
-        <v>24.78635318170202</v>
-      </c>
-      <c r="D93" t="s">
-        <v>3</v>
+        <v>103.6819554078382</v>
+      </c>
+      <c r="D93">
+        <v>999</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F93">
-        <v>23478</v>
+        <v>36105</v>
       </c>
       <c r="G93" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3377,25 +3368,25 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>2580884</v>
+        <v>2632600</v>
       </c>
       <c r="C94">
-        <v>77.51566301246433</v>
-      </c>
-      <c r="D94" t="s">
-        <v>3</v>
+        <v>754.1105700372386</v>
+      </c>
+      <c r="D94">
+        <v>999</v>
       </c>
       <c r="E94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F94">
-        <v>33295</v>
+        <v>3491</v>
       </c>
       <c r="G94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3403,25 +3394,25 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>1959503</v>
+        <v>4660144</v>
       </c>
       <c r="C95">
-        <v>71.47036510194405</v>
-      </c>
-      <c r="D95" t="s">
-        <v>3</v>
+        <v>127.8783820866034</v>
+      </c>
+      <c r="D95">
+        <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F95">
-        <v>27417</v>
+        <v>36442</v>
       </c>
       <c r="G95" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3429,25 +3420,25 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>4299679</v>
+        <v>4221162</v>
       </c>
       <c r="C96">
-        <v>485.8394350282486</v>
-      </c>
-      <c r="D96">
-        <v>99</v>
+        <v>384.7212905577834</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F96">
-        <v>8850</v>
+        <v>10972</v>
       </c>
       <c r="G96" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H96" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3455,25 +3446,25 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3143852</v>
+        <v>3884133</v>
       </c>
       <c r="C97">
-        <v>98.3006691263836</v>
-      </c>
-      <c r="D97" t="s">
-        <v>3</v>
+        <v>101.0125091022574</v>
+      </c>
+      <c r="D97">
+        <v>999</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F97">
-        <v>31982</v>
+        <v>38452</v>
       </c>
       <c r="G97" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H97" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3481,25 +3472,25 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>1284840</v>
+        <v>1662481</v>
       </c>
       <c r="C98">
-        <v>45.21059854322812</v>
+        <v>68.71175862781567</v>
       </c>
       <c r="D98">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F98">
-        <v>28419</v>
+        <v>24195</v>
       </c>
       <c r="G98" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H98" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3507,25 +3498,25 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>888300</v>
+        <v>1374182</v>
       </c>
       <c r="C99">
-        <v>201.0183299389002</v>
-      </c>
-      <c r="D99" t="s">
-        <v>3</v>
+        <v>1201.208041958042</v>
+      </c>
+      <c r="D99">
+        <v>999</v>
       </c>
       <c r="E99" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F99">
-        <v>4419</v>
+        <v>1144</v>
       </c>
       <c r="G99" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3533,25 +3524,25 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>4445983</v>
+        <v>3390256</v>
       </c>
       <c r="C100">
-        <v>120.4090293575994</v>
-      </c>
-      <c r="D100" t="s">
-        <v>3</v>
+        <v>223.1753011651636</v>
+      </c>
+      <c r="D100">
+        <v>999</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F100">
-        <v>36924</v>
+        <v>15191</v>
       </c>
       <c r="G100" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/prototype/RGB.xlsx
+++ b/prototype/RGB.xlsx
@@ -14,600 +14,594 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="198">
-  <si>
-    <t>(1.3497329896613266,104.29054361914957)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="196">
+  <si>
+    <t>(1.4443717974845778,104.63406137670371)</t>
   </si>
   <si>
     <t>HDB</t>
   </si>
   <si>
-    <t>Mall, Bus Stop, Park, MRT, Market, Gym</t>
-  </si>
-  <si>
-    <t>(1.4480798900983505,104.33062327546864)</t>
+    <t>Mall, MRT, Pool, Bus Stop, Playground, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.3973694617253105,104.57992489379441)</t>
+  </si>
+  <si>
+    <t>MRT, Bus Stop, Park, Mall, Pool, Gym, Market, Playground</t>
+  </si>
+  <si>
+    <t>(1.3866141692532885,104.06566145307778)</t>
+  </si>
+  <si>
+    <t>Executive Condominium</t>
+  </si>
+  <si>
+    <t>MRT, Bus Stop, Pool, Mall, Park</t>
+  </si>
+  <si>
+    <t>(1.3708585578927548,104.29204322832516)</t>
   </si>
   <si>
     <t>Private Property</t>
   </si>
   <si>
-    <t>Bus Stop, Mall, Market, Park, MRT</t>
+    <t>Bus Stop, Gym, Park, Playground, Pool, Market, MRT</t>
+  </si>
+  <si>
+    <t>(1.2846712624747574,104.127979964053)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop, Gym, Park, Mall, Pool, MRT</t>
+  </si>
+  <si>
+    <t>(1.4078767969202064,104.13060327334497)</t>
+  </si>
+  <si>
+    <t>Park, Pool, Bus Stop, Market, Playground</t>
+  </si>
+  <si>
+    <t>(1.4214266666878306,104.05263883762692)</t>
+  </si>
+  <si>
+    <t>Pool, Market, Gym, Park, Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3956373541548752,104.13400558116986)</t>
+  </si>
+  <si>
+    <t>Market, Bus Stop, Park, Mall, Playground, Gym</t>
+  </si>
+  <si>
+    <t>(1.3396522206880963,104.19777128922583)</t>
+  </si>
+  <si>
+    <t>Mall, Gym</t>
+  </si>
+  <si>
+    <t>(1.3181459845783337,104.09719476181589)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Playground</t>
+  </si>
+  <si>
+    <t>(1.4510984982530348,104.62265591065011)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Gym, Mall, MRT</t>
   </si>
   <si>
     <t>Freehold</t>
   </si>
   <si>
-    <t>(1.4452497540770426,104.05181897320644)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Gym, Market</t>
-  </si>
-  <si>
-    <t>(1.3828476861269878,104.62034345604954)</t>
+    <t>(1.328276937112068,104.28450594556975)</t>
+  </si>
+  <si>
+    <t>Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3202796968351782,104.52474542453932)</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>(1.4367574230052633,104.61710498932258)</t>
+  </si>
+  <si>
+    <t>Mall, Park, Bus Stop, Playground, Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.32386635462363,104.34440573905945)</t>
+  </si>
+  <si>
+    <t>Gym, Market, Playground, MRT, Bus Stop, Park, Pool</t>
+  </si>
+  <si>
+    <t>(1.3648626704583118,104.63594421712048)</t>
+  </si>
+  <si>
+    <t>Mall, Market, Bus Stop, Pool, Gym, Park, MRT</t>
+  </si>
+  <si>
+    <t>(1.463919304023971,104.5575096312244)</t>
+  </si>
+  <si>
+    <t>Bus Stop, MRT, Playground, Pool, Market</t>
+  </si>
+  <si>
+    <t>(1.3022712301797597,104.1079871867545)</t>
+  </si>
+  <si>
+    <t>Gym, MRT</t>
+  </si>
+  <si>
+    <t>(1.327964600828881,104.24453001718855)</t>
+  </si>
+  <si>
+    <t>Mall</t>
+  </si>
+  <si>
+    <t>(1.2829972940176846,104.38828770341117)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Playground, Mall, MRT, Pool, Market, Park</t>
+  </si>
+  <si>
+    <t>(1.449206409015931,104.56617145121704)</t>
+  </si>
+  <si>
+    <t>Market, Gym, Playground, Park, Mall</t>
+  </si>
+  <si>
+    <t>(1.4549500102558799,104.33809592470878)</t>
+  </si>
+  <si>
+    <t>Gym, Park, Market</t>
+  </si>
+  <si>
+    <t>(1.3746674410207504,104.1940111313589)</t>
+  </si>
+  <si>
+    <t>Market, Mall, MRT, Park, Pool, Playground, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.313053184083917,104.11302525798457)</t>
+  </si>
+  <si>
+    <t>Mall, Park, Bus Stop, Playground, MRT</t>
+  </si>
+  <si>
+    <t>(1.4415759720927814,104.09398444783122)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Gym, Park</t>
+  </si>
+  <si>
+    <t>(1.3611100619358771,104.24326740215932)</t>
+  </si>
+  <si>
+    <t>Bus Stop, MRT, Playground, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.427937794991632,104.15065769064257)</t>
+  </si>
+  <si>
+    <t>Park, Pool, MRT</t>
+  </si>
+  <si>
+    <t>(1.395927640508663,104.406615309414)</t>
+  </si>
+  <si>
+    <t>MRT, Mall, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.4015992985046832,104.47977730373454)</t>
+  </si>
+  <si>
+    <t>Park, Playground, Gym, Mall, Market, Bus Stop, MRT, Pool</t>
+  </si>
+  <si>
+    <t>(1.3325636545921133,104.24909010429405)</t>
+  </si>
+  <si>
+    <t>MRT, Gym, Market, Pool, Park, Bus Stop, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.2983527193193851,104.28813930769779)</t>
+  </si>
+  <si>
+    <t>Mall, Playground, Pool, Bus Stop, Market, MRT</t>
+  </si>
+  <si>
+    <t>(1.3687895507943375,104.5959953452751)</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>(1.288127399911573,104.35344043967949)</t>
+  </si>
+  <si>
+    <t>Playground</t>
+  </si>
+  <si>
+    <t>(1.4566854823999056,104.5827009865548)</t>
+  </si>
+  <si>
+    <t>Park, Gym</t>
+  </si>
+  <si>
+    <t>(1.4014925726956369,104.23892131833534)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Mall, Park, MRT, Market, Gym, Pool, Playground</t>
+  </si>
+  <si>
+    <t>(1.3018668026323041,104.43414763542005)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park</t>
+  </si>
+  <si>
+    <t>(1.3003952769075204,104.28774519937154)</t>
+  </si>
+  <si>
+    <t>Park, Pool, Mall, Playground, Gym, Market, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3716784143653733,104.23676948424536)</t>
+  </si>
+  <si>
+    <t>(1.3919294274270735,104.09301981416581)</t>
+  </si>
+  <si>
+    <t>Gym, MRT, Bus Stop, Pool, Market, Park, Playground</t>
+  </si>
+  <si>
+    <t>(1.2855909517219954,104.06557017373018)</t>
+  </si>
+  <si>
+    <t>Park, Market, MRT, Bus Stop, Gym, Mall, Playground, Pool</t>
+  </si>
+  <si>
+    <t>(1.268727858339149,104.60707163127225)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Bus Stop, Gym</t>
+  </si>
+  <si>
+    <t>(1.2907862596076114,104.02640613537997)</t>
+  </si>
+  <si>
+    <t>Pool, MRT</t>
+  </si>
+  <si>
+    <t>(1.4287256322999782,104.30890808094166)</t>
+  </si>
+  <si>
+    <t>(1.287796304215792,104.11089527281389)</t>
+  </si>
+  <si>
+    <t>Playground, Market, Park, Pool, Bus Stop, Mall, MRT</t>
+  </si>
+  <si>
+    <t>(1.321911300171229,104.29429853530492)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, Park, Mall, Gym, Market, MRT, Playground</t>
+  </si>
+  <si>
+    <t>(1.4493870208377597,104.09254610068739)</t>
+  </si>
+  <si>
+    <t>Gym, MRT, Market, Pool, Bus Stop, Playground, Mall, Park</t>
+  </si>
+  <si>
+    <t>(1.3685508710275371,104.37727524850452)</t>
+  </si>
+  <si>
+    <t>Mall, Pool, MRT, Park, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3487888570483495,104.3907239282616)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Gym, MRT, Park, Mall, Pool, Playground, Market</t>
+  </si>
+  <si>
+    <t>(1.283521135716882,104.32469707603975)</t>
+  </si>
+  <si>
+    <t>Gym, Playground, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.4011758344565655,104.05678088739572)</t>
+  </si>
+  <si>
+    <t>(1.37145151745006,104.40584305806914)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Mall, Playground, MRT</t>
+  </si>
+  <si>
+    <t>(1.2955497714368802,104.0528773450066)</t>
+  </si>
+  <si>
+    <t>Playground, Market, Gym, MRT, Mall, Bus Stop, Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.4550957403336011,104.56129043907704)</t>
+  </si>
+  <si>
+    <t>Pool, Market, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.3051063494268342,104.16297083057265)</t>
+  </si>
+  <si>
+    <t>Market, Pool, Bus Stop, MRT, Mall, Gym</t>
+  </si>
+  <si>
+    <t>(1.3781926335685442,104.62038228067313)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, MRT, Pool, Playground</t>
+  </si>
+  <si>
+    <t>(1.4215774594220851,104.27559102233724)</t>
+  </si>
+  <si>
+    <t>(1.4106215366798185,104.37397295692375)</t>
+  </si>
+  <si>
+    <t>MRT, Pool</t>
+  </si>
+  <si>
+    <t>(1.4465229764465213,104.10109225544728)</t>
+  </si>
+  <si>
+    <t>(1.3571652084289425,104.13458164995113)</t>
+  </si>
+  <si>
+    <t>Mall, Gym, Park, Playground, MRT, Pool, Bus Stop, Market</t>
+  </si>
+  <si>
+    <t>(1.4224162607249908,104.33902343691291)</t>
+  </si>
+  <si>
+    <t>MRT, Pool, Playground, Market, Park, Mall, Gym, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3358700521461218,104.45520745255698)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, Mall, Playground, MRT</t>
+  </si>
+  <si>
+    <t>(1.3202158231112948,104.19931925586592)</t>
+  </si>
+  <si>
+    <t>MRT, Playground, Gym, Park, Bus Stop, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.2801862603729965,104.07935753391908)</t>
+  </si>
+  <si>
+    <t>Park, MRT</t>
+  </si>
+  <si>
+    <t>(1.2853541915725852,104.38581732446255)</t>
+  </si>
+  <si>
+    <t>Gym, Bus Stop, MRT, Mall, Playground, Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.445897017333041,104.47547693724817)</t>
+  </si>
+  <si>
+    <t>MRT, Bus Stop, Gym, Playground, Mall</t>
+  </si>
+  <si>
+    <t>(1.452485312404864,104.04915884674226)</t>
+  </si>
+  <si>
+    <t>MRT, Bus Stop, Market, Playground</t>
+  </si>
+  <si>
+    <t>(1.4027803623889983,104.22967185167016)</t>
   </si>
   <si>
     <t>Park</t>
   </si>
   <si>
-    <t>(1.377364208829871,104.03381145956362)</t>
-  </si>
-  <si>
-    <t>Pool, Playground, Bus Stop, Gym, MRT</t>
-  </si>
-  <si>
-    <t>(1.4187245712465395,104.26372945473172)</t>
-  </si>
-  <si>
-    <t>MRT, Market, Playground, Gym, Bus Stop, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.379899434977426,104.24704941491052)</t>
-  </si>
-  <si>
-    <t>Executive Condominium</t>
-  </si>
-  <si>
-    <t>Mall, MRT, Market, Bus Stop, Gym, Pool, Park, Playground</t>
-  </si>
-  <si>
-    <t>(1.4646058648451163,104.36094660737977)</t>
-  </si>
-  <si>
-    <t>Playground, Bus Stop, Pool, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.2739171604897082,104.12550991761196)</t>
-  </si>
-  <si>
-    <t>Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3941793461052991,104.4675027614531)</t>
-  </si>
-  <si>
-    <t>Mall</t>
-  </si>
-  <si>
-    <t>(1.2958511405072994,104.28550235673316)</t>
-  </si>
-  <si>
-    <t>Pool, Bus Stop, Park, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.2980125560018028,104.62696519785308)</t>
-  </si>
-  <si>
-    <t>Market, Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.3034408827623485,104.1463689808568)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, MRT, Playground</t>
-  </si>
-  <si>
-    <t>(1.401013700305174,104.34261571056005)</t>
-  </si>
-  <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>(1.46635478779118,104.35849310707046)</t>
-  </si>
-  <si>
-    <t>Market, Gym, MRT, Playground, Mall, Pool, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.4098161033829446,104.18148515396157)</t>
-  </si>
-  <si>
-    <t>Market, Gym</t>
-  </si>
-  <si>
-    <t>(1.4490451904756276,104.12618413541762)</t>
-  </si>
-  <si>
-    <t>Bus Stop, MRT, Playground, Pool, Park, Mall, Market</t>
-  </si>
-  <si>
-    <t>(1.419266126690188,104.4372208701998)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Pool, Market, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.3137887743788692,104.07596423899672)</t>
-  </si>
-  <si>
-    <t>Park, Market, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3524102254638943,104.07774139669608)</t>
-  </si>
-  <si>
-    <t>Park, Playground, Market, Pool, Mall, Gym, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2918131383481046,104.47637956652193)</t>
-  </si>
-  <si>
-    <t>MRT, Bus Stop, Playground, Gym</t>
-  </si>
-  <si>
-    <t>(1.3379563499975682,104.48687223265087)</t>
-  </si>
-  <si>
-    <t>Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.30602166300159,104.33026135374288)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Bus Stop, Mall, Park, Pool</t>
-  </si>
-  <si>
-    <t>(1.4313744090152118,104.398782569425)</t>
-  </si>
-  <si>
-    <t>Mall, MRT, Playground, Pool, Market, Bus Stop, Park</t>
-  </si>
-  <si>
-    <t>(1.4165341288815294,104.36194094290585)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Playground, Pool, Market, Park, Bus Stop, Mall</t>
-  </si>
-  <si>
-    <t>(1.3736757768848342,104.3629621083129)</t>
-  </si>
-  <si>
-    <t>Mall, Gym</t>
-  </si>
-  <si>
-    <t>(1.4613959296824226,104.57651481542784)</t>
-  </si>
-  <si>
-    <t>Market, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2959379527670327,104.33293680807373)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Park, Market, Gym</t>
-  </si>
-  <si>
-    <t>(1.4101433549029185,104.18373302492242)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Market, Mall, Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.4461785899287927,104.25297489111674)</t>
-  </si>
-  <si>
-    <t>Playground, MRT, Gym</t>
-  </si>
-  <si>
-    <t>(1.281442421416227,104.34433829891977)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.3220955282269304,104.23066286879225)</t>
-  </si>
-  <si>
-    <t>Pool, Mall, Gym, Playground, Bus Stop, MRT, Market, Park</t>
-  </si>
-  <si>
-    <t>(1.4212098627319703,104.45073073377337)</t>
-  </si>
-  <si>
-    <t>Playground, Market, Gym, Bus Stop, MRT, Park, Mall</t>
-  </si>
-  <si>
-    <t>(1.3239670565514512,104.2789071480478)</t>
-  </si>
-  <si>
-    <t>Pool, Park, MRT, Bus Stop, Playground, Market, Gym, Mall</t>
-  </si>
-  <si>
-    <t>(1.3406068510469882,104.2446424713932)</t>
-  </si>
-  <si>
-    <t>Mall, MRT, Bus Stop, Playground</t>
-  </si>
-  <si>
-    <t>(1.4097929084247893,104.02914163022528)</t>
-  </si>
-  <si>
-    <t>Park, Market, Mall</t>
-  </si>
-  <si>
-    <t>(1.3156031719164831,104.37929833413828)</t>
-  </si>
-  <si>
-    <t>Market, MRT, Gym, Bus Stop, Pool</t>
-  </si>
-  <si>
-    <t>(1.442683808136753,104.42025874627107)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Playground, Mall, Bus Stop, Market, Pool</t>
-  </si>
-  <si>
-    <t>(1.2700408592304255,104.35441085050925)</t>
-  </si>
-  <si>
-    <t>Pool, Mall, Gym</t>
-  </si>
-  <si>
-    <t>(1.430914937344005,104.61282012346432)</t>
-  </si>
-  <si>
-    <t>Gym, Pool, Bus Stop, MRT, Playground, Park</t>
-  </si>
-  <si>
-    <t>(1.307604147705544,104.19677038731605)</t>
-  </si>
-  <si>
-    <t>Gym</t>
-  </si>
-  <si>
-    <t>(1.348047315313424,104.62352968243714)</t>
-  </si>
-  <si>
-    <t>Bus Stop, MRT, Park, Pool, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.3683800879979253,104.41424886810987)</t>
-  </si>
-  <si>
-    <t>Pool</t>
-  </si>
-  <si>
-    <t>(1.3887283890771733,104.3076324059941)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Gym, Park, Pool, MRT, Playground</t>
-  </si>
-  <si>
-    <t>(1.295129696892396,104.46007571117838)</t>
+    <t>(1.334938322097618,104.6185476866182)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Pool, MRT, Gym, Playground, Park, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.4184477471008319,104.62962448236976)</t>
+  </si>
+  <si>
+    <t>Playground, Park, Pool, Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.2803102689998496,104.14956925526002)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Park, Playground</t>
+  </si>
+  <si>
+    <t>(1.4102384496165683,104.45423449106262)</t>
+  </si>
+  <si>
+    <t>Gym, MRT, Playground, Pool, Park, Market, Mall</t>
+  </si>
+  <si>
+    <t>(1.3771110401627957,104.28797336032176)</t>
+  </si>
+  <si>
+    <t>Park, Gym, Bus Stop, Mall, Market, MRT</t>
+  </si>
+  <si>
+    <t>(1.427520269702176,104.56124365936832)</t>
+  </si>
+  <si>
+    <t>(1.315282276821679,104.57896422963859)</t>
+  </si>
+  <si>
+    <t>Mall, Bus Stop, Market</t>
+  </si>
+  <si>
+    <t>(1.307382492056404,104.51874863127846)</t>
+  </si>
+  <si>
+    <t>Park, Pool, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.3036093722543585,104.51473807134182)</t>
+  </si>
+  <si>
+    <t>Mall, Park, Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.4224197626385828,104.52029593363144)</t>
+  </si>
+  <si>
+    <t>Gym, MRT, Playground, Mall, Market, Bus Stop, Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.3250646225619185,104.49123876509276)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Gym, MRT, Mall, Market</t>
+  </si>
+  <si>
+    <t>(1.377355974921977,104.62742076435448)</t>
+  </si>
+  <si>
+    <t>MRT, Bus Stop, Market, Park, Gym, Pool, Playground</t>
+  </si>
+  <si>
+    <t>(1.389892402264819,104.09413262897412)</t>
+  </si>
+  <si>
+    <t>Park, Market, Pool</t>
+  </si>
+  <si>
+    <t>(1.2690765246960356,104.24967336632466)</t>
+  </si>
+  <si>
+    <t>Gym, Market, Park, MRT, Bus Stop, Playground, Pool, Mall</t>
+  </si>
+  <si>
+    <t>(1.4052150138658288,104.43597222543816)</t>
+  </si>
+  <si>
+    <t>Gym, Pool, Park, Bus Stop, Market, Playground, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.384524235177863,104.04761674464737)</t>
+  </si>
+  <si>
+    <t>Gym, Market, Playground, Bus Stop, MRT, Mall, Park, Pool</t>
+  </si>
+  <si>
+    <t>(1.274533636526935,104.23216332578781)</t>
+  </si>
+  <si>
+    <t>Gym, Playground, Pool, Mall, Bus Stop</t>
+  </si>
+  <si>
+    <t>(1.287629881841932,104.42119189623617)</t>
+  </si>
+  <si>
+    <t>Bus Stop, Market, MRT, Playground, Mall, Gym, Pool, Park</t>
+  </si>
+  <si>
+    <t>(1.2841671743139023,104.14937937584673)</t>
+  </si>
+  <si>
+    <t>(1.3377697144377558,104.21319241248113)</t>
+  </si>
+  <si>
+    <t>Market, Park, Playground, Pool</t>
+  </si>
+  <si>
+    <t>(1.3275998554789616,104.04869270419789)</t>
+  </si>
+  <si>
+    <t>(1.3532842173712538,104.50834205164202)</t>
+  </si>
+  <si>
+    <t>Market, Gym, Park, Bus Stop, Playground, MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.453724913584905,104.02791554349976)</t>
+  </si>
+  <si>
+    <t>Market, Pool, Bus Stop, Mall, Gym, MRT</t>
+  </si>
+  <si>
+    <t>(1.379189777534307,104.49190089704406)</t>
+  </si>
+  <si>
+    <t>Playground, Gym</t>
+  </si>
+  <si>
+    <t>(1.359280353039424,104.60233851048235)</t>
+  </si>
+  <si>
+    <t>Park, Bus Stop, Pool, Market, Mall, Playground, Gym, MRT</t>
+  </si>
+  <si>
+    <t>(1.452426146911547,104.56274587216095)</t>
+  </si>
+  <si>
+    <t>MRT, Market, Mall, Park, Bus Stop, Pool, Playground</t>
+  </si>
+  <si>
+    <t>(1.3616017299596859,104.09871695815535)</t>
+  </si>
+  <si>
+    <t>Gym, Mall</t>
+  </si>
+  <si>
+    <t>(1.3173272207264428,104.47492303342304)</t>
   </si>
   <si>
     <t>Gym, Playground</t>
   </si>
   <si>
-    <t>(1.3219434455925771,104.4624333612484)</t>
-  </si>
-  <si>
-    <t>(1.3043448706819203,104.15723540000836)</t>
-  </si>
-  <si>
-    <t>Mall, Playground</t>
-  </si>
-  <si>
-    <t>(1.3767199835218735,104.4066151560358)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Park, Gym, Market</t>
-  </si>
-  <si>
-    <t>(1.3962328811352676,104.29196279733205)</t>
-  </si>
-  <si>
-    <t>Gym, Park, Playground, Pool, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3835597847632566,104.34212421942115)</t>
-  </si>
-  <si>
-    <t>Market, Park, Mall, Pool, Bus Stop, Gym, Playground</t>
-  </si>
-  <si>
-    <t>(1.4126126767220906,104.48208971464537)</t>
-  </si>
-  <si>
-    <t>Mall, Pool</t>
-  </si>
-  <si>
-    <t>(1.4115490938238566,104.13713840321884)</t>
-  </si>
-  <si>
-    <t>Market, Playground, Mall</t>
-  </si>
-  <si>
-    <t>(1.4284696078059822,104.48772605437412)</t>
-  </si>
-  <si>
-    <t>Park, MRT, Gym, Mall, Market, Playground, Pool, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.356778526810546,104.31426129561127)</t>
-  </si>
-  <si>
-    <t>Pool, Market, Playground, Park, Gym, Mall</t>
-  </si>
-  <si>
-    <t>(1.3901016544772684,104.22361448994096)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Playground, Market, Gym, MRT, Pool, Mall, Park</t>
-  </si>
-  <si>
-    <t>(1.3744318701148033,104.31015192198073)</t>
-  </si>
-  <si>
-    <t>(1.4049934426552777,104.41954207021477)</t>
-  </si>
-  <si>
-    <t>Park, Pool, Mall, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2825884614308085,104.28540149391566)</t>
-  </si>
-  <si>
-    <t>Bus Stop, Gym, Market, Park, MRT, Pool, Mall, Playground</t>
-  </si>
-  <si>
-    <t>(1.4150513191728427,104.49887496268883)</t>
-  </si>
-  <si>
-    <t>Gym, Playground, Market, MRT, Mall</t>
-  </si>
-  <si>
-    <t>(1.431201393251852,104.09568178392091)</t>
-  </si>
-  <si>
-    <t>Playground, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.3077667951749556,104.4587144937679)</t>
-  </si>
-  <si>
-    <t>Market, Playground, Park</t>
-  </si>
-  <si>
-    <t>(1.2758307851942208,104.34590714598049)</t>
-  </si>
-  <si>
-    <t>(1.354877257537175,104.27754020493178)</t>
-  </si>
-  <si>
-    <t>Gym, Market, MRT, Mall, Pool, Park, Playground</t>
-  </si>
-  <si>
-    <t>(1.4637706842321216,104.34636345992115)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Playground, MRT</t>
-  </si>
-  <si>
-    <t>(1.355467894254333,104.05773629522781)</t>
-  </si>
-  <si>
-    <t>Market, Bus Stop, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.3413830058289087,104.24617417026506)</t>
-  </si>
-  <si>
-    <t>Market, MRT, Bus Stop, Gym</t>
-  </si>
-  <si>
-    <t>(1.326643305726175,104.08634419557583)</t>
-  </si>
-  <si>
-    <t>Gym, Mall, Park, Bus Stop, MRT, Playground</t>
-  </si>
-  <si>
-    <t>(1.2701523049065924,104.33850906519305)</t>
-  </si>
-  <si>
-    <t>Market, Park, Mall</t>
-  </si>
-  <si>
-    <t>(1.4471780668447753,104.10598128658346)</t>
-  </si>
-  <si>
-    <t>Mall, Market, MRT, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.457280121944153,104.05745855051931)</t>
-  </si>
-  <si>
-    <t>Pool, MRT, Gym, Bus Stop, Playground</t>
-  </si>
-  <si>
-    <t>(1.356535398734435,104.5950381264933)</t>
-  </si>
-  <si>
-    <t>Pool, Gym, Bus Stop, Park, Mall, Market, Playground</t>
-  </si>
-  <si>
-    <t>(1.3908324399807497,104.36003919306297)</t>
-  </si>
-  <si>
-    <t>Pool, Gym, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2740473350162422,104.2071641895767)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Park, Market</t>
-  </si>
-  <si>
-    <t>(1.3450720430512553,104.39933433597805)</t>
-  </si>
-  <si>
-    <t>Park, Pool, Playground, MRT</t>
-  </si>
-  <si>
-    <t>(1.4332856217590872,104.3022993250827)</t>
-  </si>
-  <si>
-    <t>Market, Pool, MRT, Mall, Playground, Bus Stop, Park, Gym</t>
-  </si>
-  <si>
-    <t>(1.3056713089304988,104.48459151951644)</t>
-  </si>
-  <si>
-    <t>MRT, Playground, Park</t>
-  </si>
-  <si>
-    <t>(1.33398824434839,104.16479068993856)</t>
-  </si>
-  <si>
-    <t>Market, Park</t>
-  </si>
-  <si>
-    <t>(1.376248465069042,104.3566095364475)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Market, Playground, Pool, MRT, Gym, Park</t>
-  </si>
-  <si>
-    <t>(1.3308512390931784,104.21873082307859)</t>
-  </si>
-  <si>
-    <t>(1.284255907015851,104.2242221408778)</t>
-  </si>
-  <si>
-    <t>Playground</t>
-  </si>
-  <si>
-    <t>(1.453214251305086,104.3237185287968)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.4213984870031322,104.17240497186535)</t>
-  </si>
-  <si>
-    <t>Park, Bus Stop, Pool, Market, MRT, Mall, Playground, Gym</t>
-  </si>
-  <si>
-    <t>(1.314223012046777,104.38837713829463)</t>
-  </si>
-  <si>
-    <t>Market, MRT, Gym, Park, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.2864527542965958,104.21622500260905)</t>
-  </si>
-  <si>
-    <t>Gym, MRT, Mall, Park, Pool, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4660339913597553,104.59726031752022)</t>
-  </si>
-  <si>
-    <t>Playground, Gym, Bus Stop, MRT, Market, Pool, Mall, Park</t>
-  </si>
-  <si>
-    <t>(1.4678066289006781,104.26022934719218)</t>
-  </si>
-  <si>
-    <t>MRT, Pool, Mall, Playground, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.4172145744145768,104.44451860527512)</t>
-  </si>
-  <si>
-    <t>Mall, Pool, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3601700015655909,104.49988837984932)</t>
-  </si>
-  <si>
-    <t>Pool, Playground</t>
-  </si>
-  <si>
-    <t>(1.4091464048272488,104.47807182951247)</t>
-  </si>
-  <si>
-    <t>(1.3811442540049645,104.51714005729643)</t>
-  </si>
-  <si>
-    <t>Market, Mall, Bus Stop, Park, Playground, Pool, MRT, Gym</t>
-  </si>
-  <si>
-    <t>(1.2873617809818396,104.4958414160427)</t>
-  </si>
-  <si>
-    <t>Mall, Bus Stop, Market, Park, Gym, MRT, Playground, Pool</t>
-  </si>
-  <si>
-    <t>(1.285941903066894,104.44155390618948)</t>
-  </si>
-  <si>
-    <t>Park, Playground, Bus Stop, Market, MRT, Mall, Pool, Gym</t>
-  </si>
-  <si>
-    <t>(1.4155745123031471,104.20379828348565)</t>
-  </si>
-  <si>
-    <t>MRT, Gym, Pool, Park</t>
-  </si>
-  <si>
-    <t>(1.387319988265413,104.05343981502945)</t>
-  </si>
-  <si>
-    <t>Park, Playground, Gym, Market</t>
-  </si>
-  <si>
-    <t>(1.2713980984751079,104.2983456152791)</t>
-  </si>
-  <si>
-    <t>Playground, Pool, Market, Park, Mall, Gym, MRT, Bus Stop</t>
-  </si>
-  <si>
-    <t>(1.3569749275621683,104.14176390460133)</t>
-  </si>
-  <si>
-    <t>Playground, Bus Stop, Gym, Pool, Mall</t>
-  </si>
-  <si>
-    <t>(1.4563998274682373,104.63579088136967)</t>
-  </si>
-  <si>
-    <t>Market, Park, Playground</t>
-  </si>
-  <si>
-    <t>(1.30004254860773,104.60424119461553)</t>
-  </si>
-  <si>
-    <t>(1.3582811489878677,104.60782921037367)</t>
-  </si>
-  <si>
-    <t>Mall, Park, Market, Bus Stop, MRT</t>
-  </si>
-  <si>
-    <t>(1.3311788176945336,104.2402956692074)</t>
-  </si>
-  <si>
-    <t>Market, Bus Stop, Gym, Park, Playground, Mall</t>
+    <t>(1.2981856628054786,104.46894800483781)</t>
+  </si>
+  <si>
+    <t>Pool, Park, Market, Gym</t>
+  </si>
+  <si>
+    <t>(1.2766018856560661,104.30609199571056)</t>
+  </si>
+  <si>
+    <t>Playground, Park, Bus Stop, Mall, Market, Gym, Pool</t>
+  </si>
+  <si>
+    <t>(1.4283109738646496,104.38591396199045)</t>
+  </si>
+  <si>
+    <t>MRT, Mall</t>
+  </si>
+  <si>
+    <t>(1.292358771587806,104.35836402368712)</t>
+  </si>
+  <si>
+    <t>Park, Mall, Playground, Market, Bus Stop, Pool</t>
+  </si>
+  <si>
+    <t>(1.43292423621732,104.28783668078478)</t>
+  </si>
+  <si>
+    <t>Mall, Playground, Gym, Pool, MRT, Park, Market, Bus Stop</t>
   </si>
 </sst>
 </file>
@@ -950,19 +944,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1632868</v>
+        <v>504919</v>
       </c>
       <c r="C1">
-        <v>78.00076430686921</v>
+        <v>505.4244244244244</v>
       </c>
       <c r="D1">
-        <v>89</v>
+        <v>999</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1">
-        <v>20934</v>
+        <v>999</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -976,25 +970,25 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2169809</v>
+        <v>492422</v>
       </c>
       <c r="C2">
-        <v>79.41327819053545</v>
+        <v>435.7716814159292</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>999</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>27323</v>
+        <v>1130</v>
       </c>
       <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1002,25 +996,25 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3392672</v>
+        <v>3914922</v>
       </c>
       <c r="C3">
-        <v>174.2960184947341</v>
-      </c>
-      <c r="D3" t="s">
+        <v>2091.304487179487</v>
+      </c>
+      <c r="D3">
+        <v>999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>1872</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>7</v>
-      </c>
-      <c r="F3">
-        <v>19465</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1028,22 +1022,22 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1886654</v>
+        <v>5084911</v>
       </c>
       <c r="C4">
-        <v>117.6511598902469</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>370.6473503899701</v>
+      </c>
+      <c r="D4">
+        <v>999</v>
       </c>
       <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>13719</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
-      </c>
-      <c r="F4">
-        <v>16036</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -1054,22 +1048,22 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2534458</v>
+        <v>13314044</v>
       </c>
       <c r="C5">
-        <v>79.80785338665491</v>
+        <v>389.2881494693137</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>999</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5">
-        <v>31757</v>
+        <v>34201</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -1080,10 +1074,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4213712</v>
+        <v>598322</v>
       </c>
       <c r="C6">
-        <v>1077.124744376278</v>
+        <v>636.5127659574468</v>
       </c>
       <c r="D6">
         <v>999</v>
@@ -1092,7 +1086,7 @@
         <v>13</v>
       </c>
       <c r="F6">
-        <v>3912</v>
+        <v>940</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -1106,25 +1100,25 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2085063</v>
+        <v>10025059</v>
       </c>
       <c r="C7">
-        <v>54.38490831790083</v>
+        <v>422.1432962775813</v>
       </c>
       <c r="D7">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7">
-        <v>38339</v>
+        <v>23748</v>
       </c>
       <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
         <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1132,25 +1126,25 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2195976</v>
+        <v>12393727</v>
       </c>
       <c r="C8">
-        <v>192.4100587049855</v>
+        <v>367.8209526635999</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>999</v>
       </c>
       <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>33695</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
         <v>18</v>
-      </c>
-      <c r="F8">
-        <v>11413</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1158,25 +1152,25 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2430018</v>
+        <v>2533587</v>
       </c>
       <c r="C9">
-        <v>270.5732101102327</v>
+        <v>1645.186363636364</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>1540</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
         <v>20</v>
-      </c>
-      <c r="F9">
-        <v>8981</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1184,25 +1178,25 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>3034609</v>
+        <v>5092417</v>
       </c>
       <c r="C10">
-        <v>88.53193103247075</v>
-      </c>
-      <c r="D10" t="s">
+        <v>3857.891666666667</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>1320</v>
+      </c>
+      <c r="G10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>22</v>
-      </c>
-      <c r="F10">
-        <v>34277</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1210,25 +1204,25 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2404895</v>
+        <v>2966206</v>
       </c>
       <c r="C11">
-        <v>73.84226848440187</v>
+        <v>1650.643294379521</v>
       </c>
       <c r="D11">
         <v>999</v>
       </c>
       <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>1797</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
         <v>24</v>
-      </c>
-      <c r="F11">
-        <v>32568</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1236,22 +1230,22 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1749065</v>
+        <v>6386369</v>
       </c>
       <c r="C12">
-        <v>193.1601325234677</v>
-      </c>
-      <c r="D12">
-        <v>999</v>
+        <v>258.3378099591441</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
       <c r="F12">
-        <v>9055</v>
+        <v>24721</v>
       </c>
       <c r="G12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
         <v>27</v>
@@ -1262,22 +1256,22 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>4907255</v>
+        <v>4876227</v>
       </c>
       <c r="C13">
-        <v>1351.116464757709</v>
+        <v>7993.814754098361</v>
       </c>
       <c r="D13">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="F13">
-        <v>3632</v>
+        <v>610</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -1288,22 +1282,22 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1156371</v>
+        <v>2238469</v>
       </c>
       <c r="C14">
-        <v>41.65151460577027</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>1050.431252932895</v>
+      </c>
+      <c r="D14">
+        <v>999</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
       <c r="F14">
-        <v>27763</v>
+        <v>2131</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
         <v>31</v>
@@ -1314,22 +1308,22 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>4588469</v>
+        <v>17987865</v>
       </c>
       <c r="C15">
-        <v>970.6936746350751</v>
+        <v>717.7346181469954</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>999</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
       <c r="F15">
-        <v>4727</v>
+        <v>25062</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
         <v>33</v>
@@ -1340,22 +1334,22 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>3697349</v>
+        <v>479002</v>
       </c>
       <c r="C16">
-        <v>220.6055489260143</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>489.2768130745659</v>
+      </c>
+      <c r="D16">
+        <v>999</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
       </c>
       <c r="F16">
-        <v>16760</v>
+        <v>979</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
@@ -1366,22 +1360,22 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>351978</v>
+        <v>4781244</v>
       </c>
       <c r="C17">
-        <v>18.10679561705849</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
+        <v>8805.237569060773</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
       </c>
       <c r="F17">
-        <v>19439</v>
+        <v>543</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
         <v>37</v>
@@ -1392,22 +1386,22 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>573201</v>
+        <v>1051299</v>
       </c>
       <c r="C18">
-        <v>42.83693296465137</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
+        <v>106.5361775435752</v>
+      </c>
+      <c r="D18">
+        <v>999</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
       </c>
       <c r="F18">
-        <v>13381</v>
+        <v>9868</v>
       </c>
       <c r="G18" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
         <v>39</v>
@@ -1418,22 +1412,22 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>437648</v>
+        <v>2580904</v>
       </c>
       <c r="C19">
-        <v>31.47867366755376</v>
-      </c>
-      <c r="D19">
-        <v>999</v>
+        <v>103.5800457518963</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19">
-        <v>13903</v>
+        <v>24917</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H19" t="s">
         <v>41</v>
@@ -1444,22 +1438,22 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>684012</v>
+        <v>2283089</v>
       </c>
       <c r="C20">
-        <v>283.9402241594022</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
+        <v>1779.492595479345</v>
+      </c>
+      <c r="D20">
+        <v>999</v>
       </c>
       <c r="E20" t="s">
         <v>42</v>
       </c>
       <c r="F20">
-        <v>2409</v>
+        <v>1283</v>
       </c>
       <c r="G20" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
@@ -1470,22 +1464,22 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>4916238</v>
+        <v>1497017</v>
       </c>
       <c r="C21">
-        <v>1321.214189733942</v>
+        <v>1595.966950959488</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
         <v>44</v>
       </c>
       <c r="F21">
-        <v>3721</v>
+        <v>938</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
         <v>45</v>
@@ -1496,22 +1490,22 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>4059465</v>
+        <v>4941376</v>
       </c>
       <c r="C22">
-        <v>177.3234176385795</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
+        <v>6115.564356435643</v>
+      </c>
+      <c r="D22">
+        <v>999</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
       </c>
       <c r="F22">
-        <v>22893</v>
+        <v>808</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
         <v>47</v>
@@ -1522,22 +1516,22 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>4608785</v>
+        <v>7156373</v>
       </c>
       <c r="C23">
-        <v>128.9783953208519</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
+        <v>216.9781395912922</v>
+      </c>
+      <c r="D23">
+        <v>999</v>
       </c>
       <c r="E23" t="s">
         <v>48</v>
       </c>
       <c r="F23">
-        <v>35733</v>
+        <v>32982</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
         <v>49</v>
@@ -1548,10 +1542,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>4891556</v>
+        <v>579872</v>
       </c>
       <c r="C24">
-        <v>145.9948067452619</v>
+        <v>607.832285115304</v>
       </c>
       <c r="D24">
         <v>999</v>
@@ -1560,10 +1554,10 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>33505</v>
+        <v>954</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>51</v>
@@ -1574,22 +1568,22 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1530006</v>
+        <v>14900754</v>
       </c>
       <c r="C25">
-        <v>56.52035463612856</v>
+        <v>4045.819712191148</v>
       </c>
       <c r="D25">
-        <v>52</v>
+        <v>999</v>
       </c>
       <c r="E25" t="s">
         <v>52</v>
       </c>
       <c r="F25">
-        <v>27070</v>
+        <v>3683</v>
       </c>
       <c r="G25" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H25" t="s">
         <v>53</v>
@@ -1600,22 +1594,22 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>3134958</v>
+        <v>4436197</v>
       </c>
       <c r="C26">
-        <v>218.9828164291702</v>
+        <v>5814.150720838794</v>
       </c>
       <c r="D26">
-        <v>999</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
         <v>54</v>
       </c>
       <c r="F26">
-        <v>14316</v>
+        <v>763</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H26" t="s">
         <v>55</v>
@@ -1626,22 +1620,22 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>4490541</v>
+        <v>4133154</v>
       </c>
       <c r="C27">
-        <v>292.7150120591878</v>
+        <v>2213.794322442421</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
       </c>
       <c r="F27">
-        <v>15341</v>
+        <v>1867</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H27" t="s">
         <v>57</v>
@@ -1652,10 +1646,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>231306</v>
+        <v>7783559</v>
       </c>
       <c r="C28">
-        <v>7.223120881866159</v>
+        <v>314.6779462300384</v>
       </c>
       <c r="D28">
         <v>999</v>
@@ -1664,10 +1658,10 @@
         <v>58</v>
       </c>
       <c r="F28">
-        <v>32023</v>
+        <v>24735</v>
       </c>
       <c r="G28" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H28" t="s">
         <v>59</v>
@@ -1678,22 +1672,22 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2175486</v>
+        <v>1592012</v>
       </c>
       <c r="C29">
-        <v>61.90734469707749</v>
+        <v>101.9409617724275</v>
       </c>
       <c r="D29">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
         <v>60</v>
       </c>
       <c r="F29">
-        <v>35141</v>
+        <v>15617</v>
       </c>
       <c r="G29" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H29" t="s">
         <v>61</v>
@@ -1704,22 +1698,22 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2973782</v>
+        <v>9384417</v>
       </c>
       <c r="C30">
-        <v>98.21268866210906</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
+        <v>408.5510230735742</v>
+      </c>
+      <c r="D30">
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>62</v>
       </c>
       <c r="F30">
-        <v>30279</v>
+        <v>22970</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H30" t="s">
         <v>63</v>
@@ -1730,10 +1724,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1401712</v>
+        <v>2499870</v>
       </c>
       <c r="C31">
-        <v>118.2779512277445</v>
+        <v>2297.674632352941</v>
       </c>
       <c r="D31">
         <v>999</v>
@@ -1742,10 +1736,10 @@
         <v>64</v>
       </c>
       <c r="F31">
-        <v>11851</v>
+        <v>1088</v>
       </c>
       <c r="G31" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H31" t="s">
         <v>65</v>
@@ -1756,19 +1750,19 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>4670935</v>
+        <v>576296</v>
       </c>
       <c r="C32">
-        <v>361.4435502592277</v>
+        <v>638.2015503875969</v>
       </c>
       <c r="D32">
-        <v>999</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
         <v>66</v>
       </c>
       <c r="F32">
-        <v>12923</v>
+        <v>903</v>
       </c>
       <c r="G32" t="s">
         <v>1</v>
@@ -1782,22 +1776,22 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>4288216</v>
+        <v>511806</v>
       </c>
       <c r="C33">
-        <v>225.9810286677909</v>
-      </c>
-      <c r="D33">
-        <v>999</v>
+        <v>430.8131313131313</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
       </c>
       <c r="E33" t="s">
         <v>68</v>
       </c>
       <c r="F33">
-        <v>18976</v>
+        <v>1188</v>
       </c>
       <c r="G33" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>69</v>
@@ -1808,22 +1802,22 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>3640725</v>
+        <v>19870667</v>
       </c>
       <c r="C34">
-        <v>96.66069295101553</v>
+        <v>1388.1010827803</v>
       </c>
       <c r="D34">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
         <v>70</v>
       </c>
       <c r="F34">
-        <v>37665</v>
+        <v>14315</v>
       </c>
       <c r="G34" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H34" t="s">
         <v>71</v>
@@ -1834,22 +1828,22 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>3086387</v>
+        <v>1354051</v>
       </c>
       <c r="C35">
-        <v>528.853152844414</v>
-      </c>
-      <c r="D35">
-        <v>999</v>
+        <v>650.6732340221048</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
       </c>
       <c r="E35" t="s">
         <v>72</v>
       </c>
       <c r="F35">
-        <v>5836</v>
+        <v>2081</v>
       </c>
       <c r="G35" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H35" t="s">
         <v>73</v>
@@ -1860,22 +1854,22 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>3281410</v>
+        <v>12894710</v>
       </c>
       <c r="C36">
-        <v>94.03398670334708</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
+        <v>422.749655760278</v>
+      </c>
+      <c r="D36">
+        <v>36</v>
       </c>
       <c r="E36" t="s">
         <v>74</v>
       </c>
       <c r="F36">
-        <v>34896</v>
+        <v>30502</v>
       </c>
       <c r="G36" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H36" t="s">
         <v>75</v>
@@ -1886,19 +1880,19 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>4684166</v>
+        <v>528007</v>
       </c>
       <c r="C37">
-        <v>487.8323265986253</v>
-      </c>
-      <c r="D37">
-        <v>999</v>
+        <v>729.2914364640884</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
       </c>
       <c r="E37" t="s">
         <v>76</v>
       </c>
       <c r="F37">
-        <v>9602</v>
+        <v>724</v>
       </c>
       <c r="G37" t="s">
         <v>1</v>
@@ -1912,25 +1906,25 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>777899</v>
+        <v>2071106</v>
       </c>
       <c r="C38">
-        <v>42.64797149122807</v>
+        <v>1099.313163481953</v>
       </c>
       <c r="D38">
-        <v>999</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
         <v>78</v>
       </c>
       <c r="F38">
-        <v>18240</v>
+        <v>1884</v>
       </c>
       <c r="G38" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1938,25 +1932,25 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2917188</v>
+        <v>479672</v>
       </c>
       <c r="C39">
-        <v>3838.405263157895</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
+        <v>556.4640371229698</v>
+      </c>
+      <c r="D39">
+        <v>999</v>
       </c>
       <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39">
+        <v>862</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
         <v>80</v>
-      </c>
-      <c r="F39">
-        <v>760</v>
-      </c>
-      <c r="G39" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1964,25 +1958,25 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2211130</v>
+        <v>387278</v>
       </c>
       <c r="C40">
-        <v>90.48287432990956</v>
+        <v>382.3079960513327</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40">
+        <v>1013</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
         <v>82</v>
-      </c>
-      <c r="F40">
-        <v>24437</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1990,25 +1984,25 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1567912</v>
+        <v>568457</v>
       </c>
       <c r="C41">
-        <v>153.8073376495978</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
+        <v>740.1783854166666</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
       </c>
       <c r="E41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41">
+        <v>768</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
         <v>84</v>
-      </c>
-      <c r="F41">
-        <v>10194</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2016,25 +2010,25 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>4622292</v>
+        <v>429838</v>
       </c>
       <c r="C42">
-        <v>664.5998562185478</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
+        <v>491.8054919908467</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
       </c>
       <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42">
+        <v>874</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
         <v>86</v>
-      </c>
-      <c r="F42">
-        <v>6955</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2042,25 +2036,25 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1106666</v>
+        <v>15890240</v>
       </c>
       <c r="C43">
-        <v>28.73785348879483</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
+        <v>1132.832394667427</v>
+      </c>
+      <c r="D43">
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F43">
-        <v>38509</v>
+        <v>14027</v>
       </c>
       <c r="G43" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H43" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2068,25 +2062,25 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>405005</v>
+        <v>5379006</v>
       </c>
       <c r="C44">
-        <v>11.11124828532236</v>
+        <v>2769.828012358394</v>
       </c>
       <c r="D44">
-        <v>999</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F44">
-        <v>36450</v>
+        <v>1942</v>
       </c>
       <c r="G44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2094,25 +2088,25 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>535969</v>
+        <v>343847</v>
       </c>
       <c r="C45">
-        <v>22.03638681029521</v>
-      </c>
-      <c r="D45">
-        <v>999</v>
+        <v>451.242782152231</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F45">
-        <v>24322</v>
+        <v>762</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2120,25 +2114,25 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1312392</v>
+        <v>10768172</v>
       </c>
       <c r="C46">
-        <v>35.428879950328</v>
+        <v>400.6463518993936</v>
       </c>
       <c r="D46">
-        <v>96</v>
+        <v>999</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F46">
-        <v>37043</v>
+        <v>26877</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2146,25 +2140,25 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>895644</v>
+        <v>2080109</v>
       </c>
       <c r="C47">
-        <v>112.673795445968</v>
+        <v>1410.243389830508</v>
       </c>
       <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47">
+        <v>1475</v>
+      </c>
+      <c r="G47" t="s">
         <v>6</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>95</v>
-      </c>
-      <c r="F47">
-        <v>7949</v>
-      </c>
-      <c r="G47" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2172,25 +2166,25 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2722443</v>
+        <v>2296921</v>
       </c>
       <c r="C48">
-        <v>168.1558369363805</v>
-      </c>
-      <c r="D48">
-        <v>999</v>
+        <v>956.2535387177352</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
       </c>
       <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48">
+        <v>2402</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" t="s">
         <v>97</v>
-      </c>
-      <c r="F48">
-        <v>16190</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2198,25 +2192,25 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>390330</v>
+        <v>599006</v>
       </c>
       <c r="C49">
-        <v>200.3747433264887</v>
+        <v>568.3168880455408</v>
       </c>
       <c r="D49">
         <v>999</v>
       </c>
       <c r="E49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49">
+        <v>1054</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
         <v>99</v>
-      </c>
-      <c r="F49">
-        <v>1948</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2224,25 +2218,25 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>915266</v>
+        <v>3347924</v>
       </c>
       <c r="C50">
-        <v>188.6757369614512</v>
-      </c>
-      <c r="D50">
-        <v>999</v>
+        <v>2926.506993006993</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F50">
-        <v>4851</v>
+        <v>1144</v>
       </c>
       <c r="G50" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2250,25 +2244,25 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>771723</v>
+        <v>2081145</v>
       </c>
       <c r="C51">
-        <v>26.4288698630137</v>
-      </c>
-      <c r="D51">
-        <v>999</v>
+        <v>2400.397923875433</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F51">
-        <v>29200</v>
+        <v>867</v>
       </c>
       <c r="G51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2276,25 +2270,25 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>3014156</v>
+        <v>501009</v>
       </c>
       <c r="C52">
-        <v>340.4287327761464</v>
-      </c>
-      <c r="D52">
-        <v>48</v>
+        <v>505.5590312815338</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F52">
-        <v>8854</v>
+        <v>991</v>
       </c>
       <c r="G52" t="s">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2302,25 +2296,25 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>3618957</v>
+        <v>1214104</v>
       </c>
       <c r="C53">
-        <v>97.40161485668148</v>
+        <v>777.7732222934017</v>
       </c>
       <c r="D53">
         <v>999</v>
       </c>
       <c r="E53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F53">
-        <v>37155</v>
+        <v>1561</v>
       </c>
       <c r="G53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2328,25 +2322,25 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>2704595</v>
+        <v>482282</v>
       </c>
       <c r="C54">
-        <v>435.2421950434503</v>
+        <v>447.8012999071495</v>
       </c>
       <c r="D54">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F54">
-        <v>6214</v>
+        <v>1077</v>
       </c>
       <c r="G54" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2354,25 +2348,25 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>4908085</v>
+        <v>338261</v>
       </c>
       <c r="C55">
-        <v>127.4496234744222</v>
+        <v>362.5519828510182</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F55">
-        <v>38510</v>
+        <v>933</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2380,25 +2374,25 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3688725</v>
+        <v>7336069</v>
       </c>
       <c r="C56">
-        <v>154.5145143048632</v>
+        <v>1443.255754475703</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>23873</v>
+        <v>5083</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H56" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2406,25 +2400,25 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>739165</v>
+        <v>5305637</v>
       </c>
       <c r="C57">
-        <v>57.50914183459115</v>
+        <v>4754.155017921147</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F57">
-        <v>12853</v>
+        <v>1116</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2432,25 +2426,25 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>2958469</v>
+        <v>490743</v>
       </c>
       <c r="C58">
-        <v>113.0437889266746</v>
+        <v>435.4418811002662</v>
       </c>
       <c r="D58">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F58">
-        <v>26171</v>
+        <v>1127</v>
       </c>
       <c r="G58" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2458,25 +2452,25 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>4690912</v>
+        <v>8407699</v>
       </c>
       <c r="C59">
-        <v>614.1544907043728</v>
+        <v>245.365639409327</v>
       </c>
       <c r="D59">
-        <v>999</v>
+        <v>34</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F59">
-        <v>7638</v>
+        <v>34266</v>
       </c>
       <c r="G59" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H59" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2484,25 +2478,25 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1419018</v>
+        <v>10066845</v>
       </c>
       <c r="C60">
-        <v>73.52043935547381</v>
+        <v>501.4867490285942</v>
       </c>
       <c r="D60">
-        <v>74</v>
+        <v>999</v>
       </c>
       <c r="E60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F60">
-        <v>19301</v>
+        <v>20074</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H60" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2510,25 +2504,25 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>4454005</v>
+        <v>396725</v>
       </c>
       <c r="C61">
-        <v>2228.11655827914</v>
+        <v>442.7734375</v>
       </c>
       <c r="D61">
         <v>999</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F61">
-        <v>1999</v>
+        <v>896</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2536,25 +2530,25 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>1481273</v>
+        <v>8064786</v>
       </c>
       <c r="C62">
-        <v>69.85818713450293</v>
-      </c>
-      <c r="D62">
-        <v>999</v>
+        <v>315.9316018333529</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F62">
-        <v>21204</v>
+        <v>25527</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2562,25 +2556,25 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>930336</v>
+        <v>4957445</v>
       </c>
       <c r="C63">
-        <v>26.52872907696256</v>
-      </c>
-      <c r="D63" t="s">
+        <v>3115.930232558139</v>
+      </c>
+      <c r="D63">
+        <v>999</v>
+      </c>
+      <c r="E63" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63">
+        <v>1591</v>
+      </c>
+      <c r="G63" t="s">
         <v>6</v>
       </c>
-      <c r="E63" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63">
-        <v>35069</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
       <c r="H63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2588,25 +2582,25 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1908035</v>
+        <v>487561</v>
       </c>
       <c r="C64">
-        <v>57.62889244616267</v>
+        <v>518.681914893617</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64">
-        <v>33109</v>
+        <v>940</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2614,25 +2608,25 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>939693</v>
+        <v>503379</v>
       </c>
       <c r="C65">
-        <v>115.1725701679127</v>
-      </c>
-      <c r="D65">
-        <v>999</v>
+        <v>484.9508670520231</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65">
-        <v>8159</v>
+        <v>1038</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2640,25 +2634,25 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>1917028</v>
+        <v>520964</v>
       </c>
       <c r="C66">
-        <v>135.3642140940545</v>
-      </c>
-      <c r="D66">
-        <v>7</v>
+        <v>450.6608996539792</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66">
-        <v>14162</v>
+        <v>1156</v>
       </c>
       <c r="G66" t="s">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2666,25 +2660,25 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>2645609</v>
+        <v>10117620</v>
       </c>
       <c r="C67">
-        <v>159.2780854906683</v>
+        <v>310.261269549218</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67">
-        <v>16610</v>
+        <v>32610</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2692,25 +2686,25 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>363455</v>
+        <v>520203</v>
       </c>
       <c r="C68">
-        <v>9.870325611710072</v>
+        <v>716.5330578512396</v>
       </c>
       <c r="D68">
-        <v>999</v>
+        <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68">
-        <v>36823</v>
+        <v>726</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2718,25 +2712,25 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>914487</v>
+        <v>420656</v>
       </c>
       <c r="C69">
-        <v>37.66731196968449</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
+        <v>411.600782778865</v>
+      </c>
+      <c r="D69">
+        <v>99</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69">
-        <v>24278</v>
+        <v>1022</v>
       </c>
       <c r="G69" t="s">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2744,25 +2738,25 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>4004819</v>
+        <v>1654461</v>
       </c>
       <c r="C70">
-        <v>461.9168396770473</v>
-      </c>
-      <c r="D70" t="s">
-        <v>6</v>
+        <v>248.2312078019505</v>
+      </c>
+      <c r="D70">
+        <v>999</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70">
-        <v>8670</v>
+        <v>6665</v>
       </c>
       <c r="G70" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2770,25 +2764,25 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>612675</v>
+        <v>477831</v>
       </c>
       <c r="C71">
-        <v>20.5609436874958</v>
+        <v>463.9135922330097</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71">
-        <v>29798</v>
+        <v>1030</v>
       </c>
       <c r="G71" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2796,25 +2790,25 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>1370382</v>
+        <v>407861</v>
       </c>
       <c r="C72">
-        <v>414.1378059836809</v>
-      </c>
-      <c r="D72">
-        <v>84</v>
+        <v>479.8364705882353</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72">
-        <v>3309</v>
+        <v>850</v>
       </c>
       <c r="G72" t="s">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2822,25 +2816,25 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>1151048</v>
+        <v>5638322</v>
       </c>
       <c r="C73">
-        <v>162.0509643812474</v>
+        <v>263.3253315897628</v>
       </c>
       <c r="D73">
-        <v>17</v>
+        <v>999</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73">
-        <v>7103</v>
+        <v>21412</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H73" t="s">
-        <v>146</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2848,25 +2842,25 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>2887401</v>
+        <v>509720</v>
       </c>
       <c r="C74">
-        <v>375.2795684949311</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
+        <v>570.1565995525727</v>
+      </c>
+      <c r="D74">
+        <v>999</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F74">
-        <v>7694</v>
+        <v>894</v>
       </c>
       <c r="G74" t="s">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2874,25 +2868,25 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>1296547</v>
+        <v>347895</v>
       </c>
       <c r="C75">
-        <v>93.6879109762266</v>
-      </c>
-      <c r="D75">
-        <v>999</v>
+        <v>322.7226345083488</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F75">
-        <v>13839</v>
+        <v>1078</v>
       </c>
       <c r="G75" t="s">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2900,25 +2894,25 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>2582570</v>
+        <v>370519</v>
       </c>
       <c r="C76">
-        <v>75.52257573985261</v>
-      </c>
-      <c r="D76">
-        <v>82</v>
+        <v>352.8752380952381</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F76">
-        <v>34196</v>
+        <v>1050</v>
       </c>
       <c r="G76" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2926,25 +2920,25 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>4842535</v>
+        <v>421997</v>
       </c>
       <c r="C77">
-        <v>131.2944988205949</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
+        <v>353.7275775356244</v>
+      </c>
+      <c r="D77">
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F77">
-        <v>36883</v>
+        <v>1193</v>
       </c>
       <c r="G77" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2952,25 +2946,25 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>4172813</v>
+        <v>18219514</v>
       </c>
       <c r="C78">
-        <v>382.5110459253827</v>
+        <v>962.2643920988697</v>
       </c>
       <c r="D78" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F78">
-        <v>10909</v>
+        <v>18934</v>
       </c>
       <c r="G78" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2978,25 +2972,25 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>2472835</v>
+        <v>468563</v>
       </c>
       <c r="C79">
-        <v>143.3195201112785</v>
-      </c>
-      <c r="D79" t="s">
-        <v>6</v>
+        <v>555.8279952550415</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F79">
-        <v>17254</v>
+        <v>843</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3004,25 +2998,25 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>2404170</v>
+        <v>327415</v>
       </c>
       <c r="C80">
-        <v>89.49078726968175</v>
+        <v>456.0097493036212</v>
       </c>
       <c r="D80">
         <v>999</v>
       </c>
       <c r="E80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F80">
-        <v>26865</v>
+        <v>718</v>
       </c>
       <c r="G80" t="s">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3030,25 +3024,25 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>3800696</v>
+        <v>457143</v>
       </c>
       <c r="C81">
-        <v>205.4763475158134</v>
+        <v>467.4263803680981</v>
       </c>
       <c r="D81">
-        <v>999</v>
+        <v>71</v>
       </c>
       <c r="E81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F81">
-        <v>18497</v>
+        <v>978</v>
       </c>
       <c r="G81" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3056,25 +3050,25 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>1173206</v>
+        <v>1023167</v>
       </c>
       <c r="C82">
-        <v>60.07506784781607</v>
+        <v>430.9886267902274</v>
       </c>
       <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82">
+        <v>2374</v>
+      </c>
+      <c r="G82" t="s">
         <v>6</v>
       </c>
-      <c r="E82" t="s">
-        <v>162</v>
-      </c>
-      <c r="F82">
-        <v>19529</v>
-      </c>
-      <c r="G82" t="s">
-        <v>4</v>
-      </c>
       <c r="H82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3082,25 +3076,25 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>1404706</v>
+        <v>542333</v>
       </c>
       <c r="C83">
-        <v>42.84991763772802</v>
-      </c>
-      <c r="D83" t="s">
-        <v>6</v>
+        <v>639.5436320754717</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F83">
-        <v>32782</v>
+        <v>848</v>
       </c>
       <c r="G83" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3108,25 +3102,25 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>2075373</v>
+        <v>450558</v>
       </c>
       <c r="C84">
-        <v>183.8891547049442</v>
-      </c>
-      <c r="D84" t="s">
-        <v>6</v>
+        <v>446.5391476709614</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F84">
-        <v>11286</v>
+        <v>1009</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3134,25 +3128,25 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>3090926</v>
+        <v>446677</v>
       </c>
       <c r="C85">
-        <v>83.99027200347817</v>
+        <v>514.0126582278481</v>
       </c>
       <c r="D85">
-        <v>999</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F85">
-        <v>36801</v>
+        <v>869</v>
       </c>
       <c r="G85" t="s">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3160,25 +3154,25 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>607888</v>
+        <v>3113731</v>
       </c>
       <c r="C86">
-        <v>25.77872015605784</v>
-      </c>
-      <c r="D86">
-        <v>999</v>
+        <v>3206.72605561277</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F86">
-        <v>23581</v>
+        <v>971</v>
       </c>
       <c r="G86" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3186,25 +3180,25 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>2156883</v>
+        <v>304877</v>
       </c>
       <c r="C87">
-        <v>402.8545013074337</v>
+        <v>372.2551892551892</v>
       </c>
       <c r="D87">
-        <v>999</v>
+        <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F87">
-        <v>5354</v>
+        <v>819</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3212,25 +3206,25 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1142010</v>
+        <v>1047624</v>
       </c>
       <c r="C88">
-        <v>100.2026849170834</v>
+        <v>540.8487351574599</v>
       </c>
       <c r="D88">
         <v>999</v>
       </c>
       <c r="E88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F88">
-        <v>11397</v>
+        <v>1937</v>
       </c>
       <c r="G88" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3238,25 +3232,25 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>4200337</v>
+        <v>7742945</v>
       </c>
       <c r="C89">
-        <v>414.4796723899743</v>
+        <v>489.8118041497976</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F89">
-        <v>10134</v>
+        <v>15808</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H89" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3264,25 +3258,25 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>1388025</v>
+        <v>5818350</v>
       </c>
       <c r="C90">
-        <v>60.546346782988</v>
+        <v>2681.267281105991</v>
       </c>
       <c r="D90">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90">
-        <v>22925</v>
+        <v>2170</v>
       </c>
       <c r="G90" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3290,25 +3284,25 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2566600</v>
+        <v>398213</v>
       </c>
       <c r="C91">
-        <v>81.83267440377503</v>
+        <v>505.3464467005076</v>
       </c>
       <c r="D91">
         <v>999</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91">
-        <v>31364</v>
+        <v>788</v>
       </c>
       <c r="G91" t="s">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3316,25 +3310,25 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>2199435</v>
+        <v>3587951</v>
       </c>
       <c r="C92">
-        <v>76.74232379623169</v>
+        <v>4296.947305389222</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92">
-        <v>28660</v>
+        <v>835</v>
       </c>
       <c r="G92" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3342,25 +3336,25 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>3743437</v>
+        <v>12904533</v>
       </c>
       <c r="C93">
-        <v>103.6819554078382</v>
+        <v>509.5771994945506</v>
       </c>
       <c r="D93">
-        <v>999</v>
+        <v>15</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93">
-        <v>36105</v>
+        <v>25324</v>
       </c>
       <c r="G93" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3368,25 +3362,25 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>2632600</v>
+        <v>1410348</v>
       </c>
       <c r="C94">
-        <v>754.1105700372386</v>
+        <v>51.0847580411475</v>
       </c>
       <c r="D94">
         <v>999</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94">
-        <v>3491</v>
+        <v>27608</v>
       </c>
       <c r="G94" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3394,25 +3388,25 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>4660144</v>
+        <v>4286053</v>
       </c>
       <c r="C95">
-        <v>127.8783820866034</v>
+        <v>2486.109628770302</v>
       </c>
       <c r="D95">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95">
-        <v>36442</v>
+        <v>1724</v>
       </c>
       <c r="G95" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3420,25 +3414,25 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>4221162</v>
+        <v>5274618</v>
       </c>
       <c r="C96">
-        <v>384.7212905577834</v>
-      </c>
-      <c r="D96" t="s">
+        <v>2901.3300330033</v>
+      </c>
+      <c r="D96">
+        <v>50</v>
+      </c>
+      <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96">
+        <v>1818</v>
+      </c>
+      <c r="G96" t="s">
         <v>6</v>
       </c>
-      <c r="E96" t="s">
-        <v>189</v>
-      </c>
-      <c r="F96">
-        <v>10972</v>
-      </c>
-      <c r="G96" t="s">
-        <v>16</v>
-      </c>
       <c r="H96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3446,25 +3440,25 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3884133</v>
+        <v>10023155</v>
       </c>
       <c r="C97">
-        <v>101.0125091022574</v>
-      </c>
-      <c r="D97">
-        <v>999</v>
+        <v>293.7016145573886</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97">
-        <v>38452</v>
+        <v>34127</v>
       </c>
       <c r="G97" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3472,25 +3466,25 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>1662481</v>
+        <v>1899866</v>
       </c>
       <c r="C98">
-        <v>68.71175862781567</v>
+        <v>766.075</v>
       </c>
       <c r="D98">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98">
-        <v>24195</v>
+        <v>2480</v>
       </c>
       <c r="G98" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H98" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3498,25 +3492,25 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>1374182</v>
+        <v>3784028</v>
       </c>
       <c r="C99">
-        <v>1201.208041958042</v>
+        <v>2991.326482213439</v>
       </c>
       <c r="D99">
         <v>999</v>
       </c>
       <c r="E99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F99">
-        <v>1144</v>
+        <v>1265</v>
       </c>
       <c r="G99" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3524,25 +3518,25 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>3390256</v>
+        <v>3906766</v>
       </c>
       <c r="C100">
-        <v>223.1753011651636</v>
+        <v>1890.980638915779</v>
       </c>
       <c r="D100">
-        <v>999</v>
+        <v>38</v>
       </c>
       <c r="E100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F100">
-        <v>15191</v>
+        <v>2066</v>
       </c>
       <c r="G100" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
